--- a/results_test.xlsx
+++ b/results_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>seed</t>
   </si>
@@ -22,6 +22,9 @@
     <t>branching_strategy</t>
   </si>
   <si>
+    <t>search_strategy</t>
+  </si>
+  <si>
     <t>learn_type</t>
   </si>
   <si>
@@ -391,13 +394,16 @@
     <t>sp</t>
   </si>
   <si>
+    <t>bfs</t>
+  </si>
+  <si>
     <t>sigmoid</t>
   </si>
   <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>{1: 1}</t>
+    <t>[7, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>{1: 10}</t>
   </si>
   <si>
     <t>[1, 5, 6, 7, 8, 10, 12, 13, 14, 17, 18, 19, 27, 32, 33, 34, 35, 42, 44, 45, 46, 48, 49, 51, 52, 54, 55, 56, 57, 58, 61, 64, 68, 69, 72, 74, 76, 80]</t>
@@ -433,49 +439,49 @@
     <t>{1: 18, 5: 18, 6: 12, 7: 18, 8: 14, 10: 6, 12: 4, 13: 12, 14: 9, 17: 11, 18: 13, 19: 9, 27: 9, 32: 5, 33: 7, 34: 3, 35: 7, 42: 14, 44: 7, 45: 2, 46: 5, 48: 10, 49: 7, 51: 4, 52: 4, 54: 9, 55: 4, 56: 11, 57: 11, 58: 3, 61: 9, 64: 9, 68: 4, 69: 6, 72: 6, 74: 7, 76: 10, 80: 10}</t>
   </si>
   <si>
-    <t>{(11, 1, 1): 0, (11, 1, 2): 0, (11, 1, 3): 0, (11, 1, 4): 0, (11, 1, 5): 0, (11, 1, 6): 0, (11, 1, 7): 0, (11, 1, 8): 0, (11, 1, 9): 0, (11, 1, 10): 0, (11, 1, 11): 0, (11, 1, 12): 0, (11, 1, 13): 0, (11, 1, 14): 0, (11, 1, 15): 0, (11, 1, 16): 0, (11, 1, 17): 0, (11, 1, 18): 0, (11, 1, 19): 0, (11, 1, 20): 0, (11, 1, 21): 0, (11, 1, 22): 0, (11, 1, 23): 0, (11, 1, 24): 0, (11, 1, 25): 0, (11, 1, 26): 0, (11, 1, 27): 0, (11, 1, 28): 0, (11, 1, 29): 0, (11, 1, 30): 0, (11, 1, 31): 0, (11, 1, 32): 0, (11, 1, 33): 0, (11, 1, 34): 0, (11, 1, 35): 0, (11, 1, 36): 0, (11, 1, 37): 0, (11, 1, 38): 0, (11, 1, 39): 0, (11, 1, 40): 0, (11, 1, 41): 0, (11, 1, 42): 0, (11, 2, 1): 0, (11, 2, 2): 0, (11, 2, 3): 0, (11, 2, 4): 0, (11, 2, 5): 1, (11, 2, 6): 1, (11, 2, 7): 1, (11, 2, 8): 0, (11, 2, 9): 1, (11, 2, 10): 1, (11, 2, 11): 0, (11, 2, 12): 0, (11, 2, 13): 0, (11, 2, 14): 0, (11, 2, 15): 0, (11, 2, 16): 0, (11, 2, 17): 0, (11, 2, 18): 0, (11, 2, 19): 0, (11, 2, 20): 0, (11, 2, 21): 0, (11, 2, 22): 0, (11, 2, 23): 0, (11, 2, 24): 0, (11, 2, 25): 0, (11, 2, 26): 0, (11, 2, 27): 0, (11, 2, 28): 0, (11, 2, 29): 0, (11, 2, 30): 0, (11, 2, 31): 0, (11, 2, 32): 0, (11, 2, 33): 0, (11, 2, 34): 0, (11, 2, 35): 0, (11, 2, 36): 0, (11, 2, 37): 0, (11, 2, 38): 0, (11, 2, 39): 0, (11, 2, 40): 0, (11, 2, 41): 0, (11, 2, 42): 0, (11, 3, 1): 0, (11, 3, 2): 0, (11, 3, 3): 0, (11, 3, 4): 0, (11, 3, 5): 0, (11, 3, 6): 0, (11, 3, 7): 0, (11, 3, 8): 0, (11, 3, 9): 0, (11, 3, 10): 0, (11, 3, 11): 0, (11, 3, 12): 0, (11, 3, 13): 0, (11, 3, 14): 0, (11, 3, 15): 0, (11, 3, 16): 0, (11, 3, 17): 0, (11, 3, 18): 0, (11, 3, 19): 0, (11, 3, 20): 0, (11, 3, 21): 0, (11, 3, 22): 0, (11, 3, 23): 0, (11, 3, 24): 0, (11, 3, 25): 0, (11, 3, 26): 0, (11, 3, 27): 0, (11, 3, 28): 0, (11, 3, 29): 0, (11, 3, 30): 0, (11, 3, 31): 0, (11, 3, 32): 0, (11, 3, 33): 0, (11, 3, 34): 0, (11, 3, 35): 0, (11, 3, 36): 0, (11, 3, 37): 0, (11, 3, 38): 0, (11, 3, 39): 0, (11, 3, 40): 0, (11, 3, 41): 0, (11, 3, 42): 0, (29, 1, 1): 0, (29, 1, 2): 0, (29, 1, 3): 0, (29, 1, 4): 0, (29, 1, 5): 0, (29, 1, 6): 0, (29, 1, 7): 0, (29, 1, 8): 0, (29, 1, 9): 0, (29, 1, 10): 0, (29, 1, 11): 0, (29, 1, 12): 0, (29, 1, 13): 0, (29, 1, 14): 0, (29, 1, 15): 0, (29, 1, 16): 0, (29, 1, 17): 0, (29, 1, 18): 0, (29, 1, 19): 0, (29, 1, 20): 0, (29, 1, 21): 0, (29, 1, 22): 0, (29, 1, 23): 0, (29, 1, 24): 0, (29, 1, 25): 0, (29, 1, 26): 0, (29, 1, 27): 0, (29, 1, 28): 0, (29, 1, 29): 0, (29, 1, 30): 0, (29, 1, 31): 0, (29, 1, 32): 0, (29, 1, 33): 0, (29, 1, 34): 0, (29, 1, 35): 0, (29, 1, 36): 0, (29, 1, 37): 0, (29, 1, 38): 0, (29, 1, 39): 0, (29, 1, 40): 0, (29, 1, 41): 0, (29, 1, 42): 0, (29, 2, 1): 0, (29, 2, 2): 1, (29, 2, 3): 1, (29, 2, 4): 1, (29, 2, 5): 0, (29, 2, 6): 0, (29, 2, 7): 0, (29, 2, 8): 0, (29, 2, 9): 0, (29, 2, 10): 0, (29, 2, 11): 0, (29, 2, 12): 0, (29, 2, 13): 0, (29, 2, 14): 0, (29, 2, 15): 0, (29, 2, 16): 0, (29, 2, 17): 0, (29, 2, 18): 0, (29, 2, 19): 0, (29, 2, 20): 0, (29, 2, 21): 0, (29, 2, 22): 0, (29, 2, 23): 0, (29, 2, 24): 0, (29, 2, 25): 0, (29, 2, 26): 0, (29, 2, 27): 0, (29, 2, 28): 0, (29, 2, 29): 0, (29, 2, 30): 0, (29, 2, 31): 0, (29, 2, 32): 0, (29, 2, 33): 0, (29, 2, 34): 0, (29, 2, 35): 0, (29, 2, 36): 0, (29, 2, 37): 0, (29, 2, 38): 0, (29, 2, 39): 0, (29, 2, 40): 0, (29, 2, 41): 0, (29, 2, 42): 0, (29, 3, 1): 0, (29, 3, 2): 0, (29, 3, 3): 0, (29, 3, 4): 0, (29, 3, 5): 0, (29, 3, 6): 0, (29, 3, 7): 0, (29, 3, 8): 0, (29, 3, 9): 0, (29, 3, 10): 0, (29, 3, 11): 0, (29, 3, 12): 0, (29, 3, 13): 0, (29, 3, 14): 0, (29, 3, 15): 0, (29, 3, 16): 0, (29, 3, 17): 0, (29, 3, 18): 0, (29, 3, 19): 0, (29, 3, 20): 0, (29, 3, 21): 0, (29, 3, 22): 0, (29, 3, 23): 0, (29, 3, 24): 0, (29, 3, 25): 0, (29, 3, 26): 0, (29, 3, 27): 0, (29, 3, 28): 0, (29, 3, 29): 0, (29, 3, 30): 0, (29, 3, 31): 0, (29, 3, 32): 0, (29, 3, 33): 0, (29, 3, 34): 0, (29, 3, 35): 0, (29, 3, 36): 0, (29, 3, 37): 0, (29, 3, 38): 0, (29, 3, 39): 0, (29, 3, 40): 0, (29, 3, 41): 0, (29, 3, 42): 0, (47, 1, 1): 0, (47, 1, 2): 0, (47, 1, 3): 0, (47, 1, 4): 0, (47, 1, 5): 1, (47, 1, 6): 1, (47, 1, 7): 0, (47, 1, 8): 1, (47, 1, 9): 1, (47, 1, 10): 1, (47, 1, 11): 1, (47, 1, 12): 1, (47, 1, 13): 0, (47, 1, 14): 0, (47, 1, 15): 0, (47, 1, 16): 0, (47, 1, 17): 0, (47, 1, 18): 0, (47, 1, 19): 0, (47, 1, 20): 0, (47, 1, 21): 0, (47, 1, 22): 0, (47, 1, 23): 0, (47, 1, 24): 0, (47, 1, 25): 0, (47, 1, 26): 0, (47, 1, 27): 0, (47, 1, 28): 0, (47, 1, 29): 0, (47, 1, 30): 0, (47, 1, 31): 0, (47, 1, 32): 0, (47, 1, 33): 0, (47, 1, 34): 0, (47, 1, 35): 0, (47, 1, 36): 0, (47, 1, 37): 0, (47, 1, 38): 0, (47, 1, 39): 0, (47, 1, 40): 0, (47, 1, 41): 0, (47, 1, 42): 0, (47, 2, 1): 0, (47, 2, 2): 0, (47, 2, 3): 0, (47, 2, 4): 0, (47, 2, 5): 0, (47, 2, 6): 0, (47, 2, 7): 0, (47, 2, 8): 0, (47, 2, 9): 0, (47, 2, 10): 0, (47, 2, 11): 0, (47, 2, 12): 0, (47, 2, 13): 0, (47, 2, 14): 0, (47, 2, 15): 0, (47, 2, 16): 0, (47, 2, 17): 0, (47, 2, 18): 0, (47, 2, 19): 0, (47, 2, 20): 0, (47, 2, 21): 0, (47, 2, 22): 0, (47, 2, 23): 0, (47, 2, 24): 0, (47, 2, 25): 0, (47, 2, 26): 0, (47, 2, 27): 0, (47, 2, 28): 0, (47, 2, 29): 0, (47, 2, 30): 0, (47, 2, 31): 0, (47, 2, 32): 0, (47, 2, 33): 0, (47, 2, 34): 0, (47, 2, 35): 0, (47, 2, 36): 0, (47, 2, 37): 0, (47, 2, 38): 0, (47, 2, 39): 0, (47, 2, 40): 0, (47, 2, 41): 0, (47, 2, 42): 0, (47, 3, 1): 0, (47, 3, 2): 0, (47, 3, 3): 0, (47, 3, 4): 0, (47, 3, 5): 0, (47, 3, 6): 0, (47, 3, 7): 0, (47, 3, 8): 0, (47, 3, 9): 0, (47, 3, 10): 0, (47, 3, 11): 0, (47, 3, 12): 0, (47, 3, 13): 0, (47, 3, 14): 0, (47, 3, 15): 0, (47, 3, 16): 0, (47, 3, 17): 0, (47, 3, 18): 0, (47, 3, 19): 0, (47, 3, 20): 0, (47, 3, 21): 0, (47, 3, 22): 0, (47, 3, 23): 0, (47, 3, 24): 0, (47, 3, 25): 0, (47, 3, 26): 0, (47, 3, 27): 0, (47, 3, 28): 0, (47, 3, 29): 0, (47, 3, 30): 0, (47, 3, 31): 0, (47, 3, 32): 0, (47, 3, 33): 0, (47, 3, 34): 0, (47, 3, 35): 0, (47, 3, 36): 0, (47, 3, 37): 0, (47, 3, 38): 0, (47, 3, 39): 0, (47, 3, 40): 0, (47, 3, 41): 0, (47, 3, 42): 0, (53, 1, 1): 0, (53, 1, 2): 1, (53, 1, 3): 1, (53, 1, 4): 1, (53, 1, 5): 1, (53, 1, 6): 0, (53, 1, 7): 0, (53, 1, 8): 0, (53, 1, 9): 0, (53, 1, 10): 0, (53, 1, 11): 0, (53, 1, 12): 0, (53, 1, 13): 0, (53, 1, 14): 0, (53, 1, 15): 0, (53, 1, 16): 0, (53, 1, 17): 0, (53, 1, 18): 0, (53, 1, 19): 0, (53, 1, 20): 0, (53, 1, 21): 0, (53, 1, 22): 0, (53, 1, 23): 0, (53, 1, 24): 0, (53, 1, 25): 0, (53, 1, 26): 0, (53, 1, 27): 0, (53, 1, 28): 0, (53, 1, 29): 0, (53, 1, 30): 0, (53, 1, 31): 0, (53, 1, 32): 0, (53, 1, 33): 0, (53, 1, 34): 0, (53, 1, 35): 0, (53, 1, 36): 0, (53, 1, 37): 0, (53, 1, 38): 0, (53, 1, 39): 0, (53, 1, 40): 0, (53, 1, 41): 0, (53, 1, 42): 0, (53, 2, 1): 0, (53, 2, 2): 0, (53, 2, 3): 0, (53, 2, 4): 0, (53, 2, 5): 0, (53, 2, 6): 0, (53, 2, 7): 0, (53, 2, 8): 0, (53, 2, 9): 0, (53, 2, 10): 0, (53, 2, 11): 0, (53, 2, 12): 0, (53, 2, 13): 0, (53, 2, 14): 0, (53, 2, 15): 0, (53, 2, 16): 0, (53, 2, 17): 0, (53, 2, 18): 0, (53, 2, 19): 0, (53, 2, 20): 0, (53, 2, 21): 0, (53, 2, 22): 0, (53, 2, 23): 0, (53, 2, 24): 0, (53, 2, 25): 0, (53, 2, 26): 0, (53, 2, 27): 0, (53, 2, 28): 0, (53, 2, 29): 0, (53, 2, 30): 0, (53, 2, 31): 0, (53, 2, 32): 0, (53, 2, 33): 0, (53, 2, 34): 0, (53, 2, 35): 0, (53, 2, 36): 0, (53, 2, 37): 0, (53, 2, 38): 0, (53, 2, 39): 0, (53, 2, 40): 0, (53, 2, 41): 0, (53, 2, 42): 0, (53, 3, 1): 0, (53, 3, 2): 0, (53, 3, 3): 0, (53, 3, 4): 0, (53, 3, 5): 0, (53, 3, 6): 0, (53, 3, 7): 0, (53, 3, 8): 0, (53, 3, 9): 0, (53, 3, 10): 0, (53, 3, 11): 0, (53, 3, 12): 0, (53, 3, 13): 0, (53, 3, 14): 0, (53, 3, 15): 0, (53, 3, 16): 0, (53, 3, 17): 0, (53, 3, 18): 0, (53, 3, 19): 0, (53, 3, 20): 0, (53, 3, 21): 0, (53, 3, 22): 0, (53, 3, 23): 0, (53, 3, 24): 0, (53, 3, 25): 0, (53, 3, 26): 0, (53, 3, 27): 0, (53, 3, 28): 0, (53, 3, 29): 0, (53, 3, 30): 0, (53, 3, 31): 0, (53, 3, 32): 0, (53, 3, 33): 0, (53, 3, 34): 0, (53, 3, 35): 0, (53, 3, 36): 0, (53, 3, 37): 0, (53, 3, 38): 0, (53, 3, 39): 0, (53, 3, 40): 0, (53, 3, 41): 0, (53, 3, 42): 0}</t>
-  </si>
-  <si>
-    <t>{11: 6, 29: 3, 47: 8, 53: 4}</t>
+    <t>{(11, 1, 1): 0, (11, 1, 2): 0, (11, 1, 3): 0, (11, 1, 4): 0, (11, 1, 5): 0, (11, 1, 6): 0, (11, 1, 7): 0, (11, 1, 8): 0, (11, 1, 9): 0, (11, 1, 10): 0, (11, 1, 11): 0, (11, 1, 12): 0, (11, 1, 13): 0, (11, 1, 14): 0, (11, 1, 15): 0, (11, 1, 16): 0, (11, 1, 17): 0, (11, 1, 18): 0, (11, 1, 19): 0, (11, 1, 20): 0, (11, 1, 21): 0, (11, 1, 22): 0, (11, 1, 23): 0, (11, 1, 24): 0, (11, 1, 25): 0, (11, 1, 26): 0, (11, 1, 27): 0, (11, 1, 28): 0, (11, 1, 29): 0, (11, 1, 30): 0, (11, 1, 31): 0, (11, 1, 32): 0, (11, 1, 33): 0, (11, 1, 34): 0, (11, 1, 35): 0, (11, 1, 36): 0, (11, 1, 37): 0, (11, 1, 38): 0, (11, 1, 39): 0, (11, 1, 40): 0, (11, 1, 41): 0, (11, 1, 42): 0, (11, 2, 1): 0, (11, 2, 2): 0, (11, 2, 3): 0, (11, 2, 4): 0, (11, 2, 5): 1, (11, 2, 6): 1, (11, 2, 7): 1, (11, 2, 8): 0, (11, 2, 9): 1, (11, 2, 10): 1, (11, 2, 11): 0, (11, 2, 12): 0, (11, 2, 13): 0, (11, 2, 14): 0, (11, 2, 15): 0, (11, 2, 16): 0, (11, 2, 17): 0, (11, 2, 18): 0, (11, 2, 19): 0, (11, 2, 20): 0, (11, 2, 21): 0, (11, 2, 22): 0, (11, 2, 23): 0, (11, 2, 24): 0, (11, 2, 25): 0, (11, 2, 26): 0, (11, 2, 27): 0, (11, 2, 28): 0, (11, 2, 29): 0, (11, 2, 30): 0, (11, 2, 31): 0, (11, 2, 32): 0, (11, 2, 33): 0, (11, 2, 34): 0, (11, 2, 35): 0, (11, 2, 36): 0, (11, 2, 37): 0, (11, 2, 38): 0, (11, 2, 39): 0, (11, 2, 40): 0, (11, 2, 41): 0, (11, 2, 42): 0, (11, 3, 1): 0, (11, 3, 2): 0, (11, 3, 3): 0, (11, 3, 4): 0, (11, 3, 5): 0, (11, 3, 6): 0, (11, 3, 7): 0, (11, 3, 8): 0, (11, 3, 9): 0, (11, 3, 10): 0, (11, 3, 11): 0, (11, 3, 12): 0, (11, 3, 13): 0, (11, 3, 14): 0, (11, 3, 15): 0, (11, 3, 16): 0, (11, 3, 17): 0, (11, 3, 18): 0, (11, 3, 19): 0, (11, 3, 20): 0, (11, 3, 21): 0, (11, 3, 22): 0, (11, 3, 23): 0, (11, 3, 24): 0, (11, 3, 25): 0, (11, 3, 26): 0, (11, 3, 27): 0, (11, 3, 28): 0, (11, 3, 29): 0, (11, 3, 30): 0, (11, 3, 31): 0, (11, 3, 32): 0, (11, 3, 33): 0, (11, 3, 34): 0, (11, 3, 35): 0, (11, 3, 36): 0, (11, 3, 37): 0, (11, 3, 38): 0, (11, 3, 39): 0, (11, 3, 40): 0, (11, 3, 41): 0, (11, 3, 42): 0, (29, 1, 1): 0, (29, 1, 2): 0, (29, 1, 3): 0, (29, 1, 4): 0, (29, 1, 5): 0, (29, 1, 6): 0, (29, 1, 7): 0, (29, 1, 8): 0, (29, 1, 9): 0, (29, 1, 10): 0, (29, 1, 11): 0, (29, 1, 12): 0, (29, 1, 13): 0, (29, 1, 14): 0, (29, 1, 15): 0, (29, 1, 16): 0, (29, 1, 17): 0, (29, 1, 18): 0, (29, 1, 19): 0, (29, 1, 20): 0, (29, 1, 21): 0, (29, 1, 22): 0, (29, 1, 23): 0, (29, 1, 24): 0, (29, 1, 25): 0, (29, 1, 26): 0, (29, 1, 27): 0, (29, 1, 28): 0, (29, 1, 29): 0, (29, 1, 30): 0, (29, 1, 31): 0, (29, 1, 32): 0, (29, 1, 33): 0, (29, 1, 34): 0, (29, 1, 35): 0, (29, 1, 36): 0, (29, 1, 37): 0, (29, 1, 38): 0, (29, 1, 39): 0, (29, 1, 40): 0, (29, 1, 41): 0, (29, 1, 42): 0, (29, 2, 1): 0, (29, 2, 2): 1, (29, 2, 3): 1, (29, 2, 4): 1, (29, 2, 5): 0, (29, 2, 6): 0, (29, 2, 7): 0, (29, 2, 8): 0, (29, 2, 9): 0, (29, 2, 10): 0, (29, 2, 11): 0, (29, 2, 12): 0, (29, 2, 13): 0, (29, 2, 14): 0, (29, 2, 15): 0, (29, 2, 16): 0, (29, 2, 17): 0, (29, 2, 18): 0, (29, 2, 19): 0, (29, 2, 20): 0, (29, 2, 21): 0, (29, 2, 22): 0, (29, 2, 23): 0, (29, 2, 24): 0, (29, 2, 25): 0, (29, 2, 26): 0, (29, 2, 27): 0, (29, 2, 28): 0, (29, 2, 29): 0, (29, 2, 30): 0, (29, 2, 31): 0, (29, 2, 32): 0, (29, 2, 33): 0, (29, 2, 34): 0, (29, 2, 35): 0, (29, 2, 36): 0, (29, 2, 37): 0, (29, 2, 38): 0, (29, 2, 39): 0, (29, 2, 40): 0, (29, 2, 41): 0, (29, 2, 42): 0, (29, 3, 1): 0, (29, 3, 2): 0, (29, 3, 3): 0, (29, 3, 4): 0, (29, 3, 5): 0, (29, 3, 6): 0, (29, 3, 7): 0, (29, 3, 8): 0, (29, 3, 9): 0, (29, 3, 10): 0, (29, 3, 11): 0, (29, 3, 12): 0, (29, 3, 13): 0, (29, 3, 14): 0, (29, 3, 15): 0, (29, 3, 16): 0, (29, 3, 17): 0, (29, 3, 18): 0, (29, 3, 19): 0, (29, 3, 20): 0, (29, 3, 21): 0, (29, 3, 22): 0, (29, 3, 23): 0, (29, 3, 24): 0, (29, 3, 25): 0, (29, 3, 26): 0, (29, 3, 27): 0, (29, 3, 28): 0, (29, 3, 29): 0, (29, 3, 30): 0, (29, 3, 31): 0, (29, 3, 32): 0, (29, 3, 33): 0, (29, 3, 34): 0, (29, 3, 35): 0, (29, 3, 36): 0, (29, 3, 37): 0, (29, 3, 38): 0, (29, 3, 39): 0, (29, 3, 40): 0, (29, 3, 41): 0, (29, 3, 42): 0, (53, 1, 1): 0, (53, 1, 2): 1, (53, 1, 3): 1, (53, 1, 4): 1, (53, 1, 5): 1, (53, 1, 6): 0, (53, 1, 7): 0, (53, 1, 8): 0, (53, 1, 9): 0, (53, 1, 10): 0, (53, 1, 11): 0, (53, 1, 12): 0, (53, 1, 13): 0, (53, 1, 14): 0, (53, 1, 15): 0, (53, 1, 16): 0, (53, 1, 17): 0, (53, 1, 18): 0, (53, 1, 19): 0, (53, 1, 20): 0, (53, 1, 21): 0, (53, 1, 22): 0, (53, 1, 23): 0, (53, 1, 24): 0, (53, 1, 25): 0, (53, 1, 26): 0, (53, 1, 27): 0, (53, 1, 28): 0, (53, 1, 29): 0, (53, 1, 30): 0, (53, 1, 31): 0, (53, 1, 32): 0, (53, 1, 33): 0, (53, 1, 34): 0, (53, 1, 35): 0, (53, 1, 36): 0, (53, 1, 37): 0, (53, 1, 38): 0, (53, 1, 39): 0, (53, 1, 40): 0, (53, 1, 41): 0, (53, 1, 42): 0, (53, 2, 1): 0, (53, 2, 2): 0, (53, 2, 3): 0, (53, 2, 4): 0, (53, 2, 5): 0, (53, 2, 6): 0, (53, 2, 7): 0, (53, 2, 8): 0, (53, 2, 9): 0, (53, 2, 10): 0, (53, 2, 11): 0, (53, 2, 12): 0, (53, 2, 13): 0, (53, 2, 14): 0, (53, 2, 15): 0, (53, 2, 16): 0, (53, 2, 17): 0, (53, 2, 18): 0, (53, 2, 19): 0, (53, 2, 20): 0, (53, 2, 21): 0, (53, 2, 22): 0, (53, 2, 23): 0, (53, 2, 24): 0, (53, 2, 25): 0, (53, 2, 26): 0, (53, 2, 27): 0, (53, 2, 28): 0, (53, 2, 29): 0, (53, 2, 30): 0, (53, 2, 31): 0, (53, 2, 32): 0, (53, 2, 33): 0, (53, 2, 34): 0, (53, 2, 35): 0, (53, 2, 36): 0, (53, 2, 37): 0, (53, 2, 38): 0, (53, 2, 39): 0, (53, 2, 40): 0, (53, 2, 41): 0, (53, 2, 42): 0, (53, 3, 1): 0, (53, 3, 2): 0, (53, 3, 3): 0, (53, 3, 4): 0, (53, 3, 5): 0, (53, 3, 6): 0, (53, 3, 7): 0, (53, 3, 8): 0, (53, 3, 9): 0, (53, 3, 10): 0, (53, 3, 11): 0, (53, 3, 12): 0, (53, 3, 13): 0, (53, 3, 14): 0, (53, 3, 15): 0, (53, 3, 16): 0, (53, 3, 17): 0, (53, 3, 18): 0, (53, 3, 19): 0, (53, 3, 20): 0, (53, 3, 21): 0, (53, 3, 22): 0, (53, 3, 23): 0, (53, 3, 24): 0, (53, 3, 25): 0, (53, 3, 26): 0, (53, 3, 27): 0, (53, 3, 28): 0, (53, 3, 29): 0, (53, 3, 30): 0, (53, 3, 31): 0, (53, 3, 32): 0, (53, 3, 33): 0, (53, 3, 34): 0, (53, 3, 35): 0, (53, 3, 36): 0, (53, 3, 37): 0, (53, 3, 38): 0, (53, 3, 39): 0, (53, 3, 40): 0, (53, 3, 41): 0, (53, 3, 42): 0, (47, 1, 1): 0.0, (47, 1, 2): 0.0, (47, 1, 3): 0.0, (47, 1, 4): 0.0, (47, 1, 5): 0.0, (47, 1, 6): 0.0, (47, 1, 7): 0.0, (47, 1, 8): 0.0, (47, 1, 9): 0.0, (47, 1, 10): 0.0, (47, 1, 11): 0.0, (47, 1, 12): 0.0, (47, 1, 13): 0.0, (47, 1, 14): 0.0, (47, 1, 15): 0.0, (47, 1, 16): 0.0, (47, 1, 17): 0.0, (47, 1, 18): 0.0, (47, 1, 19): 0.0, (47, 1, 20): 0.0, (47, 1, 21): 0.0, (47, 1, 22): 0.0, (47, 1, 23): 0.0, (47, 1, 24): 0.0, (47, 1, 25): 0.0, (47, 1, 26): 0.0, (47, 1, 27): 0.0, (47, 1, 28): 0.0, (47, 1, 29): 0.0, (47, 1, 30): 0.0, (47, 1, 31): 0.0, (47, 1, 32): 0.0, (47, 1, 33): 0.0, (47, 1, 34): 0.0, (47, 1, 35): 0.0, (47, 1, 36): 0.0, (47, 1, 37): 0.0, (47, 1, 38): 0.0, (47, 1, 39): 0.0, (47, 1, 40): 0.0, (47, 1, 41): 0.0, (47, 1, 42): 0.0, (47, 2, 1): 0.0, (47, 2, 2): 0.0, (47, 2, 3): 0.0, (47, 2, 4): 0.0, (47, 2, 5): 0.0, (47, 2, 6): 0.0, (47, 2, 7): 0.0, (47, 2, 8): 0.0, (47, 2, 9): 0.0, (47, 2, 10): 0.0, (47, 2, 11): 0.0, (47, 2, 12): 0.0, (47, 2, 13): 0.0, (47, 2, 14): 0.0, (47, 2, 15): 0.0, (47, 2, 16): 0.0, (47, 2, 17): 0.0, (47, 2, 18): 0.0, (47, 2, 19): 0.0, (47, 2, 20): 0.0, (47, 2, 21): 0.0, (47, 2, 22): 0.0, (47, 2, 23): 0.0, (47, 2, 24): 0.0, (47, 2, 25): 0.0, (47, 2, 26): 0.0, (47, 2, 27): 0.0, (47, 2, 28): 0.0, (47, 2, 29): 0.0, (47, 2, 30): 0.0, (47, 2, 31): 0.0, (47, 2, 32): 0.0, (47, 2, 33): 0.0, (47, 2, 34): 0.0, (47, 2, 35): 0.0, (47, 2, 36): 0.0, (47, 2, 37): 0.0, (47, 2, 38): 0.0, (47, 2, 39): 0.0, (47, 2, 40): 0.0, (47, 2, 41): 0.0, (47, 2, 42): 0.0, (47, 3, 1): 0.0, (47, 3, 2): 0.0, (47, 3, 3): 0.0, (47, 3, 4): 0.0, (47, 3, 5): 1.0, (47, 3, 6): 1.0, (47, 3, 7): 0.0, (47, 3, 8): 1.0, (47, 3, 9): 0.0, (47, 3, 10): 1.0, (47, 3, 11): 1.0, (47, 3, 12): 1.0, (47, 3, 13): 0.0, (47, 3, 14): 0.0, (47, 3, 15): 0.0, (47, 3, 16): 0.0, (47, 3, 17): 0.0, (47, 3, 18): 0.0, (47, 3, 19): 0.0, (47, 3, 20): 0.0, (47, 3, 21): 0.0, (47, 3, 22): 0.0, (47, 3, 23): 0.0, (47, 3, 24): 0.0, (47, 3, 25): 0.0, (47, 3, 26): 0.0, (47, 3, 27): 0.0, (47, 3, 28): 0.0, (47, 3, 29): 0.0, (47, 3, 30): 0.0, (47, 3, 31): 0.0, (47, 3, 32): 0.0, (47, 3, 33): 0.0, (47, 3, 34): 0.0, (47, 3, 35): 0.0, (47, 3, 36): 0.0, (47, 3, 37): 0.0, (47, 3, 38): 0.0, (47, 3, 39): 0.0, (47, 3, 40): 0.0, (47, 3, 41): 0.0, (47, 3, 42): 0.0}</t>
+  </si>
+  <si>
+    <t>{11: 6, 29: 3, 53: 4, 47: 8}</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>{15: 12, 16: 9, 20: 6, 23: 6, 24: 8, 25: 5, 26: 6, 30: 8, 31: 13, 38: 2, 39: 7, 40: 8, 41: 6, 43: 8, 50: 7, 59: 9, 60: 5, 62: 6, 63: 6, 65: 6, 66: 5, 67: 6, 70: 5, 71: 8, 75: 7, 77: 3, 78: 8, 79: 6, 81: 6, 82: 7, 2: 25, 3: 19, 4: 13, 9: 17, 21: 15, 22: 13, 28: 12, 36: 11, 37: 8, 73: 11}</t>
+    <t>{16: 10, 25: 5, 38: 2, 40: 9, 59: 10, 60: 5, 63: 6, 66: 4, 77: 3, 79: 6, 82: 7, 15: 12, 20: 6, 28: 12, 30: 9, 31: 14, 37: 8, 39: 8, 41: 6, 43: 9, 50: 8, 62: 7, 67: 7, 75: 8, 78: 9, 81: 6, 23: 7, 24: 8, 26: 6, 65: 6, 70: 5, 71: 9, 2: 26, 3: 22, 4: 13, 22: 15, 36: 12, 73: 12, 9: 18, 21: 15}</t>
   </si>
   <si>
     <t>{(11, 1): 0, (11, 2): 0, (11, 3): 0, (11, 4): 0, (11, 5): 1, (11, 6): 1, (11, 7): 1, (11, 8): 1, (11, 9): 1, (11, 10): 1, (11, 11): 0, (11, 12): 0, (11, 13): 0, (11, 14): 0, (11, 15): 0, (11, 16): 0, (11, 17): 0, (11, 18): 0, (11, 19): 0, (11, 20): 0, (11, 21): 0, (11, 22): 0, (11, 23): 0, (11, 24): 0, (11, 25): 0, (11, 26): 0, (11, 27): 0, (11, 28): 0, (11, 29): 0, (11, 30): 0, (11, 31): 0, (11, 32): 0, (11, 33): 0, (11, 34): 0, (11, 35): 0, (11, 36): 0, (11, 37): 0, (11, 38): 0, (11, 39): 0, (11, 40): 0, (11, 41): 0, (11, 42): 0, (29, 1): 0, (29, 2): 1, (29, 3): 1, (29, 4): 1, (29, 5): 0, (29, 6): 0, (29, 7): 0, (29, 8): 0, (29, 9): 0, (29, 10): 0, (29, 11): 0, (29, 12): 0, (29, 13): 0, (29, 14): 0, (29, 15): 0, (29, 16): 0, (29, 17): 0, (29, 18): 0, (29, 19): 0, (29, 20): 0, (29, 21): 0, (29, 22): 0, (29, 23): 0, (29, 24): 0, (29, 25): 0, (29, 26): 0, (29, 27): 0, (29, 28): 0, (29, 29): 0, (29, 30): 0, (29, 31): 0, (29, 32): 0, (29, 33): 0, (29, 34): 0, (29, 35): 0, (29, 36): 0, (29, 37): 0, (29, 38): 0, (29, 39): 0, (29, 40): 0, (29, 41): 0, (29, 42): 0, (47, 1): 0, (47, 2): 0, (47, 3): 0, (47, 4): 0, (47, 5): 1, (47, 6): 1, (47, 7): 1, (47, 8): 1, (47, 9): 1, (47, 10): 1, (47, 11): 1, (47, 12): 1, (47, 13): 0, (47, 14): 0, (47, 15): 0, (47, 16): 0, (47, 17): 0, (47, 18): 0, (47, 19): 0, (47, 20): 0, (47, 21): 0, (47, 22): 0, (47, 23): 0, (47, 24): 0, (47, 25): 0, (47, 26): 0, (47, 27): 0, (47, 28): 0, (47, 29): 0, (47, 30): 0, (47, 31): 0, (47, 32): 0, (47, 33): 0, (47, 34): 0, (47, 35): 0, (47, 36): 0, (47, 37): 0, (47, 38): 0, (47, 39): 0, (47, 40): 0, (47, 41): 0, (47, 42): 0, (53, 1): 0, (53, 2): 1, (53, 3): 1, (53, 4): 1, (53, 5): 1, (53, 6): 0, (53, 7): 0, (53, 8): 0, (53, 9): 0, (53, 10): 0, (53, 11): 0, (53, 12): 0, (53, 13): 0, (53, 14): 0, (53, 15): 0, (53, 16): 0, (53, 17): 0, (53, 18): 0, (53, 19): 0, (53, 20): 0, (53, 21): 0, (53, 22): 0, (53, 23): 0, (53, 24): 0, (53, 25): 0, (53, 26): 0, (53, 27): 0, (53, 28): 0, (53, 29): 0, (53, 30): 0, (53, 31): 0, (53, 32): 0, (53, 33): 0, (53, 34): 0, (53, 35): 0, (53, 36): 0, (53, 37): 0, (53, 38): 0, (53, 39): 0, (53, 40): 0, (53, 41): 0, (53, 42): 0}</t>
   </si>
   <si>
-    <t>{(11, 1): 0, (11, 2): 0, (11, 3): 0, (11, 4): 0, (11, 5): 0, (11, 6): 0, (11, 7): 0, (11, 8): 1, (11, 9): 1, (11, 10): 1, (11, 11): 1, (11, 12): 1, (11, 13): 1, (11, 14): 1, (11, 15): 1, (11, 16): 1, (11, 17): 1, (11, 18): 1, (11, 19): 1, (11, 20): 1, (11, 21): 1, (11, 22): 1, (11, 23): 1, (11, 24): 1, (11, 25): 1, (11, 26): 1, (11, 27): 1, (11, 28): 1, (11, 29): 1, (11, 30): 1, (11, 31): 1, (11, 32): 1, (11, 33): 1, (11, 34): 1, (11, 35): 1, (11, 36): 1, (11, 37): 1, (11, 38): 1, (11, 39): 1, (11, 40): 1, (11, 41): 1, (11, 42): 1, (29, 1): 0, (29, 2): 0, (29, 3): 0, (29, 4): 0, (29, 5): 0, (29, 6): 0, (29, 7): 0, (29, 8): 0, (29, 9): 0, (29, 10): 0, (29, 11): 0, (29, 12): 0, (29, 13): 0, (29, 14): 0, (29, 15): 0, (29, 16): 0, (29, 17): 0, (29, 18): 0, (29, 19): 0, (29, 20): 0, (29, 21): 0, (29, 22): 0, (29, 23): 0, (29, 24): 0, (29, 25): 0, (29, 26): 0, (29, 27): 0, (29, 28): 0, (29, 29): 0, (29, 30): 0, (29, 31): 0, (29, 32): 0, (29, 33): 0, (29, 34): 0, (29, 35): 0, (29, 36): 0, (29, 37): 0, (29, 38): 0, (29, 39): 0, (29, 40): 0, (29, 41): 0, (29, 42): 0, (47, 1): 0, (47, 2): 0, (47, 3): 0, (47, 4): 0, (47, 5): 0, (47, 6): 0, (47, 7): 1, (47, 8): 1, (47, 9): 1, (47, 10): 1, (47, 11): 1, (47, 12): 1, (47, 13): 1, (47, 14): 1, (47, 15): 1, (47, 16): 1, (47, 17): 1, (47, 18): 1, (47, 19): 1, (47, 20): 1, (47, 21): 1, (47, 22): 1, (47, 23): 1, (47, 24): 1, (47, 25): 1, (47, 26): 1, (47, 27): 1, (47, 28): 1, (47, 29): 1, (47, 30): 1, (47, 31): 1, (47, 32): 1, (47, 33): 1, (47, 34): 1, (47, 35): 1, (47, 36): 1, (47, 37): 1, (47, 38): 1, (47, 39): 1, (47, 40): 1, (47, 41): 1, (47, 42): 1, (53, 1): 0, (53, 2): 0, (53, 3): 0, (53, 4): 0, (53, 5): 0, (53, 6): 0, (53, 7): 0, (53, 8): 0, (53, 9): 0, (53, 10): 0, (53, 11): 0, (53, 12): 0, (53, 13): 0, (53, 14): 0, (53, 15): 0, (53, 16): 0, (53, 17): 0, (53, 18): 0, (53, 19): 0, (53, 20): 0, (53, 21): 0, (53, 22): 0, (53, 23): 0, (53, 24): 0, (53, 25): 0, (53, 26): 0, (53, 27): 0, (53, 28): 0, (53, 29): 0, (53, 30): 0, (53, 31): 0, (53, 32): 0, (53, 33): 0, (53, 34): 0, (53, 35): 0, (53, 36): 0, (53, 37): 0, (53, 38): 0, (53, 39): 0, (53, 40): 0, (53, 41): 0, (53, 42): 0}</t>
-  </si>
-  <si>
-    <t>{(11, 1): 0.0, (11, 2): 0.0, (11, 3): 0.0, (11, 4): 0.0, (11, 5): 0.5051001633268003, (11, 6): 0.5051001633268003, (11, 7): 0.5051001633268003, (11, 8): 0.5075500204164625, (11, 9): 0.5075500204164625, (11, 10): 0.5075500204164625, (11, 11): 0.0, (11, 12): 0.0, (11, 13): 0.0, (11, 14): 0.0, (11, 15): 0.0, (11, 16): 0.0, (11, 17): 0.0, (11, 18): 0.0, (11, 19): 0.0, (11, 20): 0.0, (11, 21): 0.0, (11, 22): 0.0, (11, 23): 0.0, (11, 24): 0.0, (11, 25): 0.0, (11, 26): 0.0, (11, 27): 0.0, (11, 28): 0.0, (11, 29): 0.0, (11, 30): 0.0, (11, 31): 0.0, (11, 32): 0.0, (11, 33): 0.0, (11, 34): 0.0, (11, 35): 0.0, (11, 36): 0.0, (11, 37): 0.0, (11, 38): 0.0, (11, 39): 0.0, (11, 40): 0.0, (11, 41): 0.0, (11, 42): 0.0, (29, 1): 0.0, (29, 2): 0.5051001633268003, (29, 3): 0.5051001633268003, (29, 4): 0.5051001633268003, (29, 5): 0.0, (29, 6): 0.0, (29, 7): 0.0, (29, 8): 0.0, (29, 9): 0.0, (29, 10): 0.0, (29, 11): 0.0, (29, 12): 0.0, (29, 13): 0.0, (29, 14): 0.0, (29, 15): 0.0, (29, 16): 0.0, (29, 17): 0.0, (29, 18): 0.0, (29, 19): 0.0, (29, 20): 0.0, (29, 21): 0.0, (29, 22): 0.0, (29, 23): 0.0, (29, 24): 0.0, (29, 25): 0.0, (29, 26): 0.0, (29, 27): 0.0, (29, 28): 0.0, (29, 29): 0.0, (29, 30): 0.0, (29, 31): 0.0, (29, 32): 0.0, (29, 33): 0.0, (29, 34): 0.0, (29, 35): 0.0, (29, 36): 0.0, (29, 37): 0.0, (29, 38): 0.0, (29, 39): 0.0, (29, 40): 0.0, (29, 41): 0.0, (29, 42): 0.0, (47, 1): 0.0, (47, 2): 0.0, (47, 3): 0.0, (47, 4): 0.0, (47, 5): 0.5051001633268003, (47, 6): 0.5051001633268003, (47, 7): 0.5075500204164625, (47, 8): 0.5075500204164625, (47, 9): 0.5075500204164625, (47, 10): 0.5075500204164625, (47, 11): 0.5075500204164625, (47, 12): 0.5075500204164625, (47, 13): 0.0, (47, 14): 0.0, (47, 15): 0.0, (47, 16): 0.0, (47, 17): 0.0, (47, 18): 0.0, (47, 19): 0.0, (47, 20): 0.0, (47, 21): 0.0, (47, 22): 0.0, (47, 23): 0.0, (47, 24): 0.0, (47, 25): 0.0, (47, 26): 0.0, (47, 27): 0.0, (47, 28): 0.0, (47, 29): 0.0, (47, 30): 0.0, (47, 31): 0.0, (47, 32): 0.0, (47, 33): 0.0, (47, 34): 0.0, (47, 35): 0.0, (47, 36): 0.0, (47, 37): 0.0, (47, 38): 0.0, (47, 39): 0.0, (47, 40): 0.0, (47, 41): 0.0, (47, 42): 0.0, (53, 1): 0.0, (53, 2): 0.5051001633268003, (53, 3): 0.5051001633268003, (53, 4): 0.5051001633268003, (53, 5): 0.5051001633268003, (53, 6): 0.0, (53, 7): 0.0, (53, 8): 0.0, (53, 9): 0.0, (53, 10): 0.0, (53, 11): 0.0, (53, 12): 0.0, (53, 13): 0.0, (53, 14): 0.0, (53, 15): 0.0, (53, 16): 0.0, (53, 17): 0.0, (53, 18): 0.0, (53, 19): 0.0, (53, 20): 0.0, (53, 21): 0.0, (53, 22): 0.0, (53, 23): 0.0, (53, 24): 0.0, (53, 25): 0.0, (53, 26): 0.0, (53, 27): 0.0, (53, 28): 0.0, (53, 29): 0.0, (53, 30): 0.0, (53, 31): 0.0, (53, 32): 0.0, (53, 33): 0.0, (53, 34): 0.0, (53, 35): 0.0, (53, 36): 0.0, (53, 37): 0.0, (53, 38): 0.0, (53, 39): 0.0, (53, 40): 0.0, (53, 41): 0.0, (53, 42): 0.0}</t>
-  </si>
-  <si>
-    <t>{(11, 1): 0.0, (11, 2): 0.0, (11, 3): 0.0, (11, 4): 0.0, (11, 5): 1.0, (11, 6): 2.0, (11, 7): 3.0, (11, 8): 3.5075500204164625, (11, 9): 4.5075500204164625, (11, 10): 5.5075500204164625, (11, 11): 5.5075500204164625, (11, 12): 5.5075500204164625, (11, 13): 5.5075500204164625, (11, 14): 5.5075500204164625, (11, 15): 5.5075500204164625, (11, 16): 5.5075500204164625, (11, 17): 5.5075500204164625, (11, 18): 5.5075500204164625, (11, 19): 5.5075500204164625, (11, 20): 5.5075500204164625, (11, 21): 5.5075500204164625, (11, 22): 5.5075500204164625, (11, 23): 5.5075500204164625, (11, 24): 5.5075500204164625, (11, 25): 5.5075500204164625, (11, 26): 5.5075500204164625, (11, 27): 5.5075500204164625, (11, 28): 5.5075500204164625, (11, 29): 5.5075500204164625, (11, 30): 5.5075500204164625, (11, 31): 5.5075500204164625, (11, 32): 5.5075500204164625, (11, 33): 5.5075500204164625, (11, 34): 5.5075500204164625, (11, 35): 5.5075500204164625, (11, 36): 5.5075500204164625, (11, 37): 5.5075500204164625, (11, 38): 5.5075500204164625, (11, 39): 5.5075500204164625, (11, 40): 5.5075500204164625, (11, 41): 5.5075500204164625, (11, 42): 5.5075500204164625, (29, 1): 0.0, (29, 2): 1.0, (29, 3): 2.0, (29, 4): 3.0, (29, 5): 3.0, (29, 6): 3.0, (29, 7): 3.0, (29, 8): 3.0, (29, 9): 3.0, (29, 10): 3.0, (29, 11): 3.0, (29, 12): 3.0, (29, 13): 3.0, (29, 14): 3.0, (29, 15): 3.0, (29, 16): 3.0, (29, 17): 3.0, (29, 18): 3.0, (29, 19): 3.0, (29, 20): 3.0, (29, 21): 3.0, (29, 22): 3.0, (29, 23): 3.0, (29, 24): 3.0, (29, 25): 3.0, (29, 26): 3.0, (29, 27): 3.0, (29, 28): 3.0, (29, 29): 3.0, (29, 30): 3.0, (29, 31): 3.0, (29, 32): 3.0, (29, 33): 3.0, (29, 34): 3.0, (29, 35): 3.0, (29, 36): 3.0, (29, 37): 3.0, (29, 38): 3.0, (29, 39): 3.0, (29, 40): 3.0, (29, 41): 3.0, (29, 42): 3.0, (47, 1): 0.0, (47, 2): 0.0, (47, 3): 0.0, (47, 4): 0.0, (47, 5): 1.0, (47, 6): 2.0, (47, 7): 2.5075500204164625, (47, 8): 3.5075500204164625, (47, 9): 4.5075500204164625, (47, 10): 5.5075500204164625, (47, 11): 6.5075500204164625, (47, 12): 7.5075500204164625, (47, 13): 7.5075500204164625, (47, 14): 7.5075500204164625, (47, 15): 7.5075500204164625, (47, 16): 7.5075500204164625, (47, 17): 7.5075500204164625, (47, 18): 7.5075500204164625, (47, 19): 7.5075500204164625, (47, 20): 7.5075500204164625, (47, 21): 7.5075500204164625, (47, 22): 7.5075500204164625, (47, 23): 7.5075500204164625, (47, 24): 7.5075500204164625, (47, 25): 7.5075500204164625, (47, 26): 7.5075500204164625, (47, 27): 7.5075500204164625, (47, 28): 7.5075500204164625, (47, 29): 7.5075500204164625, (47, 30): 7.5075500204164625, (47, 31): 7.5075500204164625, (47, 32): 7.5075500204164625, (47, 33): 7.5075500204164625, (47, 34): 7.5075500204164625, (47, 35): 7.5075500204164625, (47, 36): 7.5075500204164625, (47, 37): 7.5075500204164625, (47, 38): 7.5075500204164625, (47, 39): 7.5075500204164625, (47, 40): 7.5075500204164625, (47, 41): 7.5075500204164625, (47, 42): 7.5075500204164625, (53, 1): 0.0, (53, 2): 1.0, (53, 3): 2.0, (53, 4): 3.0, (53, 5): 4.0, (53, 6): 4.0, (53, 7): 4.0, (53, 8): 4.0, (53, 9): 4.0, (53, 10): 4.0, (53, 11): 4.0, (53, 12): 4.0, (53, 13): 4.0, (53, 14): 4.0, (53, 15): 4.0, (53, 16): 4.0, (53, 17): 4.0, (53, 18): 4.0, (53, 19): 4.0, (53, 20): 4.0, (53, 21): 4.0, (53, 22): 4.0, (53, 23): 4.0, (53, 24): 4.0, (53, 25): 4.0, (53, 26): 4.0, (53, 27): 4.0, (53, 28): 4.0, (53, 29): 4.0, (53, 30): 4.0, (53, 31): 4.0, (53, 32): 4.0, (53, 33): 4.0, (53, 34): 4.0, (53, 35): 4.0, (53, 36): 4.0, (53, 37): 4.0, (53, 38): 4.0, (53, 39): 4.0, (53, 40): 4.0, (53, 41): 4.0, (53, 42): 4.0}</t>
+    <t>{(11, 1): 0, (11, 2): 0, (11, 3): 0, (11, 4): 0, (11, 5): 0, (11, 6): 0, (11, 7): 0, (11, 8): 1, (11, 9): 1, (11, 10): 1, (11, 11): 1, (11, 12): 1, (11, 13): 1, (11, 14): 1, (11, 15): 1, (11, 16): 1, (11, 17): 1, (11, 18): 1, (11, 19): 1, (11, 20): 1, (11, 21): 1, (11, 22): 1, (11, 23): 1, (11, 24): 1, (11, 25): 1, (11, 26): 1, (11, 27): 1, (11, 28): 1, (11, 29): 1, (11, 30): 1, (11, 31): 1, (11, 32): 1, (11, 33): 1, (11, 34): 1, (11, 35): 1, (11, 36): 1, (11, 37): 1, (11, 38): 1, (11, 39): 1, (11, 40): 1, (11, 41): 1, (11, 42): 1, (29, 1): 0, (29, 2): 0, (29, 3): 0, (29, 4): 0, (29, 5): 0, (29, 6): 0, (29, 7): 0, (29, 8): 0, (29, 9): 0, (29, 10): 0, (29, 11): 0, (29, 12): 0, (29, 13): 0, (29, 14): 0, (29, 15): 0, (29, 16): 0, (29, 17): 0, (29, 18): 0, (29, 19): 0, (29, 20): 0, (29, 21): 0, (29, 22): 0, (29, 23): 0, (29, 24): 0, (29, 25): 0, (29, 26): 0, (29, 27): 0, (29, 28): 0, (29, 29): 0, (29, 30): 0, (29, 31): 0, (29, 32): 0, (29, 33): 0, (29, 34): 0, (29, 35): 0, (29, 36): 0, (29, 37): 0, (29, 38): 0, (29, 39): 0, (29, 40): 0, (29, 41): 0, (29, 42): 0, (47, 1): 0, (47, 2): 0, (47, 3): 0, (47, 4): 0, (47, 5): 0, (47, 6): 0, (47, 7): 0, (47, 8): 0, (47, 9): 0, (47, 10): 0, (47, 11): 0, (47, 12): 0, (47, 13): 0, (47, 14): 0, (47, 15): 0, (47, 16): 0, (47, 17): 0, (47, 18): 0, (47, 19): 0, (47, 20): 0, (47, 21): 0, (47, 22): 0, (47, 23): 0, (47, 24): 0, (47, 25): 0, (47, 26): 0, (47, 27): 0, (47, 28): 0, (47, 29): 0, (47, 30): 0, (47, 31): 0, (47, 32): 0, (47, 33): 0, (47, 34): 0, (47, 35): 0, (47, 36): 0, (47, 37): 0, (47, 38): 0, (47, 39): 0, (47, 40): 0, (47, 41): 0, (47, 42): 0, (53, 1): 0, (53, 2): 0, (53, 3): 0, (53, 4): 0, (53, 5): 0, (53, 6): 0, (53, 7): 0, (53, 8): 0, (53, 9): 0, (53, 10): 0, (53, 11): 0, (53, 12): 0, (53, 13): 0, (53, 14): 0, (53, 15): 0, (53, 16): 0, (53, 17): 0, (53, 18): 0, (53, 19): 0, (53, 20): 0, (53, 21): 0, (53, 22): 0, (53, 23): 0, (53, 24): 0, (53, 25): 0, (53, 26): 0, (53, 27): 0, (53, 28): 0, (53, 29): 0, (53, 30): 0, (53, 31): 0, (53, 32): 0, (53, 33): 0, (53, 34): 0, (53, 35): 0, (53, 36): 0, (53, 37): 0, (53, 38): 0, (53, 39): 0, (53, 40): 0, (53, 41): 0, (53, 42): 0}</t>
+  </si>
+  <si>
+    <t>{(11, 1): 0.0, (11, 2): 0.0, (11, 3): 0.0, (11, 4): 0.0, (11, 5): 0.5051001633268003, (11, 6): 0.5051001633268003, (11, 7): 0.5051001633268003, (11, 8): 0.5075500204164625, (11, 9): 0.5075500204164625, (11, 10): 0.5075500204164625, (11, 11): 0.0, (11, 12): 0.0, (11, 13): 0.0, (11, 14): 0.0, (11, 15): 0.0, (11, 16): 0.0, (11, 17): 0.0, (11, 18): 0.0, (11, 19): 0.0, (11, 20): 0.0, (11, 21): 0.0, (11, 22): 0.0, (11, 23): 0.0, (11, 24): 0.0, (11, 25): 0.0, (11, 26): 0.0, (11, 27): 0.0, (11, 28): 0.0, (11, 29): 0.0, (11, 30): 0.0, (11, 31): 0.0, (11, 32): 0.0, (11, 33): 0.0, (11, 34): 0.0, (11, 35): 0.0, (11, 36): 0.0, (11, 37): 0.0, (11, 38): 0.0, (11, 39): 0.0, (11, 40): 0.0, (11, 41): 0.0, (11, 42): 0.0, (29, 1): 0.0, (29, 2): 0.5051001633268003, (29, 3): 0.5051001633268003, (29, 4): 0.5051001633268003, (29, 5): 0.0, (29, 6): 0.0, (29, 7): 0.0, (29, 8): 0.0, (29, 9): 0.0, (29, 10): 0.0, (29, 11): 0.0, (29, 12): 0.0, (29, 13): 0.0, (29, 14): 0.0, (29, 15): 0.0, (29, 16): 0.0, (29, 17): 0.0, (29, 18): 0.0, (29, 19): 0.0, (29, 20): 0.0, (29, 21): 0.0, (29, 22): 0.0, (29, 23): 0.0, (29, 24): 0.0, (29, 25): 0.0, (29, 26): 0.0, (29, 27): 0.0, (29, 28): 0.0, (29, 29): 0.0, (29, 30): 0.0, (29, 31): 0.0, (29, 32): 0.0, (29, 33): 0.0, (29, 34): 0.0, (29, 35): 0.0, (29, 36): 0.0, (29, 37): 0.0, (29, 38): 0.0, (29, 39): 0.0, (29, 40): 0.0, (29, 41): 0.0, (29, 42): 0.0, (47, 1): 0.0, (47, 2): 0.0, (47, 3): 0.0, (47, 4): 0.0, (47, 5): 0.5051001633268003, (47, 6): 0.5051001633268003, (47, 7): 0.5051001633268003, (47, 8): 0.5051001633268003, (47, 9): 0.5051001633268003, (47, 10): 0.5051001633268003, (47, 11): 0.5051001633268003, (47, 12): 0.5051001633268003, (47, 13): 0.0, (47, 14): 0.0, (47, 15): 0.0, (47, 16): 0.0, (47, 17): 0.0, (47, 18): 0.0, (47, 19): 0.0, (47, 20): 0.0, (47, 21): 0.0, (47, 22): 0.0, (47, 23): 0.0, (47, 24): 0.0, (47, 25): 0.0, (47, 26): 0.0, (47, 27): 0.0, (47, 28): 0.0, (47, 29): 0.0, (47, 30): 0.0, (47, 31): 0.0, (47, 32): 0.0, (47, 33): 0.0, (47, 34): 0.0, (47, 35): 0.0, (47, 36): 0.0, (47, 37): 0.0, (47, 38): 0.0, (47, 39): 0.0, (47, 40): 0.0, (47, 41): 0.0, (47, 42): 0.0, (53, 1): 0.0, (53, 2): 0.5051001633268003, (53, 3): 0.5051001633268003, (53, 4): 0.5051001633268003, (53, 5): 0.5051001633268003, (53, 6): 0.0, (53, 7): 0.0, (53, 8): 0.0, (53, 9): 0.0, (53, 10): 0.0, (53, 11): 0.0, (53, 12): 0.0, (53, 13): 0.0, (53, 14): 0.0, (53, 15): 0.0, (53, 16): 0.0, (53, 17): 0.0, (53, 18): 0.0, (53, 19): 0.0, (53, 20): 0.0, (53, 21): 0.0, (53, 22): 0.0, (53, 23): 0.0, (53, 24): 0.0, (53, 25): 0.0, (53, 26): 0.0, (53, 27): 0.0, (53, 28): 0.0, (53, 29): 0.0, (53, 30): 0.0, (53, 31): 0.0, (53, 32): 0.0, (53, 33): 0.0, (53, 34): 0.0, (53, 35): 0.0, (53, 36): 0.0, (53, 37): 0.0, (53, 38): 0.0, (53, 39): 0.0, (53, 40): 0.0, (53, 41): 0.0, (53, 42): 0.0}</t>
+  </si>
+  <si>
+    <t>{(11, 1): 0.0, (11, 2): 0.0, (11, 3): 0.0, (11, 4): 0.0, (11, 5): 1.0, (11, 6): 2.0, (11, 7): 3.0, (11, 8): 3.5075500204164625, (11, 9): 4.5075500204164625, (11, 10): 5.5075500204164625, (11, 11): 5.5075500204164625, (11, 12): 5.5075500204164625, (11, 13): 5.5075500204164625, (11, 14): 5.5075500204164625, (11, 15): 5.5075500204164625, (11, 16): 5.5075500204164625, (11, 17): 5.5075500204164625, (11, 18): 5.5075500204164625, (11, 19): 5.5075500204164625, (11, 20): 5.5075500204164625, (11, 21): 5.5075500204164625, (11, 22): 5.5075500204164625, (11, 23): 5.5075500204164625, (11, 24): 5.5075500204164625, (11, 25): 5.5075500204164625, (11, 26): 5.5075500204164625, (11, 27): 5.5075500204164625, (11, 28): 5.5075500204164625, (11, 29): 5.5075500204164625, (11, 30): 5.5075500204164625, (11, 31): 5.5075500204164625, (11, 32): 5.5075500204164625, (11, 33): 5.5075500204164625, (11, 34): 5.5075500204164625, (11, 35): 5.5075500204164625, (11, 36): 5.5075500204164625, (11, 37): 5.5075500204164625, (11, 38): 5.5075500204164625, (11, 39): 5.5075500204164625, (11, 40): 5.5075500204164625, (11, 41): 5.5075500204164625, (11, 42): 5.5075500204164625, (29, 1): 0.0, (29, 2): 1.0, (29, 3): 2.0, (29, 4): 3.0, (29, 5): 3.0, (29, 6): 3.0, (29, 7): 3.0, (29, 8): 3.0, (29, 9): 3.0, (29, 10): 3.0, (29, 11): 3.0, (29, 12): 3.0, (29, 13): 3.0, (29, 14): 3.0, (29, 15): 3.0, (29, 16): 3.0, (29, 17): 3.0, (29, 18): 3.0, (29, 19): 3.0, (29, 20): 3.0, (29, 21): 3.0, (29, 22): 3.0, (29, 23): 3.0, (29, 24): 3.0, (29, 25): 3.0, (29, 26): 3.0, (29, 27): 3.0, (29, 28): 3.0, (29, 29): 3.0, (29, 30): 3.0, (29, 31): 3.0, (29, 32): 3.0, (29, 33): 3.0, (29, 34): 3.0, (29, 35): 3.0, (29, 36): 3.0, (29, 37): 3.0, (29, 38): 3.0, (29, 39): 3.0, (29, 40): 3.0, (29, 41): 3.0, (29, 42): 3.0, (47, 1): 0.0, (47, 2): 0.0, (47, 3): 0.0, (47, 4): 0.0, (47, 5): 1.0, (47, 6): 2.0, (47, 7): 2.0, (47, 8): 3.0, (47, 9): 3.0, (47, 10): 4.0, (47, 11): 5.0, (47, 12): 6.0, (47, 13): 6.0, (47, 14): 6.0, (47, 15): 6.0, (47, 16): 6.0, (47, 17): 6.0, (47, 18): 6.0, (47, 19): 6.0, (47, 20): 6.0, (47, 21): 6.0, (47, 22): 6.0, (47, 23): 6.0, (47, 24): 6.0, (47, 25): 6.0, (47, 26): 6.0, (47, 27): 6.0, (47, 28): 6.0, (47, 29): 6.0, (47, 30): 6.0, (47, 31): 6.0, (47, 32): 6.0, (47, 33): 6.0, (47, 34): 6.0, (47, 35): 6.0, (47, 36): 6.0, (47, 37): 6.0, (47, 38): 6.0, (47, 39): 6.0, (47, 40): 6.0, (47, 41): 6.0, (47, 42): 6.0, (53, 1): 0.0, (53, 2): 1.0, (53, 3): 2.0, (53, 4): 3.0, (53, 5): 4.0, (53, 6): 4.0, (53, 7): 4.0, (53, 8): 4.0, (53, 9): 4.0, (53, 10): 4.0, (53, 11): 4.0, (53, 12): 4.0, (53, 13): 4.0, (53, 14): 4.0, (53, 15): 4.0, (53, 16): 4.0, (53, 17): 4.0, (53, 18): 4.0, (53, 19): 4.0, (53, 20): 4.0, (53, 21): 4.0, (53, 22): 4.0, (53, 23): 4.0, (53, 24): 4.0, (53, 25): 4.0, (53, 26): 4.0, (53, 27): 4.0, (53, 28): 4.0, (53, 29): 4.0, (53, 30): 4.0, (53, 31): 4.0, (53, 32): 4.0, (53, 33): 4.0, (53, 34): 4.0, (53, 35): 4.0, (53, 36): 4.0, (53, 37): 4.0, (53, 38): 4.0, (53, 39): 4.0, (53, 40): 4.0, (53, 41): 4.0, (53, 42): 4.0}</t>
   </si>
   <si>
     <t>{(11, 1): 0, (11, 2): 0, (11, 3): 0, (11, 4): 0, (11, 5): 0, (11, 6): 0, (11, 7): 0, (11, 8): 0, (11, 9): 0, (11, 10): 1, (11, 11): 0, (11, 12): 0, (11, 13): 0, (11, 14): 0, (11, 15): 0, (11, 16): 0, (11, 17): 0, (11, 18): 0, (11, 19): 0, (11, 20): 0, (11, 21): 0, (11, 22): 0, (11, 23): 0, (11, 24): 0, (11, 25): 0, (11, 26): 0, (11, 27): 0, (11, 28): 0, (11, 29): 0, (11, 30): 0, (11, 31): 0, (11, 32): 0, (11, 33): 0, (11, 34): 0, (11, 35): 0, (11, 36): 0, (11, 37): 0, (11, 38): 0, (11, 39): 0, (11, 40): 0, (11, 41): 0, (11, 42): 0, (29, 1): 0, (29, 2): 0, (29, 3): 0, (29, 4): 1, (29, 5): 0, (29, 6): 0, (29, 7): 0, (29, 8): 0, (29, 9): 0, (29, 10): 0, (29, 11): 0, (29, 12): 0, (29, 13): 0, (29, 14): 0, (29, 15): 0, (29, 16): 0, (29, 17): 0, (29, 18): 0, (29, 19): 0, (29, 20): 0, (29, 21): 0, (29, 22): 0, (29, 23): 0, (29, 24): 0, (29, 25): 0, (29, 26): 0, (29, 27): 0, (29, 28): 0, (29, 29): 0, (29, 30): 0, (29, 31): 0, (29, 32): 0, (29, 33): 0, (29, 34): 0, (29, 35): 0, (29, 36): 0, (29, 37): 0, (29, 38): 0, (29, 39): 0, (29, 40): 0, (29, 41): 0, (29, 42): 0, (47, 1): 0, (47, 2): 0, (47, 3): 0, (47, 4): 0, (47, 5): 0, (47, 6): 0, (47, 7): 0, (47, 8): 0, (47, 9): 0, (47, 10): 0, (47, 11): 0, (47, 12): 1, (47, 13): 0, (47, 14): 0, (47, 15): 0, (47, 16): 0, (47, 17): 0, (47, 18): 0, (47, 19): 0, (47, 20): 0, (47, 21): 0, (47, 22): 0, (47, 23): 0, (47, 24): 0, (47, 25): 0, (47, 26): 0, (47, 27): 0, (47, 28): 0, (47, 29): 0, (47, 30): 0, (47, 31): 0, (47, 32): 0, (47, 33): 0, (47, 34): 0, (47, 35): 0, (47, 36): 0, (47, 37): 0, (47, 38): 0, (47, 39): 0, (47, 40): 0, (47, 41): 0, (47, 42): 0, (53, 1): 0, (53, 2): 0, (53, 3): 0, (53, 4): 0, (53, 5): 1, (53, 6): 0, (53, 7): 0, (53, 8): 0, (53, 9): 0, (53, 10): 0, (53, 11): 0, (53, 12): 0, (53, 13): 0, (53, 14): 0, (53, 15): 0, (53, 16): 0, (53, 17): 0, (53, 18): 0, (53, 19): 0, (53, 20): 0, (53, 21): 0, (53, 22): 0, (53, 23): 0, (53, 24): 0, (53, 25): 0, (53, 26): 0, (53, 27): 0, (53, 28): 0, (53, 29): 0, (53, 30): 0, (53, 31): 0, (53, 32): 0, (53, 33): 0, (53, 34): 0, (53, 35): 0, (53, 36): 0, (53, 37): 0, (53, 38): 0, (53, 39): 0, (53, 40): 0, (53, 41): 0, (53, 42): 0}</t>
   </si>
   <si>
-    <t>{(11, 1): 0, (11, 2): 1, (11, 3): 0, (29, 1): 0, (29, 2): 1, (29, 3): 0, (47, 1): 1, (47, 2): 0, (47, 3): 0, (53, 1): 1, (53, 2): 0, (53, 3): 0}</t>
-  </si>
-  <si>
-    <t>{(2, 1): 0, (2, 2): 0, (2, 3): 0, (2, 4): 0, (2, 5): 0, (2, 6): 0, (2, 7): 0, (2, 8): 0, (2, 9): 0, (2, 10): 0, (2, 11): 0, (2, 12): 0, (2, 13): 0, (2, 14): 0, (2, 15): 0, (2, 16): 0, (2, 17): 1, (2, 18): 1, (2, 19): 1, (2, 20): 1, (2, 21): 1, (2, 22): 1, (2, 23): 1, (2, 24): 1, (2, 25): 1, (2, 26): 1, (2, 27): 1, (2, 28): 1, (2, 29): 1, (2, 30): 1, (2, 31): 1, (2, 32): 1, (2, 33): 1, (2, 34): 1, (2, 35): 1, (2, 36): 1, (2, 37): 1, (2, 38): 1, (2, 39): 1, (2, 40): 1, (2, 41): 1, (2, 42): 0, (3, 1): 0, (3, 2): 0, (3, 3): 0, (3, 4): 0, (3, 5): 0, (3, 6): 0, (3, 7): 0, (3, 8): 0, (3, 9): 0, (3, 10): 0, (3, 11): 0, (3, 12): 0, (3, 13): 0, (3, 14): 0, (3, 15): 0, (3, 16): 0, (3, 17): 1, (3, 18): 1, (3, 19): 1, (3, 20): 1, (3, 21): 1, (3, 22): 1, (3, 23): 1, (3, 24): 1, (3, 25): 1, (3, 26): 1, (3, 27): 1, (3, 28): 1, (3, 29): 1, (3, 30): 1, (3, 31): 1, (3, 32): 1, (3, 33): 1, (3, 34): 1, (3, 35): 1, (3, 36): 0, (3, 37): 0, (3, 38): 0, (3, 39): 0, (3, 40): 0, (3, 41): 0, (3, 42): 0, (4, 1): 0, (4, 2): 0, (4, 3): 0, (4, 4): 0, (4, 5): 0, (4, 6): 0, (4, 7): 0, (4, 8): 0, (4, 9): 0, (4, 10): 0, (4, 11): 0, (4, 12): 0, (4, 13): 0, (4, 14): 0, (4, 15): 0, (4, 16): 0, (4, 17): 0, (4, 18): 0, (4, 19): 0, (4, 20): 0, (4, 21): 0, (4, 22): 0, (4, 23): 0, (4, 24): 0, (4, 25): 0, (4, 26): 0, (4, 27): 0, (4, 28): 0, (4, 29): 0, (4, 30): 1, (4, 31): 1, (4, 32): 1, (4, 33): 1, (4, 34): 1, (4, 35): 1, (4, 36): 1, (4, 37): 1, (4, 38): 1, (4, 39): 1, (4, 40): 1, (4, 41): 1, (4, 42): 1, (9, 1): 0, (9, 2): 0, (9, 3): 0, (9, 4): 0, (9, 5): 0, (9, 6): 0, (9, 7): 0, (9, 8): 0, (9, 9): 0, (9, 10): 0, (9, 11): 0, (9, 12): 0, (9, 13): 0, (9, 14): 0, (9, 15): 0, (9, 16): 0, (9, 17): 0, (9, 18): 0, (9, 19): 0, (9, 20): 0, (9, 21): 0, (9, 22): 1, (9, 23): 1, (9, 24): 1, (9, 25): 1, (9, 26): 1, (9, 27): 1, (9, 28): 1, (9, 29): 1, (9, 30): 1, (9, 31): 1, (9, 32): 1, (9, 33): 1, (9, 34): 1, (9, 35): 1, (9, 36): 1, (9, 37): 1, (9, 38): 1, (9, 39): 0, (9, 40): 0, (9, 41): 0, (9, 42): 0, (15, 1): 0, (15, 2): 0, (15, 3): 0, (15, 4): 0, (15, 5): 0, (15, 6): 0, (15, 7): 0, (15, 8): 0, (15, 9): 0, (15, 10): 0, (15, 11): 0, (15, 12): 0, (15, 13): 0, (15, 14): 0, (15, 15): 0, (15, 16): 0, (15, 17): 0, (15, 18): 0, (15, 19): 0, (15, 20): 0, (15, 21): 0, (15, 22): 0, (15, 23): 0, (15, 24): 0, (15, 25): 0, (15, 26): 0, (15, 27): 0, (15, 28): 0, (15, 29): 0, (15, 30): 1, (15, 31): 1, (15, 32): 1, (15, 33): 1, (15, 34): 1, (15, 35): 1, (15, 36): 1, (15, 37): 1, (15, 38): 1, (15, 39): 1, (15, 40): 1, (15, 41): 1, (15, 42): 0, (16, 1): 0, (16, 2): 0, (16, 3): 0, (16, 4): 0, (16, 5): 0, (16, 6): 0, (16, 7): 0, (16, 8): 0, (16, 9): 0, (16, 10): 0, (16, 11): 1, (16, 12): 1, (16, 13): 1, (16, 14): 1, (16, 15): 1, (16, 16): 1, (16, 17): 1, (16, 18): 1, (16, 19): 1, (16, 20): 0, (16, 21): 0, (16, 22): 0, (16, 23): 0, (16, 24): 0, (16, 25): 0, (16, 26): 0, (16, 27): 0, (16, 28): 0, (16, 29): 0, (16, 30): 0, (16, 31): 0, (16, 32): 0, (16, 33): 0, (16, 34): 0, (16, 35): 0, (16, 36): 0, (16, 37): 0, (16, 38): 0, (16, 39): 0, (16, 40): 0, (16, 41): 0, (16, 42): 0, (20, 1): 0, (20, 2): 0, (20, 3): 0, (20, 4): 0, (20, 5): 0, (20, 6): 0, (20, 7): 0, (20, 8): 0, (20, 9): 0, (20, 10): 0, (20, 11): 0, (20, 12): 0, (20, 13): 0, (20, 14): 0, (20, 15): 0, (20, 16): 0, (20, 17): 0, (20, 18): 0, (20, 19): 0, (20, 20): 0, (20, 21): 0, (20, 22): 0, (20, 23): 0, (20, 24): 0, (20, 25): 0, (20, 26): 0, (20, 27): 0, (20, 28): 0, (20, 29): 0, (20, 30): 0, (20, 31): 0, (20, 32): 1, (20, 33): 1, (20, 34): 1, (20, 35): 1, (20, 36): 1, (20, 37): 1, (20, 38): 0, (20, 39): 0, (20, 40): 0, (20, 41): 0, (20, 42): 0, (21, 1): 0, (21, 2): 0, (21, 3): 0, (21, 4): 0, (21, 5): 0, (21, 6): 0, (21, 7): 0, (21, 8): 0, (21, 9): 0, (21, 10): 0, (21, 11): 0, (21, 12): 0, (21, 13): 0, (21, 14): 0, (21, 15): 0, (21, 16): 0, (21, 17): 0, (21, 18): 0, (21, 19): 0, (21, 20): 0, (21, 21): 0, (21, 22): 0, (21, 23): 0, (21, 24): 0, (21, 25): 0, (21, 26): 0, (21, 27): 1, (21, 28): 1, (21, 29): 1, (21, 30): 1, (21, 31): 1, (21, 32): 1, (21, 33): 1, (21, 34): 1, (21, 35): 1, (21, 36): 1, (21, 37): 1, (21, 38): 1, (21, 39): 1, (21, 40): 1, (21, 41): 1, (21, 42): 0, (22, 1): 0, (22, 2): 0, (22, 3): 0, (22, 4): 0, (22, 5): 0, (22, 6): 0, (22, 7): 0, (22, 8): 0, (22, 9): 0, (22, 10): 0, (22, 11): 0, (22, 12): 0, (22, 13): 0, (22, 14): 0, (22, 15): 0, (22, 16): 0, (22, 17): 0, (22, 18): 0, (22, 19): 0, (22, 20): 0, (22, 21): 0, (22, 22): 0, (22, 23): 0, (22, 24): 0, (22, 25): 0, (22, 26): 0, (22, 27): 1, (22, 28): 1, (22, 29): 1, (22, 30): 1, (22, 31): 1, (22, 32): 1, (22, 33): 1, (22, 34): 1, (22, 35): 1, (22, 36): 1, (22, 37): 1, (22, 38): 1, (22, 39): 1, (22, 40): 0, (22, 41): 0, (22, 42): 0, (23, 1): 0, (23, 2): 0, (23, 3): 0, (23, 4): 0, (23, 5): 0, (23, 6): 0, (23, 7): 0, (23, 8): 0, (23, 9): 0, (23, 10): 0, (23, 11): 0, (23, 12): 0, (23, 13): 0, (23, 14): 0, (23, 15): 0, (23, 16): 0, (23, 17): 0, (23, 18): 0, (23, 19): 0, (23, 20): 0, (23, 21): 0, (23, 22): 0, (23, 23): 0, (23, 24): 0, (23, 25): 0, (23, 26): 0, (23, 27): 0, (23, 28): 0, (23, 29): 1, (23, 30): 1, (23, 31): 1, (23, 32): 1, (23, 33): 1, (23, 34): 1, (23, 35): 0, (23, 36): 0, (23, 37): 0, (23, 38): 0, (23, 39): 0, (23, 40): 0, (23, 41): 0, (23, 42): 0, (24, 1): 0, (24, 2): 0, (24, 3): 0, (24, 4): 0, (24, 5): 0, (24, 6): 0, (24, 7): 0, (24, 8): 0, (24, 9): 0, (24, 10): 0, (24, 11): 0, (24, 12): 0, (24, 13): 0, (24, 14): 0, (24, 15): 0, (24, 16): 0, (24, 17): 0, (24, 18): 0, (24, 19): 0, (24, 20): 0, (24, 21): 0, (24, 22): 1, (24, 23): 1, (24, 24): 1, (24, 25): 1, (24, 26): 1, (24, 27): 1, (24, 28): 1, (24, 29): 1, (24, 30): 0, (24, 31): 0, (24, 32): 0, (24, 33): 0, (24, 34): 0, (24, 35): 0, (24, 36): 0, (24, 37): 0, (24, 38): 0, (24, 39): 0, (24, 40): 0, (24, 41): 0, (24, 42): 0, (25, 1): 0, (25, 2): 0, (25, 3): 0, (25, 4): 0, (25, 5): 0, (25, 6): 0, (25, 7): 0, (25, 8): 0, (25, 9): 0, (25, 10): 0, (25, 11): 0, (25, 12): 0, (25, 13): 0, (25, 14): 0, (25, 15): 0, (25, 16): 0, (25, 17): 0, (25, 18): 0, (25, 19): 0, (25, 20): 0, (25, 21): 0, (25, 22): 0, (25, 23): 0, (25, 24): 0, (25, 25): 0, (25, 26): 0, (25, 27): 0, (25, 28): 0, (25, 29): 0, (25, 30): 0, (25, 31): 0, (25, 32): 0, (25, 33): 0, (25, 34): 0, (25, 35): 0, (25, 36): 0, (25, 37): 0, (25, 38): 1, (25, 39): 1, (25, 40): 1, (25, 41): 1, (25, 42): 1, (26, 1): 0, (26, 2): 0, (26, 3): 0, (26, 4): 0, (26, 5): 0, (26, 6): 0, (26, 7): 0, (26, 8): 0, (26, 9): 0, (26, 10): 0, (26, 11): 0, (26, 12): 0, (26, 13): 0, (26, 14): 0, (26, 15): 0, (26, 16): 0, (26, 17): 0, (26, 18): 0, (26, 19): 0, (26, 20): 0, (26, 21): 0, (26, 22): 0, (26, 23): 0, (26, 24): 0, (26, 25): 0, (26, 26): 1, (26, 27): 1, (26, 28): 1, (26, 29): 1, (26, 30): 1, (26, 31): 1, (26, 32): 0, (26, 33): 0, (26, 34): 0, (26, 35): 0, (26, 36): 0, (26, 37): 0, (26, 38): 0, (26, 39): 0, (26, 40): 0, (26, 41): 0, (26, 42): 0, (28, 1): 0, (28, 2): 0, (28, 3): 0, (28, 4): 0, (28, 5): 0, (28, 6): 0, (28, 7): 0, (28, 8): 0, (28, 9): 0, (28, 10): 0, (28, 11): 0, (28, 12): 0, (28, 13): 0, (28, 14): 0, (28, 15): 0, (28, 16): 0, (28, 17): 0, (28, 18): 0, (28, 19): 0, (28, 20): 0, (28, 21): 0, (28, 22): 0, (28, 23): 0, (28, 24): 0, (28, 25): 0, (28, 26): 0, (28, 27): 0, (28, 28): 0, (28, 29): 0, (28, 30): 1, (28, 31): 1, (28, 32): 1, (28, 33): 1, (28, 34): 1, (28, 35): 1, (28, 36): 1, (28, 37): 1, (28, 38): 1, (28, 39): 1, (28, 40): 1, (28, 41): 1, (28, 42): 0, (30, 1): 0, (30, 2): 0, (30, 3): 0, (30, 4): 0, (30, 5): 0, (30, 6): 0, (30, 7): 0, (30, 8): 0, (30, 9): 0, (30, 10): 0, (30, 11): 0, (30, 12): 0, (30, 13): 0, (30, 14): 0, (30, 15): 0, (30, 16): 0, (30, 17): 0, (30, 18): 0, (30, 19): 0, (30, 20): 0, (30, 21): 0, (30, 22): 0, (30, 23): 1, (30, 24): 1, (30, 25): 1, (30, 26): 1, (30, 27): 1, (30, 28): 1, (30, 29): 1, (30, 30): 1, (30, 31): 0, (30, 32): 0, (30, 33): 0, (30, 34): 0, (30, 35): 0, (30, 36): 0, (30, 37): 0, (30, 38): 0, (30, 39): 0, (30, 40): 0, (30, 41): 0, (30, 42): 0, (31, 1): 0, (31, 2): 0, (31, 3): 0, (31, 4): 0, (31, 5): 0, (31, 6): 0, (31, 7): 0, (31, 8): 1, (31, 9): 1, (31, 10): 1, (31, 11): 1, (31, 12): 1, (31, 13): 1, (31, 14): 1, (31, 15): 1, (31, 16): 1, (31, 17): 1, (31, 18): 1, (31, 19): 1, (31, 20): 1, (31, 21): 0, (31, 22): 0, (31, 23): 0, (31, 24): 0, (31, 25): 0, (31, 26): 0, (31, 27): 0, (31, 28): 0, (31, 29): 0, (31, 30): 0, (31, 31): 0, (31, 32): 0, (31, 33): 0, (31, 34): 0, (31, 35): 0, (31, 36): 0, (31, 37): 0, (31, 38): 0, (31, 39): 0, (31, 40): 0, (31, 41): 0, (31, 42): 0, (36, 1): 0, (36, 2): 0, (36, 3): 0, (36, 4): 0, (36, 5): 0, (36, 6): 0, (36, 7): 0, (36, 8): 0, (36, 9): 0, (36, 10): 0, (36, 11): 0, (36, 12): 0, (36, 13): 0, (36, 14): 0, (36, 15): 0, (36, 16): 0, (36, 17): 0, (36, 18): 0, (36, 19): 0, (36, 20): 0, (36, 21): 0, (36, 22): 0, (36, 23): 0, (36, 24): 0, (36, 25): 0, (36, 26): 0, (36, 27): 0, (36, 28): 1, (36, 29): 1, (36, 30): 1, (36, 31): 1, (36, 32): 1, (36, 33): 1, (36, 34): 1, (36, 35): 1, (36, 36): 1, (36, 37): 1, (36, 38): 1, (36, 39): 0, (36, 40): 0, (36, 41): 0, (36, 42): 0, (37, 1): 0, (37, 2): 0, (37, 3): 0, (37, 4): 0, (37, 5): 0, (37, 6): 0, (37, 7): 0, (37, 8): 0, (37, 9): 0, (37, 10): 0, (37, 11): 0, (37, 12): 0, (37, 13): 0, (37, 14): 0, (37, 15): 0, (37, 16): 0, (37, 17): 0, (37, 18): 0, (37, 19): 0, (37, 20): 0, (37, 21): 0, (37, 22): 0, (37, 23): 0, (37, 24): 0, (37, 25): 0, (37, 26): 1, (37, 27): 1, (37, 28): 1, (37, 29): 1, (37, 30): 1, (37, 31): 1, (37, 32): 1, (37, 33): 1, (37, 34): 0, (37, 35): 0, (37, 36): 0, (37, 37): 0, (37, 38): 0, (37, 39): 0, (37, 40): 0, (37, 41): 0, (37, 42): 0, (38, 1): 0, (38, 2): 0, (38, 3): 0, (38, 4): 0, (38, 5): 0, (38, 6): 0, (38, 7): 0, (38, 8): 0, (38, 9): 0, (38, 10): 0, (38, 11): 0, (38, 12): 0, (38, 13): 0, (38, 14): 0, (38, 15): 0, (38, 16): 0, (38, 17): 0, (38, 18): 0, (38, 19): 0, (38, 20): 0, (38, 21): 0, (38, 22): 0, (38, 23): 0, (38, 24): 0, (38, 25): 0, (38, 26): 0, (38, 27): 0, (38, 28): 0, (38, 29): 0, (38, 30): 0, (38, 31): 0, (38, 32): 0, (38, 33): 0, (38, 34): 0, (38, 35): 0, (38, 36): 0, (38, 37): 0, (38, 38): 0, (38, 39): 0, (38, 40): 0, (38, 41): 1, (38, 42): 1, (39, 1): 0, (39, 2): 0, (39, 3): 0, (39, 4): 0, (39, 5): 0, (39, 6): 0, (39, 7): 0, (39, 8): 0, (39, 9): 0, (39, 10): 0, (39, 11): 0, (39, 12): 0, (39, 13): 0, (39, 14): 0, (39, 15): 0, (39, 16): 0, (39, 17): 0, (39, 18): 1, (39, 19): 1, (39, 20): 1, (39, 21): 1, (39, 22): 1, (39, 23): 1, (39, 24): 1, (39, 25): 0, (39, 26): 0, (39, 27): 0, (39, 28): 0, (39, 29): 0, (39, 30): 0, (39, 31): 0, (39, 32): 0, (39, 33): 0, (39, 34): 0, (39, 35): 0, (39, 36): 0, (39, 37): 0, (39, 38): 0, (39, 39): 0, (39, 40): 0, (39, 41): 0, (39, 42): 0, (40, 1): 0, (40, 2): 0, (40, 3): 0, (40, 4): 0, (40, 5): 0, (40, 6): 0, (40, 7): 0, (40, 8): 1, (40, 9): 1, (40, 10): 1, (40, 11): 1, (40, 12): 1, (40, 13): 1, (40, 14): 1, (40, 15): 1, (40, 16): 0, (40, 17): 0, (40, 18): 0, (40, 19): 0, (40, 20): 0, (40, 21): 0, (40, 22): 0, (40, 23): 0, (40, 24): 0, (40, 25): 0, (40, 26): 0, (40, 27): 0, (40, 28): 0, (40, 29): 0, (40, 30): 0, (40, 31): 0, (40, 32): 0, (40, 33): 0, (40, 34): 0, (40, 35): 0, (40, 36): 0, (40, 37): 0, (40, 38): 0, (40, 39): 0, (40, 40): 0, (40, 41): 0, (40, 42): 0, (41, 1): 0, (41, 2): 0, (41, 3): 0, (41, 4): 0, (41, 5): 0, (41, 6): 0, (41, 7): 0, (41, 8): 0, (41, 9): 0, (41, 10): 0, (41, 11): 0, (41, 12): 0, (41, 13): 0, (41, 14): 0, (41, 15): 0, (41, 16): 0, (41, 17): 0, (41, 18): 0, (41, 19): 0, (41, 20): 0, (41, 21): 0, (41, 22): 0, (41, 23): 1, (41, 24): 1, (41, 25): 1, (41, 26): 1, (41, 27): 1, (41, 28): 1, (41, 29): 0, (41, 30): 0, (41, 31): 0, (41, 32): 0, (41, 33): 0, (41, 34): 0, (41, 35): 0, (41, 36): 0, (41, 37): 0, (41, 38): 0, (41, 39): 0, (41, 40): 0, (41, 41): 0, (41, 42): 0, (43, 1): 0, (43, 2): 0, (43, 3): 0, (43, 4): 0, (43, 5): 0, (43, 6): 0, (43, 7): 0, (43, 8): 0, (43, 9): 0, (43, 10): 0, (43, 11): 0, (43, 12): 0, (43, 13): 0, (43, 14): 0, (43, 15): 0, (43, 16): 0, (43, 17): 1, (43, 18): 1, (43, 19): 1, (43, 20): 1, (43, 21): 1, (43, 22): 1, (43, 23): 1, (43, 24): 1, (43, 25): 0, (43, 26): 0, (43, 27): 0, (43, 28): 0, (43, 29): 0, (43, 30): 0, (43, 31): 0, (43, 32): 0, (43, 33): 0, (43, 34): 0, (43, 35): 0, (43, 36): 0, (43, 37): 0, (43, 38): 0, (43, 39): 0, (43, 40): 0, (43, 41): 0, (43, 42): 0, (50, 1): 0, (50, 2): 0, (50, 3): 0, (50, 4): 0, (50, 5): 0, (50, 6): 0, (50, 7): 0, (50, 8): 0, (50, 9): 0, (50, 10): 0, (50, 11): 1, (50, 12): 1, (50, 13): 1, (50, 14): 1, (50, 15): 1, (50, 16): 1, (50, 17): 1, (50, 18): 0, (50, 19): 0, (50, 20): 0, (50, 21): 0, (50, 22): 0, (50, 23): 0, (50, 24): 0, (50, 25): 0, (50, 26): 0, (50, 27): 0, (50, 28): 0, (50, 29): 0, (50, 30): 0, (50, 31): 0, (50, 32): 0, (50, 33): 0, (50, 34): 0, (50, 35): 0, (50, 36): 0, (50, 37): 0, (50, 38): 0, (50, 39): 0, (50, 40): 0, (50, 41): 0, (50, 42): 0, (59, 1): 0, (59, 2): 0, (59, 3): 0, (59, 4): 0, (59, 5): 0, (59, 6): 0, (59, 7): 0, (59, 8): 0, (59, 9): 0, (59, 10): 0, (59, 11): 0, (59, 12): 0, (59, 13): 0, (59, 14): 0, (59, 15): 1, (59, 16): 1, (59, 17): 1, (59, 18): 1, (59, 19): 1, (59, 20): 1, (59, 21): 1, (59, 22): 1, (59, 23): 1, (59, 24): 0, (59, 25): 0, (59, 26): 0, (59, 27): 0, (59, 28): 0, (59, 29): 0, (59, 30): 0, (59, 31): 0, (59, 32): 0, (59, 33): 0, (59, 34): 0, (59, 35): 0, (59, 36): 0, (59, 37): 0, (59, 38): 0, (59, 39): 0, (59, 40): 0, (59, 41): 0, (59, 42): 0, (60, 1): 0, (60, 2): 0, (60, 3): 0, (60, 4): 0, (60, 5): 0, (60, 6): 0, (60, 7): 0, (60, 8): 0, (60, 9): 0, (60, 10): 0, (60, 11): 0, (60, 12): 0, (60, 13): 0, (60, 14): 0, (60, 15): 0, (60, 16): 0, (60, 17): 0, (60, 18): 0, (60, 19): 0, (60, 20): 0, (60, 21): 0, (60, 22): 0, (60, 23): 0, (60, 24): 0, (60, 25): 0, (60, 26): 0, (60, 27): 0, (60, 28): 0, (60, 29): 0, (60, 30): 0, (60, 31): 0, (60, 32): 0, (60, 33): 0, (60, 34): 0, (60, 35): 0, (60, 36): 0, (60, 37): 0, (60, 38): 1, (60, 39): 1, (60, 40): 1, (60, 41): 1, (60, 42): 1, (62, 1): 0, (62, 2): 0, (62, 3): 0, (62, 4): 0, (62, 5): 0, (62, 6): 0, (62, 7): 0, (62, 8): 0, (62, 9): 0, (62, 10): 0, (62, 11): 0, (62, 12): 0, (62, 13): 0, (62, 14): 0, (62, 15): 0, (62, 16): 0, (62, 17): 0, (62, 18): 0, (62, 19): 0, (62, 20): 1, (62, 21): 1, (62, 22): 1, (62, 23): 1, (62, 24): 1, (62, 25): 1, (62, 26): 0, (62, 27): 0, (62, 28): 0, (62, 29): 0, (62, 30): 0, (62, 31): 0, (62, 32): 0, (62, 33): 0, (62, 34): 0, (62, 35): 0, (62, 36): 0, (62, 37): 0, (62, 38): 0, (62, 39): 0, (62, 40): 0, (62, 41): 0, (62, 42): 0, (63, 1): 0, (63, 2): 0, (63, 3): 0, (63, 4): 0, (63, 5): 0, (63, 6): 0, (63, 7): 0, (63, 8): 0, (63, 9): 0, (63, 10): 0, (63, 11): 0, (63, 12): 0, (63, 13): 0, (63, 14): 0, (63, 15): 0, (63, 16): 0, (63, 17): 0, (63, 18): 0, (63, 19): 0, (63, 20): 0, (63, 21): 0, (63, 22): 0, (63, 23): 0, (63, 24): 0, (63, 25): 0, (63, 26): 0, (63, 27): 0, (63, 28): 0, (63, 29): 0, (63, 30): 0, (63, 31): 0, (63, 32): 0, (63, 33): 0, (63, 34): 0, (63, 35): 0, (63, 36): 0, (63, 37): 1, (63, 38): 1, (63, 39): 1, (63, 40): 1, (63, 41): 1, (63, 42): 1, (65, 1): 0, (65, 2): 0, (65, 3): 0, (65, 4): 0, (65, 5): 0, (65, 6): 0, (65, 7): 0, (65, 8): 0, (65, 9): 0, (65, 10): 0, (65, 11): 0, (65, 12): 0, (65, 13): 0, (65, 14): 0, (65, 15): 0, (65, 16): 0, (65, 17): 0, (65, 18): 0, (65, 19): 0, (65, 20): 0, (65, 21): 0, (65, 22): 0, (65, 23): 0, (65, 24): 0, (65, 25): 0, (65, 26): 0, (65, 27): 1, (65, 28): 1, (65, 29): 1, (65, 30): 1, (65, 31): 1, (65, 32): 1, (65, 33): 0, (65, 34): 0, (65, 35): 0, (65, 36): 0, (65, 37): 0, (65, 38): 0, (65, 39): 0, (65, 40): 0, (65, 41): 0, (65, 42): 0, (66, 1): 0, (66, 2): 0, (66, 3): 0, (66, 4): 0, (66, 5): 0, (66, 6): 0, (66, 7): 0, (66, 8): 0, (66, 9): 0, (66, 10): 0, (66, 11): 0, (66, 12): 0, (66, 13): 0, (66, 14): 0, (66, 15): 0, (66, 16): 0, (66, 17): 0, (66, 18): 0, (66, 19): 0, (66, 20): 0, (66, 21): 0, (66, 22): 0, (66, 23): 0, (66, 24): 0, (66, 25): 0, (66, 26): 0, (66, 27): 0, (66, 28): 0, (66, 29): 0, (66, 30): 1, (66, 31): 1, (66, 32): 1, (66, 33): 1, (66, 34): 1, (66, 35): 0, (66, 36): 0, (66, 37): 0, (66, 38): 0, (66, 39): 0, (66, 40): 0, (66, 41): 0, (66, 42): 0, (67, 1): 0, (67, 2): 0, (67, 3): 0, (67, 4): 0, (67, 5): 0, (67, 6): 0, (67, 7): 0, (67, 8): 0, (67, 9): 0, (67, 10): 0, (67, 11): 0, (67, 12): 0, (67, 13): 0, (67, 14): 1, (67, 15): 1, (67, 16): 1, (67, 17): 1, (67, 18): 1, (67, 19): 1, (67, 20): 0, (67, 21): 0, (67, 22): 0, (67, 23): 0, (67, 24): 0, (67, 25): 0, (67, 26): 0, (67, 27): 0, (67, 28): 0, (67, 29): 0, (67, 30): 0, (67, 31): 0, (67, 32): 0, (67, 33): 0, (67, 34): 0, (67, 35): 0, (67, 36): 0, (67, 37): 0, (67, 38): 0, (67, 39): 0, (67, 40): 0, (67, 41): 0, (67, 42): 0, (70, 1): 0, (70, 2): 0, (70, 3): 0, (70, 4): 0, (70, 5): 0, (70, 6): 0, (70, 7): 0, (70, 8): 0, (70, 9): 0, (70, 10): 0, (70, 11): 0, (70, 12): 0, (70, 13): 0, (70, 14): 0, (70, 15): 0, (70, 16): 0, (70, 17): 0, (70, 18): 0, (70, 19): 0, (70, 20): 0, (70, 21): 0, (70, 22): 0, (70, 23): 0, (70, 24): 0, (70, 25): 0, (70, 26): 0, (70, 27): 0, (70, 28): 0, (70, 29): 0, (70, 30): 0, (70, 31): 0, (70, 32): 1, (70, 33): 1, (70, 34): 1, (70, 35): 1, (70, 36): 1, (70, 37): 0, (70, 38): 0, (70, 39): 0, (70, 40): 0, (70, 41): 0, (70, 42): 0, (71, 1): 0, (71, 2): 0, (71, 3): 0, (71, 4): 0, (71, 5): 0, (71, 6): 0, (71, 7): 0, (71, 8): 0, (71, 9): 0, (71, 10): 0, (71, 11): 0, (71, 12): 0, (71, 13): 0, (71, 14): 0, (71, 15): 0, (71, 16): 0, (71, 17): 0, (71, 18): 0, (71, 19): 0, (71, 20): 0, (71, 21): 0, (71, 22): 0, (71, 23): 0, (71, 24): 0, (71, 25): 0, (71, 26): 0, (71, 27): 0, (71, 28): 0, (71, 29): 0, (71, 30): 0, (71, 31): 0, (71, 32): 0, (71, 33): 1, (71, 34): 1, (71, 35): 1, (71, 36): 1, (71, 37): 1, (71, 38): 1, (71, 39): 1, (71, 40): 1, (71, 41): 0, (71, 42): 0, (73, 1): 0, (73, 2): 0, (73, 3): 0, (73, 4): 0, (73, 5): 0, (73, 6): 0, (73, 7): 0, (73, 8): 0, (73, 9): 0, (73, 10): 0, (73, 11): 0, (73, 12): 0, (73, 13): 0, (73, 14): 0, (73, 15): 0, (73, 16): 0, (73, 17): 0, (73, 18): 0, (73, 19): 0, (73, 20): 0, (73, 21): 0, (73, 22): 0, (73, 23): 0, (73, 24): 0, (73, 25): 0, (73, 26): 0, (73, 27): 0, (73, 28): 0, (73, 29): 0, (73, 30): 0, (73, 31): 1, (73, 32): 1, (73, 33): 1, (73, 34): 1, (73, 35): 1, (73, 36): 1, (73, 37): 1, (73, 38): 1, (73, 39): 1, (73, 40): 1, (73, 41): 1, (73, 42): 0, (75, 1): 0, (75, 2): 0, (75, 3): 0, (75, 4): 0, (75, 5): 0, (75, 6): 0, (75, 7): 0, (75, 8): 0, (75, 9): 0, (75, 10): 0, (75, 11): 0, (75, 12): 0, (75, 13): 0, (75, 14): 0, (75, 15): 0, (75, 16): 0, (75, 17): 0, (75, 18): 0, (75, 19): 0, (75, 20): 1, (75, 21): 1, (75, 22): 1, (75, 23): 1, (75, 24): 1, (75, 25): 1, (75, 26): 1, (75, 27): 0, (75, 28): 0, (75, 29): 0, (75, 30): 0, (75, 31): 0, (75, 32): 0, (75, 33): 0, (75, 34): 0, (75, 35): 0, (75, 36): 0, (75, 37): 0, (75, 38): 0, (75, 39): 0, (75, 40): 0, (75, 41): 0, (75, 42): 0, (77, 1): 0, (77, 2): 0, (77, 3): 0, (77, 4): 0, (77, 5): 0, (77, 6): 0, (77, 7): 0, (77, 8): 0, (77, 9): 0, (77, 10): 0, (77, 11): 0, (77, 12): 0, (77, 13): 0, (77, 14): 0, (77, 15): 0, (77, 16): 0, (77, 17): 0, (77, 18): 0, (77, 19): 0, (77, 20): 0, (77, 21): 0, (77, 22): 0, (77, 23): 0, (77, 24): 0, (77, 25): 0, (77, 26): 0, (77, 27): 0, (77, 28): 0, (77, 29): 0, (77, 30): 0, (77, 31): 0, (77, 32): 0, (77, 33): 0, (77, 34): 0, (77, 35): 0, (77, 36): 0, (77, 37): 0, (77, 38): 0, (77, 39): 0, (77, 40): 1, (77, 41): 1, (77, 42): 1, (78, 1): 0, (78, 2): 0, (78, 3): 0, (78, 4): 0, (78, 5): 0, (78, 6): 0, (78, 7): 0, (78, 8): 0, (78, 9): 0, (78, 10): 0, (78, 11): 1, (78, 12): 1, (78, 13): 1, (78, 14): 1, (78, 15): 1, (78, 16): 1, (78, 17): 1, (78, 18): 1, (78, 19): 0, (78, 20): 0, (78, 21): 0, (78, 22): 0, (78, 23): 0, (78, 24): 0, (78, 25): 0, (78, 26): 0, (78, 27): 0, (78, 28): 0, (78, 29): 0, (78, 30): 0, (78, 31): 0, (78, 32): 0, (78, 33): 0, (78, 34): 0, (78, 35): 0, (78, 36): 0, (78, 37): 0, (78, 38): 0, (78, 39): 0, (78, 40): 0, (78, 41): 0, (78, 42): 0, (79, 1): 0, (79, 2): 0, (79, 3): 0, (79, 4): 0, (79, 5): 0, (79, 6): 0, (79, 7): 0, (79, 8): 0, (79, 9): 0, (79, 10): 0, (79, 11): 0, (79, 12): 0, (79, 13): 0, (79, 14): 0, (79, 15): 0, (79, 16): 0, (79, 17): 0, (79, 18): 0, (79, 19): 0, (79, 20): 1, (79, 21): 1, (79, 22): 1, (79, 23): 1, (79, 24): 1, (79, 25): 1, (79, 26): 0, (79, 27): 0, (79, 28): 0, (79, 29): 0, (79, 30): 0, (79, 31): 0, (79, 32): 0, (79, 33): 0, (79, 34): 0, (79, 35): 0, (79, 36): 0, (79, 37): 0, (79, 38): 0, (79, 39): 0, (79, 40): 0, (79, 41): 0, (79, 42): 0, (81, 1): 0, (81, 2): 0, (81, 3): 0, (81, 4): 0, (81, 5): 0, (81, 6): 0, (81, 7): 0, (81, 8): 0, (81, 9): 0, (81, 10): 0, (81, 11): 0, (81, 12): 1, (81, 13): 1, (81, 14): 1, (81, 15): 1, (81, 16): 1, (81, 17): 1, (81, 18): 0, (81, 19): 0, (81, 20): 0, (81, 21): 0, (81, 22): 0, (81, 23): 0, (81, 24): 0, (81, 25): 0, (81, 26): 0, (81, 27): 0, (81, 28): 0, (81, 29): 0, (81, 30): 0, (81, 31): 0, (81, 32): 0, (81, 33): 0, (81, 34): 0, (81, 35): 0, (81, 36): 0, (81, 37): 0, (81, 38): 0, (81, 39): 0, (81, 40): 0, (81, 41): 0, (81, 42): 0, (82, 1): 0, (82, 2): 0, (82, 3): 0, (82, 4): 0, (82, 5): 0, (82, 6): 0, (82, 7): 0, (82, 8): 0, (82, 9): 1, (82, 10): 1, (82, 11): 1, (82, 12): 1, (82, 13): 1, (82, 14): 1, (82, 15): 1, (82, 16): 0, (82, 17): 0, (82, 18): 0, (82, 19): 0, (82, 20): 0, (82, 21): 0, (82, 22): 0, (82, 23): 0, (82, 24): 0, (82, 25): 0, (82, 26): 0, (82, 27): 0, (82, 28): 0, (82, 29): 0, (82, 30): 0, (82, 31): 0, (82, 32): 0, (82, 33): 0, (82, 34): 0, (82, 35): 0, (82, 36): 0, (82, 37): 0, (82, 38): 0, (82, 39): 0, (82, 40): 0, (82, 41): 0, (82, 42): 0}</t>
+    <t>{(11, 1): 0, (11, 2): 1, (11, 3): 0, (29, 1): 0, (29, 2): 1, (29, 3): 0, (47, 1): 0, (47, 2): 0, (47, 3): 0, (53, 1): 1, (53, 2): 0, (53, 3): 0}</t>
+  </si>
+  <si>
+    <t>{(2, 1): 0, (2, 2): 0, (2, 3): 0, (2, 4): 0, (2, 5): 0, (2, 6): 0, (2, 7): 0, (2, 8): 0, (2, 9): 0, (2, 10): 0, (2, 11): 0, (2, 12): 0, (2, 13): 0, (2, 14): 0, (2, 15): 0, (2, 16): 0, (2, 17): 1, (2, 18): 1, (2, 19): 1, (2, 20): 1, (2, 21): 1, (2, 22): 1, (2, 23): 1, (2, 24): 1, (2, 25): 1, (2, 26): 1, (2, 27): 1, (2, 28): 1, (2, 29): 1, (2, 30): 1, (2, 31): 1, (2, 32): 1, (2, 33): 1, (2, 34): 1, (2, 35): 1, (2, 36): 1, (2, 37): 1, (2, 38): 1, (2, 39): 1, (2, 40): 1, (2, 41): 1, (2, 42): 1, (3, 1): 0, (3, 2): 0, (3, 3): 0, (3, 4): 0, (3, 5): 0, (3, 6): 0, (3, 7): 0, (3, 8): 0, (3, 9): 0, (3, 10): 0, (3, 11): 0, (3, 12): 0, (3, 13): 0, (3, 14): 0, (3, 15): 0, (3, 16): 0, (3, 17): 1, (3, 18): 1, (3, 19): 1, (3, 20): 1, (3, 21): 1, (3, 22): 1, (3, 23): 1, (3, 24): 1, (3, 25): 1, (3, 26): 1, (3, 27): 1, (3, 28): 1, (3, 29): 1, (3, 30): 1, (3, 31): 1, (3, 32): 1, (3, 33): 1, (3, 34): 1, (3, 35): 1, (3, 36): 1, (3, 37): 1, (3, 38): 1, (3, 39): 0, (3, 40): 0, (3, 41): 0, (3, 42): 0, (4, 1): 0, (4, 2): 0, (4, 3): 0, (4, 4): 0, (4, 5): 0, (4, 6): 0, (4, 7): 0, (4, 8): 0, (4, 9): 0, (4, 10): 0, (4, 11): 0, (4, 12): 0, (4, 13): 0, (4, 14): 0, (4, 15): 0, (4, 16): 0, (4, 17): 0, (4, 18): 0, (4, 19): 0, (4, 20): 0, (4, 21): 0, (4, 22): 0, (4, 23): 0, (4, 24): 0, (4, 25): 0, (4, 26): 0, (4, 27): 0, (4, 28): 0, (4, 29): 0, (4, 30): 1, (4, 31): 1, (4, 32): 1, (4, 33): 1, (4, 34): 1, (4, 35): 1, (4, 36): 1, (4, 37): 1, (4, 38): 1, (4, 39): 1, (4, 40): 1, (4, 41): 1, (4, 42): 1, (9, 1): 0, (9, 2): 0, (9, 3): 0, (9, 4): 0, (9, 5): 0, (9, 6): 0, (9, 7): 0, (9, 8): 0, (9, 9): 0, (9, 10): 0, (9, 11): 0, (9, 12): 0, (9, 13): 0, (9, 14): 0, (9, 15): 0, (9, 16): 0, (9, 17): 0, (9, 18): 0, (9, 19): 0, (9, 20): 0, (9, 21): 0, (9, 22): 1, (9, 23): 1, (9, 24): 1, (9, 25): 1, (9, 26): 1, (9, 27): 1, (9, 28): 1, (9, 29): 1, (9, 30): 1, (9, 31): 1, (9, 32): 1, (9, 33): 1, (9, 34): 1, (9, 35): 1, (9, 36): 1, (9, 37): 1, (9, 38): 1, (9, 39): 1, (9, 40): 0, (9, 41): 0, (9, 42): 0, (15, 1): 0, (15, 2): 0, (15, 3): 0, (15, 4): 0, (15, 5): 0, (15, 6): 0, (15, 7): 0, (15, 8): 0, (15, 9): 0, (15, 10): 0, (15, 11): 0, (15, 12): 0, (15, 13): 0, (15, 14): 0, (15, 15): 0, (15, 16): 0, (15, 17): 0, (15, 18): 0, (15, 19): 0, (15, 20): 0, (15, 21): 0, (15, 22): 0, (15, 23): 0, (15, 24): 0, (15, 25): 0, (15, 26): 0, (15, 27): 0, (15, 28): 0, (15, 29): 0, (15, 30): 1, (15, 31): 1, (15, 32): 1, (15, 33): 1, (15, 34): 1, (15, 35): 1, (15, 36): 1, (15, 37): 1, (15, 38): 1, (15, 39): 1, (15, 40): 1, (15, 41): 1, (15, 42): 0, (16, 1): 0, (16, 2): 0, (16, 3): 0, (16, 4): 0, (16, 5): 0, (16, 6): 0, (16, 7): 0, (16, 8): 0, (16, 9): 0, (16, 10): 0, (16, 11): 1, (16, 12): 1, (16, 13): 1, (16, 14): 1, (16, 15): 1, (16, 16): 1, (16, 17): 1, (16, 18): 1, (16, 19): 1, (16, 20): 1, (16, 21): 0, (16, 22): 0, (16, 23): 0, (16, 24): 0, (16, 25): 0, (16, 26): 0, (16, 27): 0, (16, 28): 0, (16, 29): 0, (16, 30): 0, (16, 31): 0, (16, 32): 0, (16, 33): 0, (16, 34): 0, (16, 35): 0, (16, 36): 0, (16, 37): 0, (16, 38): 0, (16, 39): 0, (16, 40): 0, (16, 41): 0, (16, 42): 0, (20, 1): 0, (20, 2): 0, (20, 3): 0, (20, 4): 0, (20, 5): 0, (20, 6): 0, (20, 7): 0, (20, 8): 0, (20, 9): 0, (20, 10): 0, (20, 11): 0, (20, 12): 0, (20, 13): 0, (20, 14): 0, (20, 15): 0, (20, 16): 0, (20, 17): 0, (20, 18): 0, (20, 19): 0, (20, 20): 0, (20, 21): 0, (20, 22): 0, (20, 23): 0, (20, 24): 0, (20, 25): 0, (20, 26): 0, (20, 27): 0, (20, 28): 0, (20, 29): 0, (20, 30): 0, (20, 31): 0, (20, 32): 1, (20, 33): 1, (20, 34): 1, (20, 35): 1, (20, 36): 1, (20, 37): 1, (20, 38): 0, (20, 39): 0, (20, 40): 0, (20, 41): 0, (20, 42): 0, (21, 1): 0, (21, 2): 0, (21, 3): 0, (21, 4): 0, (21, 5): 0, (21, 6): 0, (21, 7): 0, (21, 8): 0, (21, 9): 0, (21, 10): 0, (21, 11): 0, (21, 12): 0, (21, 13): 0, (21, 14): 0, (21, 15): 0, (21, 16): 0, (21, 17): 0, (21, 18): 0, (21, 19): 0, (21, 20): 0, (21, 21): 0, (21, 22): 0, (21, 23): 0, (21, 24): 0, (21, 25): 0, (21, 26): 0, (21, 27): 1, (21, 28): 1, (21, 29): 1, (21, 30): 1, (21, 31): 1, (21, 32): 1, (21, 33): 1, (21, 34): 1, (21, 35): 1, (21, 36): 1, (21, 37): 1, (21, 38): 1, (21, 39): 1, (21, 40): 1, (21, 41): 1, (21, 42): 0, (22, 1): 0, (22, 2): 0, (22, 3): 0, (22, 4): 0, (22, 5): 0, (22, 6): 0, (22, 7): 0, (22, 8): 0, (22, 9): 0, (22, 10): 0, (22, 11): 0, (22, 12): 0, (22, 13): 0, (22, 14): 0, (22, 15): 0, (22, 16): 0, (22, 17): 0, (22, 18): 0, (22, 19): 0, (22, 20): 0, (22, 21): 0, (22, 22): 0, (22, 23): 0, (22, 24): 0, (22, 25): 0, (22, 26): 0, (22, 27): 1, (22, 28): 1, (22, 29): 1, (22, 30): 1, (22, 31): 1, (22, 32): 1, (22, 33): 1, (22, 34): 1, (22, 35): 1, (22, 36): 1, (22, 37): 1, (22, 38): 1, (22, 39): 1, (22, 40): 1, (22, 41): 1, (22, 42): 0, (23, 1): 0, (23, 2): 0, (23, 3): 0, (23, 4): 0, (23, 5): 0, (23, 6): 0, (23, 7): 0, (23, 8): 0, (23, 9): 0, (23, 10): 0, (23, 11): 0, (23, 12): 0, (23, 13): 0, (23, 14): 0, (23, 15): 0, (23, 16): 0, (23, 17): 0, (23, 18): 0, (23, 19): 0, (23, 20): 0, (23, 21): 0, (23, 22): 0, (23, 23): 0, (23, 24): 0, (23, 25): 0, (23, 26): 0, (23, 27): 0, (23, 28): 0, (23, 29): 1, (23, 30): 1, (23, 31): 1, (23, 32): 1, (23, 33): 1, (23, 34): 1, (23, 35): 1, (23, 36): 0, (23, 37): 0, (23, 38): 0, (23, 39): 0, (23, 40): 0, (23, 41): 0, (23, 42): 0, (24, 1): 0, (24, 2): 0, (24, 3): 0, (24, 4): 0, (24, 5): 0, (24, 6): 0, (24, 7): 0, (24, 8): 0, (24, 9): 0, (24, 10): 0, (24, 11): 0, (24, 12): 0, (24, 13): 0, (24, 14): 0, (24, 15): 0, (24, 16): 0, (24, 17): 0, (24, 18): 0, (24, 19): 0, (24, 20): 0, (24, 21): 0, (24, 22): 1, (24, 23): 1, (24, 24): 1, (24, 25): 1, (24, 26): 1, (24, 27): 1, (24, 28): 1, (24, 29): 1, (24, 30): 0, (24, 31): 0, (24, 32): 0, (24, 33): 0, (24, 34): 0, (24, 35): 0, (24, 36): 0, (24, 37): 0, (24, 38): 0, (24, 39): 0, (24, 40): 0, (24, 41): 0, (24, 42): 0, (25, 1): 0, (25, 2): 0, (25, 3): 0, (25, 4): 0, (25, 5): 0, (25, 6): 0, (25, 7): 0, (25, 8): 0, (25, 9): 0, (25, 10): 0, (25, 11): 0, (25, 12): 0, (25, 13): 0, (25, 14): 0, (25, 15): 0, (25, 16): 0, (25, 17): 0, (25, 18): 0, (25, 19): 0, (25, 20): 0, (25, 21): 0, (25, 22): 0, (25, 23): 0, (25, 24): 0, (25, 25): 0, (25, 26): 0, (25, 27): 0, (25, 28): 0, (25, 29): 0, (25, 30): 0, (25, 31): 0, (25, 32): 0, (25, 33): 0, (25, 34): 0, (25, 35): 0, (25, 36): 0, (25, 37): 0, (25, 38): 1, (25, 39): 1, (25, 40): 1, (25, 41): 1, (25, 42): 1, (26, 1): 0, (26, 2): 0, (26, 3): 0, (26, 4): 0, (26, 5): 0, (26, 6): 0, (26, 7): 0, (26, 8): 0, (26, 9): 0, (26, 10): 0, (26, 11): 0, (26, 12): 0, (26, 13): 0, (26, 14): 0, (26, 15): 0, (26, 16): 0, (26, 17): 0, (26, 18): 0, (26, 19): 0, (26, 20): 0, (26, 21): 0, (26, 22): 0, (26, 23): 0, (26, 24): 0, (26, 25): 0, (26, 26): 1, (26, 27): 1, (26, 28): 1, (26, 29): 1, (26, 30): 1, (26, 31): 1, (26, 32): 0, (26, 33): 0, (26, 34): 0, (26, 35): 0, (26, 36): 0, (26, 37): 0, (26, 38): 0, (26, 39): 0, (26, 40): 0, (26, 41): 0, (26, 42): 0, (28, 1): 0, (28, 2): 0, (28, 3): 0, (28, 4): 0, (28, 5): 0, (28, 6): 0, (28, 7): 0, (28, 8): 0, (28, 9): 0, (28, 10): 0, (28, 11): 0, (28, 12): 0, (28, 13): 0, (28, 14): 0, (28, 15): 0, (28, 16): 0, (28, 17): 0, (28, 18): 0, (28, 19): 0, (28, 20): 0, (28, 21): 0, (28, 22): 0, (28, 23): 0, (28, 24): 0, (28, 25): 0, (28, 26): 0, (28, 27): 0, (28, 28): 0, (28, 29): 0, (28, 30): 1, (28, 31): 1, (28, 32): 1, (28, 33): 1, (28, 34): 1, (28, 35): 1, (28, 36): 1, (28, 37): 1, (28, 38): 1, (28, 39): 1, (28, 40): 1, (28, 41): 1, (28, 42): 0, (30, 1): 0, (30, 2): 0, (30, 3): 0, (30, 4): 0, (30, 5): 0, (30, 6): 0, (30, 7): 0, (30, 8): 0, (30, 9): 0, (30, 10): 0, (30, 11): 0, (30, 12): 0, (30, 13): 0, (30, 14): 0, (30, 15): 0, (30, 16): 0, (30, 17): 0, (30, 18): 0, (30, 19): 0, (30, 20): 0, (30, 21): 0, (30, 22): 0, (30, 23): 1, (30, 24): 1, (30, 25): 1, (30, 26): 1, (30, 27): 1, (30, 28): 1, (30, 29): 1, (30, 30): 1, (30, 31): 1, (30, 32): 0, (30, 33): 0, (30, 34): 0, (30, 35): 0, (30, 36): 0, (30, 37): 0, (30, 38): 0, (30, 39): 0, (30, 40): 0, (30, 41): 0, (30, 42): 0, (31, 1): 0, (31, 2): 0, (31, 3): 0, (31, 4): 0, (31, 5): 0, (31, 6): 0, (31, 7): 0, (31, 8): 1, (31, 9): 1, (31, 10): 1, (31, 11): 1, (31, 12): 1, (31, 13): 1, (31, 14): 1, (31, 15): 1, (31, 16): 1, (31, 17): 1, (31, 18): 1, (31, 19): 1, (31, 20): 1, (31, 21): 1, (31, 22): 0, (31, 23): 0, (31, 24): 0, (31, 25): 0, (31, 26): 0, (31, 27): 0, (31, 28): 0, (31, 29): 0, (31, 30): 0, (31, 31): 0, (31, 32): 0, (31, 33): 0, (31, 34): 0, (31, 35): 0, (31, 36): 0, (31, 37): 0, (31, 38): 0, (31, 39): 0, (31, 40): 0, (31, 41): 0, (31, 42): 0, (36, 1): 0, (36, 2): 0, (36, 3): 0, (36, 4): 0, (36, 5): 0, (36, 6): 0, (36, 7): 0, (36, 8): 0, (36, 9): 0, (36, 10): 0, (36, 11): 0, (36, 12): 0, (36, 13): 0, (36, 14): 0, (36, 15): 0, (36, 16): 0, (36, 17): 0, (36, 18): 0, (36, 19): 0, (36, 20): 0, (36, 21): 0, (36, 22): 0, (36, 23): 0, (36, 24): 0, (36, 25): 0, (36, 26): 0, (36, 27): 0, (36, 28): 1, (36, 29): 1, (36, 30): 1, (36, 31): 1, (36, 32): 1, (36, 33): 1, (36, 34): 1, (36, 35): 1, (36, 36): 1, (36, 37): 1, (36, 38): 1, (36, 39): 1, (36, 40): 0, (36, 41): 0, (36, 42): 0, (37, 1): 0, (37, 2): 0, (37, 3): 0, (37, 4): 0, (37, 5): 0, (37, 6): 0, (37, 7): 0, (37, 8): 0, (37, 9): 0, (37, 10): 0, (37, 11): 0, (37, 12): 0, (37, 13): 0, (37, 14): 0, (37, 15): 0, (37, 16): 0, (37, 17): 0, (37, 18): 0, (37, 19): 0, (37, 20): 0, (37, 21): 0, (37, 22): 0, (37, 23): 0, (37, 24): 0, (37, 25): 0, (37, 26): 1, (37, 27): 1, (37, 28): 1, (37, 29): 1, (37, 30): 1, (37, 31): 1, (37, 32): 1, (37, 33): 1, (37, 34): 0, (37, 35): 0, (37, 36): 0, (37, 37): 0, (37, 38): 0, (37, 39): 0, (37, 40): 0, (37, 41): 0, (37, 42): 0, (38, 1): 0, (38, 2): 0, (38, 3): 0, (38, 4): 0, (38, 5): 0, (38, 6): 0, (38, 7): 0, (38, 8): 0, (38, 9): 0, (38, 10): 0, (38, 11): 0, (38, 12): 0, (38, 13): 0, (38, 14): 0, (38, 15): 0, (38, 16): 0, (38, 17): 0, (38, 18): 0, (38, 19): 0, (38, 20): 0, (38, 21): 0, (38, 22): 0, (38, 23): 0, (38, 24): 0, (38, 25): 0, (38, 26): 0, (38, 27): 0, (38, 28): 0, (38, 29): 0, (38, 30): 0, (38, 31): 0, (38, 32): 0, (38, 33): 0, (38, 34): 0, (38, 35): 0, (38, 36): 0, (38, 37): 0, (38, 38): 0, (38, 39): 0, (38, 40): 0, (38, 41): 1, (38, 42): 1, (39, 1): 0, (39, 2): 0, (39, 3): 0, (39, 4): 0, (39, 5): 0, (39, 6): 0, (39, 7): 0, (39, 8): 0, (39, 9): 0, (39, 10): 0, (39, 11): 0, (39, 12): 0, (39, 13): 0, (39, 14): 0, (39, 15): 0, (39, 16): 0, (39, 17): 0, (39, 18): 1, (39, 19): 1, (39, 20): 1, (39, 21): 1, (39, 22): 1, (39, 23): 1, (39, 24): 1, (39, 25): 1, (39, 26): 0, (39, 27): 0, (39, 28): 0, (39, 29): 0, (39, 30): 0, (39, 31): 0, (39, 32): 0, (39, 33): 0, (39, 34): 0, (39, 35): 0, (39, 36): 0, (39, 37): 0, (39, 38): 0, (39, 39): 0, (39, 40): 0, (39, 41): 0, (39, 42): 0, (40, 1): 0, (40, 2): 0, (40, 3): 0, (40, 4): 0, (40, 5): 0, (40, 6): 0, (40, 7): 0, (40, 8): 1, (40, 9): 1, (40, 10): 1, (40, 11): 1, (40, 12): 1, (40, 13): 1, (40, 14): 1, (40, 15): 1, (40, 16): 1, (40, 17): 0, (40, 18): 0, (40, 19): 0, (40, 20): 0, (40, 21): 0, (40, 22): 0, (40, 23): 0, (40, 24): 0, (40, 25): 0, (40, 26): 0, (40, 27): 0, (40, 28): 0, (40, 29): 0, (40, 30): 0, (40, 31): 0, (40, 32): 0, (40, 33): 0, (40, 34): 0, (40, 35): 0, (40, 36): 0, (40, 37): 0, (40, 38): 0, (40, 39): 0, (40, 40): 0, (40, 41): 0, (40, 42): 0, (41, 1): 0, (41, 2): 0, (41, 3): 0, (41, 4): 0, (41, 5): 0, (41, 6): 0, (41, 7): 0, (41, 8): 0, (41, 9): 0, (41, 10): 0, (41, 11): 0, (41, 12): 0, (41, 13): 0, (41, 14): 0, (41, 15): 0, (41, 16): 0, (41, 17): 0, (41, 18): 0, (41, 19): 0, (41, 20): 0, (41, 21): 0, (41, 22): 0, (41, 23): 1, (41, 24): 1, (41, 25): 1, (41, 26): 1, (41, 27): 1, (41, 28): 1, (41, 29): 0, (41, 30): 0, (41, 31): 0, (41, 32): 0, (41, 33): 0, (41, 34): 0, (41, 35): 0, (41, 36): 0, (41, 37): 0, (41, 38): 0, (41, 39): 0, (41, 40): 0, (41, 41): 0, (41, 42): 0, (43, 1): 0, (43, 2): 0, (43, 3): 0, (43, 4): 0, (43, 5): 0, (43, 6): 0, (43, 7): 0, (43, 8): 0, (43, 9): 0, (43, 10): 0, (43, 11): 0, (43, 12): 0, (43, 13): 0, (43, 14): 0, (43, 15): 0, (43, 16): 0, (43, 17): 1, (43, 18): 1, (43, 19): 1, (43, 20): 1, (43, 21): 1, (43, 22): 1, (43, 23): 1, (43, 24): 1, (43, 25): 1, (43, 26): 0, (43, 27): 0, (43, 28): 0, (43, 29): 0, (43, 30): 0, (43, 31): 0, (43, 32): 0, (43, 33): 0, (43, 34): 0, (43, 35): 0, (43, 36): 0, (43, 37): 0, (43, 38): 0, (43, 39): 0, (43, 40): 0, (43, 41): 0, (43, 42): 0, (50, 1): 0, (50, 2): 0, (50, 3): 0, (50, 4): 0, (50, 5): 0, (50, 6): 0, (50, 7): 0, (50, 8): 0, (50, 9): 0, (50, 10): 0, (50, 11): 1, (50, 12): 1, (50, 13): 1, (50, 14): 1, (50, 15): 1, (50, 16): 1, (50, 17): 1, (50, 18): 1, (50, 19): 0, (50, 20): 0, (50, 21): 0, (50, 22): 0, (50, 23): 0, (50, 24): 0, (50, 25): 0, (50, 26): 0, (50, 27): 0, (50, 28): 0, (50, 29): 0, (50, 30): 0, (50, 31): 0, (50, 32): 0, (50, 33): 0, (50, 34): 0, (50, 35): 0, (50, 36): 0, (50, 37): 0, (50, 38): 0, (50, 39): 0, (50, 40): 0, (50, 41): 0, (50, 42): 0, (59, 1): 0, (59, 2): 0, (59, 3): 0, (59, 4): 0, (59, 5): 0, (59, 6): 0, (59, 7): 0, (59, 8): 0, (59, 9): 0, (59, 10): 0, (59, 11): 0, (59, 12): 0, (59, 13): 0, (59, 14): 0, (59, 15): 1, (59, 16): 1, (59, 17): 1, (59, 18): 1, (59, 19): 1, (59, 20): 1, (59, 21): 1, (59, 22): 1, (59, 23): 1, (59, 24): 1, (59, 25): 0, (59, 26): 0, (59, 27): 0, (59, 28): 0, (59, 29): 0, (59, 30): 0, (59, 31): 0, (59, 32): 0, (59, 33): 0, (59, 34): 0, (59, 35): 0, (59, 36): 0, (59, 37): 0, (59, 38): 0, (59, 39): 0, (59, 40): 0, (59, 41): 0, (59, 42): 0, (60, 1): 0, (60, 2): 0, (60, 3): 0, (60, 4): 0, (60, 5): 0, (60, 6): 0, (60, 7): 0, (60, 8): 0, (60, 9): 0, (60, 10): 0, (60, 11): 0, (60, 12): 0, (60, 13): 0, (60, 14): 0, (60, 15): 0, (60, 16): 0, (60, 17): 0, (60, 18): 0, (60, 19): 0, (60, 20): 0, (60, 21): 0, (60, 22): 0, (60, 23): 0, (60, 24): 0, (60, 25): 0, (60, 26): 0, (60, 27): 0, (60, 28): 0, (60, 29): 0, (60, 30): 0, (60, 31): 0, (60, 32): 0, (60, 33): 0, (60, 34): 0, (60, 35): 0, (60, 36): 0, (60, 37): 0, (60, 38): 1, (60, 39): 1, (60, 40): 1, (60, 41): 1, (60, 42): 1, (62, 1): 0, (62, 2): 0, (62, 3): 0, (62, 4): 0, (62, 5): 0, (62, 6): 0, (62, 7): 0, (62, 8): 0, (62, 9): 0, (62, 10): 0, (62, 11): 0, (62, 12): 0, (62, 13): 0, (62, 14): 0, (62, 15): 0, (62, 16): 0, (62, 17): 0, (62, 18): 0, (62, 19): 0, (62, 20): 1, (62, 21): 1, (62, 22): 1, (62, 23): 1, (62, 24): 1, (62, 25): 1, (62, 26): 1, (62, 27): 0, (62, 28): 0, (62, 29): 0, (62, 30): 0, (62, 31): 0, (62, 32): 0, (62, 33): 0, (62, 34): 0, (62, 35): 0, (62, 36): 0, (62, 37): 0, (62, 38): 0, (62, 39): 0, (62, 40): 0, (62, 41): 0, (62, 42): 0, (63, 1): 0, (63, 2): 0, (63, 3): 0, (63, 4): 0, (63, 5): 0, (63, 6): 0, (63, 7): 0, (63, 8): 0, (63, 9): 0, (63, 10): 0, (63, 11): 0, (63, 12): 0, (63, 13): 0, (63, 14): 0, (63, 15): 0, (63, 16): 0, (63, 17): 0, (63, 18): 0, (63, 19): 0, (63, 20): 0, (63, 21): 0, (63, 22): 0, (63, 23): 0, (63, 24): 0, (63, 25): 0, (63, 26): 0, (63, 27): 0, (63, 28): 0, (63, 29): 0, (63, 30): 0, (63, 31): 0, (63, 32): 0, (63, 33): 0, (63, 34): 0, (63, 35): 0, (63, 36): 0, (63, 37): 1, (63, 38): 1, (63, 39): 1, (63, 40): 1, (63, 41): 1, (63, 42): 1, (65, 1): 0, (65, 2): 0, (65, 3): 0, (65, 4): 0, (65, 5): 0, (65, 6): 0, (65, 7): 0, (65, 8): 0, (65, 9): 0, (65, 10): 0, (65, 11): 0, (65, 12): 0, (65, 13): 0, (65, 14): 0, (65, 15): 0, (65, 16): 0, (65, 17): 0, (65, 18): 0, (65, 19): 0, (65, 20): 0, (65, 21): 0, (65, 22): 0, (65, 23): 0, (65, 24): 0, (65, 25): 0, (65, 26): 0, (65, 27): 1, (65, 28): 1, (65, 29): 1, (65, 30): 1, (65, 31): 1, (65, 32): 1, (65, 33): 0, (65, 34): 0, (65, 35): 0, (65, 36): 0, (65, 37): 0, (65, 38): 0, (65, 39): 0, (65, 40): 0, (65, 41): 0, (65, 42): 0, (66, 1): 0, (66, 2): 0, (66, 3): 0, (66, 4): 0, (66, 5): 0, (66, 6): 0, (66, 7): 0, (66, 8): 0, (66, 9): 0, (66, 10): 0, (66, 11): 0, (66, 12): 0, (66, 13): 0, (66, 14): 0, (66, 15): 0, (66, 16): 0, (66, 17): 0, (66, 18): 0, (66, 19): 0, (66, 20): 0, (66, 21): 0, (66, 22): 0, (66, 23): 0, (66, 24): 0, (66, 25): 0, (66, 26): 0, (66, 27): 0, (66, 28): 0, (66, 29): 0, (66, 30): 1, (66, 31): 1, (66, 32): 1, (66, 33): 1, (66, 34): 0, (66, 35): 0, (66, 36): 0, (66, 37): 0, (66, 38): 0, (66, 39): 0, (66, 40): 0, (66, 41): 0, (66, 42): 0, (67, 1): 0, (67, 2): 0, (67, 3): 0, (67, 4): 0, (67, 5): 0, (67, 6): 0, (67, 7): 0, (67, 8): 0, (67, 9): 0, (67, 10): 0, (67, 11): 0, (67, 12): 0, (67, 13): 0, (67, 14): 1, (67, 15): 1, (67, 16): 1, (67, 17): 1, (67, 18): 1, (67, 19): 1, (67, 20): 1, (67, 21): 0, (67, 22): 0, (67, 23): 0, (67, 24): 0, (67, 25): 0, (67, 26): 0, (67, 27): 0, (67, 28): 0, (67, 29): 0, (67, 30): 0, (67, 31): 0, (67, 32): 0, (67, 33): 0, (67, 34): 0, (67, 35): 0, (67, 36): 0, (67, 37): 0, (67, 38): 0, (67, 39): 0, (67, 40): 0, (67, 41): 0, (67, 42): 0, (70, 1): 0, (70, 2): 0, (70, 3): 0, (70, 4): 0, (70, 5): 0, (70, 6): 0, (70, 7): 0, (70, 8): 0, (70, 9): 0, (70, 10): 0, (70, 11): 0, (70, 12): 0, (70, 13): 0, (70, 14): 0, (70, 15): 0, (70, 16): 0, (70, 17): 0, (70, 18): 0, (70, 19): 0, (70, 20): 0, (70, 21): 0, (70, 22): 0, (70, 23): 0, (70, 24): 0, (70, 25): 0, (70, 26): 0, (70, 27): 0, (70, 28): 0, (70, 29): 0, (70, 30): 0, (70, 31): 0, (70, 32): 1, (70, 33): 1, (70, 34): 1, (70, 35): 1, (70, 36): 1, (70, 37): 0, (70, 38): 0, (70, 39): 0, (70, 40): 0, (70, 41): 0, (70, 42): 0, (71, 1): 0, (71, 2): 0, (71, 3): 0, (71, 4): 0, (71, 5): 0, (71, 6): 0, (71, 7): 0, (71, 8): 0, (71, 9): 0, (71, 10): 0, (71, 11): 0, (71, 12): 0, (71, 13): 0, (71, 14): 0, (71, 15): 0, (71, 16): 0, (71, 17): 0, (71, 18): 0, (71, 19): 0, (71, 20): 0, (71, 21): 0, (71, 22): 0, (71, 23): 0, (71, 24): 0, (71, 25): 0, (71, 26): 0, (71, 27): 0, (71, 28): 0, (71, 29): 0, (71, 30): 0, (71, 31): 0, (71, 32): 0, (71, 33): 1, (71, 34): 1, (71, 35): 1, (71, 36): 1, (71, 37): 1, (71, 38): 1, (71, 39): 1, (71, 40): 1, (71, 41): 1, (71, 42): 0, (73, 1): 0, (73, 2): 0, (73, 3): 0, (73, 4): 0, (73, 5): 0, (73, 6): 0, (73, 7): 0, (73, 8): 0, (73, 9): 0, (73, 10): 0, (73, 11): 0, (73, 12): 0, (73, 13): 0, (73, 14): 0, (73, 15): 0, (73, 16): 0, (73, 17): 0, (73, 18): 0, (73, 19): 0, (73, 20): 0, (73, 21): 0, (73, 22): 0, (73, 23): 0, (73, 24): 0, (73, 25): 0, (73, 26): 0, (73, 27): 0, (73, 28): 0, (73, 29): 0, (73, 30): 0, (73, 31): 1, (73, 32): 1, (73, 33): 1, (73, 34): 1, (73, 35): 1, (73, 36): 1, (73, 37): 1, (73, 38): 1, (73, 39): 1, (73, 40): 1, (73, 41): 1, (73, 42): 1, (75, 1): 0, (75, 2): 0, (75, 3): 0, (75, 4): 0, (75, 5): 0, (75, 6): 0, (75, 7): 0, (75, 8): 0, (75, 9): 0, (75, 10): 0, (75, 11): 0, (75, 12): 0, (75, 13): 0, (75, 14): 0, (75, 15): 0, (75, 16): 0, (75, 17): 0, (75, 18): 0, (75, 19): 0, (75, 20): 1, (75, 21): 1, (75, 22): 1, (75, 23): 1, (75, 24): 1, (75, 25): 1, (75, 26): 1, (75, 27): 1, (75, 28): 0, (75, 29): 0, (75, 30): 0, (75, 31): 0, (75, 32): 0, (75, 33): 0, (75, 34): 0, (75, 35): 0, (75, 36): 0, (75, 37): 0, (75, 38): 0, (75, 39): 0, (75, 40): 0, (75, 41): 0, (75, 42): 0, (77, 1): 0, (77, 2): 0, (77, 3): 0, (77, 4): 0, (77, 5): 0, (77, 6): 0, (77, 7): 0, (77, 8): 0, (77, 9): 0, (77, 10): 0, (77, 11): 0, (77, 12): 0, (77, 13): 0, (77, 14): 0, (77, 15): 0, (77, 16): 0, (77, 17): 0, (77, 18): 0, (77, 19): 0, (77, 20): 0, (77, 21): 0, (77, 22): 0, (77, 23): 0, (77, 24): 0, (77, 25): 0, (77, 26): 0, (77, 27): 0, (77, 28): 0, (77, 29): 0, (77, 30): 0, (77, 31): 0, (77, 32): 0, (77, 33): 0, (77, 34): 0, (77, 35): 0, (77, 36): 0, (77, 37): 0, (77, 38): 0, (77, 39): 0, (77, 40): 1, (77, 41): 1, (77, 42): 1, (78, 1): 0, (78, 2): 0, (78, 3): 0, (78, 4): 0, (78, 5): 0, (78, 6): 0, (78, 7): 0, (78, 8): 0, (78, 9): 0, (78, 10): 0, (78, 11): 1, (78, 12): 1, (78, 13): 1, (78, 14): 1, (78, 15): 1, (78, 16): 1, (78, 17): 1, (78, 18): 1, (78, 19): 1, (78, 20): 0, (78, 21): 0, (78, 22): 0, (78, 23): 0, (78, 24): 0, (78, 25): 0, (78, 26): 0, (78, 27): 0, (78, 28): 0, (78, 29): 0, (78, 30): 0, (78, 31): 0, (78, 32): 0, (78, 33): 0, (78, 34): 0, (78, 35): 0, (78, 36): 0, (78, 37): 0, (78, 38): 0, (78, 39): 0, (78, 40): 0, (78, 41): 0, (78, 42): 0, (79, 1): 0, (79, 2): 0, (79, 3): 0, (79, 4): 0, (79, 5): 0, (79, 6): 0, (79, 7): 0, (79, 8): 0, (79, 9): 0, (79, 10): 0, (79, 11): 0, (79, 12): 0, (79, 13): 0, (79, 14): 0, (79, 15): 0, (79, 16): 0, (79, 17): 0, (79, 18): 0, (79, 19): 0, (79, 20): 1, (79, 21): 1, (79, 22): 1, (79, 23): 1, (79, 24): 1, (79, 25): 1, (79, 26): 0, (79, 27): 0, (79, 28): 0, (79, 29): 0, (79, 30): 0, (79, 31): 0, (79, 32): 0, (79, 33): 0, (79, 34): 0, (79, 35): 0, (79, 36): 0, (79, 37): 0, (79, 38): 0, (79, 39): 0, (79, 40): 0, (79, 41): 0, (79, 42): 0, (81, 1): 0, (81, 2): 0, (81, 3): 0, (81, 4): 0, (81, 5): 0, (81, 6): 0, (81, 7): 0, (81, 8): 0, (81, 9): 0, (81, 10): 0, (81, 11): 0, (81, 12): 1, (81, 13): 1, (81, 14): 1, (81, 15): 1, (81, 16): 1, (81, 17): 1, (81, 18): 0, (81, 19): 0, (81, 20): 0, (81, 21): 0, (81, 22): 0, (81, 23): 0, (81, 24): 0, (81, 25): 0, (81, 26): 0, (81, 27): 0, (81, 28): 0, (81, 29): 0, (81, 30): 0, (81, 31): 0, (81, 32): 0, (81, 33): 0, (81, 34): 0, (81, 35): 0, (81, 36): 0, (81, 37): 0, (81, 38): 0, (81, 39): 0, (81, 40): 0, (81, 41): 0, (81, 42): 0, (82, 1): 0, (82, 2): 0, (82, 3): 0, (82, 4): 0, (82, 5): 0, (82, 6): 0, (82, 7): 0, (82, 8): 0, (82, 9): 1, (82, 10): 1, (82, 11): 1, (82, 12): 1, (82, 13): 1, (82, 14): 1, (82, 15): 1, (82, 16): 0, (82, 17): 0, (82, 18): 0, (82, 19): 0, (82, 20): 0, (82, 21): 0, (82, 22): 0, (82, 23): 0, (82, 24): 0, (82, 25): 0, (82, 26): 0, (82, 27): 0, (82, 28): 0, (82, 29): 0, (82, 30): 0, (82, 31): 0, (82, 32): 0, (82, 33): 0, (82, 34): 0, (82, 35): 0, (82, 36): 0, (82, 37): 0, (82, 38): 0, (82, 39): 0, (82, 40): 0, (82, 41): 0, (82, 42): 0}</t>
   </si>
   <si>
     <t>{(2, 1): 0, (2, 2): 0, (2, 3): 0, (2, 4): 0, (2, 5): 0, (2, 6): 0, (2, 7): 0, (2, 8): 0, (2, 9): 0, (2, 10): 0, (2, 11): 0, (2, 12): 0, (2, 13): 0, (2, 14): 0, (2, 15): 0, (2, 16): 0, (2, 17): 0, (2, 18): 0, (2, 19): 0, (2, 20): 0, (2, 21): 0, (2, 22): 0, (2, 23): 0, (2, 24): 0, (2, 25): 0, (2, 26): 0, (2, 27): 0, (2, 28): 0, (2, 29): 0, (2, 30): 0, (2, 31): 0, (2, 32): 0, (2, 33): 0, (2, 34): 0, (2, 35): 0, (2, 36): 0, (2, 37): 0, (2, 38): 0, (2, 39): 0, (2, 40): 0, (2, 41): 0, (2, 42): 0, (3, 1): 0, (3, 2): 0, (3, 3): 0, (3, 4): 0, (3, 5): 0, (3, 6): 0, (3, 7): 0, (3, 8): 0, (3, 9): 0, (3, 10): 0, (3, 11): 0, (3, 12): 0, (3, 13): 0, (3, 14): 0, (3, 15): 0, (3, 16): 0, (3, 17): 0, (3, 18): 0, (3, 19): 0, (3, 20): 0, (3, 21): 0, (3, 22): 0, (3, 23): 0, (3, 24): 0, (3, 25): 0, (3, 26): 0, (3, 27): 0, (3, 28): 0, (3, 29): 0, (3, 30): 0, (3, 31): 0, (3, 32): 0, (3, 33): 0, (3, 34): 0, (3, 35): 0, (3, 36): 0, (3, 37): 0, (3, 38): 0, (3, 39): 0, (3, 40): 0, (3, 41): 0, (3, 42): 0, (4, 1): 0, (4, 2): 0, (4, 3): 0, (4, 4): 0, (4, 5): 0, (4, 6): 0, (4, 7): 0, (4, 8): 0, (4, 9): 0, (4, 10): 0, (4, 11): 0, (4, 12): 0, (4, 13): 0, (4, 14): 0, (4, 15): 0, (4, 16): 0, (4, 17): 0, (4, 18): 0, (4, 19): 0, (4, 20): 0, (4, 21): 0, (4, 22): 0, (4, 23): 0, (4, 24): 0, (4, 25): 0, (4, 26): 0, (4, 27): 0, (4, 28): 0, (4, 29): 0, (4, 30): 0, (4, 31): 0, (4, 32): 0, (4, 33): 0, (4, 34): 0, (4, 35): 0, (4, 36): 0, (4, 37): 0, (4, 38): 0, (4, 39): 0, (4, 40): 0, (4, 41): 0, (4, 42): 0, (9, 1): 0, (9, 2): 0, (9, 3): 0, (9, 4): 0, (9, 5): 0, (9, 6): 0, (9, 7): 0, (9, 8): 0, (9, 9): 0, (9, 10): 0, (9, 11): 0, (9, 12): 0, (9, 13): 0, (9, 14): 0, (9, 15): 0, (9, 16): 0, (9, 17): 0, (9, 18): 0, (9, 19): 0, (9, 20): 0, (9, 21): 0, (9, 22): 0, (9, 23): 0, (9, 24): 0, (9, 25): 0, (9, 26): 0, (9, 27): 0, (9, 28): 0, (9, 29): 0, (9, 30): 0, (9, 31): 0, (9, 32): 0, (9, 33): 0, (9, 34): 0, (9, 35): 0, (9, 36): 0, (9, 37): 0, (9, 38): 0, (9, 39): 0, (9, 40): 0, (9, 41): 0, (9, 42): 0, (15, 1): 0, (15, 2): 0, (15, 3): 0, (15, 4): 0, (15, 5): 0, (15, 6): 0, (15, 7): 0, (15, 8): 0, (15, 9): 0, (15, 10): 0, (15, 11): 0, (15, 12): 0, (15, 13): 0, (15, 14): 0, (15, 15): 0, (15, 16): 0, (15, 17): 0, (15, 18): 0, (15, 19): 0, (15, 20): 0, (15, 21): 0, (15, 22): 0, (15, 23): 0, (15, 24): 0, (15, 25): 0, (15, 26): 0, (15, 27): 0, (15, 28): 0, (15, 29): 0, (15, 30): 0, (15, 31): 0, (15, 32): 0, (15, 33): 0, (15, 34): 0, (15, 35): 0, (15, 36): 0, (15, 37): 0, (15, 38): 0, (15, 39): 0, (15, 40): 0, (15, 41): 0, (15, 42): 0, (16, 1): 0, (16, 2): 0, (16, 3): 0, (16, 4): 0, (16, 5): 0, (16, 6): 0, (16, 7): 0, (16, 8): 0, (16, 9): 0, (16, 10): 0, (16, 11): 0, (16, 12): 0, (16, 13): 0, (16, 14): 0, (16, 15): 0, (16, 16): 0, (16, 17): 0, (16, 18): 0, (16, 19): 0, (16, 20): 0, (16, 21): 0, (16, 22): 0, (16, 23): 0, (16, 24): 0, (16, 25): 0, (16, 26): 0, (16, 27): 0, (16, 28): 0, (16, 29): 0, (16, 30): 0, (16, 31): 0, (16, 32): 0, (16, 33): 0, (16, 34): 0, (16, 35): 0, (16, 36): 0, (16, 37): 0, (16, 38): 0, (16, 39): 0, (16, 40): 0, (16, 41): 0, (16, 42): 0, (20, 1): 0, (20, 2): 0, (20, 3): 0, (20, 4): 0, (20, 5): 0, (20, 6): 0, (20, 7): 0, (20, 8): 0, (20, 9): 0, (20, 10): 0, (20, 11): 0, (20, 12): 0, (20, 13): 0, (20, 14): 0, (20, 15): 0, (20, 16): 0, (20, 17): 0, (20, 18): 0, (20, 19): 0, (20, 20): 0, (20, 21): 0, (20, 22): 0, (20, 23): 0, (20, 24): 0, (20, 25): 0, (20, 26): 0, (20, 27): 0, (20, 28): 0, (20, 29): 0, (20, 30): 0, (20, 31): 0, (20, 32): 0, (20, 33): 0, (20, 34): 0, (20, 35): 0, (20, 36): 0, (20, 37): 0, (20, 38): 0, (20, 39): 0, (20, 40): 0, (20, 41): 0, (20, 42): 0, (21, 1): 0, (21, 2): 0, (21, 3): 0, (21, 4): 0, (21, 5): 0, (21, 6): 0, (21, 7): 0, (21, 8): 0, (21, 9): 0, (21, 10): 0, (21, 11): 0, (21, 12): 0, (21, 13): 0, (21, 14): 0, (21, 15): 0, (21, 16): 0, (21, 17): 0, (21, 18): 0, (21, 19): 0, (21, 20): 0, (21, 21): 0, (21, 22): 0, (21, 23): 0, (21, 24): 0, (21, 25): 0, (21, 26): 0, (21, 27): 0, (21, 28): 0, (21, 29): 0, (21, 30): 0, (21, 31): 0, (21, 32): 0, (21, 33): 0, (21, 34): 0, (21, 35): 0, (21, 36): 0, (21, 37): 0, (21, 38): 0, (21, 39): 0, (21, 40): 0, (21, 41): 0, (21, 42): 0, (22, 1): 0, (22, 2): 0, (22, 3): 0, (22, 4): 0, (22, 5): 0, (22, 6): 0, (22, 7): 0, (22, 8): 0, (22, 9): 0, (22, 10): 0, (22, 11): 0, (22, 12): 0, (22, 13): 0, (22, 14): 0, (22, 15): 0, (22, 16): 0, (22, 17): 0, (22, 18): 0, (22, 19): 0, (22, 20): 0, (22, 21): 0, (22, 22): 0, (22, 23): 0, (22, 24): 0, (22, 25): 0, (22, 26): 0, (22, 27): 0, (22, 28): 0, (22, 29): 0, (22, 30): 0, (22, 31): 0, (22, 32): 0, (22, 33): 0, (22, 34): 0, (22, 35): 0, (22, 36): 0, (22, 37): 0, (22, 38): 0, (22, 39): 0, (22, 40): 0, (22, 41): 0, (22, 42): 0, (23, 1): 0, (23, 2): 0, (23, 3): 0, (23, 4): 0, (23, 5): 0, (23, 6): 0, (23, 7): 0, (23, 8): 0, (23, 9): 0, (23, 10): 0, (23, 11): 0, (23, 12): 0, (23, 13): 0, (23, 14): 0, (23, 15): 0, (23, 16): 0, (23, 17): 0, (23, 18): 0, (23, 19): 0, (23, 20): 0, (23, 21): 0, (23, 22): 0, (23, 23): 0, (23, 24): 0, (23, 25): 0, (23, 26): 0, (23, 27): 0, (23, 28): 0, (23, 29): 0, (23, 30): 0, (23, 31): 0, (23, 32): 0, (23, 33): 0, (23, 34): 0, (23, 35): 0, (23, 36): 0, (23, 37): 0, (23, 38): 0, (23, 39): 0, (23, 40): 0, (23, 41): 0, (23, 42): 0, (24, 1): 0, (24, 2): 0, (24, 3): 0, (24, 4): 0, (24, 5): 0, (24, 6): 0, (24, 7): 0, (24, 8): 0, (24, 9): 0, (24, 10): 0, (24, 11): 0, (24, 12): 0, (24, 13): 0, (24, 14): 0, (24, 15): 0, (24, 16): 0, (24, 17): 0, (24, 18): 0, (24, 19): 0, (24, 20): 0, (24, 21): 0, (24, 22): 0, (24, 23): 0, (24, 24): 0, (24, 25): 0, (24, 26): 0, (24, 27): 0, (24, 28): 0, (24, 29): 0, (24, 30): 0, (24, 31): 0, (24, 32): 0, (24, 33): 0, (24, 34): 0, (24, 35): 0, (24, 36): 0, (24, 37): 0, (24, 38): 0, (24, 39): 0, (24, 40): 0, (24, 41): 0, (24, 42): 0, (25, 1): 0, (25, 2): 0, (25, 3): 0, (25, 4): 0, (25, 5): 0, (25, 6): 0, (25, 7): 0, (25, 8): 0, (25, 9): 0, (25, 10): 0, (25, 11): 0, (25, 12): 0, (25, 13): 0, (25, 14): 0, (25, 15): 0, (25, 16): 0, (25, 17): 0, (25, 18): 0, (25, 19): 0, (25, 20): 0, (25, 21): 0, (25, 22): 0, (25, 23): 0, (25, 24): 0, (25, 25): 0, (25, 26): 0, (25, 27): 0, (25, 28): 0, (25, 29): 0, (25, 30): 0, (25, 31): 0, (25, 32): 0, (25, 33): 0, (25, 34): 0, (25, 35): 0, (25, 36): 0, (25, 37): 0, (25, 38): 0, (25, 39): 0, (25, 40): 0, (25, 41): 0, (25, 42): 0, (26, 1): 0, (26, 2): 0, (26, 3): 0, (26, 4): 0, (26, 5): 0, (26, 6): 0, (26, 7): 0, (26, 8): 0, (26, 9): 0, (26, 10): 0, (26, 11): 0, (26, 12): 0, (26, 13): 0, (26, 14): 0, (26, 15): 0, (26, 16): 0, (26, 17): 0, (26, 18): 0, (26, 19): 0, (26, 20): 0, (26, 21): 0, (26, 22): 0, (26, 23): 0, (26, 24): 0, (26, 25): 0, (26, 26): 0, (26, 27): 0, (26, 28): 0, (26, 29): 0, (26, 30): 0, (26, 31): 0, (26, 32): 0, (26, 33): 0, (26, 34): 0, (26, 35): 0, (26, 36): 0, (26, 37): 0, (26, 38): 0, (26, 39): 0, (26, 40): 0, (26, 41): 0, (26, 42): 0, (28, 1): 0, (28, 2): 0, (28, 3): 0, (28, 4): 0, (28, 5): 0, (28, 6): 0, (28, 7): 0, (28, 8): 0, (28, 9): 0, (28, 10): 0, (28, 11): 0, (28, 12): 0, (28, 13): 0, (28, 14): 0, (28, 15): 0, (28, 16): 0, (28, 17): 0, (28, 18): 0, (28, 19): 0, (28, 20): 0, (28, 21): 0, (28, 22): 0, (28, 23): 0, (28, 24): 0, (28, 25): 0, (28, 26): 0, (28, 27): 0, (28, 28): 0, (28, 29): 0, (28, 30): 0, (28, 31): 0, (28, 32): 0, (28, 33): 0, (28, 34): 0, (28, 35): 0, (28, 36): 0, (28, 37): 0, (28, 38): 0, (28, 39): 0, (28, 40): 0, (28, 41): 0, (28, 42): 0, (30, 1): 0, (30, 2): 0, (30, 3): 0, (30, 4): 0, (30, 5): 0, (30, 6): 0, (30, 7): 0, (30, 8): 0, (30, 9): 0, (30, 10): 0, (30, 11): 0, (30, 12): 0, (30, 13): 0, (30, 14): 0, (30, 15): 0, (30, 16): 0, (30, 17): 0, (30, 18): 0, (30, 19): 0, (30, 20): 0, (30, 21): 0, (30, 22): 0, (30, 23): 0, (30, 24): 0, (30, 25): 0, (30, 26): 0, (30, 27): 0, (30, 28): 0, (30, 29): 0, (30, 30): 0, (30, 31): 0, (30, 32): 0, (30, 33): 0, (30, 34): 0, (30, 35): 0, (30, 36): 0, (30, 37): 0, (30, 38): 0, (30, 39): 0, (30, 40): 0, (30, 41): 0, (30, 42): 0, (31, 1): 0, (31, 2): 0, (31, 3): 0, (31, 4): 0, (31, 5): 0, (31, 6): 0, (31, 7): 0, (31, 8): 0, (31, 9): 0, (31, 10): 0, (31, 11): 0, (31, 12): 0, (31, 13): 0, (31, 14): 0, (31, 15): 0, (31, 16): 0, (31, 17): 0, (31, 18): 0, (31, 19): 0, (31, 20): 0, (31, 21): 0, (31, 22): 0, (31, 23): 0, (31, 24): 0, (31, 25): 0, (31, 26): 0, (31, 27): 0, (31, 28): 0, (31, 29): 0, (31, 30): 0, (31, 31): 0, (31, 32): 0, (31, 33): 0, (31, 34): 0, (31, 35): 0, (31, 36): 0, (31, 37): 0, (31, 38): 0, (31, 39): 0, (31, 40): 0, (31, 41): 0, (31, 42): 0, (36, 1): 0, (36, 2): 0, (36, 3): 0, (36, 4): 0, (36, 5): 0, (36, 6): 0, (36, 7): 0, (36, 8): 0, (36, 9): 0, (36, 10): 0, (36, 11): 0, (36, 12): 0, (36, 13): 0, (36, 14): 0, (36, 15): 0, (36, 16): 0, (36, 17): 0, (36, 18): 0, (36, 19): 0, (36, 20): 0, (36, 21): 0, (36, 22): 0, (36, 23): 0, (36, 24): 0, (36, 25): 0, (36, 26): 0, (36, 27): 0, (36, 28): 0, (36, 29): 0, (36, 30): 0, (36, 31): 0, (36, 32): 0, (36, 33): 0, (36, 34): 0, (36, 35): 0, (36, 36): 0, (36, 37): 0, (36, 38): 0, (36, 39): 0, (36, 40): 0, (36, 41): 0, (36, 42): 0, (37, 1): 0, (37, 2): 0, (37, 3): 0, (37, 4): 0, (37, 5): 0, (37, 6): 0, (37, 7): 0, (37, 8): 0, (37, 9): 0, (37, 10): 0, (37, 11): 0, (37, 12): 0, (37, 13): 0, (37, 14): 0, (37, 15): 0, (37, 16): 0, (37, 17): 0, (37, 18): 0, (37, 19): 0, (37, 20): 0, (37, 21): 0, (37, 22): 0, (37, 23): 0, (37, 24): 0, (37, 25): 0, (37, 26): 0, (37, 27): 0, (37, 28): 0, (37, 29): 0, (37, 30): 0, (37, 31): 0, (37, 32): 0, (37, 33): 0, (37, 34): 0, (37, 35): 0, (37, 36): 0, (37, 37): 0, (37, 38): 0, (37, 39): 0, (37, 40): 0, (37, 41): 0, (37, 42): 0, (38, 1): 0, (38, 2): 0, (38, 3): 0, (38, 4): 0, (38, 5): 0, (38, 6): 0, (38, 7): 0, (38, 8): 0, (38, 9): 0, (38, 10): 0, (38, 11): 0, (38, 12): 0, (38, 13): 0, (38, 14): 0, (38, 15): 0, (38, 16): 0, (38, 17): 0, (38, 18): 0, (38, 19): 0, (38, 20): 0, (38, 21): 0, (38, 22): 0, (38, 23): 0, (38, 24): 0, (38, 25): 0, (38, 26): 0, (38, 27): 0, (38, 28): 0, (38, 29): 0, (38, 30): 0, (38, 31): 0, (38, 32): 0, (38, 33): 0, (38, 34): 0, (38, 35): 0, (38, 36): 0, (38, 37): 0, (38, 38): 0, (38, 39): 0, (38, 40): 0, (38, 41): 0, (38, 42): 0, (39, 1): 0, (39, 2): 0, (39, 3): 0, (39, 4): 0, (39, 5): 0, (39, 6): 0, (39, 7): 0, (39, 8): 0, (39, 9): 0, (39, 10): 0, (39, 11): 0, (39, 12): 0, (39, 13): 0, (39, 14): 0, (39, 15): 0, (39, 16): 0, (39, 17): 0, (39, 18): 0, (39, 19): 0, (39, 20): 0, (39, 21): 0, (39, 22): 0, (39, 23): 0, (39, 24): 0, (39, 25): 0, (39, 26): 0, (39, 27): 0, (39, 28): 0, (39, 29): 0, (39, 30): 0, (39, 31): 0, (39, 32): 0, (39, 33): 0, (39, 34): 0, (39, 35): 0, (39, 36): 0, (39, 37): 0, (39, 38): 0, (39, 39): 0, (39, 40): 0, (39, 41): 0, (39, 42): 0, (40, 1): 0, (40, 2): 0, (40, 3): 0, (40, 4): 0, (40, 5): 0, (40, 6): 0, (40, 7): 0, (40, 8): 0, (40, 9): 0, (40, 10): 0, (40, 11): 0, (40, 12): 0, (40, 13): 0, (40, 14): 0, (40, 15): 0, (40, 16): 0, (40, 17): 0, (40, 18): 0, (40, 19): 0, (40, 20): 0, (40, 21): 0, (40, 22): 0, (40, 23): 0, (40, 24): 0, (40, 25): 0, (40, 26): 0, (40, 27): 0, (40, 28): 0, (40, 29): 0, (40, 30): 0, (40, 31): 0, (40, 32): 0, (40, 33): 0, (40, 34): 0, (40, 35): 0, (40, 36): 0, (40, 37): 0, (40, 38): 0, (40, 39): 0, (40, 40): 0, (40, 41): 0, (40, 42): 0, (41, 1): 0, (41, 2): 0, (41, 3): 0, (41, 4): 0, (41, 5): 0, (41, 6): 0, (41, 7): 0, (41, 8): 0, (41, 9): 0, (41, 10): 0, (41, 11): 0, (41, 12): 0, (41, 13): 0, (41, 14): 0, (41, 15): 0, (41, 16): 0, (41, 17): 0, (41, 18): 0, (41, 19): 0, (41, 20): 0, (41, 21): 0, (41, 22): 0, (41, 23): 0, (41, 24): 0, (41, 25): 0, (41, 26): 0, (41, 27): 0, (41, 28): 0, (41, 29): 0, (41, 30): 0, (41, 31): 0, (41, 32): 0, (41, 33): 0, (41, 34): 0, (41, 35): 0, (41, 36): 0, (41, 37): 0, (41, 38): 0, (41, 39): 0, (41, 40): 0, (41, 41): 0, (41, 42): 0, (43, 1): 0, (43, 2): 0, (43, 3): 0, (43, 4): 0, (43, 5): 0, (43, 6): 0, (43, 7): 0, (43, 8): 0, (43, 9): 0, (43, 10): 0, (43, 11): 0, (43, 12): 0, (43, 13): 0, (43, 14): 0, (43, 15): 0, (43, 16): 0, (43, 17): 0, (43, 18): 0, (43, 19): 0, (43, 20): 0, (43, 21): 0, (43, 22): 0, (43, 23): 0, (43, 24): 0, (43, 25): 0, (43, 26): 0, (43, 27): 0, (43, 28): 0, (43, 29): 0, (43, 30): 0, (43, 31): 0, (43, 32): 0, (43, 33): 0, (43, 34): 0, (43, 35): 0, (43, 36): 0, (43, 37): 0, (43, 38): 0, (43, 39): 0, (43, 40): 0, (43, 41): 0, (43, 42): 0, (50, 1): 0, (50, 2): 0, (50, 3): 0, (50, 4): 0, (50, 5): 0, (50, 6): 0, (50, 7): 0, (50, 8): 0, (50, 9): 0, (50, 10): 0, (50, 11): 0, (50, 12): 0, (50, 13): 0, (50, 14): 0, (50, 15): 0, (50, 16): 0, (50, 17): 0, (50, 18): 0, (50, 19): 0, (50, 20): 0, (50, 21): 0, (50, 22): 0, (50, 23): 0, (50, 24): 0, (50, 25): 0, (50, 26): 0, (50, 27): 0, (50, 28): 0, (50, 29): 0, (50, 30): 0, (50, 31): 0, (50, 32): 0, (50, 33): 0, (50, 34): 0, (50, 35): 0, (50, 36): 0, (50, 37): 0, (50, 38): 0, (50, 39): 0, (50, 40): 0, (50, 41): 0, (50, 42): 0, (59, 1): 0, (59, 2): 0, (59, 3): 0, (59, 4): 0, (59, 5): 0, (59, 6): 0, (59, 7): 0, (59, 8): 0, (59, 9): 0, (59, 10): 0, (59, 11): 0, (59, 12): 0, (59, 13): 0, (59, 14): 0, (59, 15): 0, (59, 16): 0, (59, 17): 0, (59, 18): 0, (59, 19): 0, (59, 20): 0, (59, 21): 0, (59, 22): 0, (59, 23): 0, (59, 24): 0, (59, 25): 0, (59, 26): 0, (59, 27): 0, (59, 28): 0, (59, 29): 0, (59, 30): 0, (59, 31): 0, (59, 32): 0, (59, 33): 0, (59, 34): 0, (59, 35): 0, (59, 36): 0, (59, 37): 0, (59, 38): 0, (59, 39): 0, (59, 40): 0, (59, 41): 0, (59, 42): 0, (60, 1): 0, (60, 2): 0, (60, 3): 0, (60, 4): 0, (60, 5): 0, (60, 6): 0, (60, 7): 0, (60, 8): 0, (60, 9): 0, (60, 10): 0, (60, 11): 0, (60, 12): 0, (60, 13): 0, (60, 14): 0, (60, 15): 0, (60, 16): 0, (60, 17): 0, (60, 18): 0, (60, 19): 0, (60, 20): 0, (60, 21): 0, (60, 22): 0, (60, 23): 0, (60, 24): 0, (60, 25): 0, (60, 26): 0, (60, 27): 0, (60, 28): 0, (60, 29): 0, (60, 30): 0, (60, 31): 0, (60, 32): 0, (60, 33): 0, (60, 34): 0, (60, 35): 0, (60, 36): 0, (60, 37): 0, (60, 38): 0, (60, 39): 0, (60, 40): 0, (60, 41): 0, (60, 42): 0, (62, 1): 0, (62, 2): 0, (62, 3): 0, (62, 4): 0, (62, 5): 0, (62, 6): 0, (62, 7): 0, (62, 8): 0, (62, 9): 0, (62, 10): 0, (62, 11): 0, (62, 12): 0, (62, 13): 0, (62, 14): 0, (62, 15): 0, (62, 16): 0, (62, 17): 0, (62, 18): 0, (62, 19): 0, (62, 20): 0, (62, 21): 0, (62, 22): 0, (62, 23): 0, (62, 24): 0, (62, 25): 0, (62, 26): 0, (62, 27): 0, (62, 28): 0, (62, 29): 0, (62, 30): 0, (62, 31): 0, (62, 32): 0, (62, 33): 0, (62, 34): 0, (62, 35): 0, (62, 36): 0, (62, 37): 0, (62, 38): 0, (62, 39): 0, (62, 40): 0, (62, 41): 0, (62, 42): 0, (63, 1): 0, (63, 2): 0, (63, 3): 0, (63, 4): 0, (63, 5): 0, (63, 6): 0, (63, 7): 0, (63, 8): 0, (63, 9): 0, (63, 10): 0, (63, 11): 0, (63, 12): 0, (63, 13): 0, (63, 14): 0, (63, 15): 0, (63, 16): 0, (63, 17): 0, (63, 18): 0, (63, 19): 0, (63, 20): 0, (63, 21): 0, (63, 22): 0, (63, 23): 0, (63, 24): 0, (63, 25): 0, (63, 26): 0, (63, 27): 0, (63, 28): 0, (63, 29): 0, (63, 30): 0, (63, 31): 0, (63, 32): 0, (63, 33): 0, (63, 34): 0, (63, 35): 0, (63, 36): 0, (63, 37): 0, (63, 38): 0, (63, 39): 0, (63, 40): 0, (63, 41): 0, (63, 42): 0, (65, 1): 0, (65, 2): 0, (65, 3): 0, (65, 4): 0, (65, 5): 0, (65, 6): 0, (65, 7): 0, (65, 8): 0, (65, 9): 0, (65, 10): 0, (65, 11): 0, (65, 12): 0, (65, 13): 0, (65, 14): 0, (65, 15): 0, (65, 16): 0, (65, 17): 0, (65, 18): 0, (65, 19): 0, (65, 20): 0, (65, 21): 0, (65, 22): 0, (65, 23): 0, (65, 24): 0, (65, 25): 0, (65, 26): 0, (65, 27): 0, (65, 28): 0, (65, 29): 0, (65, 30): 0, (65, 31): 0, (65, 32): 0, (65, 33): 0, (65, 34): 0, (65, 35): 0, (65, 36): 0, (65, 37): 0, (65, 38): 0, (65, 39): 0, (65, 40): 0, (65, 41): 0, (65, 42): 0, (66, 1): 0, (66, 2): 0, (66, 3): 0, (66, 4): 0, (66, 5): 0, (66, 6): 0, (66, 7): 0, (66, 8): 0, (66, 9): 0, (66, 10): 0, (66, 11): 0, (66, 12): 0, (66, 13): 0, (66, 14): 0, (66, 15): 0, (66, 16): 0, (66, 17): 0, (66, 18): 0, (66, 19): 0, (66, 20): 0, (66, 21): 0, (66, 22): 0, (66, 23): 0, (66, 24): 0, (66, 25): 0, (66, 26): 0, (66, 27): 0, (66, 28): 0, (66, 29): 0, (66, 30): 0, (66, 31): 0, (66, 32): 0, (66, 33): 0, (66, 34): 0, (66, 35): 0, (66, 36): 0, (66, 37): 0, (66, 38): 0, (66, 39): 0, (66, 40): 0, (66, 41): 0, (66, 42): 0, (67, 1): 0, (67, 2): 0, (67, 3): 0, (67, 4): 0, (67, 5): 0, (67, 6): 0, (67, 7): 0, (67, 8): 0, (67, 9): 0, (67, 10): 0, (67, 11): 0, (67, 12): 0, (67, 13): 0, (67, 14): 0, (67, 15): 0, (67, 16): 0, (67, 17): 0, (67, 18): 0, (67, 19): 0, (67, 20): 0, (67, 21): 0, (67, 22): 0, (67, 23): 0, (67, 24): 0, (67, 25): 0, (67, 26): 0, (67, 27): 0, (67, 28): 0, (67, 29): 0, (67, 30): 0, (67, 31): 0, (67, 32): 0, (67, 33): 0, (67, 34): 0, (67, 35): 0, (67, 36): 0, (67, 37): 0, (67, 38): 0, (67, 39): 0, (67, 40): 0, (67, 41): 0, (67, 42): 0, (70, 1): 0, (70, 2): 0, (70, 3): 0, (70, 4): 0, (70, 5): 0, (70, 6): 0, (70, 7): 0, (70, 8): 0, (70, 9): 0, (70, 10): 0, (70, 11): 0, (70, 12): 0, (70, 13): 0, (70, 14): 0, (70, 15): 0, (70, 16): 0, (70, 17): 0, (70, 18): 0, (70, 19): 0, (70, 20): 0, (70, 21): 0, (70, 22): 0, (70, 23): 0, (70, 24): 0, (70, 25): 0, (70, 26): 0, (70, 27): 0, (70, 28): 0, (70, 29): 0, (70, 30): 0, (70, 31): 0, (70, 32): 0, (70, 33): 0, (70, 34): 0, (70, 35): 0, (70, 36): 0, (70, 37): 0, (70, 38): 0, (70, 39): 0, (70, 40): 0, (70, 41): 0, (70, 42): 0, (71, 1): 0, (71, 2): 0, (71, 3): 0, (71, 4): 0, (71, 5): 0, (71, 6): 0, (71, 7): 0, (71, 8): 0, (71, 9): 0, (71, 10): 0, (71, 11): 0, (71, 12): 0, (71, 13): 0, (71, 14): 0, (71, 15): 0, (71, 16): 0, (71, 17): 0, (71, 18): 0, (71, 19): 0, (71, 20): 0, (71, 21): 0, (71, 22): 0, (71, 23): 0, (71, 24): 0, (71, 25): 0, (71, 26): 0, (71, 27): 0, (71, 28): 0, (71, 29): 0, (71, 30): 0, (71, 31): 0, (71, 32): 0, (71, 33): 0, (71, 34): 0, (71, 35): 0, (71, 36): 0, (71, 37): 0, (71, 38): 0, (71, 39): 0, (71, 40): 0, (71, 41): 0, (71, 42): 0, (73, 1): 0, (73, 2): 0, (73, 3): 0, (73, 4): 0, (73, 5): 0, (73, 6): 0, (73, 7): 0, (73, 8): 0, (73, 9): 0, (73, 10): 0, (73, 11): 0, (73, 12): 0, (73, 13): 0, (73, 14): 0, (73, 15): 0, (73, 16): 0, (73, 17): 0, (73, 18): 0, (73, 19): 0, (73, 20): 0, (73, 21): 0, (73, 22): 0, (73, 23): 0, (73, 24): 0, (73, 25): 0, (73, 26): 0, (73, 27): 0, (73, 28): 0, (73, 29): 0, (73, 30): 0, (73, 31): 0, (73, 32): 0, (73, 33): 0, (73, 34): 0, (73, 35): 0, (73, 36): 0, (73, 37): 0, (73, 38): 0, (73, 39): 0, (73, 40): 0, (73, 41): 0, (73, 42): 0, (75, 1): 0, (75, 2): 0, (75, 3): 0, (75, 4): 0, (75, 5): 0, (75, 6): 0, (75, 7): 0, (75, 8): 0, (75, 9): 0, (75, 10): 0, (75, 11): 0, (75, 12): 0, (75, 13): 0, (75, 14): 0, (75, 15): 0, (75, 16): 0, (75, 17): 0, (75, 18): 0, (75, 19): 0, (75, 20): 0, (75, 21): 0, (75, 22): 0, (75, 23): 0, (75, 24): 0, (75, 25): 0, (75, 26): 0, (75, 27): 0, (75, 28): 0, (75, 29): 0, (75, 30): 0, (75, 31): 0, (75, 32): 0, (75, 33): 0, (75, 34): 0, (75, 35): 0, (75, 36): 0, (75, 37): 0, (75, 38): 0, (75, 39): 0, (75, 40): 0, (75, 41): 0, (75, 42): 0, (77, 1): 0, (77, 2): 0, (77, 3): 0, (77, 4): 0, (77, 5): 0, (77, 6): 0, (77, 7): 0, (77, 8): 0, (77, 9): 0, (77, 10): 0, (77, 11): 0, (77, 12): 0, (77, 13): 0, (77, 14): 0, (77, 15): 0, (77, 16): 0, (77, 17): 0, (77, 18): 0, (77, 19): 0, (77, 20): 0, (77, 21): 0, (77, 22): 0, (77, 23): 0, (77, 24): 0, (77, 25): 0, (77, 26): 0, (77, 27): 0, (77, 28): 0, (77, 29): 0, (77, 30): 0, (77, 31): 0, (77, 32): 0, (77, 33): 0, (77, 34): 0, (77, 35): 0, (77, 36): 0, (77, 37): 0, (77, 38): 0, (77, 39): 0, (77, 40): 0, (77, 41): 0, (77, 42): 0, (78, 1): 0, (78, 2): 0, (78, 3): 0, (78, 4): 0, (78, 5): 0, (78, 6): 0, (78, 7): 0, (78, 8): 0, (78, 9): 0, (78, 10): 0, (78, 11): 0, (78, 12): 0, (78, 13): 0, (78, 14): 0, (78, 15): 0, (78, 16): 0, (78, 17): 0, (78, 18): 0, (78, 19): 0, (78, 20): 0, (78, 21): 0, (78, 22): 0, (78, 23): 0, (78, 24): 0, (78, 25): 0, (78, 26): 0, (78, 27): 0, (78, 28): 0, (78, 29): 0, (78, 30): 0, (78, 31): 0, (78, 32): 0, (78, 33): 0, (78, 34): 0, (78, 35): 0, (78, 36): 0, (78, 37): 0, (78, 38): 0, (78, 39): 0, (78, 40): 0, (78, 41): 0, (78, 42): 0, (79, 1): 0, (79, 2): 0, (79, 3): 0, (79, 4): 0, (79, 5): 0, (79, 6): 0, (79, 7): 0, (79, 8): 0, (79, 9): 0, (79, 10): 0, (79, 11): 0, (79, 12): 0, (79, 13): 0, (79, 14): 0, (79, 15): 0, (79, 16): 0, (79, 17): 0, (79, 18): 0, (79, 19): 0, (79, 20): 0, (79, 21): 0, (79, 22): 0, (79, 23): 0, (79, 24): 0, (79, 25): 0, (79, 26): 0, (79, 27): 0, (79, 28): 0, (79, 29): 0, (79, 30): 0, (79, 31): 0, (79, 32): 0, (79, 33): 0, (79, 34): 0, (79, 35): 0, (79, 36): 0, (79, 37): 0, (79, 38): 0, (79, 39): 0, (79, 40): 0, (79, 41): 0, (79, 42): 0, (81, 1): 0, (81, 2): 0, (81, 3): 0, (81, 4): 0, (81, 5): 0, (81, 6): 0, (81, 7): 0, (81, 8): 0, (81, 9): 0, (81, 10): 0, (81, 11): 0, (81, 12): 0, (81, 13): 0, (81, 14): 0, (81, 15): 0, (81, 16): 0, (81, 17): 0, (81, 18): 0, (81, 19): 0, (81, 20): 0, (81, 21): 0, (81, 22): 0, (81, 23): 0, (81, 24): 0, (81, 25): 0, (81, 26): 0, (81, 27): 0, (81, 28): 0, (81, 29): 0, (81, 30): 0, (81, 31): 0, (81, 32): 0, (81, 33): 0, (81, 34): 0, (81, 35): 0, (81, 36): 0, (81, 37): 0, (81, 38): 0, (81, 39): 0, (81, 40): 0, (81, 41): 0, (81, 42): 0, (82, 1): 0, (82, 2): 0, (82, 3): 0, (82, 4): 0, (82, 5): 0, (82, 6): 0, (82, 7): 0, (82, 8): 0, (82, 9): 0, (82, 10): 0, (82, 11): 0, (82, 12): 0, (82, 13): 0, (82, 14): 0, (82, 15): 0, (82, 16): 0, (82, 17): 0, (82, 18): 0, (82, 19): 0, (82, 20): 0, (82, 21): 0, (82, 22): 0, (82, 23): 0, (82, 24): 0, (82, 25): 0, (82, 26): 0, (82, 27): 0, (82, 28): 0, (82, 29): 0, (82, 30): 0, (82, 31): 0, (82, 32): 0, (82, 33): 0, (82, 34): 0, (82, 35): 0, (82, 36): 0, (82, 37): 0, (82, 38): 0, (82, 39): 0, (82, 40): 0, (82, 41): 0, (82, 42): 0}</t>
   </si>
   <si>
-    <t>{(2, 1): 0.0, (2, 2): 0.0, (2, 3): 0.0, (2, 4): 0.0, (2, 5): 0.0, (2, 6): 0.0, (2, 7): 0.0, (2, 8): 0.0, (2, 9): 0.0, (2, 10): 0.0, (2, 11): 0.0, (2, 12): 0.0, (2, 13): 0.0, (2, 14): 0.0, (2, 15): 0.0, (2, 16): 0.0, (2, 17): 0.5051001633268003, (2, 18): 0.5051001633268003, (2, 19): 0.5051001633268003, (2, 20): 0.5051001633268003, (2, 21): 0.5051001633268003, (2, 22): 0.5051001633268003, (2, 23): 0.5051001633268003, (2, 24): 0.5051001633268003, (2, 25): 0.5051001633268003, (2, 26): 0.5051001633268003, (2, 27): 0.5051001633268003, (2, 28): 0.5051001633268003, (2, 29): 0.5051001633268003, (2, 30): 0.5051001633268003, (2, 31): 0.5051001633268003, (2, 32): 0.5051001633268003, (2, 33): 0.5051001633268003, (2, 34): 0.5051001633268003, (2, 35): 0.5051001633268003, (2, 36): 0.5051001633268003, (2, 37): 0.5051001633268003, (2, 38): 0.5051001633268003, (2, 39): 0.5051001633268003, (2, 40): 0.5051001633268003, (2, 41): 0.5051001633268003, (2, 42): 0.0, (3, 1): 0.0, (3, 2): 0.0, (3, 3): 0.0, (3, 4): 0.0, (3, 5): 0.0, (3, 6): 0.0, (3, 7): 0.0, (3, 8): 0.0, (3, 9): 0.0, (3, 10): 0.0, (3, 11): 0.0, (3, 12): 0.0, (3, 13): 0.0, (3, 14): 0.0, (3, 15): 0.0, (3, 16): 0.0, (3, 17): 0.5051001633268003, (3, 18): 0.5051001633268003, (3, 19): 0.5051001633268003, (3, 20): 0.5051001633268003, (3, 21): 0.5051001633268003, (3, 22): 0.5051001633268003, (3, 23): 0.5051001633268003, (3, 24): 0.5051001633268003, (3, 25): 0.5051001633268003, (3, 26): 0.5051001633268003, (3, 27): 0.5051001633268003, (3, 28): 0.5051001633268003, (3, 29): 0.5051001633268003, (3, 30): 0.5051001633268003, (3, 31): 0.5051001633268003, (3, 32): 0.5051001633268003, (3, 33): 0.5051001633268003, (3, 34): 0.5051001633268003, (3, 35): 0.5051001633268003, (3, 36): 0.0, (3, 37): 0.0, (3, 38): 0.0, (3, 39): 0.0, (3, 40): 0.0, (3, 41): 0.0, (3, 42): 0.0, (4, 1): 0.0, (4, 2): 0.0, (4, 3): 0.0, (4, 4): 0.0, (4, 5): 0.0, (4, 6): 0.0, (4, 7): 0.0, (4, 8): 0.0, (4, 9): 0.0, (4, 10): 0.0, (4, 11): 0.0, (4, 12): 0.0, (4, 13): 0.0, (4, 14): 0.0, (4, 15): 0.0, (4, 16): 0.0, (4, 17): 0.0, (4, 18): 0.0, (4, 19): 0.0, (4, 20): 0.0, (4, 21): 0.0, (4, 22): 0.0, (4, 23): 0.0, (4, 24): 0.0, (4, 25): 0.0, (4, 26): 0.0, (4, 27): 0.0, (4, 28): 0.0, (4, 29): 0.0, (4, 30): 0.5051001633268003, (4, 31): 0.5051001633268003, (4, 32): 0.5051001633268003, (4, 33): 0.5051001633268003, (4, 34): 0.5051001633268003, (4, 35): 0.5051001633268003, (4, 36): 0.5051001633268003, (4, 37): 0.5051001633268003, (4, 38): 0.5051001633268003, (4, 39): 0.5051001633268003, (4, 40): 0.5051001633268003, (4, 41): 0.5051001633268003, (4, 42): 0.5051001633268003, (9, 1): 0.0, (9, 2): 0.0, (9, 3): 0.0, (9, 4): 0.0, (9, 5): 0.0, (9, 6): 0.0, (9, 7): 0.0, (9, 8): 0.0, (9, 9): 0.0, (9, 10): 0.0, (9, 11): 0.0, (9, 12): 0.0, (9, 13): 0.0, (9, 14): 0.0, (9, 15): 0.0, (9, 16): 0.0, (9, 17): 0.0, (9, 18): 0.0, (9, 19): 0.0, (9, 20): 0.0, (9, 21): 0.0, (9, 22): 0.5051001633268003, (9, 23): 0.5051001633268003, (9, 24): 0.5051001633268003, (9, 25): 0.5051001633268003, (9, 26): 0.5051001633268003, (9, 27): 0.5051001633268003, (9, 28): 0.5051001633268003, (9, 29): 0.5051001633268003, (9, 30): 0.5051001633268003, (9, 31): 0.5051001633268003, (9, 32): 0.5051001633268003, (9, 33): 0.5051001633268003, (9, 34): 0.5051001633268003, (9, 35): 0.5051001633268003, (9, 36): 0.5051001633268003, (9, 37): 0.5051001633268003, (9, 38): 0.5051001633268003, (9, 39): 0.0, (9, 40): 0.0, (9, 41): 0.0, (9, 42): 0.0, (15, 1): 0.0, (15, 2): 0.0, (15, 3): 0.0, (15, 4): 0.0, (15, 5): 0.0, (15, 6): 0.0, (15, 7): 0.0, (15, 8): 0.0, (15, 9): 0.0, (15, 10): 0.0, (15, 11): 0.0, (15, 12): 0.0, (15, 13): 0.0, (15, 14): 0.0, (15, 15): 0.0, (15, 16): 0.0, (15, 17): 0.0, (15, 18): 0.0, (15, 19): 0.0, (15, 20): 0.0, (15, 21): 0.0, (15, 22): 0.0, (15, 23): 0.0, (15, 24): 0.0, (15, 25): 0.0, (15, 26): 0.0, (15, 27): 0.0, (15, 28): 0.0, (15, 29): 0.0, (15, 30): 0.5051001633268003, (15, 31): 0.5051001633268003, (15, 32): 0.5051001633268003, (15, 33): 0.5051001633268003, (15, 34): 0.5051001633268003, (15, 35): 0.5051001633268003, (15, 36): 0.5051001633268003, (15, 37): 0.5051001633268003, (15, 38): 0.5051001633268003, (15, 39): 0.5051001633268003, (15, 40): 0.5051001633268003, (15, 41): 0.5051001633268003, (15, 42): 0.0, (16, 1): 0.0, (16, 2): 0.0, (16, 3): 0.0, (16, 4): 0.0, (16, 5): 0.0, (16, 6): 0.0, (16, 7): 0.0, (16, 8): 0.0, (16, 9): 0.0, (16, 10): 0.0, (16, 11): 0.5051001633268003, (16, 12): 0.5051001633268003, (16, 13): 0.5051001633268003, (16, 14): 0.5051001633268003, (16, 15): 0.5051001633268003, (16, 16): 0.5051001633268003, (16, 17): 0.5051001633268003, (16, 18): 0.5051001633268003, (16, 19): 0.5051001633268003, (16, 20): 0.0, (16, 21): 0.0, (16, 22): 0.0, (16, 23): 0.0, (16, 24): 0.0, (16, 25): 0.0, (16, 26): 0.0, (16, 27): 0.0, (16, 28): 0.0, (16, 29): 0.0, (16, 30): 0.0, (16, 31): 0.0, (16, 32): 0.0, (16, 33): 0.0, (16, 34): 0.0, (16, 35): 0.0, (16, 36): 0.0, (16, 37): 0.0, (16, 38): 0.0, (16, 39): 0.0, (16, 40): 0.0, (16, 41): 0.0, (16, 42): 0.0, (20, 1): 0.0, (20, 2): 0.0, (20, 3): 0.0, (20, 4): 0.0, (20, 5): 0.0, (20, 6): 0.0, (20, 7): 0.0, (20, 8): 0.0, (20, 9): 0.0, (20, 10): 0.0, (20, 11): 0.0, (20, 12): 0.0, (20, 13): 0.0, (20, 14): 0.0, (20, 15): 0.0, (20, 16): 0.0, (20, 17): 0.0, (20, 18): 0.0, (20, 19): 0.0, (20, 20): 0.0, (20, 21): 0.0, (20, 22): 0.0, (20, 23): 0.0, (20, 24): 0.0, (20, 25): 0.0, (20, 26): 0.0, (20, 27): 0.0, (20, 28): 0.0, (20, 29): 0.0, (20, 30): 0.0, (20, 31): 0.0, (20, 32): 0.5051001633268003, (20, 33): 0.5051001633268003, (20, 34): 0.5051001633268003, (20, 35): 0.5051001633268003, (20, 36): 0.5051001633268003, (20, 37): 0.5051001633268003, (20, 38): 0.0, (20, 39): 0.0, (20, 40): 0.0, (20, 41): 0.0, (20, 42): 0.0, (21, 1): 0.0, (21, 2): 0.0, (21, 3): 0.0, (21, 4): 0.0, (21, 5): 0.0, (21, 6): 0.0, (21, 7): 0.0, (21, 8): 0.0, (21, 9): 0.0, (21, 10): 0.0, (21, 11): 0.0, (21, 12): 0.0, (21, 13): 0.0, (21, 14): 0.0, (21, 15): 0.0, (21, 16): 0.0, (21, 17): 0.0, (21, 18): 0.0, (21, 19): 0.0, (21, 20): 0.0, (21, 21): 0.0, (21, 22): 0.0, (21, 23): 0.0, (21, 24): 0.0, (21, 25): 0.0, (21, 26): 0.0, (21, 27): 0.5051001633268003, (21, 28): 0.5051001633268003, (21, 29): 0.5051001633268003, (21, 30): 0.5051001633268003, (21, 31): 0.5051001633268003, (21, 32): 0.5051001633268003, (21, 33): 0.5051001633268003, (21, 34): 0.5051001633268003, (21, 35): 0.5051001633268003, (21, 36): 0.5051001633268003, (21, 37): 0.5051001633268003, (21, 38): 0.5051001633268003, (21, 39): 0.5051001633268003, (21, 40): 0.5051001633268003, (21, 41): 0.5051001633268003, (21, 42): 0.0, (22, 1): 0.0, (22, 2): 0.0, (22, 3): 0.0, (22, 4): 0.0, (22, 5): 0.0, (22, 6): 0.0, (22, 7): 0.0, (22, 8): 0.0, (22, 9): 0.0, (22, 10): 0.0, (22, 11): 0.0, (22, 12): 0.0, (22, 13): 0.0, (22, 14): 0.0, (22, 15): 0.0, (22, 16): 0.0, (22, 17): 0.0, (22, 18): 0.0, (22, 19): 0.0, (22, 20): 0.0, (22, 21): 0.0, (22, 22): 0.0, (22, 23): 0.0, (22, 24): 0.0, (22, 25): 0.0, (22, 26): 0.0, (22, 27): 0.5051001633268003, (22, 28): 0.5051001633268003, (22, 29): 0.5051001633268003, (22, 30): 0.5051001633268003, (22, 31): 0.5051001633268003, (22, 32): 0.5051001633268003, (22, 33): 0.5051001633268003, (22, 34): 0.5051001633268003, (22, 35): 0.5051001633268003, (22, 36): 0.5051001633268003, (22, 37): 0.5051001633268003, (22, 38): 0.5051001633268003, (22, 39): 0.5051001633268003, (22, 40): 0.0, (22, 41): 0.0, (22, 42): 0.0, (23, 1): 0.0, (23, 2): 0.0, (23, 3): 0.0, (23, 4): 0.0, (23, 5): 0.0, (23, 6): 0.0, (23, 7): 0.0, (23, 8): 0.0, (23, 9): 0.0, (23, 10): 0.0, (23, 11): 0.0, (23, 12): 0.0, (23, 13): 0.0, (23, 14): 0.0, (23, 15): 0.0, (23, 16): 0.0, (23, 17): 0.0, (23, 18): 0.0, (23, 19): 0.0, (23, 20): 0.0, (23, 21): 0.0, (23, 22): 0.0, (23, 23): 0.0, (23, 24): 0.0, (23, 25): 0.0, (23, 26): 0.0, (23, 27): 0.0, (23, 28): 0.0, (23, 29): 0.5051001633268003, (23, 30): 0.5051001633268003, (23, 31): 0.5051001633268003, (23, 32): 0.5051001633268003, (23, 33): 0.5051001633268003, (23, 34): 0.5051001633268003, (23, 35): 0.0, (23, 36): 0.0, (23, 37): 0.0, (23, 38): 0.0, (23, 39): 0.0, (23, 40): 0.0, (23, 41): 0.0, (23, 42): 0.0, (24, 1): 0.0, (24, 2): 0.0, (24, 3): 0.0, (24, 4): 0.0, (24, 5): 0.0, (24, 6): 0.0, (24, 7): 0.0, (24, 8): 0.0, (24, 9): 0.0, (24, 10): 0.0, (24, 11): 0.0, (24, 12): 0.0, (24, 13): 0.0, (24, 14): 0.0, (24, 15): 0.0, (24, 16): 0.0, (24, 17): 0.0, (24, 18): 0.0, (24, 19): 0.0, (24, 20): 0.0, (24, 21): 0.0, (24, 22): 0.5051001633268003, (24, 23): 0.5051001633268003, (24, 24): 0.5051001633268003, (24, 25): 0.5051001633268003, (24, 26): 0.5051001633268003, (24, 27): 0.5051001633268003, (24, 28): 0.5051001633268003, (24, 29): 0.5051001633268003, (24, 30): 0.0, (24, 31): 0.0, (24, 32): 0.0, (24, 33): 0.0, (24, 34): 0.0, (24, 35): 0.0, (24, 36): 0.0, (24, 37): 0.0, (24, 38): 0.0, (24, 39): 0.0, (24, 40): 0.0, (24, 41): 0.0, (24, 42): 0.0, (25, 1): 0.0, (25, 2): 0.0, (25, 3): 0.0, (25, 4): 0.0, (25, 5): 0.0, (25, 6): 0.0, (25, 7): 0.0, (25, 8): 0.0, (25, 9): 0.0, (25, 10): 0.0, (25, 11): 0.0, (25, 12): 0.0, (25, 13): 0.0, (25, 14): 0.0, (25, 15): 0.0, (25, 16): 0.0, (25, 17): 0.0, (25, 18): 0.0, (25, 19): 0.0, (25, 20): 0.0, (25, 21): 0.0, (25, 22): 0.0, (25, 23): 0.0, (25, 24): 0.0, (25, 25): 0.0, (25, 26): 0.0, (25, 27): 0.0, (25, 28): 0.0, (25, 29): 0.0, (25, 30): 0.0, (25, 31): 0.0, (25, 32): 0.0, (25, 33): 0.0, (25, 34): 0.0, (25, 35): 0.0, (25, 36): 0.0, (25, 37): 0.0, (25, 38): 0.5051001633268003, (25, 39): 0.5051001633268003, (25, 40): 0.5051001633268003, (25, 41): 0.5051001633268003, (25, 42): 0.5051001633268003, (26, 1): 0.0, (26, 2): 0.0, (26, 3): 0.0, (26, 4): 0.0, (26, 5): 0.0, (26, 6): 0.0, (26, 7): 0.0, (26, 8): 0.0, (26, 9): 0.0, (26, 10): 0.0, (26, 11): 0.0, (26, 12): 0.0, (26, 13): 0.0, (26, 14): 0.0, (26, 15): 0.0, (26, 16): 0.0, (26, 17): 0.0, (26, 18): 0.0, (26, 19): 0.0, (26, 20): 0.0, (26, 21): 0.0, (26, 22): 0.0, (26, 23): 0.0, (26, 24): 0.0, (26, 25): 0.0, (26, 26): 0.5051001633268003, (26, 27): 0.5051001633268003, (26, 28): 0.5051001633268003, (26, 29): 0.5051001633268003, (26, 30): 0.5051001633268003, (26, 31): 0.5051001633268003, (26, 32): 0.0, (26, 33): 0.0, (26, 34): 0.0, (26, 35): 0.0, (26, 36): 0.0, (26, 37): 0.0, (26, 38): 0.0, (26, 39): 0.0, (26, 40): 0.0, (26, 41): 0.0, (26, 42): 0.0, (28, 1): 0.0, (28, 2): 0.0, (28, 3): 0.0, (28, 4): 0.0, (28, 5): 0.0, (28, 6): 0.0, (28, 7): 0.0, (28, 8): 0.0, (28, 9): 0.0, (28, 10): 0.0, (28, 11): 0.0, (28, 12): 0.0, (28, 13): 0.0, (28, 14): 0.0, (28, 15): 0.0, (28, 16): 0.0, (28, 17): 0.0, (28, 18): 0.0, (28, 19): 0.0, (28, 20): 0.0, (28, 21): 0.0, (28, 22): 0.0, (28, 23): 0.0, (28, 24): 0.0, (28, 25): 0.0, (28, 26): 0.0, (28, 27): 0.0, (28, 28): 0.0, (28, 29): 0.0, (28, 30): 0.5051001633268003, (28, 31): 0.5051001633268003, (28, 32): 0.5051001633268003, (28, 33): 0.5051001633268003, (28, 34): 0.5051001633268003, (28, 35): 0.5051001633268003, (28, 36): 0.5051001633268003, (28, 37): 0.5051001633268003, (28, 38): 0.5051001633268003, (28, 39): 0.5051001633268003, (28, 40): 0.5051001633268003, (28, 41): 0.5051001633268003, (28, 42): 0.0, (30, 1): 0.0, (30, 2): 0.0, (30, 3): 0.0, (30, 4): 0.0, (30, 5): 0.0, (30, 6): 0.0, (30, 7): 0.0, (30, 8): 0.0, (30, 9): 0.0, (30, 10): 0.0, (30, 11): 0.0, (30, 12): 0.0, (30, 13): 0.0, (30, 14): 0.0, (30, 15): 0.0, (30, 16): 0.0, (30, 17): 0.0, (30, 18): 0.0, (30, 19): 0.0, (30, 20): 0.0, (30, 21): 0.0, (30, 22): 0.0, (30, 23): 0.5051001633268003, (30, 24): 0.5051001633268003, (30, 25): 0.5051001633268003, (30, 26): 0.5051001633268003, (30, 27): 0.5051001633268003, (30, 28): 0.5051001633268003, (30, 29): 0.5051001633268003, (30, 30): 0.5051001633268003, (30, 31): 0.0, (30, 32): 0.0, (30, 33): 0.0, (30, 34): 0.0, (30, 35): 0.0, (30, 36): 0.0, (30, 37): 0.0, (30, 38): 0.0, (30, 39): 0.0, (30, 40): 0.0, (30, 41): 0.0, (30, 42): 0.0, (31, 1): 0.0, (31, 2): 0.0, (31, 3): 0.0, (31, 4): 0.0, (31, 5): 0.0, (31, 6): 0.0, (31, 7): 0.0, (31, 8): 0.5051001633268003, (31, 9): 0.5051001633268003, (31, 10): 0.5051001633268003, (31, 11): 0.5051001633268003, (31, 12): 0.5051001633268003, (31, 13): 0.5051001633268003, (31, 14): 0.5051001633268003, (31, 15): 0.5051001633268003, (31, 16): 0.5051001633268003, (31, 17): 0.5051001633268003, (31, 18): 0.5051001633268003, (31, 19): 0.5051001633268003, (31, 20): 0.5051001633268003, (31, 21): 0.0, (31, 22): 0.0, (31, 23): 0.0, (31, 24): 0.0, (31, 25): 0.0, (31, 26): 0.0, (31, 27): 0.0, (31, 28): 0.0, (31, 29): 0.0, (31, 30): 0.0, (31, 31): 0.0, (31, 32): 0.0, (31, 33): 0.0, (31, 34): 0.0, (31, 35): 0.0, (31, 36): 0.0, (31, 37): 0.0, (31, 38): 0.0, (31, 39): 0.0, (31, 40): 0.0, (31, 41): 0.0, (31, 42): 0.0, (36, 1): 0.0, (36, 2): 0.0, (36, 3): 0.0, (36, 4): 0.0, (36, 5): 0.0, (36, 6): 0.0, (36, 7): 0.0, (36, 8): 0.0, (36, 9): 0.0, (36, 10): 0.0, (36, 11): 0.0, (36, 12): 0.0, (36, 13): 0.0, (36, 14): 0.0, (36, 15): 0.0, (36, 16): 0.0, (36, 17): 0.0, (36, 18): 0.0, (36, 19): 0.0, (36, 20): 0.0, (36, 21): 0.0, (36, 22): 0.0, (36, 23): 0.0, (36, 24): 0.0, (36, 25): 0.0, (36, 26): 0.0, (36, 27): 0.0, (36, 28): 0.5051001633268003, (36, 29): 0.5051001633268003, (36, 30): 0.5051001633268003, (36, 31): 0.5051001633268003, (36, 32): 0.5051001633268003, (36, 33): 0.5051001633268003, (36, 34): 0.5051001633268003, (36, 35): 0.5051001633268003, (36, 36): 0.5051001633268003, (36, 37): 0.5051001633268003, (36, 38): 0.5051001633268003, (36, 39): 0.0, (36, 40): 0.0, (36, 41): 0.0, (36, 42): 0.0, (37, 1): 0.0, (37, 2): 0.0, (37, 3): 0.0, (37, 4): 0.0, (37, 5): 0.0, (37, 6): 0.0, (37, 7): 0.0, (37, 8): 0.0, (37, 9): 0.0, (37, 10): 0.0, (37, 11): 0.0, (37, 12): 0.0, (37, 13): 0.0, (37, 14): 0.0, (37, 15): 0.0, (37, 16): 0.0, (37, 17): 0.0, (37, 18): 0.0, (37, 19): 0.0, (37, 20): 0.0, (37, 21): 0.0, (37, 22): 0.0, (37, 23): 0.0, (37, 24): 0.0, (37, 25): 0.0, (37, 26): 0.5051001633268003, (37, 27): 0.5051001633268003, (37, 28): 0.5051001633268003, (37, 29): 0.5051001633268003, (37, 30): 0.5051001633268003, (37, 31): 0.5051001633268003, (37, 32): 0.5051001633268003, (37, 33): 0.5051001633268003, (37, 34): 0.0, (37, 35): 0.0, (37, 36): 0.0, (37, 37): 0.0, (37, 38): 0.0, (37, 39): 0.0, (37, 40): 0.0, (37, 41): 0.0, (37, 42): 0.0, (38, 1): 0.0, (38, 2): 0.0, (38, 3): 0.0, (38, 4): 0.0, (38, 5): 0.0, (38, 6): 0.0, (38, 7): 0.0, (38, 8): 0.0, (38, 9): 0.0, (38, 10): 0.0, (38, 11): 0.0, (38, 12): 0.0, (38, 13): 0.0, (38, 14): 0.0, (38, 15): 0.0, (38, 16): 0.0, (38, 17): 0.0, (38, 18): 0.0, (38, 19): 0.0, (38, 20): 0.0, (38, 21): 0.0, (38, 22): 0.0, (38, 23): 0.0, (38, 24): 0.0, (38, 25): 0.0, (38, 26): 0.0, (38, 27): 0.0, (38, 28): 0.0, (38, 29): 0.0, (38, 30): 0.0, (38, 31): 0.0, (38, 32): 0.0, (38, 33): 0.0, (38, 34): 0.0, (38, 35): 0.0, (38, 36): 0.0, (38, 37): 0.0, (38, 38): 0.0, (38, 39): 0.0, (38, 40): 0.0, (38, 41): 0.5051001633268003, (38, 42): 0.5051001633268003, (39, 1): 0.0, (39, 2): 0.0, (39, 3): 0.0, (39, 4): 0.0, (39, 5): 0.0, (39, 6): 0.0, (39, 7): 0.0, (39, 8): 0.0, (39, 9): 0.0, (39, 10): 0.0, (39, 11): 0.0, (39, 12): 0.0, (39, 13): 0.0, (39, 14): 0.0, (39, 15): 0.0, (39, 16): 0.0, (39, 17): 0.0, (39, 18): 0.5051001633268003, (39, 19): 0.5051001633268003, (39, 20): 0.5051001633268003, (39, 21): 0.5051001633268003, (39, 22): 0.5051001633268003, (39, 23): 0.5051001633268003, (39, 24): 0.5051001633268003, (39, 25): 0.0, (39, 26): 0.0, (39, 27): 0.0, (39, 28): 0.0, (39, 29): 0.0, (39, 30): 0.0, (39, 31): 0.0, (39, 32): 0.0, (39, 33): 0.0, (39, 34): 0.0, (39, 35): 0.0, (39, 36): 0.0, (39, 37): 0.0, (39, 38): 0.0, (39, 39): 0.0, (39, 40): 0.0, (39, 41): 0.0, (39, 42): 0.0, (40, 1): 0.0, (40, 2): 0.0, (40, 3): 0.0, (40, 4): 0.0, (40, 5): 0.0, (40, 6): 0.0, (40, 7): 0.0, (40, 8): 0.5051001633268003, (40, 9): 0.5051001633268003, (40, 10): 0.5051001633268003, (40, 11): 0.5051001633268003, (40, 12): 0.5051001633268003, (40, 13): 0.5051001633268003, (40, 14): 0.5051001633268003, (40, 15): 0.5051001633268003, (40, 16): 0.0, (40, 17): 0.0, (40, 18): 0.0, (40, 19): 0.0, (40, 20): 0.0, (40, 21): 0.0, (40, 22): 0.0, (40, 23): 0.0, (40, 24): 0.0, (40, 25): 0.0, (40, 26): 0.0, (40, 27): 0.0, (40, 28): 0.0, (40, 29): 0.0, (40, 30): 0.0, (40, 31): 0.0, (40, 32): 0.0, (40, 33): 0.0, (40, 34): 0.0, (40, 35): 0.0, (40, 36): 0.0, (40, 37): 0.0, (40, 38): 0.0, (40, 39): 0.0, (40, 40): 0.0, (40, 41): 0.0, (40, 42): 0.0, (41, 1): 0.0, (41, 2): 0.0, (41, 3): 0.0, (41, 4): 0.0, (41, 5): 0.0, (41, 6): 0.0, (41, 7): 0.0, (41, 8): 0.0, (41, 9): 0.0, (41, 10): 0.0, (41, 11): 0.0, (41, 12): 0.0, (41, 13): 0.0, (41, 14): 0.0, (41, 15): 0.0, (41, 16): 0.0, (41, 17): 0.0, (41, 18): 0.0, (41, 19): 0.0, (41, 20): 0.0, (41, 21): 0.0, (41, 22): 0.0, (41, 23): 0.5051001633268003, (41, 24): 0.5051001633268003, (41, 25): 0.5051001633268003, (41, 26): 0.5051001633268003, (41, 27): 0.5051001633268003, (41, 28): 0.5051001633268003, (41, 29): 0.0, (41, 30): 0.0, (41, 31): 0.0, (41, 32): 0.0, (41, 33): 0.0, (41, 34): 0.0, (41, 35): 0.0, (41, 36): 0.0, (41, 37): 0.0, (41, 38): 0.0, (41, 39): 0.0, (41, 40): 0.0, (41, 41): 0.0, (41, 42): 0.0, (43, 1): 0.0, (43, 2): 0.0, (43, 3): 0.0, (43, 4): 0.0, (43, 5): 0.0, (43, 6): 0.0, (43, 7): 0.0, (43, 8): 0.0, (43, 9): 0.0, (43, 10): 0.0, (43, 11): 0.0, (43, 12): 0.0, (43, 13): 0.0, (43, 14): 0.0, (43, 15): 0.0, (43, 16): 0.0, (43, 17): 0.5051001633268003, (43, 18): 0.5051001633268003, (43, 19): 0.5051001633268003, (43, 20): 0.5051001633268003, (43, 21): 0.5051001633268003, (43, 22): 0.5051001633268003, (43, 23): 0.5051001633268003, (43, 24): 0.5051001633268003, (43, 25): 0.0, (43, 26): 0.0, (43, 27): 0.0, (43, 28): 0.0, (43, 29): 0.0, (43, 30): 0.0, (43, 31): 0.0, (43, 32): 0.0, (43, 33): 0.0, (43, 34): 0.0, (43, 35): 0.0, (43, 36): 0.0, (43, 37): 0.0, (43, 38): 0.0, (43, 39): 0.0, (43, 40): 0.0, (43, 41): 0.0, (43, 42): 0.0, (50, 1): 0.0, (50, 2): 0.0, (50, 3): 0.0, (50, 4): 0.0, (50, 5): 0.0, (50, 6): 0.0, (50, 7): 0.0, (50, 8): 0.0, (50, 9): 0.0, (50, 10): 0.0, (50, 11): 0.5051001633268003, (50, 12): 0.5051001633268003, (50, 13): 0.5051001633268003, (50, 14): 0.5051001633268003, (50, 15): 0.5051001633268003, (50, 16): 0.5051001633268003, (50, 17): 0.5051001633268003, (50, 18): 0.0, (50, 19): 0.0, (50, 20): 0.0, (50, 21): 0.0, (50, 22): 0.0, (50, 23): 0.0, (50, 24): 0.0, (50, 25): 0.0, (50, 26): 0.0, (50, 27): 0.0, (50, 28): 0.0, (50, 29): 0.0, (50, 30): 0.0, (50, 31): 0.0, (50, 32): 0.0, (50, 33): 0.0, (50, 34): 0.0, (50, 35): 0.0, (50, 36): 0.0, (50, 37): 0.0, (50, 38): 0.0, (50, 39): 0.0, (50, 40): 0.0, (50, 41): 0.0, (50, 42): 0.0, (59, 1): 0.0, (59, 2): 0.0, (59, 3): 0.0, (59, 4): 0.0, (59, 5): 0.0, (59, 6): 0.0, (59, 7): 0.0, (59, 8): 0.0, (59, 9): 0.0, (59, 10): 0.0, (59, 11): 0.0, (59, 12): 0.0, (59, 13): 0.0, (59, 14): 0.0, (59, 15): 0.5051001633268003, (59, 16): 0.5051001633268003, (59, 17): 0.5051001633268003, (59, 18): 0.5051001633268003, (59, 19): 0.5051001633268003, (59, 20): 0.5051001633268003, (59, 21): 0.5051001633268003, (59, 22): 0.5051001633268003, (59, 23): 0.5051001633268003, (59, 24): 0.0, (59, 25): 0.0, (59, 26): 0.0, (59, 27): 0.0, (59, 28): 0.0, (59, 29): 0.0, (59, 30): 0.0, (59, 31): 0.0, (59, 32): 0.0, (59, 33): 0.0, (59, 34): 0.0, (59, 35): 0.0, (59, 36): 0.0, (59, 37): 0.0, (59, 38): 0.0, (59, 39): 0.0, (59, 40): 0.0, (59, 41): 0.0, (59, 42): 0.0, (60, 1): 0.0, (60, 2): 0.0, (60, 3): 0.0, (60, 4): 0.0, (60, 5): 0.0, (60, 6): 0.0, (60, 7): 0.0, (60, 8): 0.0, (60, 9): 0.0, (60, 10): 0.0, (60, 11): 0.0, (60, 12): 0.0, (60, 13): 0.0, (60, 14): 0.0, (60, 15): 0.0, (60, 16): 0.0, (60, 17): 0.0, (60, 18): 0.0, (60, 19): 0.0, (60, 20): 0.0, (60, 21): 0.0, (60, 22): 0.0, (60, 23): 0.0, (60, 24): 0.0, (60, 25): 0.0, (60, 26): 0.0, (60, 27): 0.0, (60, 28): 0.0, (60, 29): 0.0, (60, 30): 0.0, (60, 31): 0.0, (60, 32): 0.0, (60, 33): 0.0, (60, 34): 0.0, (60, 35): 0.0, (60, 36): 0.0, (60, 37): 0.0, (60, 38): 0.5051001633268003, (60, 39): 0.5051001633268003, (60, 40): 0.5051001633268003, (60, 41): 0.5051001633268003, (60, 42): 0.5051001633268003, (62, 1): 0.0, (62, 2): 0.0, (62, 3): 0.0, (62, 4): 0.0, (62, 5): 0.0, (62, 6): 0.0, (62, 7): 0.0, (62, 8): 0.0, (62, 9): 0.0, (62, 10): 0.0, (62, 11): 0.0, (62, 12): 0.0, (62, 13): 0.0, (62, 14): 0.0, (62, 15): 0.0, (62, 16): 0.0, (62, 17): 0.0, (62, 18): 0.0, (62, 19): 0.0, (62, 20): 0.5051001633268003, (62, 21): 0.5051001633268003, (62, 22): 0.5051001633268003, (62, 23): 0.5051001633268003, (62, 24): 0.5051001633268003, (62, 25): 0.5051001633268003, (62, 26): 0.0, (62, 27): 0.0, (62, 28): 0.0, (62, 29): 0.0, (62, 30): 0.0, (62, 31): 0.0, (62, 32): 0.0, (62, 33): 0.0, (62, 34): 0.0, (62, 35): 0.0, (62, 36): 0.0, (62, 37): 0.0, (62, 38): 0.0, (62, 39): 0.0, (62, 40): 0.0, (62, 41): 0.0, (62, 42): 0.0, (63, 1): 0.0, (63, 2): 0.0, (63, 3): 0.0, (63, 4): 0.0, (63, 5): 0.0, (63, 6): 0.0, (63, 7): 0.0, (63, 8): 0.0, (63, 9): 0.0, (63, 10): 0.0, (63, 11): 0.0, (63, 12): 0.0, (63, 13): 0.0, (63, 14): 0.0, (63, 15): 0.0, (63, 16): 0.0, (63, 17): 0.0, (63, 18): 0.0, (63, 19): 0.0, (63, 20): 0.0, (63, 21): 0.0, (63, 22): 0.0, (63, 23): 0.0, (63, 24): 0.0, (63, 25): 0.0, (63, 26): 0.0, (63, 27): 0.0, (63, 28): 0.0, (63, 29): 0.0, (63, 30): 0.0, (63, 31): 0.0, (63, 32): 0.0, (63, 33): 0.0, (63, 34): 0.0, (63, 35): 0.0, (63, 36): 0.0, (63, 37): 0.5051001633268003, (63, 38): 0.5051001633268003, (63, 39): 0.5051001633268003, (63, 40): 0.5051001633268003, (63, 41): 0.5051001633268003, (63, 42): 0.5051001633268003, (65, 1): 0.0, (65, 2): 0.0, (65, 3): 0.0, (65, 4): 0.0, (65, 5): 0.0, (65, 6): 0.0, (65, 7): 0.0, (65, 8): 0.0, (65, 9): 0.0, (65, 10): 0.0, (65, 11): 0.0, (65, 12): 0.0, (65, 13): 0.0, (65, 14): 0.0, (65, 15): 0.0, (65, 16): 0.0, (65, 17): 0.0, (65, 18): 0.0, (65, 19): 0.0, (65, 20): 0.0, (65, 21): 0.0, (65, 22): 0.0, (65, 23): 0.0, (65, 24): 0.0, (65, 25): 0.0, (65, 26): 0.0, (65, 27): 0.5051001633268003, (65, 28): 0.5051001633268003, (65, 29): 0.5051001633268003, (65, 30): 0.5051001633268003, (65, 31): 0.5051001633268003, (65, 32): 0.5051001633268003, (65, 33): 0.0, (65, 34): 0.0, (65, 35): 0.0, (65, 36): 0.0, (65, 37): 0.0, (65, 38): 0.0, (65, 39): 0.0, (65, 40): 0.0, (65, 41): 0.0, (65, 42): 0.0, (66, 1): 0.0, (66, 2): 0.0, (66, 3): 0.0, (66, 4): 0.0, (66, 5): 0.0, (66, 6): 0.0, (66, 7): 0.0, (66, 8): 0.0, (66, 9): 0.0, (66, 10): 0.0, (66, 11): 0.0, (66, 12): 0.0, (66, 13): 0.0, (66, 14): 0.0, (66, 15): 0.0, (66, 16): 0.0, (66, 17): 0.0, (66, 18): 0.0, (66, 19): 0.0, (66, 20): 0.0, (66, 21): 0.0, (66, 22): 0.0, (66, 23): 0.0, (66, 24): 0.0, (66, 25): 0.0, (66, 26): 0.0, (66, 27): 0.0, (66, 28): 0.0, (66, 29): 0.0, (66, 30): 0.5051001633268003, (66, 31): 0.5051001633268003, (66, 32): 0.5051001633268003, (66, 33): 0.5051001633268003, (66, 34): 0.5051001633268003, (66, 35): 0.0, (66, 36): 0.0, (66, 37): 0.0, (66, 38): 0.0, (66, 39): 0.0, (66, 40): 0.0, (66, 41): 0.0, (66, 42): 0.0, (67, 1): 0.0, (67, 2): 0.0, (67, 3): 0.0, (67, 4): 0.0, (67, 5): 0.0, (67, 6): 0.0, (67, 7): 0.0, (67, 8): 0.0, (67, 9): 0.0, (67, 10): 0.0, (67, 11): 0.0, (67, 12): 0.0, (67, 13): 0.0, (67, 14): 0.5051001633268003, (67, 15): 0.5051001633268003, (67, 16): 0.5051001633268003, (67, 17): 0.5051001633268003, (67, 18): 0.5051001633268003, (67, 19): 0.5051001633268003, (67, 20): 0.0, (67, 21): 0.0, (67, 22): 0.0, (67, 23): 0.0, (67, 24): 0.0, (67, 25): 0.0, (67, 26): 0.0, (67, 27): 0.0, (67, 28): 0.0, (67, 29): 0.0, (67, 30): 0.0, (67, 31): 0.0, (67, 32): 0.0, (67, 33): 0.0, (67, 34): 0.0, (67, 35): 0.0, (67, 36): 0.0, (67, 37): 0.0, (67, 38): 0.0, (67, 39): 0.0, (67, 40): 0.0, (67, 41): 0.0, (67, 42): 0.0, (70, 1): 0.0, (70, 2): 0.0, (70, 3): 0.0, (70, 4): 0.0, (70, 5): 0.0, (70, 6): 0.0, (70, 7): 0.0, (70, 8): 0.0, (70, 9): 0.0, (70, 10): 0.0, (70, 11): 0.0, (70, 12): 0.0, (70, 13): 0.0, (70, 14): 0.0, (70, 15): 0.0, (70, 16): 0.0, (70, 17): 0.0, (70, 18): 0.0, (70, 19): 0.0, (70, 20): 0.0, (70, 21): 0.0, (70, 22): 0.0, (70, 23): 0.0, (70, 24): 0.0, (70, 25): 0.0, (70, 26): 0.0, (70, 27): 0.0, (70, 28): 0.0, (70, 29): 0.0, (70, 30): 0.0, (70, 31): 0.0, (70, 32): 0.5051001633268003, (70, 33): 0.5051001633268003, (70, 34): 0.5051001633268003, (70, 35): 0.5051001633268003, (70, 36): 0.5051001633268003, (70, 37): 0.0, (70, 38): 0.0, (70, 39): 0.0, (70, 40): 0.0, (70, 41): 0.0, (70, 42): 0.0, (71, 1): 0.0, (71, 2): 0.0, (71, 3): 0.0, (71, 4): 0.0, (71, 5): 0.0, (71, 6): 0.0, (71, 7): 0.0, (71, 8): 0.0, (71, 9): 0.0, (71, 10): 0.0, (71, 11): 0.0, (71, 12): 0.0, (71, 13): 0.0, (71, 14): 0.0, (71, 15): 0.0, (71, 16): 0.0, (71, 17): 0.0, (71, 18): 0.0, (71, 19): 0.0, (71, 20): 0.0, (71, 21): 0.0, (71, 22): 0.0, (71, 23): 0.0, (71, 24): 0.0, (71, 25): 0.0, (71, 26): 0.0, (71, 27): 0.0, (71, 28): 0.0, (71, 29): 0.0, (71, 30): 0.0, (71, 31): 0.0, (71, 32): 0.0, (71, 33): 0.5051001633268003, (71, 34): 0.5051001633268003, (71, 35): 0.5051001633268003, (71, 36): 0.5051001633268003, (71, 37): 0.5051001633268003, (71, 38): 0.5051001633268003, (71, 39): 0.5051001633268003, (71, 40): 0.5051001633268003, (71, 41): 0.0, (71, 42): 0.0, (73, 1): 0.0, (73, 2): 0.0, (73, 3): 0.0, (73, 4): 0.0, (73, 5): 0.0, (73, 6): 0.0, (73, 7): 0.0, (73, 8): 0.0, (73, 9): 0.0, (73, 10): 0.0, (73, 11): 0.0, (73, 12): 0.0, (73, 13): 0.0, (73, 14): 0.0, (73, 15): 0.0, (73, 16): 0.0, (73, 17): 0.0, (73, 18): 0.0, (73, 19): 0.0, (73, 20): 0.0, (73, 21): 0.0, (73, 22): 0.0, (73, 23): 0.0, (73, 24): 0.0, (73, 25): 0.0, (73, 26): 0.0, (73, 27): 0.0, (73, 28): 0.0, (73, 29): 0.0, (73, 30): 0.0, (73, 31): 0.5051001633268003, (73, 32): 0.5051001633268003, (73, 33): 0.5051001633268003, (73, 34): 0.5051001633268003, (73, 35): 0.5051001633268003, (73, 36): 0.5051001633268003, (73, 37): 0.5051001633268003, (73, 38): 0.5051001633268003, (73, 39): 0.5051001633268003, (73, 40): 0.5051001633268003, (73, 41): 0.5051001633268003, (73, 42): 0.0, (75, 1): 0.0, (75, 2): 0.0, (75, 3): 0.0, (75, 4): 0.0, (75, 5): 0.0, (75, 6): 0.0, (75, 7): 0.0, (75, 8): 0.0, (75, 9): 0.0, (75, 10): 0.0, (75, 11): 0.0, (75, 12): 0.0, (75, 13): 0.0, (75, 14): 0.0, (75, 15): 0.0, (75, 16): 0.0, (75, 17): 0.0, (75, 18): 0.0, (75, 19): 0.0, (75, 20): 0.5051001633268003, (75, 21): 0.5051001633268003, (75, 22): 0.5051001633268003, (75, 23): 0.5051001633268003, (75, 24): 0.5051001633268003, (75, 25): 0.5051001633268003, (75, 26): 0.5051001633268003, (75, 27): 0.0, (75, 28): 0.0, (75, 29): 0.0, (75, 30): 0.0, (75, 31): 0.0, (75, 32): 0.0, (75, 33): 0.0, (75, 34): 0.0, (75, 35): 0.0, (75, 36): 0.0, (75, 37): 0.0, (75, 38): 0.0, (75, 39): 0.0, (75, 40): 0.0, (75, 41): 0.0, (75, 42): 0.0, (77, 1): 0.0, (77, 2): 0.0, (77, 3): 0.0, (77, 4): 0.0, (77, 5): 0.0, (77, 6): 0.0, (77, 7): 0.0, (77, 8): 0.0, (77, 9): 0.0, (77, 10): 0.0, (77, 11): 0.0, (77, 12): 0.0, (77, 13): 0.0, (77, 14): 0.0, (77, 15): 0.0, (77, 16): 0.0, (77, 17): 0.0, (77, 18): 0.0, (77, 19): 0.0, (77, 20): 0.0, (77, 21): 0.0, (77, 22): 0.0, (77, 23): 0.0, (77, 24): 0.0, (77, 25): 0.0, (77, 26): 0.0, (77, 27): 0.0, (77, 28): 0.0, (77, 29): 0.0, (77, 30): 0.0, (77, 31): 0.0, (77, 32): 0.0, (77, 33): 0.0, (77, 34): 0.0, (77, 35): 0.0, (77, 36): 0.0, (77, 37): 0.0, (77, 38): 0.0, (77, 39): 0.0, (77, 40): 0.5051001633268003, (77, 41): 0.5051001633268003, (77, 42): 0.5051001633268003, (78, 1): 0.0, (78, 2): 0.0, (78, 3): 0.0, (78, 4): 0.0, (78, 5): 0.0, (78, 6): 0.0, (78, 7): 0.0, (78, 8): 0.0, (78, 9): 0.0, (78, 10): 0.0, (78, 11): 0.5051001633268003, (78, 12): 0.5051001633268003, (78, 13): 0.5051001633268003, (78, 14): 0.5051001633268003, (78, 15): 0.5051001633268003, (78, 16): 0.5051001633268003, (78, 17): 0.5051001633268003, (78, 18): 0.5051001633268003, (78, 19): 0.0, (78, 20): 0.0, (78, 21): 0.0, (78, 22): 0.0, (78, 23): 0.0, (78, 24): 0.0, (78, 25): 0.0, (78, 26): 0.0, (78, 27): 0.0, (78, 28): 0.0, (78, 29): 0.0, (78, 30): 0.0, (78, 31): 0.0, (78, 32): 0.0, (78, 33): 0.0, (78, 34): 0.0, (78, 35): 0.0, (78, 36): 0.0, (78, 37): 0.0, (78, 38): 0.0, (78, 39): 0.0, (78, 40): 0.0, (78, 41): 0.0, (78, 42): 0.0, (79, 1): 0.0, (79, 2): 0.0, (79, 3): 0.0, (79, 4): 0.0, (79, 5): 0.0, (79, 6): 0.0, (79, 7): 0.0, (79, 8): 0.0, (79, 9): 0.0, (79, 10): 0.0, (79, 11): 0.0, (79, 12): 0.0, (79, 13): 0.0, (79, 14): 0.0, (79, 15): 0.0, (79, 16): 0.0, (79, 17): 0.0, (79, 18): 0.0, (79, 19): 0.0, (79, 20): 0.5051001633268003, (79, 21): 0.5051001633268003, (79, 22): 0.5051001633268003, (79, 23): 0.5051001633268003, (79, 24): 0.5051001633268003, (79, 25): 0.5051001633268003, (79, 26): 0.0, (79, 27): 0.0, (79, 28): 0.0, (79, 29): 0.0, (79, 30): 0.0, (79, 31): 0.0, (79, 32): 0.0, (79, 33): 0.0, (79, 34): 0.0, (79, 35): 0.0, (79, 36): 0.0, (79, 37): 0.0, (79, 38): 0.0, (79, 39): 0.0, (79, 40): 0.0, (79, 41): 0.0, (79, 42): 0.0, (81, 1): 0.0, (81, 2): 0.0, (81, 3): 0.0, (81, 4): 0.0, (81, 5): 0.0, (81, 6): 0.0, (81, 7): 0.0, (81, 8): 0.0, (81, 9): 0.0, (81, 10): 0.0, (81, 11): 0.0, (81, 12): 0.5051001633268003, (81, 13): 0.5051001633268003, (81, 14): 0.5051001633268003, (81, 15): 0.5051001633268003, (81, 16): 0.5051001633268003, (81, 17): 0.5051001633268003, (81, 18): 0.0, (81, 19): 0.0, (81, 20): 0.0, (81, 21): 0.0, (81, 22): 0.0, (81, 23): 0.0, (81, 24): 0.0, (81, 25): 0.0, (81, 26): 0.0, (81, 27): 0.0, (81, 28): 0.0, (81, 29): 0.0, (81, 30): 0.0, (81, 31): 0.0, (81, 32): 0.0, (81, 33): 0.0, (81, 34): 0.0, (81, 35): 0.0, (81, 36): 0.0, (81, 37): 0.0, (81, 38): 0.0, (81, 39): 0.0, (81, 40): 0.0, (81, 41): 0.0, (81, 42): 0.0, (82, 1): 0.0, (82, 2): 0.0, (82, 3): 0.0, (82, 4): 0.0, (82, 5): 0.0, (82, 6): 0.0, (82, 7): 0.0, (82, 8): 0.0, (82, 9): 0.5051001633268003, (82, 10): 0.5051001633268003, (82, 11): 0.5051001633268003, (82, 12): 0.5051001633268003, (82, 13): 0.5051001633268003, (82, 14): 0.5051001633268003, (82, 15): 0.5051001633268003, (82, 16): 0.0, (82, 17): 0.0, (82, 18): 0.0, (82, 19): 0.0, (82, 20): 0.0, (82, 21): 0.0, (82, 22): 0.0, (82, 23): 0.0, (82, 24): 0.0, (82, 25): 0.0, (82, 26): 0.0, (82, 27): 0.0, (82, 28): 0.0, (82, 29): 0.0, (82, 30): 0.0, (82, 31): 0.0, (82, 32): 0.0, (82, 33): 0.0, (82, 34): 0.0, (82, 35): 0.0, (82, 36): 0.0, (82, 37): 0.0, (82, 38): 0.0, (82, 39): 0.0, (82, 40): 0.0, (82, 41): 0.0, (82, 42): 0.0}</t>
-  </si>
-  <si>
-    <t>{(2, 1): 0.0, (2, 2): 0.0, (2, 3): 0.0, (2, 4): 0.0, (2, 5): 0.0, (2, 6): 0.0, (2, 7): 0.0, (2, 8): 0.0, (2, 9): 0.0, (2, 10): 0.0, (2, 11): 0.0, (2, 12): 0.0, (2, 13): 0.0, (2, 14): 0.0, (2, 15): 0.0, (2, 16): 0.0, (2, 17): 1.0, (2, 18): 2.0, (2, 19): 3.0, (2, 20): 4.0, (2, 21): 4.0, (2, 22): 5.0, (2, 23): 6.0, (2, 24): 7.0, (2, 25): 8.0, (2, 26): 9.0, (2, 27): 10.0, (2, 28): 10.0, (2, 29): 11.0, (2, 30): 12.0, (2, 31): 13.0, (2, 32): 13.0, (2, 33): 14.0, (2, 34): 15.0, (2, 35): 15.0, (2, 36): 16.0, (2, 37): 17.0, (2, 38): 18.0, (2, 39): 18.0, (2, 40): 18.0, (2, 41): 19.0, (2, 42): 19.0, (3, 1): 0.0, (3, 2): 0.0, (3, 3): 0.0, (3, 4): 0.0, (3, 5): 0.0, (3, 6): 0.0, (3, 7): 0.0, (3, 8): 0.0, (3, 9): 0.0, (3, 10): 0.0, (3, 11): 0.0, (3, 12): 0.0, (3, 13): 0.0, (3, 14): 0.0, (3, 15): 0.0, (3, 16): 0.0, (3, 17): 1.0, (3, 18): 2.0, (3, 19): 3.0, (3, 20): 4.0, (3, 21): 5.0, (3, 22): 6.0, (3, 23): 6.0, (3, 24): 7.0, (3, 25): 8.0, (3, 26): 9.0, (3, 27): 9.0, (3, 28): 10.0, (3, 29): 10.0, (3, 30): 10.0, (3, 31): 11.0, (3, 32): 11.0, (3, 33): 12.0, (3, 34): 12.0, (3, 35): 13.0, (3, 36): 13.0, (3, 37): 13.0, (3, 38): 13.0, (3, 39): 13.0, (3, 40): 13.0, (3, 41): 13.0, (3, 42): 13.0, (4, 1): 0.0, (4, 2): 0.0, (4, 3): 0.0, (4, 4): 0.0, (4, 5): 0.0, (4, 6): 0.0, (4, 7): 0.0, (4, 8): 0.0, (4, 9): 0.0, (4, 10): 0.0, (4, 11): 0.0, (4, 12): 0.0, (4, 13): 0.0, (4, 14): 0.0, (4, 15): 0.0, (4, 16): 0.0, (4, 17): 0.0, (4, 18): 0.0, (4, 19): 0.0, (4, 20): 0.0, (4, 21): 0.0, (4, 22): 0.0, (4, 23): 0.0, (4, 24): 0.0, (4, 25): 0.0, (4, 26): 0.0, (4, 27): 0.0, (4, 28): 0.0, (4, 29): 0.0, (4, 30): 1.0, (4, 31): 2.0, (4, 32): 2.0, (4, 33): 3.0, (4, 34): 3.0, (4, 35): 3.0, (4, 36): 4.0, (4, 37): 5.0, (4, 38): 5.0, (4, 39): 5.0, (4, 40): 6.0, (4, 41): 7.0, (4, 42): 7.0, (9, 1): 0.0, (9, 2): 0.0, (9, 3): 0.0, (9, 4): 0.0, (9, 5): 0.0, (9, 6): 0.0, (9, 7): 0.0, (9, 8): 0.0, (9, 9): 0.0, (9, 10): 0.0, (9, 11): 0.0, (9, 12): 0.0, (9, 13): 0.0, (9, 14): 0.0, (9, 15): 0.0, (9, 16): 0.0, (9, 17): 0.0, (9, 18): 0.0, (9, 19): 0.0, (9, 20): 0.0, (9, 21): 0.0, (9, 22): 1.0, (9, 23): 2.0, (9, 24): 3.0, (9, 25): 4.0, (9, 26): 5.0, (9, 27): 6.0, (9, 28): 6.0, (9, 29): 7.0, (9, 30): 8.0, (9, 31): 8.0, (9, 32): 8.0, (9, 33): 9.0, (9, 34): 10.0, (9, 35): 10.0, (9, 36): 10.0, (9, 37): 10.0, (9, 38): 11.0, (9, 39): 11.0, (9, 40): 11.0, (9, 41): 11.0, (9, 42): 11.0, (15, 1): 0.0, (15, 2): 0.0, (15, 3): 0.0, (15, 4): 0.0, (15, 5): 0.0, (15, 6): 0.0, (15, 7): 0.0, (15, 8): 0.0, (15, 9): 0.0, (15, 10): 0.0, (15, 11): 0.0, (15, 12): 0.0, (15, 13): 0.0, (15, 14): 0.0, (15, 15): 0.0, (15, 16): 0.0, (15, 17): 0.0, (15, 18): 0.0, (15, 19): 0.0, (15, 20): 0.0, (15, 21): 0.0, (15, 22): 0.0, (15, 23): 0.0, (15, 24): 0.0, (15, 25): 0.0, (15, 26): 0.0, (15, 27): 0.0, (15, 28): 0.0, (15, 29): 0.0, (15, 30): 1.0, (15, 31): 2.0, (15, 32): 3.0, (15, 33): 4.0, (15, 34): 5.0, (15, 35): 6.0, (15, 36): 6.0, (15, 37): 7.0, (15, 38): 8.0, (15, 39): 9.0, (15, 40): 9.0, (15, 41): 10.0, (15, 42): 10.0, (16, 1): 0.0, (16, 2): 0.0, (16, 3): 0.0, (16, 4): 0.0, (16, 5): 0.0, (16, 6): 0.0, (16, 7): 0.0, (16, 8): 0.0, (16, 9): 0.0, (16, 10): 0.0, (16, 11): 1.0, (16, 12): 2.0, (16, 13): 3.0, (16, 14): 4.0, (16, 15): 5.0, (16, 16): 5.0, (16, 17): 6.0, (16, 18): 6.0, (16, 19): 7.0, (16, 20): 7.0, (16, 21): 7.0, (16, 22): 7.0, (16, 23): 7.0, (16, 24): 7.0, (16, 25): 7.0, (16, 26): 7.0, (16, 27): 7.0, (16, 28): 7.0, (16, 29): 7.0, (16, 30): 7.0, (16, 31): 7.0, (16, 32): 7.0, (16, 33): 7.0, (16, 34): 7.0, (16, 35): 7.0, (16, 36): 7.0, (16, 37): 7.0, (16, 38): 7.0, (16, 39): 7.0, (16, 40): 7.0, (16, 41): 7.0, (16, 42): 7.0, (20, 1): 0.0, (20, 2): 0.0, (20, 3): 0.0, (20, 4): 0.0, (20, 5): 0.0, (20, 6): 0.0, (20, 7): 0.0, (20, 8): 0.0, (20, 9): 0.0, (20, 10): 0.0, (20, 11): 0.0, (20, 12): 0.0, (20, 13): 0.0, (20, 14): 0.0, (20, 15): 0.0, (20, 16): 0.0, (20, 17): 0.0, (20, 18): 0.0, (20, 19): 0.0, (20, 20): 0.0, (20, 21): 0.0, (20, 22): 0.0, (20, 23): 0.0, (20, 24): 0.0, (20, 25): 0.0, (20, 26): 0.0, (20, 27): 0.0, (20, 28): 0.0, (20, 29): 0.0, (20, 30): 0.0, (20, 31): 0.0, (20, 32): 1.0, (20, 33): 1.0, (20, 34): 2.0, (20, 35): 2.0, (20, 36): 3.0, (20, 37): 4.0, (20, 38): 4.0, (20, 39): 4.0, (20, 40): 4.0, (20, 41): 4.0, (20, 42): 4.0, (21, 1): 0.0, (21, 2): 0.0, (21, 3): 0.0, (21, 4): 0.0, (21, 5): 0.0, (21, 6): 0.0, (21, 7): 0.0, (21, 8): 0.0, (21, 9): 0.0, (21, 10): 0.0, (21, 11): 0.0, (21, 12): 0.0, (21, 13): 0.0, (21, 14): 0.0, (21, 15): 0.0, (21, 16): 0.0, (21, 17): 0.0, (21, 18): 0.0, (21, 19): 0.0, (21, 20): 0.0, (21, 21): 0.0, (21, 22): 0.0, (21, 23): 0.0, (21, 24): 0.0, (21, 25): 0.0, (21, 26): 0.0, (21, 27): 1.0, (21, 28): 1.0, (21, 29): 2.0, (21, 30): 3.0, (21, 31): 4.0, (21, 32): 4.0, (21, 33): 5.0, (21, 34): 6.0, (21, 35): 6.0, (21, 36): 7.0, (21, 37): 8.0, (21, 38): 8.0, (21, 39): 8.0, (21, 40): 8.0, (21, 41): 9.0, (21, 42): 9.0, (22, 1): 0.0, (22, 2): 0.0, (22, 3): 0.0, (22, 4): 0.0, (22, 5): 0.0, (22, 6): 0.0, (22, 7): 0.0, (22, 8): 0.0, (22, 9): 0.0, (22, 10): 0.0, (22, 11): 0.0, (22, 12): 0.0, (22, 13): 0.0, (22, 14): 0.0, (22, 15): 0.0, (22, 16): 0.0, (22, 17): 0.0, (22, 18): 0.0, (22, 19): 0.0, (22, 20): 0.0, (22, 21): 0.0, (22, 22): 0.0, (22, 23): 0.0, (22, 24): 0.0, (22, 25): 0.0, (22, 26): 0.0, (22, 27): 1.0, (22, 28): 2.0, (22, 29): 3.0, (22, 30): 3.0, (22, 31): 4.0, (22, 32): 4.0, (22, 33): 5.0, (22, 34): 6.0, (22, 35): 7.0, (22, 36): 8.0, (22, 37): 8.0, (22, 38): 8.0, (22, 39): 9.0, (22, 40): 9.0, (22, 41): 9.0, (22, 42): 9.0, (23, 1): 0.0, (23, 2): 0.0, (23, 3): 0.0, (23, 4): 0.0, (23, 5): 0.0, (23, 6): 0.0, (23, 7): 0.0, (23, 8): 0.0, (23, 9): 0.0, (23, 10): 0.0, (23, 11): 0.0, (23, 12): 0.0, (23, 13): 0.0, (23, 14): 0.0, (23, 15): 0.0, (23, 16): 0.0, (23, 17): 0.0, (23, 18): 0.0, (23, 19): 0.0, (23, 20): 0.0, (23, 21): 0.0, (23, 22): 0.0, (23, 23): 0.0, (23, 24): 0.0, (23, 25): 0.0, (23, 26): 0.0, (23, 27): 0.0, (23, 28): 0.0, (23, 29): 1.0, (23, 30): 1.0, (23, 31): 2.0, (23, 32): 3.0, (23, 33): 3.0, (23, 34): 4.0, (23, 35): 4.0, (23, 36): 4.0, (23, 37): 4.0, (23, 38): 4.0, (23, 39): 4.0, (23, 40): 4.0, (23, 41): 4.0, (23, 42): 4.0, (24, 1): 0.0, (24, 2): 0.0, (24, 3): 0.0, (24, 4): 0.0, (24, 5): 0.0, (24, 6): 0.0, (24, 7): 0.0, (24, 8): 0.0, (24, 9): 0.0, (24, 10): 0.0, (24, 11): 0.0, (24, 12): 0.0, (24, 13): 0.0, (24, 14): 0.0, (24, 15): 0.0, (24, 16): 0.0, (24, 17): 0.0, (24, 18): 0.0, (24, 19): 0.0, (24, 20): 0.0, (24, 21): 0.0, (24, 22): 1.0, (24, 23): 2.0, (24, 24): 3.0, (24, 25): 4.0, (24, 26): 5.0, (24, 27): 5.0, (24, 28): 5.0, (24, 29): 6.0, (24, 30): 6.0, (24, 31): 6.0, (24, 32): 6.0, (24, 33): 6.0, (24, 34): 6.0, (24, 35): 6.0, (24, 36): 6.0, (24, 37): 6.0, (24, 38): 6.0, (24, 39): 6.0, (24, 40): 6.0, (24, 41): 6.0, (24, 42): 6.0, (25, 1): 0.0, (25, 2): 0.0, (25, 3): 0.0, (25, 4): 0.0, (25, 5): 0.0, (25, 6): 0.0, (25, 7): 0.0, (25, 8): 0.0, (25, 9): 0.0, (25, 10): 0.0, (25, 11): 0.0, (25, 12): 0.0, (25, 13): 0.0, (25, 14): 0.0, (25, 15): 0.0, (25, 16): 0.0, (25, 17): 0.0, (25, 18): 0.0, (25, 19): 0.0, (25, 20): 0.0, (25, 21): 0.0, (25, 22): 0.0, (25, 23): 0.0, (25, 24): 0.0, (25, 25): 0.0, (25, 26): 0.0, (25, 27): 0.0, (25, 28): 0.0, (25, 29): 0.0, (25, 30): 0.0, (25, 31): 0.0, (25, 32): 0.0, (25, 33): 0.0, (25, 34): 0.0, (25, 35): 0.0, (25, 36): 0.0, (25, 37): 0.0, (25, 38): 1.0, (25, 39): 1.0, (25, 40): 1.0, (25, 41): 1.0, (25, 42): 2.0, (26, 1): 0.0, (26, 2): 0.0, (26, 3): 0.0, (26, 4): 0.0, (26, 5): 0.0, (26, 6): 0.0, (26, 7): 0.0, (26, 8): 0.0, (26, 9): 0.0, (26, 10): 0.0, (26, 11): 0.0, (26, 12): 0.0, (26, 13): 0.0, (26, 14): 0.0, (26, 15): 0.0, (26, 16): 0.0, (26, 17): 0.0, (26, 18): 0.0, (26, 19): 0.0, (26, 20): 0.0, (26, 21): 0.0, (26, 22): 0.0, (26, 23): 0.0, (26, 24): 0.0, (26, 25): 0.0, (26, 26): 1.0, (26, 27): 2.0, (26, 28): 2.0, (26, 29): 2.0, (26, 30): 2.0, (26, 31): 3.0, (26, 32): 3.0, (26, 33): 3.0, (26, 34): 3.0, (26, 35): 3.0, (26, 36): 3.0, (26, 37): 3.0, (26, 38): 3.0, (26, 39): 3.0, (26, 40): 3.0, (26, 41): 3.0, (26, 42): 3.0, (28, 1): 0.0, (28, 2): 0.0, (28, 3): 0.0, (28, 4): 0.0, (28, 5): 0.0, (28, 6): 0.0, (28, 7): 0.0, (28, 8): 0.0, (28, 9): 0.0, (28, 10): 0.0, (28, 11): 0.0, (28, 12): 0.0, (28, 13): 0.0, (28, 14): 0.0, (28, 15): 0.0, (28, 16): 0.0, (28, 17): 0.0, (28, 18): 0.0, (28, 19): 0.0, (28, 20): 0.0, (28, 21): 0.0, (28, 22): 0.0, (28, 23): 0.0, (28, 24): 0.0, (28, 25): 0.0, (28, 26): 0.0, (28, 27): 0.0, (28, 28): 0.0, (28, 29): 0.0, (28, 30): 1.0, (28, 31): 2.0, (28, 32): 2.0, (28, 33): 3.0, (28, 34): 4.0, (28, 35): 4.0, (28, 36): 4.0, (28, 37): 5.0, (28, 38): 6.0, (28, 39): 7.0, (28, 40): 8.0, (28, 41): 9.0, (28, 42): 9.0, (30, 1): 0.0, (30, 2): 0.0, (30, 3): 0.0, (30, 4): 0.0, (30, 5): 0.0, (30, 6): 0.0, (30, 7): 0.0, (30, 8): 0.0, (30, 9): 0.0, (30, 10): 0.0, (30, 11): 0.0, (30, 12): 0.0, (30, 13): 0.0, (30, 14): 0.0, (30, 15): 0.0, (30, 16): 0.0, (30, 17): 0.0, (30, 18): 0.0, (30, 19): 0.0, (30, 20): 0.0, (30, 21): 0.0, (30, 22): 0.0, (30, 23): 1.0, (30, 24): 2.0, (30, 25): 2.0, (30, 26): 3.0, (30, 27): 4.0, (30, 28): 5.0, (30, 29): 5.0, (30, 30): 6.0, (30, 31): 6.0, (30, 32): 6.0, (30, 33): 6.0, (30, 34): 6.0, (30, 35): 6.0, (30, 36): 6.0, (30, 37): 6.0, (30, 38): 6.0, (30, 39): 6.0, (30, 40): 6.0, (30, 41): 6.0, (30, 42): 6.0, (31, 1): 0.0, (31, 2): 0.0, (31, 3): 0.0, (31, 4): 0.0, (31, 5): 0.0, (31, 6): 0.0, (31, 7): 0.0, (31, 8): 1.0, (31, 9): 2.0, (31, 10): 3.0, (31, 11): 4.0, (31, 12): 5.0, (31, 13): 6.0, (31, 14): 6.0, (31, 15): 6.0, (31, 16): 7.0, (31, 17): 8.0, (31, 18): 9.0, (31, 19): 10.0, (31, 20): 11.0, (31, 21): 11.0, (31, 22): 11.0, (31, 23): 11.0, (31, 24): 11.0, (31, 25): 11.0, (31, 26): 11.0, (31, 27): 11.0, (31, 28): 11.0, (31, 29): 11.0, (31, 30): 11.0, (31, 31): 11.0, (31, 32): 11.0, (31, 33): 11.0, (31, 34): 11.0, (31, 35): 11.0, (31, 36): 11.0, (31, 37): 11.0, (31, 38): 11.0, (31, 39): 11.0, (31, 40): 11.0, (31, 41): 11.0, (31, 42): 11.0, (36, 1): 0.0, (36, 2): 0.0, (36, 3): 0.0, (36, 4): 0.0, (36, 5): 0.0, (36, 6): 0.0, (36, 7): 0.0, (36, 8): 0.0, (36, 9): 0.0, (36, 10): 0.0, (36, 11): 0.0, (36, 12): 0.0, (36, 13): 0.0, (36, 14): 0.0, (36, 15): 0.0, (36, 16): 0.0, (36, 17): 0.0, (36, 18): 0.0, (36, 19): 0.0, (36, 20): 0.0, (36, 21): 0.0, (36, 22): 0.0, (36, 23): 0.0, (36, 24): 0.0, (36, 25): 0.0, (36, 26): 0.0, (36, 27): 0.0, (36, 28): 1.0, (36, 29): 2.0, (36, 30): 2.0, (36, 31): 3.0, (36, 32): 3.0, (36, 33): 3.0, (36, 34): 4.0, (36, 35): 5.0, (36, 36): 6.0, (36, 37): 6.0, (36, 38): 7.0, (36, 39): 7.0, (36, 40): 7.0, (36, 41): 7.0, (36, 42): 7.0, (37, 1): 0.0, (37, 2): 0.0, (37, 3): 0.0, (37, 4): 0.0, (37, 5): 0.0, (37, 6): 0.0, (37, 7): 0.0, (37, 8): 0.0, (37, 9): 0.0, (37, 10): 0.0, (37, 11): 0.0, (37, 12): 0.0, (37, 13): 0.0, (37, 14): 0.0, (37, 15): 0.0, (37, 16): 0.0, (37, 17): 0.0, (37, 18): 0.0, (37, 19): 0.0, (37, 20): 0.0, (37, 21): 0.0, (37, 22): 0.0, (37, 23): 0.0, (37, 24): 0.0, (37, 25): 0.0, (37, 26): 2.0, (37, 27): 2.0, (37, 28): 4.0, (37, 29): 5.0, (37, 30): 5.0, (37, 31): 6.0, (37, 32): 6.0, (37, 33): 8.0, (37, 34): 8.0, (37, 35): 8.0, (37, 36): 8.0, (37, 37): 8.0, (37, 38): 8.0, (37, 39): 8.0, (37, 40): 8.0, (37, 41): 8.0, (37, 42): 8.0, (38, 1): 0.0, (38, 2): 0.0, (38, 3): 0.0, (38, 4): 0.0, (38, 5): 0.0, (38, 6): 0.0, (38, 7): 0.0, (38, 8): 0.0, (38, 9): 0.0, (38, 10): 0.0, (38, 11): 0.0, (38, 12): 0.0, (38, 13): 0.0, (38, 14): 0.0, (38, 15): 0.0, (38, 16): 0.0, (38, 17): 0.0, (38, 18): 0.0, (38, 19): 0.0, (38, 20): 0.0, (38, 21): 0.0, (38, 22): 0.0, (38, 23): 0.0, (38, 24): 0.0, (38, 25): 0.0, (38, 26): 0.0, (38, 27): 0.0, (38, 28): 0.0, (38, 29): 0.0, (38, 30): 0.0, (38, 31): 0.0, (38, 32): 0.0, (38, 33): 0.0, (38, 34): 0.0, (38, 35): 0.0, (38, 36): 0.0, (38, 37): 0.0, (38, 38): 0.0, (38, 39): 0.0, (38, 40): 0.0, (38, 41): 1.0, (38, 42): 1.0, (39, 1): 0.0, (39, 2): 0.0, (39, 3): 0.0, (39, 4): 0.0, (39, 5): 0.0, (39, 6): 0.0, (39, 7): 0.0, (39, 8): 0.0, (39, 9): 0.0, (39, 10): 0.0, (39, 11): 0.0, (39, 12): 0.0, (39, 13): 0.0, (39, 14): 0.0, (39, 15): 0.0, (39, 16): 0.0, (39, 17): 0.0, (39, 18): 1.0, (39, 19): 2.0, (39, 20): 3.0, (39, 21): 3.0, (39, 22): 4.0, (39, 23): 4.0, (39, 24): 5.0, (39, 25): 5.0, (39, 26): 5.0, (39, 27): 5.0, (39, 28): 5.0, (39, 29): 5.0, (39, 30): 5.0, (39, 31): 5.0, (39, 32): 5.0, (39, 33): 5.0, (39, 34): 5.0, (39, 35): 5.0, (39, 36): 5.0, (39, 37): 5.0, (39, 38): 5.0, (39, 39): 5.0, (39, 40): 5.0, (39, 41): 5.0, (39, 42): 5.0, (40, 1): 0.0, (40, 2): 0.0, (40, 3): 0.0, (40, 4): 0.0, (40, 5): 0.0, (40, 6): 0.0, (40, 7): 0.0, (40, 8): 1.0, (40, 9): 2.0, (40, 10): 3.0, (40, 11): 4.0, (40, 12): 5.0, (40, 13): 5.0, (40, 14): 5.0, (40, 15): 6.0, (40, 16): 6.0, (40, 17): 6.0, (40, 18): 6.0, (40, 19): 6.0, (40, 20): 6.0, (40, 21): 6.0, (40, 22): 6.0, (40, 23): 6.0, (40, 24): 6.0, (40, 25): 6.0, (40, 26): 6.0, (40, 27): 6.0, (40, 28): 6.0, (40, 29): 6.0, (40, 30): 6.0, (40, 31): 6.0, (40, 32): 6.0, (40, 33): 6.0, (40, 34): 6.0, (40, 35): 6.0, (40, 36): 6.0, (40, 37): 6.0, (40, 38): 6.0, (40, 39): 6.0, (40, 40): 6.0, (40, 41): 6.0, (40, 42): 6.0, (41, 1): 0.0, (41, 2): 0.0, (41, 3): 0.0, (41, 4): 0.0, (41, 5): 0.0, (41, 6): 0.0, (41, 7): 0.0, (41, 8): 0.0, (41, 9): 0.0, (41, 10): 0.0, (41, 11): 0.0, (41, 12): 0.0, (41, 13): 0.0, (41, 14): 0.0, (41, 15): 0.0, (41, 16): 0.0, (41, 17): 0.0, (41, 18): 0.0, (41, 19): 0.0, (41, 20): 0.0, (41, 21): 0.0, (41, 22): 0.0, (41, 23): 1.0, (41, 24): 2.0, (41, 25): 3.0, (41, 26): 3.0, (41, 27): 3.0, (41, 28): 4.0, (41, 29): 4.0, (41, 30): 4.0, (41, 31): 4.0, (41, 32): 4.0, (41, 33): 4.0, (41, 34): 4.0, (41, 35): 4.0, (41, 36): 4.0, (41, 37): 4.0, (41, 38): 4.0, (41, 39): 4.0, (41, 40): 4.0, (41, 41): 4.0, (41, 42): 4.0, (43, 1): 0.0, (43, 2): 0.0, (43, 3): 0.0, (43, 4): 0.0, (43, 5): 0.0, (43, 6): 0.0, (43, 7): 0.0, (43, 8): 0.0, (43, 9): 0.0, (43, 10): 0.0, (43, 11): 0.0, (43, 12): 0.0, (43, 13): 0.0, (43, 14): 0.0, (43, 15): 0.0, (43, 16): 0.0, (43, 17): 1.0, (43, 18): 2.0, (43, 19): 2.0, (43, 20): 3.0, (43, 21): 4.0, (43, 22): 5.0, (43, 23): 5.0, (43, 24): 6.0, (43, 25): 6.0, (43, 26): 6.0, (43, 27): 6.0, (43, 28): 6.0, (43, 29): 6.0, (43, 30): 6.0, (43, 31): 6.0, (43, 32): 6.0, (43, 33): 6.0, (43, 34): 6.0, (43, 35): 6.0, (43, 36): 6.0, (43, 37): 6.0, (43, 38): 6.0, (43, 39): 6.0, (43, 40): 6.0, (43, 41): 6.0, (43, 42): 6.0, (50, 1): 0.0, (50, 2): 0.0, (50, 3): 0.0, (50, 4): 0.0, (50, 5): 0.0, (50, 6): 0.0, (50, 7): 0.0, (50, 8): 0.0, (50, 9): 0.0, (50, 10): 0.0, (50, 11): 1.0, (50, 12): 2.0, (50, 13): 2.0, (50, 14): 2.0, (50, 15): 3.0, (50, 16): 3.0, (50, 17): 4.0, (50, 18): 4.0, (50, 19): 4.0, (50, 20): 4.0, (50, 21): 4.0, (50, 22): 4.0, (50, 23): 4.0, (50, 24): 4.0, (50, 25): 4.0, (50, 26): 4.0, (50, 27): 4.0, (50, 28): 4.0, (50, 29): 4.0, (50, 30): 4.0, (50, 31): 4.0, (50, 32): 4.0, (50, 33): 4.0, (50, 34): 4.0, (50, 35): 4.0, (50, 36): 4.0, (50, 37): 4.0, (50, 38): 4.0, (50, 39): 4.0, (50, 40): 4.0, (50, 41): 4.0, (50, 42): 4.0, (59, 1): 0.0, (59, 2): 0.0, (59, 3): 0.0, (59, 4): 0.0, (59, 5): 0.0, (59, 6): 0.0, (59, 7): 0.0, (59, 8): 0.0, (59, 9): 0.0, (59, 10): 0.0, (59, 11): 0.0, (59, 12): 0.0, (59, 13): 0.0, (59, 14): 0.0, (59, 15): 1.0, (59, 16): 2.0, (59, 17): 3.0, (59, 18): 4.0, (59, 19): 5.0, (59, 20): 6.0, (59, 21): 6.0, (59, 22): 6.0, (59, 23): 7.0, (59, 24): 7.0, (59, 25): 7.0, (59, 26): 7.0, (59, 27): 7.0, (59, 28): 7.0, (59, 29): 7.0, (59, 30): 7.0, (59, 31): 7.0, (59, 32): 7.0, (59, 33): 7.0, (59, 34): 7.0, (59, 35): 7.0, (59, 36): 7.0, (59, 37): 7.0, (59, 38): 7.0, (59, 39): 7.0, (59, 40): 7.0, (59, 41): 7.0, (59, 42): 7.0, (60, 1): 0.0, (60, 2): 0.0, (60, 3): 0.0, (60, 4): 0.0, (60, 5): 0.0, (60, 6): 0.0, (60, 7): 0.0, (60, 8): 0.0, (60, 9): 0.0, (60, 10): 0.0, (60, 11): 0.0, (60, 12): 0.0, (60, 13): 0.0, (60, 14): 0.0, (60, 15): 0.0, (60, 16): 0.0, (60, 17): 0.0, (60, 18): 0.0, (60, 19): 0.0, (60, 20): 0.0, (60, 21): 0.0, (60, 22): 0.0, (60, 23): 0.0, (60, 24): 0.0, (60, 25): 0.0, (60, 26): 0.0, (60, 27): 0.0, (60, 28): 0.0, (60, 29): 0.0, (60, 30): 0.0, (60, 31): 0.0, (60, 32): 0.0, (60, 33): 0.0, (60, 34): 0.0, (60, 35): 0.0, (60, 36): 0.0, (60, 37): 0.0, (60, 38): 1.0, (60, 39): 1.0, (60, 40): 1.0, (60, 41): 1.0, (60, 42): 2.0, (62, 1): 0.0, (62, 2): 0.0, (62, 3): 0.0, (62, 4): 0.0, (62, 5): 0.0, (62, 6): 0.0, (62, 7): 0.0, (62, 8): 0.0, (62, 9): 0.0, (62, 10): 0.0, (62, 11): 0.0, (62, 12): 0.0, (62, 13): 0.0, (62, 14): 0.0, (62, 15): 0.0, (62, 16): 0.0, (62, 17): 0.0, (62, 18): 0.0, (62, 19): 0.0, (62, 20): 1.0, (62, 21): 2.0, (62, 22): 2.0, (62, 23): 3.0, (62, 24): 3.0, (62, 25): 4.0, (62, 26): 4.0, (62, 27): 4.0, (62, 28): 4.0, (62, 29): 4.0, (62, 30): 4.0, (62, 31): 4.0, (62, 32): 4.0, (62, 33): 4.0, (62, 34): 4.0, (62, 35): 4.0, (62, 36): 4.0, (62, 37): 4.0, (62, 38): 4.0, (62, 39): 4.0, (62, 40): 4.0, (62, 41): 4.0, (62, 42): 4.0, (63, 1): 0.0, (63, 2): 0.0, (63, 3): 0.0, (63, 4): 0.0, (63, 5): 0.0, (63, 6): 0.0, (63, 7): 0.0, (63, 8): 0.0, (63, 9): 0.0, (63, 10): 0.0, (63, 11): 0.0, (63, 12): 0.0, (63, 13): 0.0, (63, 14): 0.0, (63, 15): 0.0, (63, 16): 0.0, (63, 17): 0.0, (63, 18): 0.0, (63, 19): 0.0, (63, 20): 0.0, (63, 21): 0.0, (63, 22): 0.0, (63, 23): 0.0, (63, 24): 0.0, (63, 25): 0.0, (63, 26): 0.0, (63, 27): 0.0, (63, 28): 0.0, (63, 29): 0.0, (63, 30): 0.0, (63, 31): 0.0, (63, 32): 0.0, (63, 33): 0.0, (63, 34): 0.0, (63, 35): 0.0, (63, 36): 0.0, (63, 37): 1.0, (63, 38): 1.0, (63, 39): 1.0, (63, 40): 2.0, (63, 41): 3.0, (63, 42): 3.0, (65, 1): 0.0, (65, 2): 0.0, (65, 3): 0.0, (65, 4): 0.0, (65, 5): 0.0, (65, 6): 0.0, (65, 7): 0.0, (65, 8): 0.0, (65, 9): 0.0, (65, 10): 0.0, (65, 11): 0.0, (65, 12): 0.0, (65, 13): 0.0, (65, 14): 0.0, (65, 15): 0.0, (65, 16): 0.0, (65, 17): 0.0, (65, 18): 0.0, (65, 19): 0.0, (65, 20): 0.0, (65, 21): 0.0, (65, 22): 0.0, (65, 23): 0.0, (65, 24): 0.0, (65, 25): 0.0, (65, 26): 0.0, (65, 27): 1.0, (65, 28): 2.0, (65, 29): 2.0, (65, 30): 2.0, (65, 31): 2.0, (65, 32): 3.0, (65, 33): 3.0, (65, 34): 3.0, (65, 35): 3.0, (65, 36): 3.0, (65, 37): 3.0, (65, 38): 3.0, (65, 39): 3.0, (65, 40): 3.0, (65, 41): 3.0, (65, 42): 3.0, (66, 1): 0.0, (66, 2): 0.0, (66, 3): 0.0, (66, 4): 0.0, (66, 5): 0.0, (66, 6): 0.0, (66, 7): 0.0, (66, 8): 0.0, (66, 9): 0.0, (66, 10): 0.0, (66, 11): 0.0, (66, 12): 0.0, (66, 13): 0.0, (66, 14): 0.0, (66, 15): 0.0, (66, 16): 0.0, (66, 17): 0.0, (66, 18): 0.0, (66, 19): 0.0, (66, 20): 0.0, (66, 21): 0.0, (66, 22): 0.0, (66, 23): 0.0, (66, 24): 0.0, (66, 25): 0.0, (66, 26): 0.0, (66, 27): 0.0, (66, 28): 0.0, (66, 29): 0.0, (66, 30): 1.0, (66, 31): 1.0, (66, 32): 1.0, (66, 33): 1.0, (66, 34): 2.0, (66, 35): 2.0, (66, 36): 2.0, (66, 37): 2.0, (66, 38): 2.0, (66, 39): 2.0, (66, 40): 2.0, (66, 41): 2.0, (66, 42): 2.0, (67, 1): 0.0, (67, 2): 0.0, (67, 3): 0.0, (67, 4): 0.0, (67, 5): 0.0, (67, 6): 0.0, (67, 7): 0.0, (67, 8): 0.0, (67, 9): 0.0, (67, 10): 0.0, (67, 11): 0.0, (67, 12): 0.0, (67, 13): 0.0, (67, 14): 1.0, (67, 15): 1.0, (67, 16): 2.0, (67, 17): 3.0, (67, 18): 3.0, (67, 19): 4.0, (67, 20): 4.0, (67, 21): 4.0, (67, 22): 4.0, (67, 23): 4.0, (67, 24): 4.0, (67, 25): 4.0, (67, 26): 4.0, (67, 27): 4.0, (67, 28): 4.0, (67, 29): 4.0, (67, 30): 4.0, (67, 31): 4.0, (67, 32): 4.0, (67, 33): 4.0, (67, 34): 4.0, (67, 35): 4.0, (67, 36): 4.0, (67, 37): 4.0, (67, 38): 4.0, (67, 39): 4.0, (67, 40): 4.0, (67, 41): 4.0, (67, 42): 4.0, (70, 1): 0.0, (70, 2): 0.0, (70, 3): 0.0, (70, 4): 0.0, (70, 5): 0.0, (70, 6): 0.0, (70, 7): 0.0, (70, 8): 0.0, (70, 9): 0.0, (70, 10): 0.0, (70, 11): 0.0, (70, 12): 0.0, (70, 13): 0.0, (70, 14): 0.0, (70, 15): 0.0, (70, 16): 0.0, (70, 17): 0.0, (70, 18): 0.0, (70, 19): 0.0, (70, 20): 0.0, (70, 21): 0.0, (70, 22): 0.0, (70, 23): 0.0, (70, 24): 0.0, (70, 25): 0.0, (70, 26): 0.0, (70, 27): 0.0, (70, 28): 0.0, (70, 29): 0.0, (70, 30): 0.0, (70, 31): 0.0, (70, 32): 1.0, (70, 33): 1.0, (70, 34): 1.0, (70, 35): 1.0, (70, 36): 2.0, (70, 37): 2.0, (70, 38): 2.0, (70, 39): 2.0, (70, 40): 2.0, (70, 41): 2.0, (70, 42): 2.0, (71, 1): 0.0, (71, 2): 0.0, (71, 3): 0.0, (71, 4): 0.0, (71, 5): 0.0, (71, 6): 0.0, (71, 7): 0.0, (71, 8): 0.0, (71, 9): 0.0, (71, 10): 0.0, (71, 11): 0.0, (71, 12): 0.0, (71, 13): 0.0, (71, 14): 0.0, (71, 15): 0.0, (71, 16): 0.0, (71, 17): 0.0, (71, 18): 0.0, (71, 19): 0.0, (71, 20): 0.0, (71, 21): 0.0, (71, 22): 0.0, (71, 23): 0.0, (71, 24): 0.0, (71, 25): 0.0, (71, 26): 0.0, (71, 27): 0.0, (71, 28): 0.0, (71, 29): 0.0, (71, 30): 0.0, (71, 31): 0.0, (71, 32): 0.0, (71, 33): 1.0, (71, 34): 2.0, (71, 35): 3.0, (71, 36): 4.0, (71, 37): 4.0, (71, 38): 5.0, (71, 39): 5.0, (71, 40): 6.0, (71, 41): 6.0, (71, 42): 6.0, (73, 1): 0.0, (73, 2): 0.0, (73, 3): 0.0, (73, 4): 0.0, (73, 5): 0.0, (73, 6): 0.0, (73, 7): 0.0, (73, 8): 0.0, (73, 9): 0.0, (73, 10): 0.0, (73, 11): 0.0, (73, 12): 0.0, (73, 13): 0.0, (73, 14): 0.0, (73, 15): 0.0, (73, 16): 0.0, (73, 17): 0.0, (73, 18): 0.0, (73, 19): 0.0, (73, 20): 0.0, (73, 21): 0.0, (73, 22): 0.0, (73, 23): 0.0, (73, 24): 0.0, (73, 25): 0.0, (73, 26): 0.0, (73, 27): 0.0, (73, 28): 0.0, (73, 29): 0.0, (73, 30): 0.0, (73, 31): 1.0, (73, 32): 1.0, (73, 33): 2.0, (73, 34): 3.0, (73, 35): 4.0, (73, 36): 4.0, (73, 37): 5.0, (73, 38): 5.0, (73, 39): 6.0, (73, 40): 6.0, (73, 41): 7.0, (73, 42): 7.0, (75, 1): 0.0, (75, 2): 0.0, (75, 3): 0.0, (75, 4): 0.0, (75, 5): 0.0, (75, 6): 0.0, (75, 7): 0.0, (75, 8): 0.0, (75, 9): 0.0, (75, 10): 0.0, (75, 11): 0.0, (75, 12): 0.0, (75, 13): 0.0, (75, 14): 0.0, (75, 15): 0.0, (75, 16): 0.0, (75, 17): 0.0, (75, 18): 0.0, (75, 19): 0.0, (75, 20): 1.0, (75, 21): 1.0, (75, 22): 2.0, (75, 23): 2.0, (75, 24): 3.0, (75, 25): 4.0, (75, 26): 5.0, (75, 27): 5.0, (75, 28): 5.0, (75, 29): 5.0, (75, 30): 5.0, (75, 31): 5.0, (75, 32): 5.0, (75, 33): 5.0, (75, 34): 5.0, (75, 35): 5.0, (75, 36): 5.0, (75, 37): 5.0, (75, 38): 5.0, (75, 39): 5.0, (75, 40): 5.0, (75, 41): 5.0, (75, 42): 5.0, (77, 1): 0.0, (77, 2): 0.0, (77, 3): 0.0, (77, 4): 0.0, (77, 5): 0.0, (77, 6): 0.0, (77, 7): 0.0, (77, 8): 0.0, (77, 9): 0.0, (77, 10): 0.0, (77, 11): 0.0, (77, 12): 0.0, (77, 13): 0.0, (77, 14): 0.0, (77, 15): 0.0, (77, 16): 0.0, (77, 17): 0.0, (77, 18): 0.0, (77, 19): 0.0, (77, 20): 0.0, (77, 21): 0.0, (77, 22): 0.0, (77, 23): 0.0, (77, 24): 0.0, (77, 25): 0.0, (77, 26): 0.0, (77, 27): 0.0, (77, 28): 0.0, (77, 29): 0.0, (77, 30): 0.0, (77, 31): 0.0, (77, 32): 0.0, (77, 33): 0.0, (77, 34): 0.0, (77, 35): 0.0, (77, 36): 0.0, (77, 37): 0.0, (77, 38): 0.0, (77, 39): 0.0, (77, 40): 1.0, (77, 41): 1.0, (77, 42): 1.0, (78, 1): 0.0, (78, 2): 0.0, (78, 3): 0.0, (78, 4): 0.0, (78, 5): 0.0, (78, 6): 0.0, (78, 7): 0.0, (78, 8): 0.0, (78, 9): 0.0, (78, 10): 0.0, (78, 11): 1.0, (78, 12): 2.0, (78, 13): 3.0, (78, 14): 4.0, (78, 15): 5.0, (78, 16): 5.0, (78, 17): 5.0, (78, 18): 6.0, (78, 19): 6.0, (78, 20): 6.0, (78, 21): 6.0, (78, 22): 6.0, (78, 23): 6.0, (78, 24): 6.0, (78, 25): 6.0, (78, 26): 6.0, (78, 27): 6.0, (78, 28): 6.0, (78, 29): 6.0, (78, 30): 6.0, (78, 31): 6.0, (78, 32): 6.0, (78, 33): 6.0, (78, 34): 6.0, (78, 35): 6.0, (78, 36): 6.0, (78, 37): 6.0, (78, 38): 6.0, (78, 39): 6.0, (78, 40): 6.0, (78, 41): 6.0, (78, 42): 6.0, (79, 1): 0.0, (79, 2): 0.0, (79, 3): 0.0, (79, 4): 0.0, (79, 5): 0.0, (79, 6): 0.0, (79, 7): 0.0, (79, 8): 0.0, (79, 9): 0.0, (79, 10): 0.0, (79, 11): 0.0, (79, 12): 0.0, (79, 13): 0.0, (79, 14): 0.0, (79, 15): 0.0, (79, 16): 0.0, (79, 17): 0.0, (79, 18): 0.0, (79, 19): 0.0, (79, 20): 1.0, (79, 21): 2.0, (79, 22): 2.0, (79, 23): 2.0, (79, 24): 2.0, (79, 25): 3.0, (79, 26): 3.0, (79, 27): 3.0, (79, 28): 3.0, (79, 29): 3.0, (79, 30): 3.0, (79, 31): 3.0, (79, 32): 3.0, (79, 33): 3.0, (79, 34): 3.0, (79, 35): 3.0, (79, 36): 3.0, (79, 37): 3.0, (79, 38): 3.0, (79, 39): 3.0, (79, 40): 3.0, (79, 41): 3.0, (79, 42): 3.0, (81, 1): 0.0, (81, 2): 0.0, (81, 3): 0.0, (81, 4): 0.0, (81, 5): 0.0, (81, 6): 0.0, (81, 7): 0.0, (81, 8): 0.0, (81, 9): 0.0, (81, 10): 0.0, (81, 11): 0.0, (81, 12): 1.0, (81, 13): 2.0, (81, 14): 2.0, (81, 15): 2.0, (81, 16): 2.0, (81, 17): 3.0, (81, 18): 3.0, (81, 19): 3.0, (81, 20): 3.0, (81, 21): 3.0, (81, 22): 3.0, (81, 23): 3.0, (81, 24): 3.0, (81, 25): 3.0, (81, 26): 3.0, (81, 27): 3.0, (81, 28): 3.0, (81, 29): 3.0, (81, 30): 3.0, (81, 31): 3.0, (81, 32): 3.0, (81, 33): 3.0, (81, 34): 3.0, (81, 35): 3.0, (81, 36): 3.0, (81, 37): 3.0, (81, 38): 3.0, (81, 39): 3.0, (81, 40): 3.0, (81, 41): 3.0, (81, 42): 3.0, (82, 1): 0.0, (82, 2): 0.0, (82, 3): 0.0, (82, 4): 0.0, (82, 5): 0.0, (82, 6): 0.0, (82, 7): 0.0, (82, 8): 0.0, (82, 9): 1.0, (82, 10): 2.0, (82, 11): 2.0, (82, 12): 2.0, (82, 13): 3.0, (82, 14): 3.0, (82, 15): 4.0, (82, 16): 4.0, (82, 17): 4.0, (82, 18): 4.0, (82, 19): 4.0, (82, 20): 4.0, (82, 21): 4.0, (82, 22): 4.0, (82, 23): 4.0, (82, 24): 4.0, (82, 25): 4.0, (82, 26): 4.0, (82, 27): 4.0, (82, 28): 4.0, (82, 29): 4.0, (82, 30): 4.0, (82, 31): 4.0, (82, 32): 4.0, (82, 33): 4.0, (82, 34): 4.0, (82, 35): 4.0, (82, 36): 4.0, (82, 37): 4.0, (82, 38): 4.0, (82, 39): 4.0, (82, 40): 4.0, (82, 41): 4.0, (82, 42): 4.0}</t>
-  </si>
-  <si>
-    <t>{(2, 1): 0, (2, 2): 0, (2, 3): 0, (2, 4): 0, (2, 5): 0, (2, 6): 0, (2, 7): 0, (2, 8): 0, (2, 9): 0, (2, 10): 0, (2, 11): 0, (2, 12): 0, (2, 13): 0, (2, 14): 0, (2, 15): 0, (2, 16): 0, (2, 17): 0, (2, 18): 0, (2, 19): 0, (2, 20): 0, (2, 21): 0, (2, 22): 0, (2, 23): 0, (2, 24): 0, (2, 25): 0, (2, 26): 0, (2, 27): 0, (2, 28): 0, (2, 29): 0, (2, 30): 0, (2, 31): 0, (2, 32): 0, (2, 33): 0, (2, 34): 0, (2, 35): 0, (2, 36): 0, (2, 37): 0, (2, 38): 0, (2, 39): 0, (2, 40): 0, (2, 41): 1, (2, 42): 0, (3, 1): 0, (3, 2): 0, (3, 3): 0, (3, 4): 0, (3, 5): 0, (3, 6): 0, (3, 7): 0, (3, 8): 0, (3, 9): 0, (3, 10): 0, (3, 11): 0, (3, 12): 0, (3, 13): 0, (3, 14): 0, (3, 15): 0, (3, 16): 0, (3, 17): 0, (3, 18): 0, (3, 19): 0, (3, 20): 0, (3, 21): 0, (3, 22): 0, (3, 23): 0, (3, 24): 0, (3, 25): 0, (3, 26): 0, (3, 27): 0, (3, 28): 0, (3, 29): 0, (3, 30): 0, (3, 31): 0, (3, 32): 0, (3, 33): 0, (3, 34): 0, (3, 35): 1, (3, 36): 0, (3, 37): 0, (3, 38): 0, (3, 39): 0, (3, 40): 0, (3, 41): 0, (3, 42): 0, (4, 1): 0, (4, 2): 0, (4, 3): 0, (4, 4): 0, (4, 5): 0, (4, 6): 0, (4, 7): 0, (4, 8): 0, (4, 9): 0, (4, 10): 0, (4, 11): 0, (4, 12): 0, (4, 13): 0, (4, 14): 0, (4, 15): 0, (4, 16): 0, (4, 17): 0, (4, 18): 0, (4, 19): 0, (4, 20): 0, (4, 21): 0, (4, 22): 0, (4, 23): 0, (4, 24): 0, (4, 25): 0, (4, 26): 0, (4, 27): 0, (4, 28): 0, (4, 29): 0, (4, 30): 0, (4, 31): 0, (4, 32): 0, (4, 33): 0, (4, 34): 0, (4, 35): 0, (4, 36): 0, (4, 37): 0, (4, 38): 0, (4, 39): 0, (4, 40): 0, (4, 41): 0, (4, 42): 1, (9, 1): 0, (9, 2): 0, (9, 3): 0, (9, 4): 0, (9, 5): 0, (9, 6): 0, (9, 7): 0, (9, 8): 0, (9, 9): 0, (9, 10): 0, (9, 11): 0, (9, 12): 0, (9, 13): 0, (9, 14): 0, (9, 15): 0, (9, 16): 0, (9, 17): 0, (9, 18): 0, (9, 19): 0, (9, 20): 0, (9, 21): 0, (9, 22): 0, (9, 23): 0, (9, 24): 0, (9, 25): 0, (9, 26): 0, (9, 27): 0, (9, 28): 0, (9, 29): 0, (9, 30): 0, (9, 31): 0, (9, 32): 0, (9, 33): 0, (9, 34): 0, (9, 35): 0, (9, 36): 0, (9, 37): 0, (9, 38): 1, (9, 39): 0, (9, 40): 0, (9, 41): 0, (9, 42): 0, (15, 1): 0, (15, 2): 0, (15, 3): 0, (15, 4): 0, (15, 5): 0, (15, 6): 0, (15, 7): 0, (15, 8): 0, (15, 9): 0, (15, 10): 0, (15, 11): 0, (15, 12): 0, (15, 13): 0, (15, 14): 0, (15, 15): 0, (15, 16): 0, (15, 17): 0, (15, 18): 0, (15, 19): 0, (15, 20): 0, (15, 21): 0, (15, 22): 0, (15, 23): 0, (15, 24): 0, (15, 25): 0, (15, 26): 0, (15, 27): 0, (15, 28): 0, (15, 29): 0, (15, 30): 0, (15, 31): 0, (15, 32): 0, (15, 33): 0, (15, 34): 0, (15, 35): 0, (15, 36): 0, (15, 37): 0, (15, 38): 0, (15, 39): 0, (15, 40): 0, (15, 41): 1, (15, 42): 0, (16, 1): 0, (16, 2): 0, (16, 3): 0, (16, 4): 0, (16, 5): 0, (16, 6): 0, (16, 7): 0, (16, 8): 0, (16, 9): 0, (16, 10): 0, (16, 11): 0, (16, 12): 0, (16, 13): 0, (16, 14): 0, (16, 15): 0, (16, 16): 0, (16, 17): 0, (16, 18): 0, (16, 19): 1, (16, 20): 0, (16, 21): 0, (16, 22): 0, (16, 23): 0, (16, 24): 0, (16, 25): 0, (16, 26): 0, (16, 27): 0, (16, 28): 0, (16, 29): 0, (16, 30): 0, (16, 31): 0, (16, 32): 0, (16, 33): 0, (16, 34): 0, (16, 35): 0, (16, 36): 0, (16, 37): 0, (16, 38): 0, (16, 39): 0, (16, 40): 0, (16, 41): 0, (16, 42): 0, (20, 1): 0, (20, 2): 0, (20, 3): 0, (20, 4): 0, (20, 5): 0, (20, 6): 0, (20, 7): 0, (20, 8): 0, (20, 9): 0, (20, 10): 0, (20, 11): 0, (20, 12): 0, (20, 13): 0, (20, 14): 0, (20, 15): 0, (20, 16): 0, (20, 17): 0, (20, 18): 0, (20, 19): 0, (20, 20): 0, (20, 21): 0, (20, 22): 0, (20, 23): 0, (20, 24): 0, (20, 25): 0, (20, 26): 0, (20, 27): 0, (20, 28): 0, (20, 29): 0, (20, 30): 0, (20, 31): 0, (20, 32): 0, (20, 33): 0, (20, 34): 0, (20, 35): 0, (20, 36): 0, (20, 37): 1, (20, 38): 0, (20, 39): 0, (20, 40): 0, (20, 41): 0, (20, 42): 0, (21, 1): 0, (21, 2): 0, (21, 3): 0, (21, 4): 0, (21, 5): 0, (21, 6): 0, (21, 7): 0, (21, 8): 0, (21, 9): 0, (21, 10): 0, (21, 11): 0, (21, 12): 0, (21, 13): 0, (21, 14): 0, (21, 15): 0, (21, 16): 0, (21, 17): 0, (21, 18): 0, (21, 19): 0, (21, 20): 0, (21, 21): 0, (21, 22): 0, (21, 23): 0, (21, 24): 0, (21, 25): 0, (21, 26): 0, (21, 27): 0, (21, 28): 0, (21, 29): 0, (21, 30): 0, (21, 31): 0, (21, 32): 0, (21, 33): 0, (21, 34): 0, (21, 35): 0, (21, 36): 0, (21, 37): 0, (21, 38): 0, (21, 39): 0, (21, 40): 0, (21, 41): 1, (21, 42): 0, (22, 1): 0, (22, 2): 0, (22, 3): 0, (22, 4): 0, (22, 5): 0, (22, 6): 0, (22, 7): 0, (22, 8): 0, (22, 9): 0, (22, 10): 0, (22, 11): 0, (22, 12): 0, (22, 13): 0, (22, 14): 0, (22, 15): 0, (22, 16): 0, (22, 17): 0, (22, 18): 0, (22, 19): 0, (22, 20): 0, (22, 21): 0, (22, 22): 0, (22, 23): 0, (22, 24): 0, (22, 25): 0, (22, 26): 0, (22, 27): 0, (22, 28): 0, (22, 29): 0, (22, 30): 0, (22, 31): 0, (22, 32): 0, (22, 33): 0, (22, 34): 0, (22, 35): 0, (22, 36): 0, (22, 37): 0, (22, 38): 0, (22, 39): 1, (22, 40): 0, (22, 41): 0, (22, 42): 0, (23, 1): 0, (23, 2): 0, (23, 3): 0, (23, 4): 0, (23, 5): 0, (23, 6): 0, (23, 7): 0, (23, 8): 0, (23, 9): 0, (23, 10): 0, (23, 11): 0, (23, 12): 0, (23, 13): 0, (23, 14): 0, (23, 15): 0, (23, 16): 0, (23, 17): 0, (23, 18): 0, (23, 19): 0, (23, 20): 0, (23, 21): 0, (23, 22): 0, (23, 23): 0, (23, 24): 0, (23, 25): 0, (23, 26): 0, (23, 27): 0, (23, 28): 0, (23, 29): 0, (23, 30): 0, (23, 31): 0, (23, 32): 0, (23, 33): 0, (23, 34): 1, (23, 35): 0, (23, 36): 0, (23, 37): 0, (23, 38): 0, (23, 39): 0, (23, 40): 0, (23, 41): 0, (23, 42): 0, (24, 1): 0, (24, 2): 0, (24, 3): 0, (24, 4): 0, (24, 5): 0, (24, 6): 0, (24, 7): 0, (24, 8): 0, (24, 9): 0, (24, 10): 0, (24, 11): 0, (24, 12): 0, (24, 13): 0, (24, 14): 0, (24, 15): 0, (24, 16): 0, (24, 17): 0, (24, 18): 0, (24, 19): 0, (24, 20): 0, (24, 21): 0, (24, 22): 0, (24, 23): 0, (24, 24): 0, (24, 25): 0, (24, 26): 0, (24, 27): 0, (24, 28): 0, (24, 29): 1, (24, 30): 0, (24, 31): 0, (24, 32): 0, (24, 33): 0, (24, 34): 0, (24, 35): 0, (24, 36): 0, (24, 37): 0, (24, 38): 0, (24, 39): 0, (24, 40): 0, (24, 41): 0, (24, 42): 0, (25, 1): 0, (25, 2): 0, (25, 3): 0, (25, 4): 0, (25, 5): 0, (25, 6): 0, (25, 7): 0, (25, 8): 0, (25, 9): 0, (25, 10): 0, (25, 11): 0, (25, 12): 0, (25, 13): 0, (25, 14): 0, (25, 15): 0, (25, 16): 0, (25, 17): 0, (25, 18): 0, (25, 19): 0, (25, 20): 0, (25, 21): 0, (25, 22): 0, (25, 23): 0, (25, 24): 0, (25, 25): 0, (25, 26): 0, (25, 27): 0, (25, 28): 0, (25, 29): 0, (25, 30): 0, (25, 31): 0, (25, 32): 0, (25, 33): 0, (25, 34): 0, (25, 35): 0, (25, 36): 0, (25, 37): 0, (25, 38): 0, (25, 39): 0, (25, 40): 0, (25, 41): 0, (25, 42): 1, (26, 1): 0, (26, 2): 0, (26, 3): 0, (26, 4): 0, (26, 5): 0, (26, 6): 0, (26, 7): 0, (26, 8): 0, (26, 9): 0, (26, 10): 0, (26, 11): 0, (26, 12): 0, (26, 13): 0, (26, 14): 0, (26, 15): 0, (26, 16): 0, (26, 17): 0, (26, 18): 0, (26, 19): 0, (26, 20): 0, (26, 21): 0, (26, 22): 0, (26, 23): 0, (26, 24): 0, (26, 25): 0, (26, 26): 0, (26, 27): 0, (26, 28): 0, (26, 29): 0, (26, 30): 0, (26, 31): 1, (26, 32): 0, (26, 33): 0, (26, 34): 0, (26, 35): 0, (26, 36): 0, (26, 37): 0, (26, 38): 0, (26, 39): 0, (26, 40): 0, (26, 41): 0, (26, 42): 0, (28, 1): 0, (28, 2): 0, (28, 3): 0, (28, 4): 0, (28, 5): 0, (28, 6): 0, (28, 7): 0, (28, 8): 0, (28, 9): 0, (28, 10): 0, (28, 11): 0, (28, 12): 0, (28, 13): 0, (28, 14): 0, (28, 15): 0, (28, 16): 0, (28, 17): 0, (28, 18): 0, (28, 19): 0, (28, 20): 0, (28, 21): 0, (28, 22): 0, (28, 23): 0, (28, 24): 0, (28, 25): 0, (28, 26): 0, (28, 27): 0, (28, 28): 0, (28, 29): 0, (28, 30): 0, (28, 31): 0, (28, 32): 0, (28, 33): 0, (28, 34): 0, (28, 35): 0, (28, 36): 0, (28, 37): 0, (28, 38): 0, (28, 39): 0, (28, 40): 0, (28, 41): 1, (28, 42): 0, (30, 1): 0, (30, 2): 0, (30, 3): 0, (30, 4): 0, (30, 5): 0, (30, 6): 0, (30, 7): 0, (30, 8): 0, (30, 9): 0, (30, 10): 0, (30, 11): 0, (30, 12): 0, (30, 13): 0, (30, 14): 0, (30, 15): 0, (30, 16): 0, (30, 17): 0, (30, 18): 0, (30, 19): 0, (30, 20): 0, (30, 21): 0, (30, 22): 0, (30, 23): 0, (30, 24): 0, (30, 25): 0, (30, 26): 0, (30, 27): 0, (30, 28): 0, (30, 29): 0, (30, 30): 1, (30, 31): 0, (30, 32): 0, (30, 33): 0, (30, 34): 0, (30, 35): 0, (30, 36): 0, (30, 37): 0, (30, 38): 0, (30, 39): 0, (30, 40): 0, (30, 41): 0, (30, 42): 0, (31, 1): 0, (31, 2): 0, (31, 3): 0, (31, 4): 0, (31, 5): 0, (31, 6): 0, (31, 7): 0, (31, 8): 0, (31, 9): 0, (31, 10): 0, (31, 11): 0, (31, 12): 0, (31, 13): 0, (31, 14): 0, (31, 15): 0, (31, 16): 0, (31, 17): 0, (31, 18): 0, (31, 19): 0, (31, 20): 1, (31, 21): 0, (31, 22): 0, (31, 23): 0, (31, 24): 0, (31, 25): 0, (31, 26): 0, (31, 27): 0, (31, 28): 0, (31, 29): 0, (31, 30): 0, (31, 31): 0, (31, 32): 0, (31, 33): 0, (31, 34): 0, (31, 35): 0, (31, 36): 0, (31, 37): 0, (31, 38): 0, (31, 39): 0, (31, 40): 0, (31, 41): 0, (31, 42): 0, (36, 1): 0, (36, 2): 0, (36, 3): 0, (36, 4): 0, (36, 5): 0, (36, 6): 0, (36, 7): 0, (36, 8): 0, (36, 9): 0, (36, 10): 0, (36, 11): 0, (36, 12): 0, (36, 13): 0, (36, 14): 0, (36, 15): 0, (36, 16): 0, (36, 17): 0, (36, 18): 0, (36, 19): 0, (36, 20): 0, (36, 21): 0, (36, 22): 0, (36, 23): 0, (36, 24): 0, (36, 25): 0, (36, 26): 0, (36, 27): 0, (36, 28): 0, (36, 29): 0, (36, 30): 0, (36, 31): 0, (36, 32): 0, (36, 33): 0, (36, 34): 0, (36, 35): 0, (36, 36): 0, (36, 37): 0, (36, 38): 1, (36, 39): 0, (36, 40): 0, (36, 41): 0, (36, 42): 0, (37, 1): 0, (37, 2): 0, (37, 3): 0, (37, 4): 0, (37, 5): 0, (37, 6): 0, (37, 7): 0, (37, 8): 0, (37, 9): 0, (37, 10): 0, (37, 11): 0, (37, 12): 0, (37, 13): 0, (37, 14): 0, (37, 15): 0, (37, 16): 0, (37, 17): 0, (37, 18): 0, (37, 19): 0, (37, 20): 0, (37, 21): 0, (37, 22): 0, (37, 23): 0, (37, 24): 0, (37, 25): 0, (37, 26): 0, (37, 27): 0, (37, 28): 0, (37, 29): 0, (37, 30): 0, (37, 31): 0, (37, 32): 0, (37, 33): 1, (37, 34): 0, (37, 35): 0, (37, 36): 0, (37, 37): 0, (37, 38): 0, (37, 39): 0, (37, 40): 0, (37, 41): 0, (37, 42): 0, (38, 1): 0, (38, 2): 0, (38, 3): 0, (38, 4): 0, (38, 5): 0, (38, 6): 0, (38, 7): 0, (38, 8): 0, (38, 9): 0, (38, 10): 0, (38, 11): 0, (38, 12): 0, (38, 13): 0, (38, 14): 0, (38, 15): 0, (38, 16): 0, (38, 17): 0, (38, 18): 0, (38, 19): 0, (38, 20): 0, (38, 21): 0, (38, 22): 0, (38, 23): 0, (38, 24): 0, (38, 25): 0, (38, 26): 0, (38, 27): 0, (38, 28): 0, (38, 29): 0, (38, 30): 0, (38, 31): 0, (38, 32): 0, (38, 33): 0, (38, 34): 0, (38, 35): 0, (38, 36): 0, (38, 37): 0, (38, 38): 0, (38, 39): 0, (38, 40): 0, (38, 41): 0, (38, 42): 1, (39, 1): 0, (39, 2): 0, (39, 3): 0, (39, 4): 0, (39, 5): 0, (39, 6): 0, (39, 7): 0, (39, 8): 0, (39, 9): 0, (39, 10): 0, (39, 11): 0, (39, 12): 0, (39, 13): 0, (39, 14): 0, (39, 15): 0, (39, 16): 0, (39, 17): 0, (39, 18): 0, (39, 19): 0, (39, 20): 0, (39, 21): 0, (39, 22): 0, (39, 23): 0, (39, 24): 1, (39, 25): 0, (39, 26): 0, (39, 27): 0, (39, 28): 0, (39, 29): 0, (39, 30): 0, (39, 31): 0, (39, 32): 0, (39, 33): 0, (39, 34): 0, (39, 35): 0, (39, 36): 0, (39, 37): 0, (39, 38): 0, (39, 39): 0, (39, 40): 0, (39, 41): 0, (39, 42): 0, (40, 1): 0, (40, 2): 0, (40, 3): 0, (40, 4): 0, (40, 5): 0, (40, 6): 0, (40, 7): 0, (40, 8): 0, (40, 9): 0, (40, 10): 0, (40, 11): 0, (40, 12): 0, (40, 13): 0, (40, 14): 0, (40, 15): 1, (40, 16): 0, (40, 17): 0, (40, 18): 0, (40, 19): 0, (40, 20): 0, (40, 21): 0, (40, 22): 0, (40, 23): 0, (40, 24): 0, (40, 25): 0, (40, 26): 0, (40, 27): 0, (40, 28): 0, (40, 29): 0, (40, 30): 0, (40, 31): 0, (40, 32): 0, (40, 33): 0, (40, 34): 0, (40, 35): 0, (40, 36): 0, (40, 37): 0, (40, 38): 0, (40, 39): 0, (40, 40): 0, (40, 41): 0, (40, 42): 0, (41, 1): 0, (41, 2): 0, (41, 3): 0, (41, 4): 0, (41, 5): 0, (41, 6): 0, (41, 7): 0, (41, 8): 0, (41, 9): 0, (41, 10): 0, (41, 11): 0, (41, 12): 0, (41, 13): 0, (41, 14): 0, (41, 15): 0, (41, 16): 0, (41, 17): 0, (41, 18): 0, (41, 19): 0, (41, 20): 0, (41, 21): 0, (41, 22): 0, (41, 23): 0, (41, 24): 0, (41, 25): 0, (41, 26): 0, (41, 27): 0, (41, 28): 1, (41, 29): 0, (41, 30): 0, (41, 31): 0, (41, 32): 0, (41, 33): 0, (41, 34): 0, (41, 35): 0, (41, 36): 0, (41, 37): 0, (41, 38): 0, (41, 39): 0, (41, 40): 0, (41, 41): 0, (41, 42): 0, (43, 1): 0, (43, 2): 0, (43, 3): 0, (43, 4): 0, (43, 5): 0, (43, 6): 0, (43, 7): 0, (43, 8): 0, (43, 9): 0, (43, 10): 0, (43, 11): 0, (43, 12): 0, (43, 13): 0, (43, 14): 0, (43, 15): 0, (43, 16): 0, (43, 17): 0, (43, 18): 0, (43, 19): 0, (43, 20): 0, (43, 21): 0, (43, 22): 0, (43, 23): 0, (43, 24): 1, (43, 25): 0, (43, 26): 0, (43, 27): 0, (43, 28): 0, (43, 29): 0, (43, 30): 0, (43, 31): 0, (43, 32): 0, (43, 33): 0, (43, 34): 0, (43, 35): 0, (43, 36): 0, (43, 37): 0, (43, 38): 0, (43, 39): 0, (43, 40): 0, (43, 41): 0, (43, 42): 0, (50, 1): 0, (50, 2): 0, (50, 3): 0, (50, 4): 0, (50, 5): 0, (50, 6): 0, (50, 7): 0, (50, 8): 0, (50, 9): 0, (50, 10): 0, (50, 11): 0, (50, 12): 0, (50, 13): 0, (50, 14): 0, (50, 15): 0, (50, 16): 0, (50, 17): 1, (50, 18): 0, (50, 19): 0, (50, 20): 0, (50, 21): 0, (50, 22): 0, (50, 23): 0, (50, 24): 0, (50, 25): 0, (50, 26): 0, (50, 27): 0, (50, 28): 0, (50, 29): 0, (50, 30): 0, (50, 31): 0, (50, 32): 0, (50, 33): 0, (50, 34): 0, (50, 35): 0, (50, 36): 0, (50, 37): 0, (50, 38): 0, (50, 39): 0, (50, 40): 0, (50, 41): 0, (50, 42): 0, (59, 1): 0, (59, 2): 0, (59, 3): 0, (59, 4): 0, (59, 5): 0, (59, 6): 0, (59, 7): 0, (59, 8): 0, (59, 9): 0, (59, 10): 0, (59, 11): 0, (59, 12): 0, (59, 13): 0, (59, 14): 0, (59, 15): 0, (59, 16): 0, (59, 17): 0, (59, 18): 0, (59, 19): 0, (59, 20): 0, (59, 21): 0, (59, 22): 0, (59, 23): 1, (59, 24): 0, (59, 25): 0, (59, 26): 0, (59, 27): 0, (59, 28): 0, (59, 29): 0, (59, 30): 0, (59, 31): 0, (59, 32): 0, (59, 33): 0, (59, 34): 0, (59, 35): 0, (59, 36): 0, (59, 37): 0, (59, 38): 0, (59, 39): 0, (59, 40): 0, (59, 41): 0, (59, 42): 0, (60, 1): 0, (60, 2): 0, (60, 3): 0, (60, 4): 0, (60, 5): 0, (60, 6): 0, (60, 7): 0, (60, 8): 0, (60, 9): 0, (60, 10): 0, (60, 11): 0, (60, 12): 0, (60, 13): 0, (60, 14): 0, (60, 15): 0, (60, 16): 0, (60, 17): 0, (60, 18): 0, (60, 19): 0, (60, 20): 0, (60, 21): 0, (60, 22): 0, (60, 23): 0, (60, 24): 0, (60, 25): 0, (60, 26): 0, (60, 27): 0, (60, 28): 0, (60, 29): 0, (60, 30): 0, (60, 31): 0, (60, 32): 0, (60, 33): 0, (60, 34): 0, (60, 35): 0, (60, 36): 0, (60, 37): 0, (60, 38): 0, (60, 39): 0, (60, 40): 0, (60, 41): 0, (60, 42): 1, (62, 1): 0, (62, 2): 0, (62, 3): 0, (62, 4): 0, (62, 5): 0, (62, 6): 0, (62, 7): 0, (62, 8): 0, (62, 9): 0, (62, 10): 0, (62, 11): 0, (62, 12): 0, (62, 13): 0, (62, 14): 0, (62, 15): 0, (62, 16): 0, (62, 17): 0, (62, 18): 0, (62, 19): 0, (62, 20): 0, (62, 21): 0, (62, 22): 0, (62, 23): 0, (62, 24): 0, (62, 25): 1, (62, 26): 0, (62, 27): 0, (62, 28): 0, (62, 29): 0, (62, 30): 0, (62, 31): 0, (62, 32): 0, (62, 33): 0, (62, 34): 0, (62, 35): 0, (62, 36): 0, (62, 37): 0, (62, 38): 0, (62, 39): 0, (62, 40): 0, (62, 41): 0, (62, 42): 0, (63, 1): 0, (63, 2): 0, (63, 3): 0, (63, 4): 0, (63, 5): 0, (63, 6): 0, (63, 7): 0, (63, 8): 0, (63, 9): 0, (63, 10): 0, (63, 11): 0, (63, 12): 0, (63, 13): 0, (63, 14): 0, (63, 15): 0, (63, 16): 0, (63, 17): 0, (63, 18): 0, (63, 19): 0, (63, 20): 0, (63, 21): 0, (63, 22): 0, (63, 23): 0, (63, 24): 0, (63, 25): 0, (63, 26): 0, (63, 27): 0, (63, 28): 0, (63, 29): 0, (63, 30): 0, (63, 31): 0, (63, 32): 0, (63, 33): 0, (63, 34): 0, (63, 35): 0, (63, 36): 0, (63, 37): 0, (63, 38): 0, (63, 39): 0, (63, 40): 0, (63, 41): 0, (63, 42): 1, (65, 1): 0, (65, 2): 0, (65, 3): 0, (65, 4): 0, (65, 5): 0, (65, 6): 0, (65, 7): 0, (65, 8): 0, (65, 9): 0, (65, 10): 0, (65, 11): 0, (65, 12): 0, (65, 13): 0, (65, 14): 0, (65, 15): 0, (65, 16): 0, (65, 17): 0, (65, 18): 0, (65, 19): 0, (65, 20): 0, (65, 21): 0, (65, 22): 0, (65, 23): 0, (65, 24): 0, (65, 25): 0, (65, 26): 0, (65, 27): 0, (65, 28): 0, (65, 29): 0, (65, 30): 0, (65, 31): 0, (65, 32): 1, (65, 33): 0, (65, 34): 0, (65, 35): 0, (65, 36): 0, (65, 37): 0, (65, 38): 0, (65, 39): 0, (65, 40): 0, (65, 41): 0, (65, 42): 0, (66, 1): 0, (66, 2): 0, (66, 3): 0, (66, 4): 0, (66, 5): 0, (66, 6): 0, (66, 7): 0, (66, 8): 0, (66, 9): 0, (66, 10): 0, (66, 11): 0, (66, 12): 0, (66, 13): 0, (66, 14): 0, (66, 15): 0, (66, 16): 0, (66, 17): 0, (66, 18): 0, (66, 19): 0, (66, 20): 0, (66, 21): 0, (66, 22): 0, (66, 23): 0, (66, 24): 0, (66, 25): 0, (66, 26): 0, (66, 27): 0, (66, 28): 0, (66, 29): 0, (66, 30): 0, (66, 31): 0, (66, 32): 0, (66, 33): 0, (66, 34): 1, (66, 35): 0, (66, 36): 0, (66, 37): 0, (66, 38): 0, (66, 39): 0, (66, 40): 0, (66, 41): 0, (66, 42): 0, (67, 1): 0, (67, 2): 0, (67, 3): 0, (67, 4): 0, (67, 5): 0, (67, 6): 0, (67, 7): 0, (67, 8): 0, (67, 9): 0, (67, 10): 0, (67, 11): 0, (67, 12): 0, (67, 13): 0, (67, 14): 0, (67, 15): 0, (67, 16): 0, (67, 17): 0, (67, 18): 0, (67, 19): 1, (67, 20): 0, (67, 21): 0, (67, 22): 0, (67, 23): 0, (67, 24): 0, (67, 25): 0, (67, 26): 0, (67, 27): 0, (67, 28): 0, (67, 29): 0, (67, 30): 0, (67, 31): 0, (67, 32): 0, (67, 33): 0, (67, 34): 0, (67, 35): 0, (67, 36): 0, (67, 37): 0, (67, 38): 0, (67, 39): 0, (67, 40): 0, (67, 41): 0, (67, 42): 0, (70, 1): 0, (70, 2): 0, (70, 3): 0, (70, 4): 0, (70, 5): 0, (70, 6): 0, (70, 7): 0, (70, 8): 0, (70, 9): 0, (70, 10): 0, (70, 11): 0, (70, 12): 0, (70, 13): 0, (70, 14): 0, (70, 15): 0, (70, 16): 0, (70, 17): 0, (70, 18): 0, (70, 19): 0, (70, 20): 0, (70, 21): 0, (70, 22): 0, (70, 23): 0, (70, 24): 0, (70, 25): 0, (70, 26): 0, (70, 27): 0, (70, 28): 0, (70, 29): 0, (70, 30): 0, (70, 31): 0, (70, 32): 0, (70, 33): 0, (70, 34): 0, (70, 35): 0, (70, 36): 1, (70, 37): 0, (70, 38): 0, (70, 39): 0, (70, 40): 0, (70, 41): 0, (70, 42): 0, (71, 1): 0, (71, 2): 0, (71, 3): 0, (71, 4): 0, (71, 5): 0, (71, 6): 0, (71, 7): 0, (71, 8): 0, (71, 9): 0, (71, 10): 0, (71, 11): 0, (71, 12): 0, (71, 13): 0, (71, 14): 0, (71, 15): 0, (71, 16): 0, (71, 17): 0, (71, 18): 0, (71, 19): 0, (71, 20): 0, (71, 21): 0, (71, 22): 0, (71, 23): 0, (71, 24): 0, (71, 25): 0, (71, 26): 0, (71, 27): 0, (71, 28): 0, (71, 29): 0, (71, 30): 0, (71, 31): 0, (71, 32): 0, (71, 33): 0, (71, 34): 0, (71, 35): 0, (71, 36): 0, (71, 37): 0, (71, 38): 0, (71, 39): 0, (71, 40): 1, (71, 41): 0, (71, 42): 0, (73, 1): 0, (73, 2): 0, (73, 3): 0, (73, 4): 0, (73, 5): 0, (73, 6): 0, (73, 7): 0, (73, 8): 0, (73, 9): 0, (73, 10): 0, (73, 11): 0, (73, 12): 0, (73, 13): 0, (73, 14): 0, (73, 15): 0, (73, 16): 0, (73, 17): 0, (73, 18): 0, (73, 19): 0, (73, 20): 0, (73, 21): 0, (73, 22): 0, (73, 23): 0, (73, 24): 0, (73, 25): 0, (73, 26): 0, (73, 27): 0, (73, 28): 0, (73, 29): 0, (73, 30): 0, (73, 31): 0, (73, 32): 0, (73, 33): 0, (73, 34): 0, (73, 35): 0, (73, 36): 0, (73, 37): 0, (73, 38): 0, (73, 39): 0, (73, 40): 0, (73, 41): 1, (73, 42): 0, (75, 1): 0, (75, 2): 0, (75, 3): 0, (75, 4): 0, (75, 5): 0, (75, 6): 0, (75, 7): 0, (75, 8): 0, (75, 9): 0, (75, 10): 0, (75, 11): 0, (75, 12): 0, (75, 13): 0, (75, 14): 0, (75, 15): 0, (75, 16): 0, (75, 17): 0, (75, 18): 0, (75, 19): 0, (75, 20): 0, (75, 21): 0, (75, 22): 0, (75, 23): 0, (75, 24): 0, (75, 25): 0, (75, 26): 1, (75, 27): 0, (75, 28): 0, (75, 29): 0, (75, 30): 0, (75, 31): 0, (75, 32): 0, (75, 33): 0, (75, 34): 0, (75, 35): 0, (75, 36): 0, (75, 37): 0, (75, 38): 0, (75, 39): 0, (75, 40): 0, (75, 41): 0, (75, 42): 0, (77, 1): 0, (77, 2): 0, (77, 3): 0, (77, 4): 0, (77, 5): 0, (77, 6): 0, (77, 7): 0, (77, 8): 0, (77, 9): 0, (77, 10): 0, (77, 11): 0, (77, 12): 0, (77, 13): 0, (77, 14): 0, (77, 15): 0, (77, 16): 0, (77, 17): 0, (77, 18): 0, (77, 19): 0, (77, 20): 0, (77, 21): 0, (77, 22): 0, (77, 23): 0, (77, 24): 0, (77, 25): 0, (77, 26): 0, (77, 27): 0, (77, 28): 0, (77, 29): 0, (77, 30): 0, (77, 31): 0, (77, 32): 0, (77, 33): 0, (77, 34): 0, (77, 35): 0, (77, 36): 0, (77, 37): 0, (77, 38): 0, (77, 39): 0, (77, 40): 0, (77, 41): 0, (77, 42): 1, (78, 1): 0, (78, 2): 0, (78, 3): 0, (78, 4): 0, (78, 5): 0, (78, 6): 0, (78, 7): 0, (78, 8): 0, (78, 9): 0, (78, 10): 0, (78, 11): 0, (78, 12): 0, (78, 13): 0, (78, 14): 0, (78, 15): 0, (78, 16): 0, (78, 17): 0, (78, 18): 1, (78, 19): 0, (78, 20): 0, (78, 21): 0, (78, 22): 0, (78, 23): 0, (78, 24): 0, (78, 25): 0, (78, 26): 0, (78, 27): 0, (78, 28): 0, (78, 29): 0, (78, 30): 0, (78, 31): 0, (78, 32): 0, (78, 33): 0, (78, 34): 0, (78, 35): 0, (78, 36): 0, (78, 37): 0, (78, 38): 0, (78, 39): 0, (78, 40): 0, (78, 41): 0, (78, 42): 0, (79, 1): 0, (79, 2): 0, (79, 3): 0, (79, 4): 0, (79, 5): 0, (79, 6): 0, (79, 7): 0, (79, 8): 0, (79, 9): 0, (79, 10): 0, (79, 11): 0, (79, 12): 0, (79, 13): 0, (79, 14): 0, (79, 15): 0, (79, 16): 0, (79, 17): 0, (79, 18): 0, (79, 19): 0, (79, 20): 0, (79, 21): 0, (79, 22): 0, (79, 23): 0, (79, 24): 0, (79, 25): 1, (79, 26): 0, (79, 27): 0, (79, 28): 0, (79, 29): 0, (79, 30): 0, (79, 31): 0, (79, 32): 0, (79, 33): 0, (79, 34): 0, (79, 35): 0, (79, 36): 0, (79, 37): 0, (79, 38): 0, (79, 39): 0, (79, 40): 0, (79, 41): 0, (79, 42): 0, (81, 1): 0, (81, 2): 0, (81, 3): 0, (81, 4): 0, (81, 5): 0, (81, 6): 0, (81, 7): 0, (81, 8): 0, (81, 9): 0, (81, 10): 0, (81, 11): 0, (81, 12): 0, (81, 13): 0, (81, 14): 0, (81, 15): 0, (81, 16): 0, (81, 17): 1, (81, 18): 0, (81, 19): 0, (81, 20): 0, (81, 21): 0, (81, 22): 0, (81, 23): 0, (81, 24): 0, (81, 25): 0, (81, 26): 0, (81, 27): 0, (81, 28): 0, (81, 29): 0, (81, 30): 0, (81, 31): 0, (81, 32): 0, (81, 33): 0, (81, 34): 0, (81, 35): 0, (81, 36): 0, (81, 37): 0, (81, 38): 0, (81, 39): 0, (81, 40): 0, (81, 41): 0, (81, 42): 0, (82, 1): 0, (82, 2): 0, (82, 3): 0, (82, 4): 0, (82, 5): 0, (82, 6): 0, (82, 7): 0, (82, 8): 0, (82, 9): 0, (82, 10): 0, (82, 11): 0, (82, 12): 0, (82, 13): 0, (82, 14): 0, (82, 15): 1, (82, 16): 0, (82, 17): 0, (82, 18): 0, (82, 19): 0, (82, 20): 0, (82, 21): 0, (82, 22): 0, (82, 23): 0, (82, 24): 0, (82, 25): 0, (82, 26): 0, (82, 27): 0, (82, 28): 0, (82, 29): 0, (82, 30): 0, (82, 31): 0, (82, 32): 0, (82, 33): 0, (82, 34): 0, (82, 35): 0, (82, 36): 0, (82, 37): 0, (82, 38): 0, (82, 39): 0, (82, 40): 0, (82, 41): 0, (82, 42): 0}</t>
+    <t>{(2, 1): 0.0, (2, 2): 0.0, (2, 3): 0.0, (2, 4): 0.0, (2, 5): 0.0, (2, 6): 0.0, (2, 7): 0.0, (2, 8): 0.0, (2, 9): 0.0, (2, 10): 0.0, (2, 11): 0.0, (2, 12): 0.0, (2, 13): 0.0, (2, 14): 0.0, (2, 15): 0.0, (2, 16): 0.0, (2, 17): 0.5051001633268003, (2, 18): 0.5051001633268003, (2, 19): 0.5051001633268003, (2, 20): 0.5051001633268003, (2, 21): 0.5051001633268003, (2, 22): 0.5051001633268003, (2, 23): 0.5051001633268003, (2, 24): 0.5051001633268003, (2, 25): 0.5051001633268003, (2, 26): 0.5051001633268003, (2, 27): 0.5051001633268003, (2, 28): 0.5051001633268003, (2, 29): 0.5051001633268003, (2, 30): 0.5051001633268003, (2, 31): 0.5051001633268003, (2, 32): 0.5051001633268003, (2, 33): 0.5051001633268003, (2, 34): 0.5051001633268003, (2, 35): 0.5051001633268003, (2, 36): 0.5051001633268003, (2, 37): 0.5051001633268003, (2, 38): 0.5051001633268003, (2, 39): 0.5051001633268003, (2, 40): 0.5051001633268003, (2, 41): 0.5051001633268003, (2, 42): 0.5051001633268003, (3, 1): 0.0, (3, 2): 0.0, (3, 3): 0.0, (3, 4): 0.0, (3, 5): 0.0, (3, 6): 0.0, (3, 7): 0.0, (3, 8): 0.0, (3, 9): 0.0, (3, 10): 0.0, (3, 11): 0.0, (3, 12): 0.0, (3, 13): 0.0, (3, 14): 0.0, (3, 15): 0.0, (3, 16): 0.0, (3, 17): 0.5051001633268003, (3, 18): 0.5051001633268003, (3, 19): 0.5051001633268003, (3, 20): 0.5051001633268003, (3, 21): 0.5051001633268003, (3, 22): 0.5051001633268003, (3, 23): 0.5051001633268003, (3, 24): 0.5051001633268003, (3, 25): 0.5051001633268003, (3, 26): 0.5051001633268003, (3, 27): 0.5051001633268003, (3, 28): 0.5051001633268003, (3, 29): 0.5051001633268003, (3, 30): 0.5051001633268003, (3, 31): 0.5051001633268003, (3, 32): 0.5051001633268003, (3, 33): 0.5051001633268003, (3, 34): 0.5051001633268003, (3, 35): 0.5051001633268003, (3, 36): 0.5051001633268003, (3, 37): 0.5051001633268003, (3, 38): 0.5051001633268003, (3, 39): 0.0, (3, 40): 0.0, (3, 41): 0.0, (3, 42): 0.0, (4, 1): 0.0, (4, 2): 0.0, (4, 3): 0.0, (4, 4): 0.0, (4, 5): 0.0, (4, 6): 0.0, (4, 7): 0.0, (4, 8): 0.0, (4, 9): 0.0, (4, 10): 0.0, (4, 11): 0.0, (4, 12): 0.0, (4, 13): 0.0, (4, 14): 0.0, (4, 15): 0.0, (4, 16): 0.0, (4, 17): 0.0, (4, 18): 0.0, (4, 19): 0.0, (4, 20): 0.0, (4, 21): 0.0, (4, 22): 0.0, (4, 23): 0.0, (4, 24): 0.0, (4, 25): 0.0, (4, 26): 0.0, (4, 27): 0.0, (4, 28): 0.0, (4, 29): 0.0, (4, 30): 0.5051001633268003, (4, 31): 0.5051001633268003, (4, 32): 0.5051001633268003, (4, 33): 0.5051001633268003, (4, 34): 0.5051001633268003, (4, 35): 0.5051001633268003, (4, 36): 0.5051001633268003, (4, 37): 0.5051001633268003, (4, 38): 0.5051001633268003, (4, 39): 0.5051001633268003, (4, 40): 0.5051001633268003, (4, 41): 0.5051001633268003, (4, 42): 0.5051001633268003, (9, 1): 0.0, (9, 2): 0.0, (9, 3): 0.0, (9, 4): 0.0, (9, 5): 0.0, (9, 6): 0.0, (9, 7): 0.0, (9, 8): 0.0, (9, 9): 0.0, (9, 10): 0.0, (9, 11): 0.0, (9, 12): 0.0, (9, 13): 0.0, (9, 14): 0.0, (9, 15): 0.0, (9, 16): 0.0, (9, 17): 0.0, (9, 18): 0.0, (9, 19): 0.0, (9, 20): 0.0, (9, 21): 0.0, (9, 22): 0.5051001633268003, (9, 23): 0.5051001633268003, (9, 24): 0.5051001633268003, (9, 25): 0.5051001633268003, (9, 26): 0.5051001633268003, (9, 27): 0.5051001633268003, (9, 28): 0.5051001633268003, (9, 29): 0.5051001633268003, (9, 30): 0.5051001633268003, (9, 31): 0.5051001633268003, (9, 32): 0.5051001633268003, (9, 33): 0.5051001633268003, (9, 34): 0.5051001633268003, (9, 35): 0.5051001633268003, (9, 36): 0.5051001633268003, (9, 37): 0.5051001633268003, (9, 38): 0.5051001633268003, (9, 39): 0.5051001633268003, (9, 40): 0.0, (9, 41): 0.0, (9, 42): 0.0, (15, 1): 0.0, (15, 2): 0.0, (15, 3): 0.0, (15, 4): 0.0, (15, 5): 0.0, (15, 6): 0.0, (15, 7): 0.0, (15, 8): 0.0, (15, 9): 0.0, (15, 10): 0.0, (15, 11): 0.0, (15, 12): 0.0, (15, 13): 0.0, (15, 14): 0.0, (15, 15): 0.0, (15, 16): 0.0, (15, 17): 0.0, (15, 18): 0.0, (15, 19): 0.0, (15, 20): 0.0, (15, 21): 0.0, (15, 22): 0.0, (15, 23): 0.0, (15, 24): 0.0, (15, 25): 0.0, (15, 26): 0.0, (15, 27): 0.0, (15, 28): 0.0, (15, 29): 0.0, (15, 30): 0.5051001633268003, (15, 31): 0.5051001633268003, (15, 32): 0.5051001633268003, (15, 33): 0.5051001633268003, (15, 34): 0.5051001633268003, (15, 35): 0.5051001633268003, (15, 36): 0.5051001633268003, (15, 37): 0.5051001633268003, (15, 38): 0.5051001633268003, (15, 39): 0.5051001633268003, (15, 40): 0.5051001633268003, (15, 41): 0.5051001633268003, (15, 42): 0.0, (16, 1): 0.0, (16, 2): 0.0, (16, 3): 0.0, (16, 4): 0.0, (16, 5): 0.0, (16, 6): 0.0, (16, 7): 0.0, (16, 8): 0.0, (16, 9): 0.0, (16, 10): 0.0, (16, 11): 0.5051001633268003, (16, 12): 0.5051001633268003, (16, 13): 0.5051001633268003, (16, 14): 0.5051001633268003, (16, 15): 0.5051001633268003, (16, 16): 0.5051001633268003, (16, 17): 0.5051001633268003, (16, 18): 0.5051001633268003, (16, 19): 0.5051001633268003, (16, 20): 0.5051001633268003, (16, 21): 0.0, (16, 22): 0.0, (16, 23): 0.0, (16, 24): 0.0, (16, 25): 0.0, (16, 26): 0.0, (16, 27): 0.0, (16, 28): 0.0, (16, 29): 0.0, (16, 30): 0.0, (16, 31): 0.0, (16, 32): 0.0, (16, 33): 0.0, (16, 34): 0.0, (16, 35): 0.0, (16, 36): 0.0, (16, 37): 0.0, (16, 38): 0.0, (16, 39): 0.0, (16, 40): 0.0, (16, 41): 0.0, (16, 42): 0.0, (20, 1): 0.0, (20, 2): 0.0, (20, 3): 0.0, (20, 4): 0.0, (20, 5): 0.0, (20, 6): 0.0, (20, 7): 0.0, (20, 8): 0.0, (20, 9): 0.0, (20, 10): 0.0, (20, 11): 0.0, (20, 12): 0.0, (20, 13): 0.0, (20, 14): 0.0, (20, 15): 0.0, (20, 16): 0.0, (20, 17): 0.0, (20, 18): 0.0, (20, 19): 0.0, (20, 20): 0.0, (20, 21): 0.0, (20, 22): 0.0, (20, 23): 0.0, (20, 24): 0.0, (20, 25): 0.0, (20, 26): 0.0, (20, 27): 0.0, (20, 28): 0.0, (20, 29): 0.0, (20, 30): 0.0, (20, 31): 0.0, (20, 32): 0.5051001633268003, (20, 33): 0.5051001633268003, (20, 34): 0.5051001633268003, (20, 35): 0.5051001633268003, (20, 36): 0.5051001633268003, (20, 37): 0.5051001633268003, (20, 38): 0.0, (20, 39): 0.0, (20, 40): 0.0, (20, 41): 0.0, (20, 42): 0.0, (21, 1): 0.0, (21, 2): 0.0, (21, 3): 0.0, (21, 4): 0.0, (21, 5): 0.0, (21, 6): 0.0, (21, 7): 0.0, (21, 8): 0.0, (21, 9): 0.0, (21, 10): 0.0, (21, 11): 0.0, (21, 12): 0.0, (21, 13): 0.0, (21, 14): 0.0, (21, 15): 0.0, (21, 16): 0.0, (21, 17): 0.0, (21, 18): 0.0, (21, 19): 0.0, (21, 20): 0.0, (21, 21): 0.0, (21, 22): 0.0, (21, 23): 0.0, (21, 24): 0.0, (21, 25): 0.0, (21, 26): 0.0, (21, 27): 0.5051001633268003, (21, 28): 0.5051001633268003, (21, 29): 0.5051001633268003, (21, 30): 0.5051001633268003, (21, 31): 0.5051001633268003, (21, 32): 0.5051001633268003, (21, 33): 0.5051001633268003, (21, 34): 0.5051001633268003, (21, 35): 0.5051001633268003, (21, 36): 0.5051001633268003, (21, 37): 0.5051001633268003, (21, 38): 0.5051001633268003, (21, 39): 0.5051001633268003, (21, 40): 0.5051001633268003, (21, 41): 0.5051001633268003, (21, 42): 0.0, (22, 1): 0.0, (22, 2): 0.0, (22, 3): 0.0, (22, 4): 0.0, (22, 5): 0.0, (22, 6): 0.0, (22, 7): 0.0, (22, 8): 0.0, (22, 9): 0.0, (22, 10): 0.0, (22, 11): 0.0, (22, 12): 0.0, (22, 13): 0.0, (22, 14): 0.0, (22, 15): 0.0, (22, 16): 0.0, (22, 17): 0.0, (22, 18): 0.0, (22, 19): 0.0, (22, 20): 0.0, (22, 21): 0.0, (22, 22): 0.0, (22, 23): 0.0, (22, 24): 0.0, (22, 25): 0.0, (22, 26): 0.0, (22, 27): 0.5051001633268003, (22, 28): 0.5051001633268003, (22, 29): 0.5051001633268003, (22, 30): 0.5051001633268003, (22, 31): 0.5051001633268003, (22, 32): 0.5051001633268003, (22, 33): 0.5051001633268003, (22, 34): 0.5051001633268003, (22, 35): 0.5051001633268003, (22, 36): 0.5051001633268003, (22, 37): 0.5051001633268003, (22, 38): 0.5051001633268003, (22, 39): 0.5051001633268003, (22, 40): 0.5051001633268003, (22, 41): 0.5051001633268003, (22, 42): 0.0, (23, 1): 0.0, (23, 2): 0.0, (23, 3): 0.0, (23, 4): 0.0, (23, 5): 0.0, (23, 6): 0.0, (23, 7): 0.0, (23, 8): 0.0, (23, 9): 0.0, (23, 10): 0.0, (23, 11): 0.0, (23, 12): 0.0, (23, 13): 0.0, (23, 14): 0.0, (23, 15): 0.0, (23, 16): 0.0, (23, 17): 0.0, (23, 18): 0.0, (23, 19): 0.0, (23, 20): 0.0, (23, 21): 0.0, (23, 22): 0.0, (23, 23): 0.0, (23, 24): 0.0, (23, 25): 0.0, (23, 26): 0.0, (23, 27): 0.0, (23, 28): 0.0, (23, 29): 0.5051001633268003, (23, 30): 0.5051001633268003, (23, 31): 0.5051001633268003, (23, 32): 0.5051001633268003, (23, 33): 0.5051001633268003, (23, 34): 0.5051001633268003, (23, 35): 0.5051001633268003, (23, 36): 0.0, (23, 37): 0.0, (23, 38): 0.0, (23, 39): 0.0, (23, 40): 0.0, (23, 41): 0.0, (23, 42): 0.0, (24, 1): 0.0, (24, 2): 0.0, (24, 3): 0.0, (24, 4): 0.0, (24, 5): 0.0, (24, 6): 0.0, (24, 7): 0.0, (24, 8): 0.0, (24, 9): 0.0, (24, 10): 0.0, (24, 11): 0.0, (24, 12): 0.0, (24, 13): 0.0, (24, 14): 0.0, (24, 15): 0.0, (24, 16): 0.0, (24, 17): 0.0, (24, 18): 0.0, (24, 19): 0.0, (24, 20): 0.0, (24, 21): 0.0, (24, 22): 0.5051001633268003, (24, 23): 0.5051001633268003, (24, 24): 0.5051001633268003, (24, 25): 0.5051001633268003, (24, 26): 0.5051001633268003, (24, 27): 0.5051001633268003, (24, 28): 0.5051001633268003, (24, 29): 0.5051001633268003, (24, 30): 0.0, (24, 31): 0.0, (24, 32): 0.0, (24, 33): 0.0, (24, 34): 0.0, (24, 35): 0.0, (24, 36): 0.0, (24, 37): 0.0, (24, 38): 0.0, (24, 39): 0.0, (24, 40): 0.0, (24, 41): 0.0, (24, 42): 0.0, (25, 1): 0.0, (25, 2): 0.0, (25, 3): 0.0, (25, 4): 0.0, (25, 5): 0.0, (25, 6): 0.0, (25, 7): 0.0, (25, 8): 0.0, (25, 9): 0.0, (25, 10): 0.0, (25, 11): 0.0, (25, 12): 0.0, (25, 13): 0.0, (25, 14): 0.0, (25, 15): 0.0, (25, 16): 0.0, (25, 17): 0.0, (25, 18): 0.0, (25, 19): 0.0, (25, 20): 0.0, (25, 21): 0.0, (25, 22): 0.0, (25, 23): 0.0, (25, 24): 0.0, (25, 25): 0.0, (25, 26): 0.0, (25, 27): 0.0, (25, 28): 0.0, (25, 29): 0.0, (25, 30): 0.0, (25, 31): 0.0, (25, 32): 0.0, (25, 33): 0.0, (25, 34): 0.0, (25, 35): 0.0, (25, 36): 0.0, (25, 37): 0.0, (25, 38): 0.5051001633268003, (25, 39): 0.5051001633268003, (25, 40): 0.5051001633268003, (25, 41): 0.5051001633268003, (25, 42): 0.5051001633268003, (26, 1): 0.0, (26, 2): 0.0, (26, 3): 0.0, (26, 4): 0.0, (26, 5): 0.0, (26, 6): 0.0, (26, 7): 0.0, (26, 8): 0.0, (26, 9): 0.0, (26, 10): 0.0, (26, 11): 0.0, (26, 12): 0.0, (26, 13): 0.0, (26, 14): 0.0, (26, 15): 0.0, (26, 16): 0.0, (26, 17): 0.0, (26, 18): 0.0, (26, 19): 0.0, (26, 20): 0.0, (26, 21): 0.0, (26, 22): 0.0, (26, 23): 0.0, (26, 24): 0.0, (26, 25): 0.0, (26, 26): 0.5051001633268003, (26, 27): 0.5051001633268003, (26, 28): 0.5051001633268003, (26, 29): 0.5051001633268003, (26, 30): 0.5051001633268003, (26, 31): 0.5051001633268003, (26, 32): 0.0, (26, 33): 0.0, (26, 34): 0.0, (26, 35): 0.0, (26, 36): 0.0, (26, 37): 0.0, (26, 38): 0.0, (26, 39): 0.0, (26, 40): 0.0, (26, 41): 0.0, (26, 42): 0.0, (28, 1): 0.0, (28, 2): 0.0, (28, 3): 0.0, (28, 4): 0.0, (28, 5): 0.0, (28, 6): 0.0, (28, 7): 0.0, (28, 8): 0.0, (28, 9): 0.0, (28, 10): 0.0, (28, 11): 0.0, (28, 12): 0.0, (28, 13): 0.0, (28, 14): 0.0, (28, 15): 0.0, (28, 16): 0.0, (28, 17): 0.0, (28, 18): 0.0, (28, 19): 0.0, (28, 20): 0.0, (28, 21): 0.0, (28, 22): 0.0, (28, 23): 0.0, (28, 24): 0.0, (28, 25): 0.0, (28, 26): 0.0, (28, 27): 0.0, (28, 28): 0.0, (28, 29): 0.0, (28, 30): 0.5051001633268003, (28, 31): 0.5051001633268003, (28, 32): 0.5051001633268003, (28, 33): 0.5051001633268003, (28, 34): 0.5051001633268003, (28, 35): 0.5051001633268003, (28, 36): 0.5051001633268003, (28, 37): 0.5051001633268003, (28, 38): 0.5051001633268003, (28, 39): 0.5051001633268003, (28, 40): 0.5051001633268003, (28, 41): 0.5051001633268003, (28, 42): 0.0, (30, 1): 0.0, (30, 2): 0.0, (30, 3): 0.0, (30, 4): 0.0, (30, 5): 0.0, (30, 6): 0.0, (30, 7): 0.0, (30, 8): 0.0, (30, 9): 0.0, (30, 10): 0.0, (30, 11): 0.0, (30, 12): 0.0, (30, 13): 0.0, (30, 14): 0.0, (30, 15): 0.0, (30, 16): 0.0, (30, 17): 0.0, (30, 18): 0.0, (30, 19): 0.0, (30, 20): 0.0, (30, 21): 0.0, (30, 22): 0.0, (30, 23): 0.5051001633268003, (30, 24): 0.5051001633268003, (30, 25): 0.5051001633268003, (30, 26): 0.5051001633268003, (30, 27): 0.5051001633268003, (30, 28): 0.5051001633268003, (30, 29): 0.5051001633268003, (30, 30): 0.5051001633268003, (30, 31): 0.5051001633268003, (30, 32): 0.0, (30, 33): 0.0, (30, 34): 0.0, (30, 35): 0.0, (30, 36): 0.0, (30, 37): 0.0, (30, 38): 0.0, (30, 39): 0.0, (30, 40): 0.0, (30, 41): 0.0, (30, 42): 0.0, (31, 1): 0.0, (31, 2): 0.0, (31, 3): 0.0, (31, 4): 0.0, (31, 5): 0.0, (31, 6): 0.0, (31, 7): 0.0, (31, 8): 0.5051001633268003, (31, 9): 0.5051001633268003, (31, 10): 0.5051001633268003, (31, 11): 0.5051001633268003, (31, 12): 0.5051001633268003, (31, 13): 0.5051001633268003, (31, 14): 0.5051001633268003, (31, 15): 0.5051001633268003, (31, 16): 0.5051001633268003, (31, 17): 0.5051001633268003, (31, 18): 0.5051001633268003, (31, 19): 0.5051001633268003, (31, 20): 0.5051001633268003, (31, 21): 0.5051001633268003, (31, 22): 0.0, (31, 23): 0.0, (31, 24): 0.0, (31, 25): 0.0, (31, 26): 0.0, (31, 27): 0.0, (31, 28): 0.0, (31, 29): 0.0, (31, 30): 0.0, (31, 31): 0.0, (31, 32): 0.0, (31, 33): 0.0, (31, 34): 0.0, (31, 35): 0.0, (31, 36): 0.0, (31, 37): 0.0, (31, 38): 0.0, (31, 39): 0.0, (31, 40): 0.0, (31, 41): 0.0, (31, 42): 0.0, (36, 1): 0.0, (36, 2): 0.0, (36, 3): 0.0, (36, 4): 0.0, (36, 5): 0.0, (36, 6): 0.0, (36, 7): 0.0, (36, 8): 0.0, (36, 9): 0.0, (36, 10): 0.0, (36, 11): 0.0, (36, 12): 0.0, (36, 13): 0.0, (36, 14): 0.0, (36, 15): 0.0, (36, 16): 0.0, (36, 17): 0.0, (36, 18): 0.0, (36, 19): 0.0, (36, 20): 0.0, (36, 21): 0.0, (36, 22): 0.0, (36, 23): 0.0, (36, 24): 0.0, (36, 25): 0.0, (36, 26): 0.0, (36, 27): 0.0, (36, 28): 0.5051001633268003, (36, 29): 0.5051001633268003, (36, 30): 0.5051001633268003, (36, 31): 0.5051001633268003, (36, 32): 0.5051001633268003, (36, 33): 0.5051001633268003, (36, 34): 0.5051001633268003, (36, 35): 0.5051001633268003, (36, 36): 0.5051001633268003, (36, 37): 0.5051001633268003, (36, 38): 0.5051001633268003, (36, 39): 0.5051001633268003, (36, 40): 0.0, (36, 41): 0.0, (36, 42): 0.0, (37, 1): 0.0, (37, 2): 0.0, (37, 3): 0.0, (37, 4): 0.0, (37, 5): 0.0, (37, 6): 0.0, (37, 7): 0.0, (37, 8): 0.0, (37, 9): 0.0, (37, 10): 0.0, (37, 11): 0.0, (37, 12): 0.0, (37, 13): 0.0, (37, 14): 0.0, (37, 15): 0.0, (37, 16): 0.0, (37, 17): 0.0, (37, 18): 0.0, (37, 19): 0.0, (37, 20): 0.0, (37, 21): 0.0, (37, 22): 0.0, (37, 23): 0.0, (37, 24): 0.0, (37, 25): 0.0, (37, 26): 0.5051001633268003, (37, 27): 0.5051001633268003, (37, 28): 0.5051001633268003, (37, 29): 0.5051001633268003, (37, 30): 0.5051001633268003, (37, 31): 0.5051001633268003, (37, 32): 0.5051001633268003, (37, 33): 0.5051001633268003, (37, 34): 0.0, (37, 35): 0.0, (37, 36): 0.0, (37, 37): 0.0, (37, 38): 0.0, (37, 39): 0.0, (37, 40): 0.0, (37, 41): 0.0, (37, 42): 0.0, (38, 1): 0.0, (38, 2): 0.0, (38, 3): 0.0, (38, 4): 0.0, (38, 5): 0.0, (38, 6): 0.0, (38, 7): 0.0, (38, 8): 0.0, (38, 9): 0.0, (38, 10): 0.0, (38, 11): 0.0, (38, 12): 0.0, (38, 13): 0.0, (38, 14): 0.0, (38, 15): 0.0, (38, 16): 0.0, (38, 17): 0.0, (38, 18): 0.0, (38, 19): 0.0, (38, 20): 0.0, (38, 21): 0.0, (38, 22): 0.0, (38, 23): 0.0, (38, 24): 0.0, (38, 25): 0.0, (38, 26): 0.0, (38, 27): 0.0, (38, 28): 0.0, (38, 29): 0.0, (38, 30): 0.0, (38, 31): 0.0, (38, 32): 0.0, (38, 33): 0.0, (38, 34): 0.0, (38, 35): 0.0, (38, 36): 0.0, (38, 37): 0.0, (38, 38): 0.0, (38, 39): 0.0, (38, 40): 0.0, (38, 41): 0.5051001633268003, (38, 42): 0.5051001633268003, (39, 1): 0.0, (39, 2): 0.0, (39, 3): 0.0, (39, 4): 0.0, (39, 5): 0.0, (39, 6): 0.0, (39, 7): 0.0, (39, 8): 0.0, (39, 9): 0.0, (39, 10): 0.0, (39, 11): 0.0, (39, 12): 0.0, (39, 13): 0.0, (39, 14): 0.0, (39, 15): 0.0, (39, 16): 0.0, (39, 17): 0.0, (39, 18): 0.5051001633268003, (39, 19): 0.5051001633268003, (39, 20): 0.5051001633268003, (39, 21): 0.5051001633268003, (39, 22): 0.5051001633268003, (39, 23): 0.5051001633268003, (39, 24): 0.5051001633268003, (39, 25): 0.5051001633268003, (39, 26): 0.0, (39, 27): 0.0, (39, 28): 0.0, (39, 29): 0.0, (39, 30): 0.0, (39, 31): 0.0, (39, 32): 0.0, (39, 33): 0.0, (39, 34): 0.0, (39, 35): 0.0, (39, 36): 0.0, (39, 37): 0.0, (39, 38): 0.0, (39, 39): 0.0, (39, 40): 0.0, (39, 41): 0.0, (39, 42): 0.0, (40, 1): 0.0, (40, 2): 0.0, (40, 3): 0.0, (40, 4): 0.0, (40, 5): 0.0, (40, 6): 0.0, (40, 7): 0.0, (40, 8): 0.5051001633268003, (40, 9): 0.5051001633268003, (40, 10): 0.5051001633268003, (40, 11): 0.5051001633268003, (40, 12): 0.5051001633268003, (40, 13): 0.5051001633268003, (40, 14): 0.5051001633268003, (40, 15): 0.5051001633268003, (40, 16): 0.5051001633268003, (40, 17): 0.0, (40, 18): 0.0, (40, 19): 0.0, (40, 20): 0.0, (40, 21): 0.0, (40, 22): 0.0, (40, 23): 0.0, (40, 24): 0.0, (40, 25): 0.0, (40, 26): 0.0, (40, 27): 0.0, (40, 28): 0.0, (40, 29): 0.0, (40, 30): 0.0, (40, 31): 0.0, (40, 32): 0.0, (40, 33): 0.0, (40, 34): 0.0, (40, 35): 0.0, (40, 36): 0.0, (40, 37): 0.0, (40, 38): 0.0, (40, 39): 0.0, (40, 40): 0.0, (40, 41): 0.0, (40, 42): 0.0, (41, 1): 0.0, (41, 2): 0.0, (41, 3): 0.0, (41, 4): 0.0, (41, 5): 0.0, (41, 6): 0.0, (41, 7): 0.0, (41, 8): 0.0, (41, 9): 0.0, (41, 10): 0.0, (41, 11): 0.0, (41, 12): 0.0, (41, 13): 0.0, (41, 14): 0.0, (41, 15): 0.0, (41, 16): 0.0, (41, 17): 0.0, (41, 18): 0.0, (41, 19): 0.0, (41, 20): 0.0, (41, 21): 0.0, (41, 22): 0.0, (41, 23): 0.5051001633268003, (41, 24): 0.5051001633268003, (41, 25): 0.5051001633268003, (41, 26): 0.5051001633268003, (41, 27): 0.5051001633268003, (41, 28): 0.5051001633268003, (41, 29): 0.0, (41, 30): 0.0, (41, 31): 0.0, (41, 32): 0.0, (41, 33): 0.0, (41, 34): 0.0, (41, 35): 0.0, (41, 36): 0.0, (41, 37): 0.0, (41, 38): 0.0, (41, 39): 0.0, (41, 40): 0.0, (41, 41): 0.0, (41, 42): 0.0, (43, 1): 0.0, (43, 2): 0.0, (43, 3): 0.0, (43, 4): 0.0, (43, 5): 0.0, (43, 6): 0.0, (43, 7): 0.0, (43, 8): 0.0, (43, 9): 0.0, (43, 10): 0.0, (43, 11): 0.0, (43, 12): 0.0, (43, 13): 0.0, (43, 14): 0.0, (43, 15): 0.0, (43, 16): 0.0, (43, 17): 0.5051001633268003, (43, 18): 0.5051001633268003, (43, 19): 0.5051001633268003, (43, 20): 0.5051001633268003, (43, 21): 0.5051001633268003, (43, 22): 0.5051001633268003, (43, 23): 0.5051001633268003, (43, 24): 0.5051001633268003, (43, 25): 0.5051001633268003, (43, 26): 0.0, (43, 27): 0.0, (43, 28): 0.0, (43, 29): 0.0, (43, 30): 0.0, (43, 31): 0.0, (43, 32): 0.0, (43, 33): 0.0, (43, 34): 0.0, (43, 35): 0.0, (43, 36): 0.0, (43, 37): 0.0, (43, 38): 0.0, (43, 39): 0.0, (43, 40): 0.0, (43, 41): 0.0, (43, 42): 0.0, (50, 1): 0.0, (50, 2): 0.0, (50, 3): 0.0, (50, 4): 0.0, (50, 5): 0.0, (50, 6): 0.0, (50, 7): 0.0, (50, 8): 0.0, (50, 9): 0.0, (50, 10): 0.0, (50, 11): 0.5051001633268003, (50, 12): 0.5051001633268003, (50, 13): 0.5051001633268003, (50, 14): 0.5051001633268003, (50, 15): 0.5051001633268003, (50, 16): 0.5051001633268003, (50, 17): 0.5051001633268003, (50, 18): 0.5051001633268003, (50, 19): 0.0, (50, 20): 0.0, (50, 21): 0.0, (50, 22): 0.0, (50, 23): 0.0, (50, 24): 0.0, (50, 25): 0.0, (50, 26): 0.0, (50, 27): 0.0, (50, 28): 0.0, (50, 29): 0.0, (50, 30): 0.0, (50, 31): 0.0, (50, 32): 0.0, (50, 33): 0.0, (50, 34): 0.0, (50, 35): 0.0, (50, 36): 0.0, (50, 37): 0.0, (50, 38): 0.0, (50, 39): 0.0, (50, 40): 0.0, (50, 41): 0.0, (50, 42): 0.0, (59, 1): 0.0, (59, 2): 0.0, (59, 3): 0.0, (59, 4): 0.0, (59, 5): 0.0, (59, 6): 0.0, (59, 7): 0.0, (59, 8): 0.0, (59, 9): 0.0, (59, 10): 0.0, (59, 11): 0.0, (59, 12): 0.0, (59, 13): 0.0, (59, 14): 0.0, (59, 15): 0.5051001633268003, (59, 16): 0.5051001633268003, (59, 17): 0.5051001633268003, (59, 18): 0.5051001633268003, (59, 19): 0.5051001633268003, (59, 20): 0.5051001633268003, (59, 21): 0.5051001633268003, (59, 22): 0.5051001633268003, (59, 23): 0.5051001633268003, (59, 24): 0.5051001633268003, (59, 25): 0.0, (59, 26): 0.0, (59, 27): 0.0, (59, 28): 0.0, (59, 29): 0.0, (59, 30): 0.0, (59, 31): 0.0, (59, 32): 0.0, (59, 33): 0.0, (59, 34): 0.0, (59, 35): 0.0, (59, 36): 0.0, (59, 37): 0.0, (59, 38): 0.0, (59, 39): 0.0, (59, 40): 0.0, (59, 41): 0.0, (59, 42): 0.0, (60, 1): 0.0, (60, 2): 0.0, (60, 3): 0.0, (60, 4): 0.0, (60, 5): 0.0, (60, 6): 0.0, (60, 7): 0.0, (60, 8): 0.0, (60, 9): 0.0, (60, 10): 0.0, (60, 11): 0.0, (60, 12): 0.0, (60, 13): 0.0, (60, 14): 0.0, (60, 15): 0.0, (60, 16): 0.0, (60, 17): 0.0, (60, 18): 0.0, (60, 19): 0.0, (60, 20): 0.0, (60, 21): 0.0, (60, 22): 0.0, (60, 23): 0.0, (60, 24): 0.0, (60, 25): 0.0, (60, 26): 0.0, (60, 27): 0.0, (60, 28): 0.0, (60, 29): 0.0, (60, 30): 0.0, (60, 31): 0.0, (60, 32): 0.0, (60, 33): 0.0, (60, 34): 0.0, (60, 35): 0.0, (60, 36): 0.0, (60, 37): 0.0, (60, 38): 0.5051001633268003, (60, 39): 0.5051001633268003, (60, 40): 0.5051001633268003, (60, 41): 0.5051001633268003, (60, 42): 0.5051001633268003, (62, 1): 0.0, (62, 2): 0.0, (62, 3): 0.0, (62, 4): 0.0, (62, 5): 0.0, (62, 6): 0.0, (62, 7): 0.0, (62, 8): 0.0, (62, 9): 0.0, (62, 10): 0.0, (62, 11): 0.0, (62, 12): 0.0, (62, 13): 0.0, (62, 14): 0.0, (62, 15): 0.0, (62, 16): 0.0, (62, 17): 0.0, (62, 18): 0.0, (62, 19): 0.0, (62, 20): 0.5051001633268003, (62, 21): 0.5051001633268003, (62, 22): 0.5051001633268003, (62, 23): 0.5051001633268003, (62, 24): 0.5051001633268003, (62, 25): 0.5051001633268003, (62, 26): 0.5051001633268003, (62, 27): 0.0, (62, 28): 0.0, (62, 29): 0.0, (62, 30): 0.0, (62, 31): 0.0, (62, 32): 0.0, (62, 33): 0.0, (62, 34): 0.0, (62, 35): 0.0, (62, 36): 0.0, (62, 37): 0.0, (62, 38): 0.0, (62, 39): 0.0, (62, 40): 0.0, (62, 41): 0.0, (62, 42): 0.0, (63, 1): 0.0, (63, 2): 0.0, (63, 3): 0.0, (63, 4): 0.0, (63, 5): 0.0, (63, 6): 0.0, (63, 7): 0.0, (63, 8): 0.0, (63, 9): 0.0, (63, 10): 0.0, (63, 11): 0.0, (63, 12): 0.0, (63, 13): 0.0, (63, 14): 0.0, (63, 15): 0.0, (63, 16): 0.0, (63, 17): 0.0, (63, 18): 0.0, (63, 19): 0.0, (63, 20): 0.0, (63, 21): 0.0, (63, 22): 0.0, (63, 23): 0.0, (63, 24): 0.0, (63, 25): 0.0, (63, 26): 0.0, (63, 27): 0.0, (63, 28): 0.0, (63, 29): 0.0, (63, 30): 0.0, (63, 31): 0.0, (63, 32): 0.0, (63, 33): 0.0, (63, 34): 0.0, (63, 35): 0.0, (63, 36): 0.0, (63, 37): 0.5051001633268003, (63, 38): 0.5051001633268003, (63, 39): 0.5051001633268003, (63, 40): 0.5051001633268003, (63, 41): 0.5051001633268003, (63, 42): 0.5051001633268003, (65, 1): 0.0, (65, 2): 0.0, (65, 3): 0.0, (65, 4): 0.0, (65, 5): 0.0, (65, 6): 0.0, (65, 7): 0.0, (65, 8): 0.0, (65, 9): 0.0, (65, 10): 0.0, (65, 11): 0.0, (65, 12): 0.0, (65, 13): 0.0, (65, 14): 0.0, (65, 15): 0.0, (65, 16): 0.0, (65, 17): 0.0, (65, 18): 0.0, (65, 19): 0.0, (65, 20): 0.0, (65, 21): 0.0, (65, 22): 0.0, (65, 23): 0.0, (65, 24): 0.0, (65, 25): 0.0, (65, 26): 0.0, (65, 27): 0.5051001633268003, (65, 28): 0.5051001633268003, (65, 29): 0.5051001633268003, (65, 30): 0.5051001633268003, (65, 31): 0.5051001633268003, (65, 32): 0.5051001633268003, (65, 33): 0.0, (65, 34): 0.0, (65, 35): 0.0, (65, 36): 0.0, (65, 37): 0.0, (65, 38): 0.0, (65, 39): 0.0, (65, 40): 0.0, (65, 41): 0.0, (65, 42): 0.0, (66, 1): 0.0, (66, 2): 0.0, (66, 3): 0.0, (66, 4): 0.0, (66, 5): 0.0, (66, 6): 0.0, (66, 7): 0.0, (66, 8): 0.0, (66, 9): 0.0, (66, 10): 0.0, (66, 11): 0.0, (66, 12): 0.0, (66, 13): 0.0, (66, 14): 0.0, (66, 15): 0.0, (66, 16): 0.0, (66, 17): 0.0, (66, 18): 0.0, (66, 19): 0.0, (66, 20): 0.0, (66, 21): 0.0, (66, 22): 0.0, (66, 23): 0.0, (66, 24): 0.0, (66, 25): 0.0, (66, 26): 0.0, (66, 27): 0.0, (66, 28): 0.0, (66, 29): 0.0, (66, 30): 0.5051001633268003, (66, 31): 0.5051001633268003, (66, 32): 0.5051001633268003, (66, 33): 0.5051001633268003, (66, 34): 0.0, (66, 35): 0.0, (66, 36): 0.0, (66, 37): 0.0, (66, 38): 0.0, (66, 39): 0.0, (66, 40): 0.0, (66, 41): 0.0, (66, 42): 0.0, (67, 1): 0.0, (67, 2): 0.0, (67, 3): 0.0, (67, 4): 0.0, (67, 5): 0.0, (67, 6): 0.0, (67, 7): 0.0, (67, 8): 0.0, (67, 9): 0.0, (67, 10): 0.0, (67, 11): 0.0, (67, 12): 0.0, (67, 13): 0.0, (67, 14): 0.5051001633268003, (67, 15): 0.5051001633268003, (67, 16): 0.5051001633268003, (67, 17): 0.5051001633268003, (67, 18): 0.5051001633268003, (67, 19): 0.5051001633268003, (67, 20): 0.5051001633268003, (67, 21): 0.0, (67, 22): 0.0, (67, 23): 0.0, (67, 24): 0.0, (67, 25): 0.0, (67, 26): 0.0, (67, 27): 0.0, (67, 28): 0.0, (67, 29): 0.0, (67, 30): 0.0, (67, 31): 0.0, (67, 32): 0.0, (67, 33): 0.0, (67, 34): 0.0, (67, 35): 0.0, (67, 36): 0.0, (67, 37): 0.0, (67, 38): 0.0, (67, 39): 0.0, (67, 40): 0.0, (67, 41): 0.0, (67, 42): 0.0, (70, 1): 0.0, (70, 2): 0.0, (70, 3): 0.0, (70, 4): 0.0, (70, 5): 0.0, (70, 6): 0.0, (70, 7): 0.0, (70, 8): 0.0, (70, 9): 0.0, (70, 10): 0.0, (70, 11): 0.0, (70, 12): 0.0, (70, 13): 0.0, (70, 14): 0.0, (70, 15): 0.0, (70, 16): 0.0, (70, 17): 0.0, (70, 18): 0.0, (70, 19): 0.0, (70, 20): 0.0, (70, 21): 0.0, (70, 22): 0.0, (70, 23): 0.0, (70, 24): 0.0, (70, 25): 0.0, (70, 26): 0.0, (70, 27): 0.0, (70, 28): 0.0, (70, 29): 0.0, (70, 30): 0.0, (70, 31): 0.0, (70, 32): 0.5051001633268003, (70, 33): 0.5051001633268003, (70, 34): 0.5051001633268003, (70, 35): 0.5051001633268003, (70, 36): 0.5051001633268003, (70, 37): 0.0, (70, 38): 0.0, (70, 39): 0.0, (70, 40): 0.0, (70, 41): 0.0, (70, 42): 0.0, (71, 1): 0.0, (71, 2): 0.0, (71, 3): 0.0, (71, 4): 0.0, (71, 5): 0.0, (71, 6): 0.0, (71, 7): 0.0, (71, 8): 0.0, (71, 9): 0.0, (71, 10): 0.0, (71, 11): 0.0, (71, 12): 0.0, (71, 13): 0.0, (71, 14): 0.0, (71, 15): 0.0, (71, 16): 0.0, (71, 17): 0.0, (71, 18): 0.0, (71, 19): 0.0, (71, 20): 0.0, (71, 21): 0.0, (71, 22): 0.0, (71, 23): 0.0, (71, 24): 0.0, (71, 25): 0.0, (71, 26): 0.0, (71, 27): 0.0, (71, 28): 0.0, (71, 29): 0.0, (71, 30): 0.0, (71, 31): 0.0, (71, 32): 0.0, (71, 33): 0.5051001633268003, (71, 34): 0.5051001633268003, (71, 35): 0.5051001633268003, (71, 36): 0.5051001633268003, (71, 37): 0.5051001633268003, (71, 38): 0.5051001633268003, (71, 39): 0.5051001633268003, (71, 40): 0.5051001633268003, (71, 41): 0.5051001633268003, (71, 42): 0.0, (73, 1): 0.0, (73, 2): 0.0, (73, 3): 0.0, (73, 4): 0.0, (73, 5): 0.0, (73, 6): 0.0, (73, 7): 0.0, (73, 8): 0.0, (73, 9): 0.0, (73, 10): 0.0, (73, 11): 0.0, (73, 12): 0.0, (73, 13): 0.0, (73, 14): 0.0, (73, 15): 0.0, (73, 16): 0.0, (73, 17): 0.0, (73, 18): 0.0, (73, 19): 0.0, (73, 20): 0.0, (73, 21): 0.0, (73, 22): 0.0, (73, 23): 0.0, (73, 24): 0.0, (73, 25): 0.0, (73, 26): 0.0, (73, 27): 0.0, (73, 28): 0.0, (73, 29): 0.0, (73, 30): 0.0, (73, 31): 0.5051001633268003, (73, 32): 0.5051001633268003, (73, 33): 0.5051001633268003, (73, 34): 0.5051001633268003, (73, 35): 0.5051001633268003, (73, 36): 0.5051001633268003, (73, 37): 0.5051001633268003, (73, 38): 0.5051001633268003, (73, 39): 0.5051001633268003, (73, 40): 0.5051001633268003, (73, 41): 0.5051001633268003, (73, 42): 0.5051001633268003, (75, 1): 0.0, (75, 2): 0.0, (75, 3): 0.0, (75, 4): 0.0, (75, 5): 0.0, (75, 6): 0.0, (75, 7): 0.0, (75, 8): 0.0, (75, 9): 0.0, (75, 10): 0.0, (75, 11): 0.0, (75, 12): 0.0, (75, 13): 0.0, (75, 14): 0.0, (75, 15): 0.0, (75, 16): 0.0, (75, 17): 0.0, (75, 18): 0.0, (75, 19): 0.0, (75, 20): 0.5051001633268003, (75, 21): 0.5051001633268003, (75, 22): 0.5051001633268003, (75, 23): 0.5051001633268003, (75, 24): 0.5051001633268003, (75, 25): 0.5051001633268003, (75, 26): 0.5051001633268003, (75, 27): 0.5051001633268003, (75, 28): 0.0, (75, 29): 0.0, (75, 30): 0.0, (75, 31): 0.0, (75, 32): 0.0, (75, 33): 0.0, (75, 34): 0.0, (75, 35): 0.0, (75, 36): 0.0, (75, 37): 0.0, (75, 38): 0.0, (75, 39): 0.0, (75, 40): 0.0, (75, 41): 0.0, (75, 42): 0.0, (77, 1): 0.0, (77, 2): 0.0, (77, 3): 0.0, (77, 4): 0.0, (77, 5): 0.0, (77, 6): 0.0, (77, 7): 0.0, (77, 8): 0.0, (77, 9): 0.0, (77, 10): 0.0, (77, 11): 0.0, (77, 12): 0.0, (77, 13): 0.0, (77, 14): 0.0, (77, 15): 0.0, (77, 16): 0.0, (77, 17): 0.0, (77, 18): 0.0, (77, 19): 0.0, (77, 20): 0.0, (77, 21): 0.0, (77, 22): 0.0, (77, 23): 0.0, (77, 24): 0.0, (77, 25): 0.0, (77, 26): 0.0, (77, 27): 0.0, (77, 28): 0.0, (77, 29): 0.0, (77, 30): 0.0, (77, 31): 0.0, (77, 32): 0.0, (77, 33): 0.0, (77, 34): 0.0, (77, 35): 0.0, (77, 36): 0.0, (77, 37): 0.0, (77, 38): 0.0, (77, 39): 0.0, (77, 40): 0.5051001633268003, (77, 41): 0.5051001633268003, (77, 42): 0.5051001633268003, (78, 1): 0.0, (78, 2): 0.0, (78, 3): 0.0, (78, 4): 0.0, (78, 5): 0.0, (78, 6): 0.0, (78, 7): 0.0, (78, 8): 0.0, (78, 9): 0.0, (78, 10): 0.0, (78, 11): 0.5051001633268003, (78, 12): 0.5051001633268003, (78, 13): 0.5051001633268003, (78, 14): 0.5051001633268003, (78, 15): 0.5051001633268003, (78, 16): 0.5051001633268003, (78, 17): 0.5051001633268003, (78, 18): 0.5051001633268003, (78, 19): 0.5051001633268003, (78, 20): 0.0, (78, 21): 0.0, (78, 22): 0.0, (78, 23): 0.0, (78, 24): 0.0, (78, 25): 0.0, (78, 26): 0.0, (78, 27): 0.0, (78, 28): 0.0, (78, 29): 0.0, (78, 30): 0.0, (78, 31): 0.0, (78, 32): 0.0, (78, 33): 0.0, (78, 34): 0.0, (78, 35): 0.0, (78, 36): 0.0, (78, 37): 0.0, (78, 38): 0.0, (78, 39): 0.0, (78, 40): 0.0, (78, 41): 0.0, (78, 42): 0.0, (79, 1): 0.0, (79, 2): 0.0, (79, 3): 0.0, (79, 4): 0.0, (79, 5): 0.0, (79, 6): 0.0, (79, 7): 0.0, (79, 8): 0.0, (79, 9): 0.0, (79, 10): 0.0, (79, 11): 0.0, (79, 12): 0.0, (79, 13): 0.0, (79, 14): 0.0, (79, 15): 0.0, (79, 16): 0.0, (79, 17): 0.0, (79, 18): 0.0, (79, 19): 0.0, (79, 20): 0.5051001633268003, (79, 21): 0.5051001633268003, (79, 22): 0.5051001633268003, (79, 23): 0.5051001633268003, (79, 24): 0.5051001633268003, (79, 25): 0.5051001633268003, (79, 26): 0.0, (79, 27): 0.0, (79, 28): 0.0, (79, 29): 0.0, (79, 30): 0.0, (79, 31): 0.0, (79, 32): 0.0, (79, 33): 0.0, (79, 34): 0.0, (79, 35): 0.0, (79, 36): 0.0, (79, 37): 0.0, (79, 38): 0.0, (79, 39): 0.0, (79, 40): 0.0, (79, 41): 0.0, (79, 42): 0.0, (81, 1): 0.0, (81, 2): 0.0, (81, 3): 0.0, (81, 4): 0.0, (81, 5): 0.0, (81, 6): 0.0, (81, 7): 0.0, (81, 8): 0.0, (81, 9): 0.0, (81, 10): 0.0, (81, 11): 0.0, (81, 12): 0.5051001633268003, (81, 13): 0.5051001633268003, (81, 14): 0.5051001633268003, (81, 15): 0.5051001633268003, (81, 16): 0.5051001633268003, (81, 17): 0.5051001633268003, (81, 18): 0.0, (81, 19): 0.0, (81, 20): 0.0, (81, 21): 0.0, (81, 22): 0.0, (81, 23): 0.0, (81, 24): 0.0, (81, 25): 0.0, (81, 26): 0.0, (81, 27): 0.0, (81, 28): 0.0, (81, 29): 0.0, (81, 30): 0.0, (81, 31): 0.0, (81, 32): 0.0, (81, 33): 0.0, (81, 34): 0.0, (81, 35): 0.0, (81, 36): 0.0, (81, 37): 0.0, (81, 38): 0.0, (81, 39): 0.0, (81, 40): 0.0, (81, 41): 0.0, (81, 42): 0.0, (82, 1): 0.0, (82, 2): 0.0, (82, 3): 0.0, (82, 4): 0.0, (82, 5): 0.0, (82, 6): 0.0, (82, 7): 0.0, (82, 8): 0.0, (82, 9): 0.5051001633268003, (82, 10): 0.5051001633268003, (82, 11): 0.5051001633268003, (82, 12): 0.5051001633268003, (82, 13): 0.5051001633268003, (82, 14): 0.5051001633268003, (82, 15): 0.5051001633268003, (82, 16): 0.0, (82, 17): 0.0, (82, 18): 0.0, (82, 19): 0.0, (82, 20): 0.0, (82, 21): 0.0, (82, 22): 0.0, (82, 23): 0.0, (82, 24): 0.0, (82, 25): 0.0, (82, 26): 0.0, (82, 27): 0.0, (82, 28): 0.0, (82, 29): 0.0, (82, 30): 0.0, (82, 31): 0.0, (82, 32): 0.0, (82, 33): 0.0, (82, 34): 0.0, (82, 35): 0.0, (82, 36): 0.0, (82, 37): 0.0, (82, 38): 0.0, (82, 39): 0.0, (82, 40): 0.0, (82, 41): 0.0, (82, 42): 0.0}</t>
+  </si>
+  <si>
+    <t>{(2, 1): 0.0, (2, 2): 0.0, (2, 3): 0.0, (2, 4): 0.0, (2, 5): 0.0, (2, 6): 0.0, (2, 7): 0.0, (2, 8): 0.0, (2, 9): 0.0, (2, 10): 0.0, (2, 11): 0.0, (2, 12): 0.0, (2, 13): 0.0, (2, 14): 0.0, (2, 15): 0.0, (2, 16): 0.0, (2, 17): 1.0, (2, 18): 2.0, (2, 19): 3.0, (2, 20): 4.0, (2, 21): 4.0, (2, 22): 5.0, (2, 23): 6.0, (2, 24): 7.0, (2, 25): 8.0, (2, 26): 9.0, (2, 27): 9.0, (2, 28): 9.0, (2, 29): 10.0, (2, 30): 10.0, (2, 31): 11.0, (2, 32): 11.0, (2, 33): 11.0, (2, 34): 12.0, (2, 35): 12.0, (2, 36): 13.0, (2, 37): 14.0, (2, 38): 14.0, (2, 39): 14.0, (2, 40): 15.0, (2, 41): 16.0, (2, 42): 16.0, (3, 1): 0.0, (3, 2): 0.0, (3, 3): 0.0, (3, 4): 0.0, (3, 5): 0.0, (3, 6): 0.0, (3, 7): 0.0, (3, 8): 0.0, (3, 9): 0.0, (3, 10): 0.0, (3, 11): 0.0, (3, 12): 0.0, (3, 13): 0.0, (3, 14): 0.0, (3, 15): 0.0, (3, 16): 0.0, (3, 17): 1.0, (3, 18): 1.0, (3, 19): 2.0, (3, 20): 2.0, (3, 21): 2.0, (3, 22): 3.0, (3, 23): 3.0, (3, 24): 4.0, (3, 25): 4.0, (3, 26): 5.0, (3, 27): 5.0, (3, 28): 5.0, (3, 29): 6.0, (3, 30): 6.0, (3, 31): 7.0, (3, 32): 7.0, (3, 33): 7.0, (3, 34): 8.0, (3, 35): 8.0, (3, 36): 9.0, (3, 37): 9.0, (3, 38): 10.0, (3, 39): 10.0, (3, 40): 10.0, (3, 41): 10.0, (3, 42): 10.0, (4, 1): 0.0, (4, 2): 0.0, (4, 3): 0.0, (4, 4): 0.0, (4, 5): 0.0, (4, 6): 0.0, (4, 7): 0.0, (4, 8): 0.0, (4, 9): 0.0, (4, 10): 0.0, (4, 11): 0.0, (4, 12): 0.0, (4, 13): 0.0, (4, 14): 0.0, (4, 15): 0.0, (4, 16): 0.0, (4, 17): 0.0, (4, 18): 0.0, (4, 19): 0.0, (4, 20): 0.0, (4, 21): 0.0, (4, 22): 0.0, (4, 23): 0.0, (4, 24): 0.0, (4, 25): 0.0, (4, 26): 0.0, (4, 27): 0.0, (4, 28): 0.0, (4, 29): 0.0, (4, 30): 1.0, (4, 31): 1.0, (4, 32): 1.0, (4, 33): 2.0, (4, 34): 3.0, (4, 35): 3.0, (4, 36): 3.0, (4, 37): 3.0, (4, 38): 4.0, (4, 39): 5.0, (4, 40): 6.0, (4, 41): 7.0, (4, 42): 7.0, (9, 1): 0.0, (9, 2): 0.0, (9, 3): 0.0, (9, 4): 0.0, (9, 5): 0.0, (9, 6): 0.0, (9, 7): 0.0, (9, 8): 0.0, (9, 9): 0.0, (9, 10): 0.0, (9, 11): 0.0, (9, 12): 0.0, (9, 13): 0.0, (9, 14): 0.0, (9, 15): 0.0, (9, 16): 0.0, (9, 17): 0.0, (9, 18): 0.0, (9, 19): 0.0, (9, 20): 0.0, (9, 21): 0.0, (9, 22): 1.0, (9, 23): 2.0, (9, 24): 2.0, (9, 25): 2.0, (9, 26): 3.0, (9, 27): 4.0, (9, 28): 4.0, (9, 29): 4.0, (9, 30): 4.0, (9, 31): 5.0, (9, 32): 6.0, (9, 33): 6.0, (9, 34): 6.0, (9, 35): 6.0, (9, 36): 7.0, (9, 37): 8.0, (9, 38): 9.0, (9, 39): 10.0, (9, 40): 10.0, (9, 41): 10.0, (9, 42): 10.0, (15, 1): 0.0, (15, 2): 0.0, (15, 3): 0.0, (15, 4): 0.0, (15, 5): 0.0, (15, 6): 0.0, (15, 7): 0.0, (15, 8): 0.0, (15, 9): 0.0, (15, 10): 0.0, (15, 11): 0.0, (15, 12): 0.0, (15, 13): 0.0, (15, 14): 0.0, (15, 15): 0.0, (15, 16): 0.0, (15, 17): 0.0, (15, 18): 0.0, (15, 19): 0.0, (15, 20): 0.0, (15, 21): 0.0, (15, 22): 0.0, (15, 23): 0.0, (15, 24): 0.0, (15, 25): 0.0, (15, 26): 0.0, (15, 27): 0.0, (15, 28): 0.0, (15, 29): 0.0, (15, 30): 1.0, (15, 31): 2.0, (15, 32): 3.0, (15, 33): 4.0, (15, 34): 5.0, (15, 35): 5.0, (15, 36): 5.0, (15, 37): 6.0, (15, 38): 7.0, (15, 39): 8.0, (15, 40): 9.0, (15, 41): 10.0, (15, 42): 10.0, (16, 1): 0.0, (16, 2): 0.0, (16, 3): 0.0, (16, 4): 0.0, (16, 5): 0.0, (16, 6): 0.0, (16, 7): 0.0, (16, 8): 0.0, (16, 9): 0.0, (16, 10): 0.0, (16, 11): 1.0, (16, 12): 2.0, (16, 13): 3.0, (16, 14): 3.0, (16, 15): 4.0, (16, 16): 5.0, (16, 17): 5.0, (16, 18): 5.0, (16, 19): 5.0, (16, 20): 6.0, (16, 21): 6.0, (16, 22): 6.0, (16, 23): 6.0, (16, 24): 6.0, (16, 25): 6.0, (16, 26): 6.0, (16, 27): 6.0, (16, 28): 6.0, (16, 29): 6.0, (16, 30): 6.0, (16, 31): 6.0, (16, 32): 6.0, (16, 33): 6.0, (16, 34): 6.0, (16, 35): 6.0, (16, 36): 6.0, (16, 37): 6.0, (16, 38): 6.0, (16, 39): 6.0, (16, 40): 6.0, (16, 41): 6.0, (16, 42): 6.0, (20, 1): 0.0, (20, 2): 0.0, (20, 3): 0.0, (20, 4): 0.0, (20, 5): 0.0, (20, 6): 0.0, (20, 7): 0.0, (20, 8): 0.0, (20, 9): 0.0, (20, 10): 0.0, (20, 11): 0.0, (20, 12): 0.0, (20, 13): 0.0, (20, 14): 0.0, (20, 15): 0.0, (20, 16): 0.0, (20, 17): 0.0, (20, 18): 0.0, (20, 19): 0.0, (20, 20): 0.0, (20, 21): 0.0, (20, 22): 0.0, (20, 23): 0.0, (20, 24): 0.0, (20, 25): 0.0, (20, 26): 0.0, (20, 27): 0.0, (20, 28): 0.0, (20, 29): 0.0, (20, 30): 0.0, (20, 31): 0.0, (20, 32): 1.0, (20, 33): 1.0, (20, 34): 2.0, (20, 35): 3.0, (20, 36): 3.0, (20, 37): 4.0, (20, 38): 4.0, (20, 39): 4.0, (20, 40): 4.0, (20, 41): 4.0, (20, 42): 4.0, (21, 1): 0.0, (21, 2): 0.0, (21, 3): 0.0, (21, 4): 0.0, (21, 5): 0.0, (21, 6): 0.0, (21, 7): 0.0, (21, 8): 0.0, (21, 9): 0.0, (21, 10): 0.0, (21, 11): 0.0, (21, 12): 0.0, (21, 13): 0.0, (21, 14): 0.0, (21, 15): 0.0, (21, 16): 0.0, (21, 17): 0.0, (21, 18): 0.0, (21, 19): 0.0, (21, 20): 0.0, (21, 21): 0.0, (21, 22): 0.0, (21, 23): 0.0, (21, 24): 0.0, (21, 25): 0.0, (21, 26): 0.0, (21, 27): 1.0, (21, 28): 1.0, (21, 29): 2.0, (21, 30): 3.0, (21, 31): 4.0, (21, 32): 5.0, (21, 33): 6.0, (21, 34): 6.0, (21, 35): 6.0, (21, 36): 6.0, (21, 37): 7.0, (21, 38): 8.0, (21, 39): 8.0, (21, 40): 8.0, (21, 41): 9.0, (21, 42): 9.0, (22, 1): 0.0, (22, 2): 0.0, (22, 3): 0.0, (22, 4): 0.0, (22, 5): 0.0, (22, 6): 0.0, (22, 7): 0.0, (22, 8): 0.0, (22, 9): 0.0, (22, 10): 0.0, (22, 11): 0.0, (22, 12): 0.0, (22, 13): 0.0, (22, 14): 0.0, (22, 15): 0.0, (22, 16): 0.0, (22, 17): 0.0, (22, 18): 0.0, (22, 19): 0.0, (22, 20): 0.0, (22, 21): 0.0, (22, 22): 0.0, (22, 23): 0.0, (22, 24): 0.0, (22, 25): 0.0, (22, 26): 0.0, (22, 27): 1.0, (22, 28): 1.0, (22, 29): 2.0, (22, 30): 2.0, (22, 31): 2.0, (22, 32): 3.0, (22, 33): 3.0, (22, 34): 4.0, (22, 35): 4.0, (22, 36): 4.0, (22, 37): 5.0, (22, 38): 5.0, (22, 39): 6.0, (22, 40): 6.0, (22, 41): 7.0, (22, 42): 7.0, (23, 1): 0.0, (23, 2): 0.0, (23, 3): 0.0, (23, 4): 0.0, (23, 5): 0.0, (23, 6): 0.0, (23, 7): 0.0, (23, 8): 0.0, (23, 9): 0.0, (23, 10): 0.0, (23, 11): 0.0, (23, 12): 0.0, (23, 13): 0.0, (23, 14): 0.0, (23, 15): 0.0, (23, 16): 0.0, (23, 17): 0.0, (23, 18): 0.0, (23, 19): 0.0, (23, 20): 0.0, (23, 21): 0.0, (23, 22): 0.0, (23, 23): 0.0, (23, 24): 0.0, (23, 25): 0.0, (23, 26): 0.0, (23, 27): 0.0, (23, 28): 0.0, (23, 29): 1.0, (23, 30): 1.0, (23, 31): 1.0, (23, 32): 1.0, (23, 33): 2.0, (23, 34): 3.0, (23, 35): 4.0, (23, 36): 4.0, (23, 37): 4.0, (23, 38): 4.0, (23, 39): 4.0, (23, 40): 4.0, (23, 41): 4.0, (23, 42): 4.0, (24, 1): 0.0, (24, 2): 0.0, (24, 3): 0.0, (24, 4): 0.0, (24, 5): 0.0, (24, 6): 0.0, (24, 7): 0.0, (24, 8): 0.0, (24, 9): 0.0, (24, 10): 0.0, (24, 11): 0.0, (24, 12): 0.0, (24, 13): 0.0, (24, 14): 0.0, (24, 15): 0.0, (24, 16): 0.0, (24, 17): 0.0, (24, 18): 0.0, (24, 19): 0.0, (24, 20): 0.0, (24, 21): 0.0, (24, 22): 1.0, (24, 23): 1.0, (24, 24): 1.0, (24, 25): 2.0, (24, 26): 3.0, (24, 27): 4.0, (24, 28): 5.0, (24, 29): 6.0, (24, 30): 6.0, (24, 31): 6.0, (24, 32): 6.0, (24, 33): 6.0, (24, 34): 6.0, (24, 35): 6.0, (24, 36): 6.0, (24, 37): 6.0, (24, 38): 6.0, (24, 39): 6.0, (24, 40): 6.0, (24, 41): 6.0, (24, 42): 6.0, (25, 1): 0.0, (25, 2): 0.0, (25, 3): 0.0, (25, 4): 0.0, (25, 5): 0.0, (25, 6): 0.0, (25, 7): 0.0, (25, 8): 0.0, (25, 9): 0.0, (25, 10): 0.0, (25, 11): 0.0, (25, 12): 0.0, (25, 13): 0.0, (25, 14): 0.0, (25, 15): 0.0, (25, 16): 0.0, (25, 17): 0.0, (25, 18): 0.0, (25, 19): 0.0, (25, 20): 0.0, (25, 21): 0.0, (25, 22): 0.0, (25, 23): 0.0, (25, 24): 0.0, (25, 25): 0.0, (25, 26): 0.0, (25, 27): 0.0, (25, 28): 0.0, (25, 29): 0.0, (25, 30): 0.0, (25, 31): 0.0, (25, 32): 0.0, (25, 33): 0.0, (25, 34): 0.0, (25, 35): 0.0, (25, 36): 0.0, (25, 37): 0.0, (25, 38): 1.0, (25, 39): 2.0, (25, 40): 2.0, (25, 41): 2.0, (25, 42): 2.0, (26, 1): 0.0, (26, 2): 0.0, (26, 3): 0.0, (26, 4): 0.0, (26, 5): 0.0, (26, 6): 0.0, (26, 7): 0.0, (26, 8): 0.0, (26, 9): 0.0, (26, 10): 0.0, (26, 11): 0.0, (26, 12): 0.0, (26, 13): 0.0, (26, 14): 0.0, (26, 15): 0.0, (26, 16): 0.0, (26, 17): 0.0, (26, 18): 0.0, (26, 19): 0.0, (26, 20): 0.0, (26, 21): 0.0, (26, 22): 0.0, (26, 23): 0.0, (26, 24): 0.0, (26, 25): 0.0, (26, 26): 1.0, (26, 27): 2.0, (26, 28): 2.0, (26, 29): 2.0, (26, 30): 2.0, (26, 31): 3.0, (26, 32): 3.0, (26, 33): 3.0, (26, 34): 3.0, (26, 35): 3.0, (26, 36): 3.0, (26, 37): 3.0, (26, 38): 3.0, (26, 39): 3.0, (26, 40): 3.0, (26, 41): 3.0, (26, 42): 3.0, (28, 1): 0.0, (28, 2): 0.0, (28, 3): 0.0, (28, 4): 0.0, (28, 5): 0.0, (28, 6): 0.0, (28, 7): 0.0, (28, 8): 0.0, (28, 9): 0.0, (28, 10): 0.0, (28, 11): 0.0, (28, 12): 0.0, (28, 13): 0.0, (28, 14): 0.0, (28, 15): 0.0, (28, 16): 0.0, (28, 17): 0.0, (28, 18): 0.0, (28, 19): 0.0, (28, 20): 0.0, (28, 21): 0.0, (28, 22): 0.0, (28, 23): 0.0, (28, 24): 0.0, (28, 25): 0.0, (28, 26): 0.0, (28, 27): 0.0, (28, 28): 0.0, (28, 29): 0.0, (28, 30): 1.0, (28, 31): 2.0, (28, 32): 3.0, (28, 33): 4.0, (28, 34): 5.0, (28, 35): 5.0, (28, 36): 5.0, (28, 37): 6.0, (28, 38): 7.0, (28, 39): 7.0, (28, 40): 8.0, (28, 41): 9.0, (28, 42): 9.0, (30, 1): 0.0, (30, 2): 0.0, (30, 3): 0.0, (30, 4): 0.0, (30, 5): 0.0, (30, 6): 0.0, (30, 7): 0.0, (30, 8): 0.0, (30, 9): 0.0, (30, 10): 0.0, (30, 11): 0.0, (30, 12): 0.0, (30, 13): 0.0, (30, 14): 0.0, (30, 15): 0.0, (30, 16): 0.0, (30, 17): 0.0, (30, 18): 0.0, (30, 19): 0.0, (30, 20): 0.0, (30, 21): 0.0, (30, 22): 0.0, (30, 23): 1.0, (30, 24): 2.0, (30, 25): 2.0, (30, 26): 2.0, (30, 27): 3.0, (30, 28): 4.0, (30, 29): 4.0, (30, 30): 5.0, (30, 31): 6.0, (30, 32): 6.0, (30, 33): 6.0, (30, 34): 6.0, (30, 35): 6.0, (30, 36): 6.0, (30, 37): 6.0, (30, 38): 6.0, (30, 39): 6.0, (30, 40): 6.0, (30, 41): 6.0, (30, 42): 6.0, (31, 1): 0.0, (31, 2): 0.0, (31, 3): 0.0, (31, 4): 0.0, (31, 5): 0.0, (31, 6): 0.0, (31, 7): 0.0, (31, 8): 1.0, (31, 9): 1.0, (31, 10): 2.0, (31, 11): 3.0, (31, 12): 4.0, (31, 13): 5.0, (31, 14): 5.0, (31, 15): 5.0, (31, 16): 5.0, (31, 17): 6.0, (31, 18): 7.0, (31, 19): 8.0, (31, 20): 9.0, (31, 21): 10.0, (31, 22): 10.0, (31, 23): 10.0, (31, 24): 10.0, (31, 25): 10.0, (31, 26): 10.0, (31, 27): 10.0, (31, 28): 10.0, (31, 29): 10.0, (31, 30): 10.0, (31, 31): 10.0, (31, 32): 10.0, (31, 33): 10.0, (31, 34): 10.0, (31, 35): 10.0, (31, 36): 10.0, (31, 37): 10.0, (31, 38): 10.0, (31, 39): 10.0, (31, 40): 10.0, (31, 41): 10.0, (31, 42): 10.0, (36, 1): 0.0, (36, 2): 0.0, (36, 3): 0.0, (36, 4): 0.0, (36, 5): 0.0, (36, 6): 0.0, (36, 7): 0.0, (36, 8): 0.0, (36, 9): 0.0, (36, 10): 0.0, (36, 11): 0.0, (36, 12): 0.0, (36, 13): 0.0, (36, 14): 0.0, (36, 15): 0.0, (36, 16): 0.0, (36, 17): 0.0, (36, 18): 0.0, (36, 19): 0.0, (36, 20): 0.0, (36, 21): 0.0, (36, 22): 0.0, (36, 23): 0.0, (36, 24): 0.0, (36, 25): 0.0, (36, 26): 0.0, (36, 27): 0.0, (36, 28): 1.0, (36, 29): 2.0, (36, 30): 2.0, (36, 31): 2.0, (36, 32): 2.0, (36, 33): 3.0, (36, 34): 4.0, (36, 35): 4.0, (36, 36): 4.0, (36, 37): 4.0, (36, 38): 5.0, (36, 39): 6.0, (36, 40): 6.0, (36, 41): 6.0, (36, 42): 6.0, (37, 1): 0.0, (37, 2): 0.0, (37, 3): 0.0, (37, 4): 0.0, (37, 5): 0.0, (37, 6): 0.0, (37, 7): 0.0, (37, 8): 0.0, (37, 9): 0.0, (37, 10): 0.0, (37, 11): 0.0, (37, 12): 0.0, (37, 13): 0.0, (37, 14): 0.0, (37, 15): 0.0, (37, 16): 0.0, (37, 17): 0.0, (37, 18): 0.0, (37, 19): 0.0, (37, 20): 0.0, (37, 21): 0.0, (37, 22): 0.0, (37, 23): 0.0, (37, 24): 0.0, (37, 25): 0.0, (37, 26): 2.0, (37, 27): 2.0, (37, 28): 4.0, (37, 29): 4.0, (37, 30): 5.0, (37, 31): 6.0, (37, 32): 6.0, (37, 33): 8.0, (37, 34): 8.0, (37, 35): 8.0, (37, 36): 8.0, (37, 37): 8.0, (37, 38): 8.0, (37, 39): 8.0, (37, 40): 8.0, (37, 41): 8.0, (37, 42): 8.0, (38, 1): 0.0, (38, 2): 0.0, (38, 3): 0.0, (38, 4): 0.0, (38, 5): 0.0, (38, 6): 0.0, (38, 7): 0.0, (38, 8): 0.0, (38, 9): 0.0, (38, 10): 0.0, (38, 11): 0.0, (38, 12): 0.0, (38, 13): 0.0, (38, 14): 0.0, (38, 15): 0.0, (38, 16): 0.0, (38, 17): 0.0, (38, 18): 0.0, (38, 19): 0.0, (38, 20): 0.0, (38, 21): 0.0, (38, 22): 0.0, (38, 23): 0.0, (38, 24): 0.0, (38, 25): 0.0, (38, 26): 0.0, (38, 27): 0.0, (38, 28): 0.0, (38, 29): 0.0, (38, 30): 0.0, (38, 31): 0.0, (38, 32): 0.0, (38, 33): 0.0, (38, 34): 0.0, (38, 35): 0.0, (38, 36): 0.0, (38, 37): 0.0, (38, 38): 0.0, (38, 39): 0.0, (38, 40): 0.0, (38, 41): 1.0, (38, 42): 1.0, (39, 1): 0.0, (39, 2): 0.0, (39, 3): 0.0, (39, 4): 0.0, (39, 5): 0.0, (39, 6): 0.0, (39, 7): 0.0, (39, 8): 0.0, (39, 9): 0.0, (39, 10): 0.0, (39, 11): 0.0, (39, 12): 0.0, (39, 13): 0.0, (39, 14): 0.0, (39, 15): 0.0, (39, 16): 0.0, (39, 17): 0.0, (39, 18): 1.0, (39, 19): 1.0, (39, 20): 2.0, (39, 21): 2.0, (39, 22): 2.0, (39, 23): 3.0, (39, 24): 3.0, (39, 25): 4.0, (39, 26): 4.0, (39, 27): 4.0, (39, 28): 4.0, (39, 29): 4.0, (39, 30): 4.0, (39, 31): 4.0, (39, 32): 4.0, (39, 33): 4.0, (39, 34): 4.0, (39, 35): 4.0, (39, 36): 4.0, (39, 37): 4.0, (39, 38): 4.0, (39, 39): 4.0, (39, 40): 4.0, (39, 41): 4.0, (39, 42): 4.0, (40, 1): 0.0, (40, 2): 0.0, (40, 3): 0.0, (40, 4): 0.0, (40, 5): 0.0, (40, 6): 0.0, (40, 7): 0.0, (40, 8): 1.0, (40, 9): 2.0, (40, 10): 2.0, (40, 11): 3.0, (40, 12): 4.0, (40, 13): 4.0, (40, 14): 4.0, (40, 15): 4.0, (40, 16): 5.0, (40, 17): 5.0, (40, 18): 5.0, (40, 19): 5.0, (40, 20): 5.0, (40, 21): 5.0, (40, 22): 5.0, (40, 23): 5.0, (40, 24): 5.0, (40, 25): 5.0, (40, 26): 5.0, (40, 27): 5.0, (40, 28): 5.0, (40, 29): 5.0, (40, 30): 5.0, (40, 31): 5.0, (40, 32): 5.0, (40, 33): 5.0, (40, 34): 5.0, (40, 35): 5.0, (40, 36): 5.0, (40, 37): 5.0, (40, 38): 5.0, (40, 39): 5.0, (40, 40): 5.0, (40, 41): 5.0, (40, 42): 5.0, (41, 1): 0.0, (41, 2): 0.0, (41, 3): 0.0, (41, 4): 0.0, (41, 5): 0.0, (41, 6): 0.0, (41, 7): 0.0, (41, 8): 0.0, (41, 9): 0.0, (41, 10): 0.0, (41, 11): 0.0, (41, 12): 0.0, (41, 13): 0.0, (41, 14): 0.0, (41, 15): 0.0, (41, 16): 0.0, (41, 17): 0.0, (41, 18): 0.0, (41, 19): 0.0, (41, 20): 0.0, (41, 21): 0.0, (41, 22): 0.0, (41, 23): 1.0, (41, 24): 1.0, (41, 25): 1.0, (41, 26): 2.0, (41, 27): 3.0, (41, 28): 4.0, (41, 29): 4.0, (41, 30): 4.0, (41, 31): 4.0, (41, 32): 4.0, (41, 33): 4.0, (41, 34): 4.0, (41, 35): 4.0, (41, 36): 4.0, (41, 37): 4.0, (41, 38): 4.0, (41, 39): 4.0, (41, 40): 4.0, (41, 41): 4.0, (41, 42): 4.0, (43, 1): 0.0, (43, 2): 0.0, (43, 3): 0.0, (43, 4): 0.0, (43, 5): 0.0, (43, 6): 0.0, (43, 7): 0.0, (43, 8): 0.0, (43, 9): 0.0, (43, 10): 0.0, (43, 11): 0.0, (43, 12): 0.0, (43, 13): 0.0, (43, 14): 0.0, (43, 15): 0.0, (43, 16): 0.0, (43, 17): 1.0, (43, 18): 2.0, (43, 19): 3.0, (43, 20): 3.0, (43, 21): 4.0, (43, 22): 4.0, (43, 23): 4.0, (43, 24): 5.0, (43, 25): 6.0, (43, 26): 6.0, (43, 27): 6.0, (43, 28): 6.0, (43, 29): 6.0, (43, 30): 6.0, (43, 31): 6.0, (43, 32): 6.0, (43, 33): 6.0, (43, 34): 6.0, (43, 35): 6.0, (43, 36): 6.0, (43, 37): 6.0, (43, 38): 6.0, (43, 39): 6.0, (43, 40): 6.0, (43, 41): 6.0, (43, 42): 6.0, (50, 1): 0.0, (50, 2): 0.0, (50, 3): 0.0, (50, 4): 0.0, (50, 5): 0.0, (50, 6): 0.0, (50, 7): 0.0, (50, 8): 0.0, (50, 9): 0.0, (50, 10): 0.0, (50, 11): 1.0, (50, 12): 2.0, (50, 13): 3.0, (50, 14): 4.0, (50, 15): 4.0, (50, 16): 4.0, (50, 17): 4.0, (50, 18): 5.0, (50, 19): 5.0, (50, 20): 5.0, (50, 21): 5.0, (50, 22): 5.0, (50, 23): 5.0, (50, 24): 5.0, (50, 25): 5.0, (50, 26): 5.0, (50, 27): 5.0, (50, 28): 5.0, (50, 29): 5.0, (50, 30): 5.0, (50, 31): 5.0, (50, 32): 5.0, (50, 33): 5.0, (50, 34): 5.0, (50, 35): 5.0, (50, 36): 5.0, (50, 37): 5.0, (50, 38): 5.0, (50, 39): 5.0, (50, 40): 5.0, (50, 41): 5.0, (50, 42): 5.0, (59, 1): 0.0, (59, 2): 0.0, (59, 3): 0.0, (59, 4): 0.0, (59, 5): 0.0, (59, 6): 0.0, (59, 7): 0.0, (59, 8): 0.0, (59, 9): 0.0, (59, 10): 0.0, (59, 11): 0.0, (59, 12): 0.0, (59, 13): 0.0, (59, 14): 0.0, (59, 15): 1.0, (59, 16): 2.0, (59, 17): 3.0, (59, 18): 3.0, (59, 19): 4.0, (59, 20): 5.0, (59, 21): 5.0, (59, 22): 5.0, (59, 23): 5.0, (59, 24): 6.0, (59, 25): 6.0, (59, 26): 6.0, (59, 27): 6.0, (59, 28): 6.0, (59, 29): 6.0, (59, 30): 6.0, (59, 31): 6.0, (59, 32): 6.0, (59, 33): 6.0, (59, 34): 6.0, (59, 35): 6.0, (59, 36): 6.0, (59, 37): 6.0, (59, 38): 6.0, (59, 39): 6.0, (59, 40): 6.0, (59, 41): 6.0, (59, 42): 6.0, (60, 1): 0.0, (60, 2): 0.0, (60, 3): 0.0, (60, 4): 0.0, (60, 5): 0.0, (60, 6): 0.0, (60, 7): 0.0, (60, 8): 0.0, (60, 9): 0.0, (60, 10): 0.0, (60, 11): 0.0, (60, 12): 0.0, (60, 13): 0.0, (60, 14): 0.0, (60, 15): 0.0, (60, 16): 0.0, (60, 17): 0.0, (60, 18): 0.0, (60, 19): 0.0, (60, 20): 0.0, (60, 21): 0.0, (60, 22): 0.0, (60, 23): 0.0, (60, 24): 0.0, (60, 25): 0.0, (60, 26): 0.0, (60, 27): 0.0, (60, 28): 0.0, (60, 29): 0.0, (60, 30): 0.0, (60, 31): 0.0, (60, 32): 0.0, (60, 33): 0.0, (60, 34): 0.0, (60, 35): 0.0, (60, 36): 0.0, (60, 37): 0.0, (60, 38): 1.0, (60, 39): 1.0, (60, 40): 1.0, (60, 41): 1.0, (60, 42): 2.0, (62, 1): 0.0, (62, 2): 0.0, (62, 3): 0.0, (62, 4): 0.0, (62, 5): 0.0, (62, 6): 0.0, (62, 7): 0.0, (62, 8): 0.0, (62, 9): 0.0, (62, 10): 0.0, (62, 11): 0.0, (62, 12): 0.0, (62, 13): 0.0, (62, 14): 0.0, (62, 15): 0.0, (62, 16): 0.0, (62, 17): 0.0, (62, 18): 0.0, (62, 19): 0.0, (62, 20): 1.0, (62, 21): 1.0, (62, 22): 1.0, (62, 23): 1.0, (62, 24): 2.0, (62, 25): 3.0, (62, 26): 4.0, (62, 27): 4.0, (62, 28): 4.0, (62, 29): 4.0, (62, 30): 4.0, (62, 31): 4.0, (62, 32): 4.0, (62, 33): 4.0, (62, 34): 4.0, (62, 35): 4.0, (62, 36): 4.0, (62, 37): 4.0, (62, 38): 4.0, (62, 39): 4.0, (62, 40): 4.0, (62, 41): 4.0, (62, 42): 4.0, (63, 1): 0.0, (63, 2): 0.0, (63, 3): 0.0, (63, 4): 0.0, (63, 5): 0.0, (63, 6): 0.0, (63, 7): 0.0, (63, 8): 0.0, (63, 9): 0.0, (63, 10): 0.0, (63, 11): 0.0, (63, 12): 0.0, (63, 13): 0.0, (63, 14): 0.0, (63, 15): 0.0, (63, 16): 0.0, (63, 17): 0.0, (63, 18): 0.0, (63, 19): 0.0, (63, 20): 0.0, (63, 21): 0.0, (63, 22): 0.0, (63, 23): 0.0, (63, 24): 0.0, (63, 25): 0.0, (63, 26): 0.0, (63, 27): 0.0, (63, 28): 0.0, (63, 29): 0.0, (63, 30): 0.0, (63, 31): 0.0, (63, 32): 0.0, (63, 33): 0.0, (63, 34): 0.0, (63, 35): 0.0, (63, 36): 0.0, (63, 37): 1.0, (63, 38): 1.0, (63, 39): 1.0, (63, 40): 2.0, (63, 41): 3.0, (63, 42): 3.0, (65, 1): 0.0, (65, 2): 0.0, (65, 3): 0.0, (65, 4): 0.0, (65, 5): 0.0, (65, 6): 0.0, (65, 7): 0.0, (65, 8): 0.0, (65, 9): 0.0, (65, 10): 0.0, (65, 11): 0.0, (65, 12): 0.0, (65, 13): 0.0, (65, 14): 0.0, (65, 15): 0.0, (65, 16): 0.0, (65, 17): 0.0, (65, 18): 0.0, (65, 19): 0.0, (65, 20): 0.0, (65, 21): 0.0, (65, 22): 0.0, (65, 23): 0.0, (65, 24): 0.0, (65, 25): 0.0, (65, 26): 0.0, (65, 27): 1.0, (65, 28): 1.0, (65, 29): 1.0, (65, 30): 1.0, (65, 31): 2.0, (65, 32): 3.0, (65, 33): 3.0, (65, 34): 3.0, (65, 35): 3.0, (65, 36): 3.0, (65, 37): 3.0, (65, 38): 3.0, (65, 39): 3.0, (65, 40): 3.0, (65, 41): 3.0, (65, 42): 3.0, (66, 1): 0.0, (66, 2): 0.0, (66, 3): 0.0, (66, 4): 0.0, (66, 5): 0.0, (66, 6): 0.0, (66, 7): 0.0, (66, 8): 0.0, (66, 9): 0.0, (66, 10): 0.0, (66, 11): 0.0, (66, 12): 0.0, (66, 13): 0.0, (66, 14): 0.0, (66, 15): 0.0, (66, 16): 0.0, (66, 17): 0.0, (66, 18): 0.0, (66, 19): 0.0, (66, 20): 0.0, (66, 21): 0.0, (66, 22): 0.0, (66, 23): 0.0, (66, 24): 0.0, (66, 25): 0.0, (66, 26): 0.0, (66, 27): 0.0, (66, 28): 0.0, (66, 29): 0.0, (66, 30): 1.0, (66, 31): 1.0, (66, 32): 1.0, (66, 33): 2.0, (66, 34): 2.0, (66, 35): 2.0, (66, 36): 2.0, (66, 37): 2.0, (66, 38): 2.0, (66, 39): 2.0, (66, 40): 2.0, (66, 41): 2.0, (66, 42): 2.0, (67, 1): 0.0, (67, 2): 0.0, (67, 3): 0.0, (67, 4): 0.0, (67, 5): 0.0, (67, 6): 0.0, (67, 7): 0.0, (67, 8): 0.0, (67, 9): 0.0, (67, 10): 0.0, (67, 11): 0.0, (67, 12): 0.0, (67, 13): 0.0, (67, 14): 1.0, (67, 15): 1.0, (67, 16): 1.0, (67, 17): 1.0, (67, 18): 2.0, (67, 19): 3.0, (67, 20): 4.0, (67, 21): 4.0, (67, 22): 4.0, (67, 23): 4.0, (67, 24): 4.0, (67, 25): 4.0, (67, 26): 4.0, (67, 27): 4.0, (67, 28): 4.0, (67, 29): 4.0, (67, 30): 4.0, (67, 31): 4.0, (67, 32): 4.0, (67, 33): 4.0, (67, 34): 4.0, (67, 35): 4.0, (67, 36): 4.0, (67, 37): 4.0, (67, 38): 4.0, (67, 39): 4.0, (67, 40): 4.0, (67, 41): 4.0, (67, 42): 4.0, (70, 1): 0.0, (70, 2): 0.0, (70, 3): 0.0, (70, 4): 0.0, (70, 5): 0.0, (70, 6): 0.0, (70, 7): 0.0, (70, 8): 0.0, (70, 9): 0.0, (70, 10): 0.0, (70, 11): 0.0, (70, 12): 0.0, (70, 13): 0.0, (70, 14): 0.0, (70, 15): 0.0, (70, 16): 0.0, (70, 17): 0.0, (70, 18): 0.0, (70, 19): 0.0, (70, 20): 0.0, (70, 21): 0.0, (70, 22): 0.0, (70, 23): 0.0, (70, 24): 0.0, (70, 25): 0.0, (70, 26): 0.0, (70, 27): 0.0, (70, 28): 0.0, (70, 29): 0.0, (70, 30): 0.0, (70, 31): 0.0, (70, 32): 1.0, (70, 33): 1.0, (70, 34): 1.0, (70, 35): 1.0, (70, 36): 2.0, (70, 37): 2.0, (70, 38): 2.0, (70, 39): 2.0, (70, 40): 2.0, (70, 41): 2.0, (70, 42): 2.0, (71, 1): 0.0, (71, 2): 0.0, (71, 3): 0.0, (71, 4): 0.0, (71, 5): 0.0, (71, 6): 0.0, (71, 7): 0.0, (71, 8): 0.0, (71, 9): 0.0, (71, 10): 0.0, (71, 11): 0.0, (71, 12): 0.0, (71, 13): 0.0, (71, 14): 0.0, (71, 15): 0.0, (71, 16): 0.0, (71, 17): 0.0, (71, 18): 0.0, (71, 19): 0.0, (71, 20): 0.0, (71, 21): 0.0, (71, 22): 0.0, (71, 23): 0.0, (71, 24): 0.0, (71, 25): 0.0, (71, 26): 0.0, (71, 27): 0.0, (71, 28): 0.0, (71, 29): 0.0, (71, 30): 0.0, (71, 31): 0.0, (71, 32): 0.0, (71, 33): 1.0, (71, 34): 2.0, (71, 35): 2.0, (71, 36): 3.0, (71, 37): 3.0, (71, 38): 4.0, (71, 39): 4.0, (71, 40): 4.0, (71, 41): 5.0, (71, 42): 5.0, (73, 1): 0.0, (73, 2): 0.0, (73, 3): 0.0, (73, 4): 0.0, (73, 5): 0.0, (73, 6): 0.0, (73, 7): 0.0, (73, 8): 0.0, (73, 9): 0.0, (73, 10): 0.0, (73, 11): 0.0, (73, 12): 0.0, (73, 13): 0.0, (73, 14): 0.0, (73, 15): 0.0, (73, 16): 0.0, (73, 17): 0.0, (73, 18): 0.0, (73, 19): 0.0, (73, 20): 0.0, (73, 21): 0.0, (73, 22): 0.0, (73, 23): 0.0, (73, 24): 0.0, (73, 25): 0.0, (73, 26): 0.0, (73, 27): 0.0, (73, 28): 0.0, (73, 29): 0.0, (73, 30): 0.0, (73, 31): 1.0, (73, 32): 1.0, (73, 33): 1.0, (73, 34): 2.0, (73, 35): 3.0, (73, 36): 3.0, (73, 37): 3.0, (73, 38): 4.0, (73, 39): 5.0, (73, 40): 5.0, (73, 41): 5.0, (73, 42): 5.0, (75, 1): 0.0, (75, 2): 0.0, (75, 3): 0.0, (75, 4): 0.0, (75, 5): 0.0, (75, 6): 0.0, (75, 7): 0.0, (75, 8): 0.0, (75, 9): 0.0, (75, 10): 0.0, (75, 11): 0.0, (75, 12): 0.0, (75, 13): 0.0, (75, 14): 0.0, (75, 15): 0.0, (75, 16): 0.0, (75, 17): 0.0, (75, 18): 0.0, (75, 19): 0.0, (75, 20): 1.0, (75, 21): 1.0, (75, 22): 1.0, (75, 23): 2.0, (75, 24): 3.0, (75, 25): 3.0, (75, 26): 3.0, (75, 27): 4.0, (75, 28): 4.0, (75, 29): 4.0, (75, 30): 4.0, (75, 31): 4.0, (75, 32): 4.0, (75, 33): 4.0, (75, 34): 4.0, (75, 35): 4.0, (75, 36): 4.0, (75, 37): 4.0, (75, 38): 4.0, (75, 39): 4.0, (75, 40): 4.0, (75, 41): 4.0, (75, 42): 4.0, (77, 1): 0.0, (77, 2): 0.0, (77, 3): 0.0, (77, 4): 0.0, (77, 5): 0.0, (77, 6): 0.0, (77, 7): 0.0, (77, 8): 0.0, (77, 9): 0.0, (77, 10): 0.0, (77, 11): 0.0, (77, 12): 0.0, (77, 13): 0.0, (77, 14): 0.0, (77, 15): 0.0, (77, 16): 0.0, (77, 17): 0.0, (77, 18): 0.0, (77, 19): 0.0, (77, 20): 0.0, (77, 21): 0.0, (77, 22): 0.0, (77, 23): 0.0, (77, 24): 0.0, (77, 25): 0.0, (77, 26): 0.0, (77, 27): 0.0, (77, 28): 0.0, (77, 29): 0.0, (77, 30): 0.0, (77, 31): 0.0, (77, 32): 0.0, (77, 33): 0.0, (77, 34): 0.0, (77, 35): 0.0, (77, 36): 0.0, (77, 37): 0.0, (77, 38): 0.0, (77, 39): 0.0, (77, 40): 1.0, (77, 41): 1.0, (77, 42): 1.0, (78, 1): 0.0, (78, 2): 0.0, (78, 3): 0.0, (78, 4): 0.0, (78, 5): 0.0, (78, 6): 0.0, (78, 7): 0.0, (78, 8): 0.0, (78, 9): 0.0, (78, 10): 0.0, (78, 11): 1.0, (78, 12): 2.0, (78, 13): 2.0, (78, 14): 3.0, (78, 15): 3.0, (78, 16): 3.0, (78, 17): 4.0, (78, 18): 4.0, (78, 19): 5.0, (78, 20): 5.0, (78, 21): 5.0, (78, 22): 5.0, (78, 23): 5.0, (78, 24): 5.0, (78, 25): 5.0, (78, 26): 5.0, (78, 27): 5.0, (78, 28): 5.0, (78, 29): 5.0, (78, 30): 5.0, (78, 31): 5.0, (78, 32): 5.0, (78, 33): 5.0, (78, 34): 5.0, (78, 35): 5.0, (78, 36): 5.0, (78, 37): 5.0, (78, 38): 5.0, (78, 39): 5.0, (78, 40): 5.0, (78, 41): 5.0, (78, 42): 5.0, (79, 1): 0.0, (79, 2): 0.0, (79, 3): 0.0, (79, 4): 0.0, (79, 5): 0.0, (79, 6): 0.0, (79, 7): 0.0, (79, 8): 0.0, (79, 9): 0.0, (79, 10): 0.0, (79, 11): 0.0, (79, 12): 0.0, (79, 13): 0.0, (79, 14): 0.0, (79, 15): 0.0, (79, 16): 0.0, (79, 17): 0.0, (79, 18): 0.0, (79, 19): 0.0, (79, 20): 1.0, (79, 21): 1.0, (79, 22): 1.0, (79, 23): 1.0, (79, 24): 2.0, (79, 25): 3.0, (79, 26): 3.0, (79, 27): 3.0, (79, 28): 3.0, (79, 29): 3.0, (79, 30): 3.0, (79, 31): 3.0, (79, 32): 3.0, (79, 33): 3.0, (79, 34): 3.0, (79, 35): 3.0, (79, 36): 3.0, (79, 37): 3.0, (79, 38): 3.0, (79, 39): 3.0, (79, 40): 3.0, (79, 41): 3.0, (79, 42): 3.0, (81, 1): 0.0, (81, 2): 0.0, (81, 3): 0.0, (81, 4): 0.0, (81, 5): 0.0, (81, 6): 0.0, (81, 7): 0.0, (81, 8): 0.0, (81, 9): 0.0, (81, 10): 0.0, (81, 11): 0.0, (81, 12): 1.0, (81, 13): 1.0, (81, 14): 1.0, (81, 15): 1.0, (81, 16): 2.0, (81, 17): 3.0, (81, 18): 3.0, (81, 19): 3.0, (81, 20): 3.0, (81, 21): 3.0, (81, 22): 3.0, (81, 23): 3.0, (81, 24): 3.0, (81, 25): 3.0, (81, 26): 3.0, (81, 27): 3.0, (81, 28): 3.0, (81, 29): 3.0, (81, 30): 3.0, (81, 31): 3.0, (81, 32): 3.0, (81, 33): 3.0, (81, 34): 3.0, (81, 35): 3.0, (81, 36): 3.0, (81, 37): 3.0, (81, 38): 3.0, (81, 39): 3.0, (81, 40): 3.0, (81, 41): 3.0, (81, 42): 3.0, (82, 1): 0.0, (82, 2): 0.0, (82, 3): 0.0, (82, 4): 0.0, (82, 5): 0.0, (82, 6): 0.0, (82, 7): 0.0, (82, 8): 0.0, (82, 9): 1.0, (82, 10): 2.0, (82, 11): 3.0, (82, 12): 3.0, (82, 13): 3.0, (82, 14): 3.0, (82, 15): 4.0, (82, 16): 4.0, (82, 17): 4.0, (82, 18): 4.0, (82, 19): 4.0, (82, 20): 4.0, (82, 21): 4.0, (82, 22): 4.0, (82, 23): 4.0, (82, 24): 4.0, (82, 25): 4.0, (82, 26): 4.0, (82, 27): 4.0, (82, 28): 4.0, (82, 29): 4.0, (82, 30): 4.0, (82, 31): 4.0, (82, 32): 4.0, (82, 33): 4.0, (82, 34): 4.0, (82, 35): 4.0, (82, 36): 4.0, (82, 37): 4.0, (82, 38): 4.0, (82, 39): 4.0, (82, 40): 4.0, (82, 41): 4.0, (82, 42): 4.0}</t>
+  </si>
+  <si>
+    <t>{(2, 1): 0, (2, 2): 0, (2, 3): 0, (2, 4): 0, (2, 5): 0, (2, 6): 0, (2, 7): 0, (2, 8): 0, (2, 9): 0, (2, 10): 0, (2, 11): 0, (2, 12): 0, (2, 13): 0, (2, 14): 0, (2, 15): 0, (2, 16): 0, (2, 17): 0, (2, 18): 0, (2, 19): 0, (2, 20): 0, (2, 21): 0, (2, 22): 0, (2, 23): 0, (2, 24): 0, (2, 25): 0, (2, 26): 0, (2, 27): 0, (2, 28): 0, (2, 29): 0, (2, 30): 0, (2, 31): 0, (2, 32): 0, (2, 33): 0, (2, 34): 0, (2, 35): 0, (2, 36): 0, (2, 37): 0, (2, 38): 0, (2, 39): 0, (2, 40): 0, (2, 41): 0, (2, 42): 1, (3, 1): 0, (3, 2): 0, (3, 3): 0, (3, 4): 0, (3, 5): 0, (3, 6): 0, (3, 7): 0, (3, 8): 0, (3, 9): 0, (3, 10): 0, (3, 11): 0, (3, 12): 0, (3, 13): 0, (3, 14): 0, (3, 15): 0, (3, 16): 0, (3, 17): 0, (3, 18): 0, (3, 19): 0, (3, 20): 0, (3, 21): 0, (3, 22): 0, (3, 23): 0, (3, 24): 0, (3, 25): 0, (3, 26): 0, (3, 27): 0, (3, 28): 0, (3, 29): 0, (3, 30): 0, (3, 31): 0, (3, 32): 0, (3, 33): 0, (3, 34): 0, (3, 35): 0, (3, 36): 0, (3, 37): 0, (3, 38): 1, (3, 39): 0, (3, 40): 0, (3, 41): 0, (3, 42): 0, (4, 1): 0, (4, 2): 0, (4, 3): 0, (4, 4): 0, (4, 5): 0, (4, 6): 0, (4, 7): 0, (4, 8): 0, (4, 9): 0, (4, 10): 0, (4, 11): 0, (4, 12): 0, (4, 13): 0, (4, 14): 0, (4, 15): 0, (4, 16): 0, (4, 17): 0, (4, 18): 0, (4, 19): 0, (4, 20): 0, (4, 21): 0, (4, 22): 0, (4, 23): 0, (4, 24): 0, (4, 25): 0, (4, 26): 0, (4, 27): 0, (4, 28): 0, (4, 29): 0, (4, 30): 0, (4, 31): 0, (4, 32): 0, (4, 33): 0, (4, 34): 0, (4, 35): 0, (4, 36): 0, (4, 37): 0, (4, 38): 0, (4, 39): 0, (4, 40): 0, (4, 41): 0, (4, 42): 1, (9, 1): 0, (9, 2): 0, (9, 3): 0, (9, 4): 0, (9, 5): 0, (9, 6): 0, (9, 7): 0, (9, 8): 0, (9, 9): 0, (9, 10): 0, (9, 11): 0, (9, 12): 0, (9, 13): 0, (9, 14): 0, (9, 15): 0, (9, 16): 0, (9, 17): 0, (9, 18): 0, (9, 19): 0, (9, 20): 0, (9, 21): 0, (9, 22): 0, (9, 23): 0, (9, 24): 0, (9, 25): 0, (9, 26): 0, (9, 27): 0, (9, 28): 0, (9, 29): 0, (9, 30): 0, (9, 31): 0, (9, 32): 0, (9, 33): 0, (9, 34): 0, (9, 35): 0, (9, 36): 0, (9, 37): 0, (9, 38): 0, (9, 39): 1, (9, 40): 0, (9, 41): 0, (9, 42): 0, (15, 1): 0, (15, 2): 0, (15, 3): 0, (15, 4): 0, (15, 5): 0, (15, 6): 0, (15, 7): 0, (15, 8): 0, (15, 9): 0, (15, 10): 0, (15, 11): 0, (15, 12): 0, (15, 13): 0, (15, 14): 0, (15, 15): 0, (15, 16): 0, (15, 17): 0, (15, 18): 0, (15, 19): 0, (15, 20): 0, (15, 21): 0, (15, 22): 0, (15, 23): 0, (15, 24): 0, (15, 25): 0, (15, 26): 0, (15, 27): 0, (15, 28): 0, (15, 29): 0, (15, 30): 0, (15, 31): 0, (15, 32): 0, (15, 33): 0, (15, 34): 0, (15, 35): 0, (15, 36): 0, (15, 37): 0, (15, 38): 0, (15, 39): 0, (15, 40): 0, (15, 41): 1, (15, 42): 0, (16, 1): 0, (16, 2): 0, (16, 3): 0, (16, 4): 0, (16, 5): 0, (16, 6): 0, (16, 7): 0, (16, 8): 0, (16, 9): 0, (16, 10): 0, (16, 11): 0, (16, 12): 0, (16, 13): 0, (16, 14): 0, (16, 15): 0, (16, 16): 0, (16, 17): 0, (16, 18): 0, (16, 19): 0, (16, 20): 1, (16, 21): 0, (16, 22): 0, (16, 23): 0, (16, 24): 0, (16, 25): 0, (16, 26): 0, (16, 27): 0, (16, 28): 0, (16, 29): 0, (16, 30): 0, (16, 31): 0, (16, 32): 0, (16, 33): 0, (16, 34): 0, (16, 35): 0, (16, 36): 0, (16, 37): 0, (16, 38): 0, (16, 39): 0, (16, 40): 0, (16, 41): 0, (16, 42): 0, (20, 1): 0, (20, 2): 0, (20, 3): 0, (20, 4): 0, (20, 5): 0, (20, 6): 0, (20, 7): 0, (20, 8): 0, (20, 9): 0, (20, 10): 0, (20, 11): 0, (20, 12): 0, (20, 13): 0, (20, 14): 0, (20, 15): 0, (20, 16): 0, (20, 17): 0, (20, 18): 0, (20, 19): 0, (20, 20): 0, (20, 21): 0, (20, 22): 0, (20, 23): 0, (20, 24): 0, (20, 25): 0, (20, 26): 0, (20, 27): 0, (20, 28): 0, (20, 29): 0, (20, 30): 0, (20, 31): 0, (20, 32): 0, (20, 33): 0, (20, 34): 0, (20, 35): 0, (20, 36): 0, (20, 37): 1, (20, 38): 0, (20, 39): 0, (20, 40): 0, (20, 41): 0, (20, 42): 0, (21, 1): 0, (21, 2): 0, (21, 3): 0, (21, 4): 0, (21, 5): 0, (21, 6): 0, (21, 7): 0, (21, 8): 0, (21, 9): 0, (21, 10): 0, (21, 11): 0, (21, 12): 0, (21, 13): 0, (21, 14): 0, (21, 15): 0, (21, 16): 0, (21, 17): 0, (21, 18): 0, (21, 19): 0, (21, 20): 0, (21, 21): 0, (21, 22): 0, (21, 23): 0, (21, 24): 0, (21, 25): 0, (21, 26): 0, (21, 27): 0, (21, 28): 0, (21, 29): 0, (21, 30): 0, (21, 31): 0, (21, 32): 0, (21, 33): 0, (21, 34): 0, (21, 35): 0, (21, 36): 0, (21, 37): 0, (21, 38): 0, (21, 39): 0, (21, 40): 0, (21, 41): 1, (21, 42): 0, (22, 1): 0, (22, 2): 0, (22, 3): 0, (22, 4): 0, (22, 5): 0, (22, 6): 0, (22, 7): 0, (22, 8): 0, (22, 9): 0, (22, 10): 0, (22, 11): 0, (22, 12): 0, (22, 13): 0, (22, 14): 0, (22, 15): 0, (22, 16): 0, (22, 17): 0, (22, 18): 0, (22, 19): 0, (22, 20): 0, (22, 21): 0, (22, 22): 0, (22, 23): 0, (22, 24): 0, (22, 25): 0, (22, 26): 0, (22, 27): 0, (22, 28): 0, (22, 29): 0, (22, 30): 0, (22, 31): 0, (22, 32): 0, (22, 33): 0, (22, 34): 0, (22, 35): 0, (22, 36): 0, (22, 37): 0, (22, 38): 0, (22, 39): 0, (22, 40): 0, (22, 41): 1, (22, 42): 0, (23, 1): 0, (23, 2): 0, (23, 3): 0, (23, 4): 0, (23, 5): 0, (23, 6): 0, (23, 7): 0, (23, 8): 0, (23, 9): 0, (23, 10): 0, (23, 11): 0, (23, 12): 0, (23, 13): 0, (23, 14): 0, (23, 15): 0, (23, 16): 0, (23, 17): 0, (23, 18): 0, (23, 19): 0, (23, 20): 0, (23, 21): 0, (23, 22): 0, (23, 23): 0, (23, 24): 0, (23, 25): 0, (23, 26): 0, (23, 27): 0, (23, 28): 0, (23, 29): 0, (23, 30): 0, (23, 31): 0, (23, 32): 0, (23, 33): 0, (23, 34): 0, (23, 35): 1, (23, 36): 0, (23, 37): 0, (23, 38): 0, (23, 39): 0, (23, 40): 0, (23, 41): 0, (23, 42): 0, (24, 1): 0, (24, 2): 0, (24, 3): 0, (24, 4): 0, (24, 5): 0, (24, 6): 0, (24, 7): 0, (24, 8): 0, (24, 9): 0, (24, 10): 0, (24, 11): 0, (24, 12): 0, (24, 13): 0, (24, 14): 0, (24, 15): 0, (24, 16): 0, (24, 17): 0, (24, 18): 0, (24, 19): 0, (24, 20): 0, (24, 21): 0, (24, 22): 0, (24, 23): 0, (24, 24): 0, (24, 25): 0, (24, 26): 0, (24, 27): 0, (24, 28): 0, (24, 29): 1, (24, 30): 0, (24, 31): 0, (24, 32): 0, (24, 33): 0, (24, 34): 0, (24, 35): 0, (24, 36): 0, (24, 37): 0, (24, 38): 0, (24, 39): 0, (24, 40): 0, (24, 41): 0, (24, 42): 0, (25, 1): 0, (25, 2): 0, (25, 3): 0, (25, 4): 0, (25, 5): 0, (25, 6): 0, (25, 7): 0, (25, 8): 0, (25, 9): 0, (25, 10): 0, (25, 11): 0, (25, 12): 0, (25, 13): 0, (25, 14): 0, (25, 15): 0, (25, 16): 0, (25, 17): 0, (25, 18): 0, (25, 19): 0, (25, 20): 0, (25, 21): 0, (25, 22): 0, (25, 23): 0, (25, 24): 0, (25, 25): 0, (25, 26): 0, (25, 27): 0, (25, 28): 0, (25, 29): 0, (25, 30): 0, (25, 31): 0, (25, 32): 0, (25, 33): 0, (25, 34): 0, (25, 35): 0, (25, 36): 0, (25, 37): 0, (25, 38): 0, (25, 39): 0, (25, 40): 0, (25, 41): 0, (25, 42): 1, (26, 1): 0, (26, 2): 0, (26, 3): 0, (26, 4): 0, (26, 5): 0, (26, 6): 0, (26, 7): 0, (26, 8): 0, (26, 9): 0, (26, 10): 0, (26, 11): 0, (26, 12): 0, (26, 13): 0, (26, 14): 0, (26, 15): 0, (26, 16): 0, (26, 17): 0, (26, 18): 0, (26, 19): 0, (26, 20): 0, (26, 21): 0, (26, 22): 0, (26, 23): 0, (26, 24): 0, (26, 25): 0, (26, 26): 0, (26, 27): 0, (26, 28): 0, (26, 29): 0, (26, 30): 0, (26, 31): 1, (26, 32): 0, (26, 33): 0, (26, 34): 0, (26, 35): 0, (26, 36): 0, (26, 37): 0, (26, 38): 0, (26, 39): 0, (26, 40): 0, (26, 41): 0, (26, 42): 0, (28, 1): 0, (28, 2): 0, (28, 3): 0, (28, 4): 0, (28, 5): 0, (28, 6): 0, (28, 7): 0, (28, 8): 0, (28, 9): 0, (28, 10): 0, (28, 11): 0, (28, 12): 0, (28, 13): 0, (28, 14): 0, (28, 15): 0, (28, 16): 0, (28, 17): 0, (28, 18): 0, (28, 19): 0, (28, 20): 0, (28, 21): 0, (28, 22): 0, (28, 23): 0, (28, 24): 0, (28, 25): 0, (28, 26): 0, (28, 27): 0, (28, 28): 0, (28, 29): 0, (28, 30): 0, (28, 31): 0, (28, 32): 0, (28, 33): 0, (28, 34): 0, (28, 35): 0, (28, 36): 0, (28, 37): 0, (28, 38): 0, (28, 39): 0, (28, 40): 0, (28, 41): 1, (28, 42): 0, (30, 1): 0, (30, 2): 0, (30, 3): 0, (30, 4): 0, (30, 5): 0, (30, 6): 0, (30, 7): 0, (30, 8): 0, (30, 9): 0, (30, 10): 0, (30, 11): 0, (30, 12): 0, (30, 13): 0, (30, 14): 0, (30, 15): 0, (30, 16): 0, (30, 17): 0, (30, 18): 0, (30, 19): 0, (30, 20): 0, (30, 21): 0, (30, 22): 0, (30, 23): 0, (30, 24): 0, (30, 25): 0, (30, 26): 0, (30, 27): 0, (30, 28): 0, (30, 29): 0, (30, 30): 0, (30, 31): 1, (30, 32): 0, (30, 33): 0, (30, 34): 0, (30, 35): 0, (30, 36): 0, (30, 37): 0, (30, 38): 0, (30, 39): 0, (30, 40): 0, (30, 41): 0, (30, 42): 0, (31, 1): 0, (31, 2): 0, (31, 3): 0, (31, 4): 0, (31, 5): 0, (31, 6): 0, (31, 7): 0, (31, 8): 0, (31, 9): 0, (31, 10): 0, (31, 11): 0, (31, 12): 0, (31, 13): 0, (31, 14): 0, (31, 15): 0, (31, 16): 0, (31, 17): 0, (31, 18): 0, (31, 19): 0, (31, 20): 0, (31, 21): 1, (31, 22): 0, (31, 23): 0, (31, 24): 0, (31, 25): 0, (31, 26): 0, (31, 27): 0, (31, 28): 0, (31, 29): 0, (31, 30): 0, (31, 31): 0, (31, 32): 0, (31, 33): 0, (31, 34): 0, (31, 35): 0, (31, 36): 0, (31, 37): 0, (31, 38): 0, (31, 39): 0, (31, 40): 0, (31, 41): 0, (31, 42): 0, (36, 1): 0, (36, 2): 0, (36, 3): 0, (36, 4): 0, (36, 5): 0, (36, 6): 0, (36, 7): 0, (36, 8): 0, (36, 9): 0, (36, 10): 0, (36, 11): 0, (36, 12): 0, (36, 13): 0, (36, 14): 0, (36, 15): 0, (36, 16): 0, (36, 17): 0, (36, 18): 0, (36, 19): 0, (36, 20): 0, (36, 21): 0, (36, 22): 0, (36, 23): 0, (36, 24): 0, (36, 25): 0, (36, 26): 0, (36, 27): 0, (36, 28): 0, (36, 29): 0, (36, 30): 0, (36, 31): 0, (36, 32): 0, (36, 33): 0, (36, 34): 0, (36, 35): 0, (36, 36): 0, (36, 37): 0, (36, 38): 0, (36, 39): 1, (36, 40): 0, (36, 41): 0, (36, 42): 0, (37, 1): 0, (37, 2): 0, (37, 3): 0, (37, 4): 0, (37, 5): 0, (37, 6): 0, (37, 7): 0, (37, 8): 0, (37, 9): 0, (37, 10): 0, (37, 11): 0, (37, 12): 0, (37, 13): 0, (37, 14): 0, (37, 15): 0, (37, 16): 0, (37, 17): 0, (37, 18): 0, (37, 19): 0, (37, 20): 0, (37, 21): 0, (37, 22): 0, (37, 23): 0, (37, 24): 0, (37, 25): 0, (37, 26): 0, (37, 27): 0, (37, 28): 0, (37, 29): 0, (37, 30): 0, (37, 31): 0, (37, 32): 0, (37, 33): 1, (37, 34): 0, (37, 35): 0, (37, 36): 0, (37, 37): 0, (37, 38): 0, (37, 39): 0, (37, 40): 0, (37, 41): 0, (37, 42): 0, (38, 1): 0, (38, 2): 0, (38, 3): 0, (38, 4): 0, (38, 5): 0, (38, 6): 0, (38, 7): 0, (38, 8): 0, (38, 9): 0, (38, 10): 0, (38, 11): 0, (38, 12): 0, (38, 13): 0, (38, 14): 0, (38, 15): 0, (38, 16): 0, (38, 17): 0, (38, 18): 0, (38, 19): 0, (38, 20): 0, (38, 21): 0, (38, 22): 0, (38, 23): 0, (38, 24): 0, (38, 25): 0, (38, 26): 0, (38, 27): 0, (38, 28): 0, (38, 29): 0, (38, 30): 0, (38, 31): 0, (38, 32): 0, (38, 33): 0, (38, 34): 0, (38, 35): 0, (38, 36): 0, (38, 37): 0, (38, 38): 0, (38, 39): 0, (38, 40): 0, (38, 41): 0, (38, 42): 1, (39, 1): 0, (39, 2): 0, (39, 3): 0, (39, 4): 0, (39, 5): 0, (39, 6): 0, (39, 7): 0, (39, 8): 0, (39, 9): 0, (39, 10): 0, (39, 11): 0, (39, 12): 0, (39, 13): 0, (39, 14): 0, (39, 15): 0, (39, 16): 0, (39, 17): 0, (39, 18): 0, (39, 19): 0, (39, 20): 0, (39, 21): 0, (39, 22): 0, (39, 23): 0, (39, 24): 0, (39, 25): 1, (39, 26): 0, (39, 27): 0, (39, 28): 0, (39, 29): 0, (39, 30): 0, (39, 31): 0, (39, 32): 0, (39, 33): 0, (39, 34): 0, (39, 35): 0, (39, 36): 0, (39, 37): 0, (39, 38): 0, (39, 39): 0, (39, 40): 0, (39, 41): 0, (39, 42): 0, (40, 1): 0, (40, 2): 0, (40, 3): 0, (40, 4): 0, (40, 5): 0, (40, 6): 0, (40, 7): 0, (40, 8): 0, (40, 9): 0, (40, 10): 0, (40, 11): 0, (40, 12): 0, (40, 13): 0, (40, 14): 0, (40, 15): 0, (40, 16): 1, (40, 17): 0, (40, 18): 0, (40, 19): 0, (40, 20): 0, (40, 21): 0, (40, 22): 0, (40, 23): 0, (40, 24): 0, (40, 25): 0, (40, 26): 0, (40, 27): 0, (40, 28): 0, (40, 29): 0, (40, 30): 0, (40, 31): 0, (40, 32): 0, (40, 33): 0, (40, 34): 0, (40, 35): 0, (40, 36): 0, (40, 37): 0, (40, 38): 0, (40, 39): 0, (40, 40): 0, (40, 41): 0, (40, 42): 0, (41, 1): 0, (41, 2): 0, (41, 3): 0, (41, 4): 0, (41, 5): 0, (41, 6): 0, (41, 7): 0, (41, 8): 0, (41, 9): 0, (41, 10): 0, (41, 11): 0, (41, 12): 0, (41, 13): 0, (41, 14): 0, (41, 15): 0, (41, 16): 0, (41, 17): 0, (41, 18): 0, (41, 19): 0, (41, 20): 0, (41, 21): 0, (41, 22): 0, (41, 23): 0, (41, 24): 0, (41, 25): 0, (41, 26): 0, (41, 27): 0, (41, 28): 1, (41, 29): 0, (41, 30): 0, (41, 31): 0, (41, 32): 0, (41, 33): 0, (41, 34): 0, (41, 35): 0, (41, 36): 0, (41, 37): 0, (41, 38): 0, (41, 39): 0, (41, 40): 0, (41, 41): 0, (41, 42): 0, (43, 1): 0, (43, 2): 0, (43, 3): 0, (43, 4): 0, (43, 5): 0, (43, 6): 0, (43, 7): 0, (43, 8): 0, (43, 9): 0, (43, 10): 0, (43, 11): 0, (43, 12): 0, (43, 13): 0, (43, 14): 0, (43, 15): 0, (43, 16): 0, (43, 17): 0, (43, 18): 0, (43, 19): 0, (43, 20): 0, (43, 21): 0, (43, 22): 0, (43, 23): 0, (43, 24): 0, (43, 25): 1, (43, 26): 0, (43, 27): 0, (43, 28): 0, (43, 29): 0, (43, 30): 0, (43, 31): 0, (43, 32): 0, (43, 33): 0, (43, 34): 0, (43, 35): 0, (43, 36): 0, (43, 37): 0, (43, 38): 0, (43, 39): 0, (43, 40): 0, (43, 41): 0, (43, 42): 0, (50, 1): 0, (50, 2): 0, (50, 3): 0, (50, 4): 0, (50, 5): 0, (50, 6): 0, (50, 7): 0, (50, 8): 0, (50, 9): 0, (50, 10): 0, (50, 11): 0, (50, 12): 0, (50, 13): 0, (50, 14): 0, (50, 15): 0, (50, 16): 0, (50, 17): 0, (50, 18): 1, (50, 19): 0, (50, 20): 0, (50, 21): 0, (50, 22): 0, (50, 23): 0, (50, 24): 0, (50, 25): 0, (50, 26): 0, (50, 27): 0, (50, 28): 0, (50, 29): 0, (50, 30): 0, (50, 31): 0, (50, 32): 0, (50, 33): 0, (50, 34): 0, (50, 35): 0, (50, 36): 0, (50, 37): 0, (50, 38): 0, (50, 39): 0, (50, 40): 0, (50, 41): 0, (50, 42): 0, (59, 1): 0, (59, 2): 0, (59, 3): 0, (59, 4): 0, (59, 5): 0, (59, 6): 0, (59, 7): 0, (59, 8): 0, (59, 9): 0, (59, 10): 0, (59, 11): 0, (59, 12): 0, (59, 13): 0, (59, 14): 0, (59, 15): 0, (59, 16): 0, (59, 17): 0, (59, 18): 0, (59, 19): 0, (59, 20): 0, (59, 21): 0, (59, 22): 0, (59, 23): 0, (59, 24): 1, (59, 25): 0, (59, 26): 0, (59, 27): 0, (59, 28): 0, (59, 29): 0, (59, 30): 0, (59, 31): 0, (59, 32): 0, (59, 33): 0, (59, 34): 0, (59, 35): 0, (59, 36): 0, (59, 37): 0, (59, 38): 0, (59, 39): 0, (59, 40): 0, (59, 41): 0, (59, 42): 0, (60, 1): 0, (60, 2): 0, (60, 3): 0, (60, 4): 0, (60, 5): 0, (60, 6): 0, (60, 7): 0, (60, 8): 0, (60, 9): 0, (60, 10): 0, (60, 11): 0, (60, 12): 0, (60, 13): 0, (60, 14): 0, (60, 15): 0, (60, 16): 0, (60, 17): 0, (60, 18): 0, (60, 19): 0, (60, 20): 0, (60, 21): 0, (60, 22): 0, (60, 23): 0, (60, 24): 0, (60, 25): 0, (60, 26): 0, (60, 27): 0, (60, 28): 0, (60, 29): 0, (60, 30): 0, (60, 31): 0, (60, 32): 0, (60, 33): 0, (60, 34): 0, (60, 35): 0, (60, 36): 0, (60, 37): 0, (60, 38): 0, (60, 39): 0, (60, 40): 0, (60, 41): 0, (60, 42): 1, (62, 1): 0, (62, 2): 0, (62, 3): 0, (62, 4): 0, (62, 5): 0, (62, 6): 0, (62, 7): 0, (62, 8): 0, (62, 9): 0, (62, 10): 0, (62, 11): 0, (62, 12): 0, (62, 13): 0, (62, 14): 0, (62, 15): 0, (62, 16): 0, (62, 17): 0, (62, 18): 0, (62, 19): 0, (62, 20): 0, (62, 21): 0, (62, 22): 0, (62, 23): 0, (62, 24): 0, (62, 25): 0, (62, 26): 1, (62, 27): 0, (62, 28): 0, (62, 29): 0, (62, 30): 0, (62, 31): 0, (62, 32): 0, (62, 33): 0, (62, 34): 0, (62, 35): 0, (62, 36): 0, (62, 37): 0, (62, 38): 0, (62, 39): 0, (62, 40): 0, (62, 41): 0, (62, 42): 0, (63, 1): 0, (63, 2): 0, (63, 3): 0, (63, 4): 0, (63, 5): 0, (63, 6): 0, (63, 7): 0, (63, 8): 0, (63, 9): 0, (63, 10): 0, (63, 11): 0, (63, 12): 0, (63, 13): 0, (63, 14): 0, (63, 15): 0, (63, 16): 0, (63, 17): 0, (63, 18): 0, (63, 19): 0, (63, 20): 0, (63, 21): 0, (63, 22): 0, (63, 23): 0, (63, 24): 0, (63, 25): 0, (63, 26): 0, (63, 27): 0, (63, 28): 0, (63, 29): 0, (63, 30): 0, (63, 31): 0, (63, 32): 0, (63, 33): 0, (63, 34): 0, (63, 35): 0, (63, 36): 0, (63, 37): 0, (63, 38): 0, (63, 39): 0, (63, 40): 0, (63, 41): 0, (63, 42): 1, (65, 1): 0, (65, 2): 0, (65, 3): 0, (65, 4): 0, (65, 5): 0, (65, 6): 0, (65, 7): 0, (65, 8): 0, (65, 9): 0, (65, 10): 0, (65, 11): 0, (65, 12): 0, (65, 13): 0, (65, 14): 0, (65, 15): 0, (65, 16): 0, (65, 17): 0, (65, 18): 0, (65, 19): 0, (65, 20): 0, (65, 21): 0, (65, 22): 0, (65, 23): 0, (65, 24): 0, (65, 25): 0, (65, 26): 0, (65, 27): 0, (65, 28): 0, (65, 29): 0, (65, 30): 0, (65, 31): 0, (65, 32): 1, (65, 33): 0, (65, 34): 0, (65, 35): 0, (65, 36): 0, (65, 37): 0, (65, 38): 0, (65, 39): 0, (65, 40): 0, (65, 41): 0, (65, 42): 0, (66, 1): 0, (66, 2): 0, (66, 3): 0, (66, 4): 0, (66, 5): 0, (66, 6): 0, (66, 7): 0, (66, 8): 0, (66, 9): 0, (66, 10): 0, (66, 11): 0, (66, 12): 0, (66, 13): 0, (66, 14): 0, (66, 15): 0, (66, 16): 0, (66, 17): 0, (66, 18): 0, (66, 19): 0, (66, 20): 0, (66, 21): 0, (66, 22): 0, (66, 23): 0, (66, 24): 0, (66, 25): 0, (66, 26): 0, (66, 27): 0, (66, 28): 0, (66, 29): 0, (66, 30): 0, (66, 31): 0, (66, 32): 0, (66, 33): 1, (66, 34): 0, (66, 35): 0, (66, 36): 0, (66, 37): 0, (66, 38): 0, (66, 39): 0, (66, 40): 0, (66, 41): 0, (66, 42): 0, (67, 1): 0, (67, 2): 0, (67, 3): 0, (67, 4): 0, (67, 5): 0, (67, 6): 0, (67, 7): 0, (67, 8): 0, (67, 9): 0, (67, 10): 0, (67, 11): 0, (67, 12): 0, (67, 13): 0, (67, 14): 0, (67, 15): 0, (67, 16): 0, (67, 17): 0, (67, 18): 0, (67, 19): 0, (67, 20): 1, (67, 21): 0, (67, 22): 0, (67, 23): 0, (67, 24): 0, (67, 25): 0, (67, 26): 0, (67, 27): 0, (67, 28): 0, (67, 29): 0, (67, 30): 0, (67, 31): 0, (67, 32): 0, (67, 33): 0, (67, 34): 0, (67, 35): 0, (67, 36): 0, (67, 37): 0, (67, 38): 0, (67, 39): 0, (67, 40): 0, (67, 41): 0, (67, 42): 0, (70, 1): 0, (70, 2): 0, (70, 3): 0, (70, 4): 0, (70, 5): 0, (70, 6): 0, (70, 7): 0, (70, 8): 0, (70, 9): 0, (70, 10): 0, (70, 11): 0, (70, 12): 0, (70, 13): 0, (70, 14): 0, (70, 15): 0, (70, 16): 0, (70, 17): 0, (70, 18): 0, (70, 19): 0, (70, 20): 0, (70, 21): 0, (70, 22): 0, (70, 23): 0, (70, 24): 0, (70, 25): 0, (70, 26): 0, (70, 27): 0, (70, 28): 0, (70, 29): 0, (70, 30): 0, (70, 31): 0, (70, 32): 0, (70, 33): 0, (70, 34): 0, (70, 35): 0, (70, 36): 1, (70, 37): 0, (70, 38): 0, (70, 39): 0, (70, 40): 0, (70, 41): 0, (70, 42): 0, (71, 1): 0, (71, 2): 0, (71, 3): 0, (71, 4): 0, (71, 5): 0, (71, 6): 0, (71, 7): 0, (71, 8): 0, (71, 9): 0, (71, 10): 0, (71, 11): 0, (71, 12): 0, (71, 13): 0, (71, 14): 0, (71, 15): 0, (71, 16): 0, (71, 17): 0, (71, 18): 0, (71, 19): 0, (71, 20): 0, (71, 21): 0, (71, 22): 0, (71, 23): 0, (71, 24): 0, (71, 25): 0, (71, 26): 0, (71, 27): 0, (71, 28): 0, (71, 29): 0, (71, 30): 0, (71, 31): 0, (71, 32): 0, (71, 33): 0, (71, 34): 0, (71, 35): 0, (71, 36): 0, (71, 37): 0, (71, 38): 0, (71, 39): 0, (71, 40): 0, (71, 41): 1, (71, 42): 0, (73, 1): 0, (73, 2): 0, (73, 3): 0, (73, 4): 0, (73, 5): 0, (73, 6): 0, (73, 7): 0, (73, 8): 0, (73, 9): 0, (73, 10): 0, (73, 11): 0, (73, 12): 0, (73, 13): 0, (73, 14): 0, (73, 15): 0, (73, 16): 0, (73, 17): 0, (73, 18): 0, (73, 19): 0, (73, 20): 0, (73, 21): 0, (73, 22): 0, (73, 23): 0, (73, 24): 0, (73, 25): 0, (73, 26): 0, (73, 27): 0, (73, 28): 0, (73, 29): 0, (73, 30): 0, (73, 31): 0, (73, 32): 0, (73, 33): 0, (73, 34): 0, (73, 35): 0, (73, 36): 0, (73, 37): 0, (73, 38): 0, (73, 39): 0, (73, 40): 0, (73, 41): 0, (73, 42): 1, (75, 1): 0, (75, 2): 0, (75, 3): 0, (75, 4): 0, (75, 5): 0, (75, 6): 0, (75, 7): 0, (75, 8): 0, (75, 9): 0, (75, 10): 0, (75, 11): 0, (75, 12): 0, (75, 13): 0, (75, 14): 0, (75, 15): 0, (75, 16): 0, (75, 17): 0, (75, 18): 0, (75, 19): 0, (75, 20): 0, (75, 21): 0, (75, 22): 0, (75, 23): 0, (75, 24): 0, (75, 25): 0, (75, 26): 0, (75, 27): 1, (75, 28): 0, (75, 29): 0, (75, 30): 0, (75, 31): 0, (75, 32): 0, (75, 33): 0, (75, 34): 0, (75, 35): 0, (75, 36): 0, (75, 37): 0, (75, 38): 0, (75, 39): 0, (75, 40): 0, (75, 41): 0, (75, 42): 0, (77, 1): 0, (77, 2): 0, (77, 3): 0, (77, 4): 0, (77, 5): 0, (77, 6): 0, (77, 7): 0, (77, 8): 0, (77, 9): 0, (77, 10): 0, (77, 11): 0, (77, 12): 0, (77, 13): 0, (77, 14): 0, (77, 15): 0, (77, 16): 0, (77, 17): 0, (77, 18): 0, (77, 19): 0, (77, 20): 0, (77, 21): 0, (77, 22): 0, (77, 23): 0, (77, 24): 0, (77, 25): 0, (77, 26): 0, (77, 27): 0, (77, 28): 0, (77, 29): 0, (77, 30): 0, (77, 31): 0, (77, 32): 0, (77, 33): 0, (77, 34): 0, (77, 35): 0, (77, 36): 0, (77, 37): 0, (77, 38): 0, (77, 39): 0, (77, 40): 0, (77, 41): 0, (77, 42): 1, (78, 1): 0, (78, 2): 0, (78, 3): 0, (78, 4): 0, (78, 5): 0, (78, 6): 0, (78, 7): 0, (78, 8): 0, (78, 9): 0, (78, 10): 0, (78, 11): 0, (78, 12): 0, (78, 13): 0, (78, 14): 0, (78, 15): 0, (78, 16): 0, (78, 17): 0, (78, 18): 0, (78, 19): 1, (78, 20): 0, (78, 21): 0, (78, 22): 0, (78, 23): 0, (78, 24): 0, (78, 25): 0, (78, 26): 0, (78, 27): 0, (78, 28): 0, (78, 29): 0, (78, 30): 0, (78, 31): 0, (78, 32): 0, (78, 33): 0, (78, 34): 0, (78, 35): 0, (78, 36): 0, (78, 37): 0, (78, 38): 0, (78, 39): 0, (78, 40): 0, (78, 41): 0, (78, 42): 0, (79, 1): 0, (79, 2): 0, (79, 3): 0, (79, 4): 0, (79, 5): 0, (79, 6): 0, (79, 7): 0, (79, 8): 0, (79, 9): 0, (79, 10): 0, (79, 11): 0, (79, 12): 0, (79, 13): 0, (79, 14): 0, (79, 15): 0, (79, 16): 0, (79, 17): 0, (79, 18): 0, (79, 19): 0, (79, 20): 0, (79, 21): 0, (79, 22): 0, (79, 23): 0, (79, 24): 0, (79, 25): 1, (79, 26): 0, (79, 27): 0, (79, 28): 0, (79, 29): 0, (79, 30): 0, (79, 31): 0, (79, 32): 0, (79, 33): 0, (79, 34): 0, (79, 35): 0, (79, 36): 0, (79, 37): 0, (79, 38): 0, (79, 39): 0, (79, 40): 0, (79, 41): 0, (79, 42): 0, (81, 1): 0, (81, 2): 0, (81, 3): 0, (81, 4): 0, (81, 5): 0, (81, 6): 0, (81, 7): 0, (81, 8): 0, (81, 9): 0, (81, 10): 0, (81, 11): 0, (81, 12): 0, (81, 13): 0, (81, 14): 0, (81, 15): 0, (81, 16): 0, (81, 17): 1, (81, 18): 0, (81, 19): 0, (81, 20): 0, (81, 21): 0, (81, 22): 0, (81, 23): 0, (81, 24): 0, (81, 25): 0, (81, 26): 0, (81, 27): 0, (81, 28): 0, (81, 29): 0, (81, 30): 0, (81, 31): 0, (81, 32): 0, (81, 33): 0, (81, 34): 0, (81, 35): 0, (81, 36): 0, (81, 37): 0, (81, 38): 0, (81, 39): 0, (81, 40): 0, (81, 41): 0, (81, 42): 0, (82, 1): 0, (82, 2): 0, (82, 3): 0, (82, 4): 0, (82, 5): 0, (82, 6): 0, (82, 7): 0, (82, 8): 0, (82, 9): 0, (82, 10): 0, (82, 11): 0, (82, 12): 0, (82, 13): 0, (82, 14): 0, (82, 15): 1, (82, 16): 0, (82, 17): 0, (82, 18): 0, (82, 19): 0, (82, 20): 0, (82, 21): 0, (82, 22): 0, (82, 23): 0, (82, 24): 0, (82, 25): 0, (82, 26): 0, (82, 27): 0, (82, 28): 0, (82, 29): 0, (82, 30): 0, (82, 31): 0, (82, 32): 0, (82, 33): 0, (82, 34): 0, (82, 35): 0, (82, 36): 0, (82, 37): 0, (82, 38): 0, (82, 39): 0, (82, 40): 0, (82, 41): 0, (82, 42): 0}</t>
   </si>
   <si>
     <t>{(2, 1): 0, (2, 2): 0, (2, 3): 0, (3, 1): 0, (3, 2): 0, (3, 3): 0, (4, 1): 0, (4, 2): 0, (4, 3): 0, (9, 1): 0, (9, 2): 0, (9, 3): 0, (15, 1): 0, (15, 2): 0, (15, 3): 0, (16, 1): 0, (16, 2): 0, (16, 3): 0, (20, 1): 0, (20, 2): 0, (20, 3): 0, (21, 1): 0, (21, 2): 0, (21, 3): 0, (22, 1): 0, (22, 2): 0, (22, 3): 0, (23, 1): 0, (23, 2): 0, (23, 3): 0, (24, 1): 0, (24, 2): 0, (24, 3): 0, (25, 1): 0, (25, 2): 0, (25, 3): 0, (26, 1): 0, (26, 2): 0, (26, 3): 0, (28, 1): 0, (28, 2): 0, (28, 3): 0, (30, 1): 0, (30, 2): 0, (30, 3): 0, (31, 1): 0, (31, 2): 0, (31, 3): 0, (36, 1): 0, (36, 2): 0, (36, 3): 0, (37, 1): 0, (37, 2): 0, (37, 3): 0, (38, 1): 0, (38, 2): 0, (38, 3): 0, (39, 1): 0, (39, 2): 0, (39, 3): 0, (40, 1): 0, (40, 2): 0, (40, 3): 0, (41, 1): 0, (41, 2): 0, (41, 3): 0, (43, 1): 0, (43, 2): 0, (43, 3): 0, (50, 1): 0, (50, 2): 0, (50, 3): 0, (59, 1): 0, (59, 2): 0, (59, 3): 0, (60, 1): 0, (60, 2): 0, (60, 3): 0, (62, 1): 0, (62, 2): 0, (62, 3): 0, (63, 1): 0, (63, 2): 0, (63, 3): 0, (65, 1): 0, (65, 2): 0, (65, 3): 0, (66, 1): 0, (66, 2): 0, (66, 3): 0, (67, 1): 0, (67, 2): 0, (67, 3): 0, (70, 1): 0, (70, 2): 0, (70, 3): 0, (71, 1): 0, (71, 2): 0, (71, 3): 0, (73, 1): 0, (73, 2): 0, (73, 3): 0, (75, 1): 0, (75, 2): 0, (75, 3): 0, (77, 1): 0, (77, 2): 0, (77, 3): 0, (78, 1): 0, (78, 2): 0, (78, 3): 0, (79, 1): 0, (79, 2): 0, (79, 3): 0, (81, 1): 0, (81, 2): 0, (81, 3): 0, (82, 1): 0, (82, 2): 0, (82, 3): 0}</t>
@@ -836,13 +842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DT2"/>
+  <dimension ref="A1:DU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:124">
+    <row r="1" spans="1:125">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,369 +1221,378 @@
       <c r="DT1" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="2" spans="1:124">
+    <row r="2" spans="1:125">
       <c r="A2">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>0.02</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
       </c>
       <c r="F2">
         <v>0.01</v>
       </c>
       <c r="G2">
+        <v>0.01</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5</v>
-      </c>
-      <c r="O2">
-        <v>21</v>
       </c>
       <c r="P2">
         <v>21</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>21</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>21</v>
+      </c>
+      <c r="V2">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>19</v>
+      </c>
+      <c r="AA2">
+        <v>60.54642105102539</v>
+      </c>
+      <c r="AB2">
+        <v>0.6393051147460938</v>
+      </c>
+      <c r="AC2">
+        <v>42.33268976211548</v>
+      </c>
+      <c r="AD2">
+        <v>0.007578849792480469</v>
+      </c>
+      <c r="AE2">
+        <v>19.98703002929688</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>40.98902797698975</v>
+      </c>
+      <c r="AH2">
+        <v>17.56684732437134</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ2">
+        <v>44</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL2">
+        <v>18</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>19</v>
+      </c>
+      <c r="BO2">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="BP2">
+        <v>94.73684210526315</v>
+      </c>
+      <c r="BQ2">
+        <v>6</v>
+      </c>
+      <c r="BR2">
+        <v>8</v>
+      </c>
+      <c r="BS2">
+        <v>52</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0.5057126275992158</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0.5075500204164625</v>
+      </c>
+      <c r="BZ2">
+        <v>0.25</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>2</v>
+      </c>
+      <c r="CC2">
+        <v>0.5</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>6</v>
+      </c>
+      <c r="CF2">
+        <v>5</v>
+      </c>
+      <c r="CG2">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="CH2">
         <v>3</v>
       </c>
-      <c r="U2">
+      <c r="CI2">
         <v>5</v>
       </c>
-      <c r="V2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" t="b">
+      <c r="CJ2">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>143</v>
+      </c>
+      <c r="CM2">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>3.052764177322388</v>
-      </c>
-      <c r="AA2">
-        <v>0.04080820083618164</v>
-      </c>
-      <c r="AB2">
-        <v>2.771916627883911</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>2.662731885910034</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0.2400393486022949</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI2">
-        <v>44</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>214</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>214</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>100</v>
+      </c>
+      <c r="CT2">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="CU2">
+        <v>85</v>
+      </c>
+      <c r="CV2">
+        <v>380</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0.1010200326653601</v>
+      </c>
+      <c r="CY2">
+        <v>0.5051001633268003</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>159</v>
+      </c>
+      <c r="DF2">
+        <v>3.975</v>
+      </c>
+      <c r="DG2">
+        <v>3</v>
+      </c>
+      <c r="DH2">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="DI2">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>10</v>
+      </c>
+      <c r="DL2">
+        <v>10.2</v>
+      </c>
+      <c r="DM2">
+        <v>8.5</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>27</v>
+      </c>
+      <c r="DP2">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="DQ2">
+        <v>6.407407407407407</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="s">
         <v>143</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK2">
-        <v>19</v>
-      </c>
-      <c r="BL2">
-        <v>2</v>
-      </c>
-      <c r="BM2">
-        <v>21</v>
-      </c>
-      <c r="BN2">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="BO2">
-        <v>90.47619047619048</v>
-      </c>
-      <c r="BP2">
-        <v>6.333333333333333</v>
-      </c>
-      <c r="BQ2">
-        <v>11</v>
-      </c>
-      <c r="BR2">
-        <v>52</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0.5063250918716313</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0.5075500204164625</v>
-      </c>
-      <c r="BY2">
-        <v>0.5</v>
-      </c>
-      <c r="BZ2">
-        <v>1</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>1</v>
-      </c>
-      <c r="CD2">
-        <v>6</v>
-      </c>
-      <c r="CE2">
-        <v>5</v>
-      </c>
-      <c r="CF2">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="CG2">
-        <v>3</v>
-      </c>
-      <c r="CH2">
-        <v>5</v>
-      </c>
-      <c r="CI2">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="CJ2">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>141</v>
-      </c>
-      <c r="CL2">
-        <v>1</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>233</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>233</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>100</v>
-      </c>
-      <c r="CS2">
-        <v>77.66666666666666</v>
-      </c>
-      <c r="CT2">
-        <v>96</v>
-      </c>
-      <c r="CU2">
-        <v>380</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0.07576502449902003</v>
-      </c>
-      <c r="CX2">
-        <v>0.5051001633268003</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DD2">
-        <v>118</v>
-      </c>
-      <c r="DE2">
-        <v>2.95</v>
-      </c>
-      <c r="DF2">
-        <v>3</v>
-      </c>
-      <c r="DG2">
-        <v>19</v>
-      </c>
-      <c r="DH2">
-        <v>19.33333333333333</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DJ2">
-        <v>10</v>
-      </c>
-      <c r="DK2">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="DL2">
-        <v>8.5</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DN2">
-        <v>27</v>
-      </c>
-      <c r="DO2">
-        <v>7.185185185185185</v>
-      </c>
-      <c r="DP2">
-        <v>6.407407407407407</v>
-      </c>
-      <c r="DQ2">
-        <v>0</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>141</v>
-      </c>
-      <c r="DS2">
-        <v>0</v>
-      </c>
       <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
         <v>0</v>
       </c>
     </row>
